--- a/기사데이터/토스/엑셀파일/news(토스, 2022.12.16~2022.12.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.12.16~2022.12.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.12.30.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>5%짜리 파킹통장 나왔다.. 하루만 맡겨도 은행예금보다 더 받아</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004949165?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>예금금리 하락속 저축은행 자금유치 경쟁0.1%p에 예민한 '금리노마드족' 움직일듯 저축은행들의 수시입출금통장 금리가 잇달아 올라 은행권 정기예금 수준까지 치솟았다. /뉴시스 [파이낸셜뉴스] 하루만 맡겨도 이자를 받을 수 있는 '파킹통장' 금리가 잇달아 오르면서 은행권 정기예금 수준에 육박하고 있다. 시중은행의 예금금리 인상이 주춤하면서 '파킹통장 금리는 은행권 정기예금 수준인 연 4~5%대로 뛰었다.   30일 금융업계에 따르면 최근 OK저축은행이 최고 연 5% 금리를 적용하는 수시입출금통장을 내놓은데 이어 애큐온저축은행은 내년부터 금리를 인상하기로 하는 등 파킹통장 유치 경쟁이 치열해지고 있다.     금리 5% 대 파킹통장 등장     지난 26일 출시된 'OK읏백만통장Ⅱ'은 넣어놓은 돈을 언제든 찾아 쓸 수 있는 파킹통장이다. 500만원까지 최고 5%의 금리를 적용한다. 기본금리는 연 4.5%로 오픈뱅킹 등록 시 0.5%p의 우대금리가 추가된다. 500만원 초과 5000만원까지는 최고 연 4%의 금리를 적용한다. OK저축은행은 기존 상품인 'OK세컨드통장' 금리도 5000만원까지 최고 연 4%로 상향 조정했다.   애큐온저축은행은 모바일앱 전용 파킹통장 상품 ‘머니쪼개기’ 금리를 내년 1월 2일부터 연 4.3%로 올린다. 현재는 연 4.0%를 적용하고 있다.   페퍼저축은행도 연 3.5% 금리가 적용되는 '페퍼스 파킹통장2'를 선보였다. 최고 금리를 받기 위해 맞춰야 하는 복잡한 우대 금리 조건이 없으며, 가입 금액에도 제한이 없다.   앞서 인터넷은행들도 파킹통장 금리를 인상하며 경쟁에 나섰다. 토스뱅크는 13일부터 수시입출금 통장인 '토스뱅크 통장'의 금리를 5000만원 초과분에 한해 연 4%로 높였다. 수시입출금 통장 외에 정기예금 상품이 없는 토스뱅크는 해당 통장에 연 2.3% 금리를 제공해왔다. 5000만원 이하 금액에는 기존 연 2.3% 금리가 적용된다. 해당 통장에 1억원을 예치하면 5000만원까지 연 2.3%, 나머지 5000만원에는 연 4% 금리가 제공되면서 실제 적용 금리는 연 3.15%가 된다.   케이뱅크도 파킹통장인 '플러스박스' 금리를 연 2.7%에서 연 3.0%로 0.3%p 인상했다.     은행 정기예금은 5→4%대로 하락  단기 여유자금을 고금리 입출금상품에 넣어두려는 수요가 늘어나면서 파킹통장의 금리를 올린 것이다. 파킹통장 최고 금리는 주요 시중은행의 1년 만기 정기예금보다도 높은 수준이다. 최근 시중은행 정기예금 금리가 답보 상태에 빠지면서 이를 관망하는 자금 수요도 늘어나는 분위기다.   파킹통장은 하루만 맡겨도 이자를 받을 수 있다. 금리가 인상되면 재가입 등 별도 절차 없이 인상된 금리가 적용된다. 다른 상품으로 자금을 옮기기도 쉽다.   다만 자금 이동이 쉬운 특성 탓에 금리 변동에 민감할 수 밖에 없다. 저축은행 관계자는 "특히 저축은행을 이용하는 고객은 금리 민감도가 높아 금리가 0.1%p라도 높은 상품이 나오면 쉽게 이동하는 경향이 있다"면서 "저축은행권에서도 인터넷은행의 파킹통장 금리를 의식할 수밖에 없다"고 말했다.   한편 금융당국의 인상 자제 권고에 기준금리 인상에도 불구하고 정기예금 금리는 연일 하락세다. 주요 시중은행 예금금리는 연 5%대에서 4%대로, 저축은행 예금금리는 6%대에서 5%대로 내렸다.   은행연합회 소비자포털에 따르면 KB국민·신한·하나·우리은행의 주요 정기예금(12개월) 금리는 28일 기준 연 4.27~4.63%다. 우리은행 'WON플러스예금' 연 4.63%, 하나은행 '하나의정기예금' 연 4.60%, 신한은행 '쏠편한 정기예금' 연 4.50%, 국민은행 'KB Star 정기예금' 연 4.27% 등이다.   저축은행중앙회가 집계한 전국 79개 저축은행의 정기예금 금리 상단은 연 5.70%다. 평균 금리는 연 5.39%로 한 달 전(5.53%)보다 0.14%p 낮아졌다. #기준금리인상 #파킹통장 #예금금리 #저축은행금리</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.12.24.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>단백질 거리 좁혀 늘푸른 솔잎처럼, 합심해야 환한 세상</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000043855?sid=102</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>━   인문학자의 과학 탐미      미국의 크리스마스트리 농장 풍경. [중앙포토]           “소나무야 소나무야 언제나 푸른 네 빛.” 이 곡은 독일에서 가장 사랑받는 크리스마스캐럴 ‘오, 탄넨바움(Tannenbaum)’을 번안한 노래다. 가사는 원래 전나무를 말한다. 전나무나 소나무와 같은 상록침엽수는 겨울에도 초록색 잎을 갖기 때문에 크리스마스트리에 적합하다. 그렇다면 이 나무들의 잎이 사시사철 초록색인 이유는 뭘까?      우선 나뭇잎이 초록색으로 보이는 이유는, 우리가 익히 알고 있듯 엽록체 때문이다. 나뭇잎을 즙을 내서 걸러낸 후 원심 분리하면 초록색을 띠는 부분, 즉 엽록체만 가라앉는다. 이것을 전자현미경으로 보면 내부의 내용물들을 충격으로부터 누그러지게 하는 스트로마(stroma)가 있고, 그 내부에 얇은 원판 모양의 주머니들이 여러 겹으로 포개져 있는 틸라코이드(thylakoid)가 있다. ‘스트로마’는 그리스어로 ‘침대용 깔개’를 뜻하고, ‘틸라코이드’는 그리스어로 ‘틸라코스’와 ‘오이드’가 결합된 말로 ‘작은 주머니’와 ‘닮은 것’을 말한다. 작은 주머니들을 외부 충격으로부터 보호하는 이미지로 엽록체를 상상하여 이런 이름이 붙여진 것이다.      이중 선명한 초록색은 틸라코이드에서 보이는데 이것을 색층 분석하면 청록색, 초록색, 그리고 노란색과 주황색의 색소로 분리된다. 청록색 색소를 엽록소a, 초록색 색소를 엽록소b, 노란색과 주황색 색소를 카로티노이드(carotenoid·라틴어로 ‘카로타’는 당근을 뜻함)라고 한다.      나뭇잎이 초록색인 이유는 엽록소a와 엽록소b 때문이며, 가을 나뭇잎에 붉은 단풍이 드는 것은 기온이 낮아지면서 엽록소가 먼저 파괴되고 카로티노이드만 남기 때문이다. 하지만 상록침엽수는 겨울이 되어도 엽록소가 파괴되지 않아서 계속 초록색을 유지한다.    엽록소, 인간 헤모글로빈과 구조 비슷     상록침엽수의 엽록소가 겨울에도 파괴되지 않는 이유를 알기 위해서는, 우선 엽록소의 구조 및 광합성 과정을 알아야 한다. 엽록소의 화학적 구조는 취리히대학교 교수였던 리하르트 빌슈태터에 의해 발견됐다. 이 공로로 그는 식물학 분야로서는 처음으로 1915년 노벨화학상을 받았는데, 특히 엽록소와 헤모글로빈(hemoglobin)과의 유사성을 밝혀냈다. ‘헤모(hemo-)’는 ‘혈액’을 뜻하는 그리스어 ‘하이마토스’에서 왔고, 단백질을 의미하는 ‘글로빈’과 결합되어 ‘헤모글로빈’은 ‘혈액 단백질’을 뜻한다.      미국의 화학자 멜빈 캘빈. 식물이 물과 이산화탄소를 이용해 유기물을 합성하는 과정을 밝혀냈다. [중앙포토]           리하르트 외에도 독일의 생화학자 한스 피셔는 1930년 헤모글로빈이 산화되어 생기는 색소인 헤민(hemin)의 성분을 분석하여 혈색소의 구조를 밝혀낸 공로로 노벨화학상을 받았으며, 미국의 멜빈 캘빈은 1961년 엽록소가 빛에너지로 물과 이산화탄소를 산소와 유기물로 바꾸는 과정을 밝혀낸 공로로, 또한 독일의 요한 다이젠호퍼와 로베르트 후버, 하르트무트 미헬은 1988년 광합성반응센터의 3차원 구조를 규명한 공로로 각각 노벨화학상을 수상했다.      이런 연구들을 통해 엽록소는 식물이 초록색으로 보이게 하는 것 외에도, 빛을 흡수해서 물과 이산화탄소를 재료로 산소와 포도당을 생산하는 광합성을 한다는 사실이 알려졌다. 이 과정을 나누어 명반응과 암반응(멜빈 캘빈의 이름을 따서 ‘켈빈 회로’라고도 함)이라고 하는데, 명반응은 빛에너지와 물을 화학에너지와 산소로 변환케 하는 것으로 엽록체 속에 있는 틸라코이드 막에서 이루어진다. 반면에 암반응은 엽록체의 완충부분인 스트로마에서 탄수화물을 생성케 한다. 명반응에서 틸라코이드에 있는 엽록소는 빛을 받아들이는 기능과 그 빛의 에너지를 붙잡아 두는 기능을 하는 두 가지 복합체가 있는데, 하나는 빛의 파장을 잘 잡아낸다고 하여 ‘안테나복합체’라고 하고 또 하나는 빛으로 높아진 에너지의 반응이 일어난다고 하여 ‘반응중심복합체’라고 한다. 이 반응 이후 스트로마에서 이 에너지를 필수 생존 에너지로 삼는 암반응으로 포도당까지 생성하는데, 이 전체 과정이 바로 광합성이다.      대부분의 엽록소가 겨울에 파괴되는 이유는 식물의 틸라코이드 막에 있는 단백질이 손상되기 때문이다. 이것이 다량으로 손상되면 엽록소도 파괴된다. 틸라코이드 막에는 단백질 복합체가 두 개 있는데, 광계 I과 광계 II라고 한다. 광계 II에서 한편으로 식물에 흡수된 빛은 엽록소에 전달되며, 또 한편으로 식물 내부에 있던 물분자(H₂O)가 분해되면서 산소가 발생한다. 여기서 생성된 전자가 이동하면 ATP(adenosine triphosphate·아데노신 삼인산)라는 에너지 전달 물질이 만들어진다.      이것은 광계 I에서 빛을 흡수한 엽록소로 전달되면서 전자가 흥분 상태로 들떴다가 떨어지게 되는데, 결과적으로 NADPH가 생성되도록 한다. 암반응이 일어나는 스트로마에서 한편으로 NADPH는 양성자(수소 양이온, H+)를 공급하고, 다른 한편으로 ATP가 에너지를 공급하면서 포도당이 생성된다. 상록침엽수 이외의 나무들은 광계 I과 광계 II 사이의 간격이 벌어져 있는데 거기에 있는 단백질이 손상되어 엽록소가 파괴되고 그것 때문에 초록색을 유지하지 못한다.      그렇다면 과연 무엇이 틸라코이드 막에 있는 단백질에 손상을 입히는 것일까? 범인은 바로 남아도는 빛에너지. 겨울에는 엽록소가 빛에너지를 흡수만 하고 기온이 낮은 관계로 다음 단계의 생화학 반응이 일어나지 않는다. 엽록소가 흡수한 빛에너지는 광합성에 쓰이지 못하고 남게 되는데, 남은 빛에너지가 도리어 광계들 사이에 포함된 다량의 단백질들에 피해를 주고 엽록소를 파괴하는 것이다.    갈등 딛고 함께 웃는 ‘푸른 새해’ 되길     독일의 유기화학자 한스 피셔. 혈색소의 구조를 밝혀 낸 공로로 노벨화학상을 받았다. [중앙포토]           하지만 상록침엽수는 기온이 낮아지더라도 단백질이 손상되지 않으며 엽록소가 기능을 잃지도 않는다. 스웨덴 우메오대학교의 스테판 얀센 교수에 따르면 겨울철에 빛에너지로부터 피해를 막는 “보호 장치”가 소나무에서 만들어지기 때문이다. “광계 II와 광계 I 단백질 복합체 사이의 거리 감소는 광계 II에서 광계 I로 에너지를 직접 전달할 확률을 증가시킨다. (……) 이 보호 장치는 북반구의 혹독한 겨울철 소나무 생존에 중요한 역할을 한다.”      얀센 교수는 『소나무에 있어서 광계 II에서 광계 I로의 직접적 에너지 전달』(NATURE COMMUNICATIONS, 2020. 11)이라는 논문에서 혹독한 겨울철 상록침엽수의 경우 두 광계가 서로 거리를 좁히면서 반응을 일으키는 빛에너지가 직접 전달되어 둘 사이의 단백질에 전혀 피해를 주지 않을 뿐만 아니라, 엽록소도 파괴되지 않는다고 주장했다. 얀센 교수는 이것을 “보호 장치”라 한다. 이 장치 덕에 상록침엽수는 겨울철에도 초록색을 유지하며 광합성을 계속 하고 있는 것이다.      위에서 언급한 리하르트와 피셔의 연구에 따르면, 엽록소의 중심원소는 마그네슘(Mg)이고 헤모글로빈의 경우는 철(Fe)인 것만 제외하면 두 색소는 동일한 구조를 가진다. 엽록소는 에너지와 포도당을 얻게 하고 헤모글로빈은 척추동물의 신체 내부에 산소를 운반한다. 두 색소 모두 동식물의 생명 유지를 위해 꼭 필요하다. 인간을 비롯한 동물은 다른 생명체를 먹지 않고서는 살 수 없으므로 ‘종속영양생물(heterotroph·그리스어로 ‘다른-양분’을 뜻함)’인 반면, 식물은 자신에게 필요한 양분을 엽록소를 통해 스스로 생산하므로 다른 생명체에 의존하지 않고서도 살아갈 수 있는 ‘독립영양생물(autotroph·그리스어로 ‘자기-양분’을 뜻함)’이다. 한낱 공상에 지나지 않을 것 같지만 헤모글로빈 이외에 엽록소를 가진 ‘엽록소 인간’이 존재한다면 에너지와 영양 공급에 큰 도움을 얻을 것이다. 하지만 현재까지는 그럴 수 없다.      그런데 실제 생태계 중에는 광합성을 이용하는 동물들이 있다. 2015년 학계에 발표된 해양생물인 푸른민달팽이는 나뭇잎을 닮은 자신의 몸에 직접 엽록소를 지닌 채 광합성을 하는 것으로 밝혀졌다. 아직까지는 이 외의 동물이 엽록소를 갖기는 불가능하지만 바다 동물인 산호와 도롱뇽은 엽록소를 가진 미세조류와 식물성 플랑크톤과의 공생을 통해 광합성 에너지를 얻는다. 반면 미세조류와 플랑크톤은 서식지와 광합성을 위한 화합물을 제공받으면서 공생하고 두 개체는 함께 있을 때 생존할 가능성이 더욱 높아진다.      이제 정리해 보자. “쓸쓸한 가을날이나 눈보라 치는 날에도” 소나무가 언제나 푸르른 이유는, 우선 사시사철 틸라코이드 주머니 속에 있으면서 엽록소를 포근한 담요처럼 감싸주는 스트로마의 완충 효과, 그리고 틸라코이드 막에 있는 두 광계들 사이의 거리 좁힘이 있었기 때문이다. 이것은 비단 소나무만의 일은 아닌 것 같다. 혹독한 한파 속에서도 담요처럼 따뜻한 보호와 서로 다른 존재 사이의 거리 좁힘이 있을 때 그 사회는 푸르름을 유지할 수 있다.      또한 바다 동물 산호와 도롱뇽이 생존의 가능성을 높이기 위해 광합성 식물과 공생하듯 우리도 나와 다른 처지의 이웃들에게 다가가 거리를 좁히고 따뜻한 마음으로 보호하며 공존할 때 더 이상 스크루지 영감도 없고 성냥팔이 소녀도 없는 푸른 세상이 될 것이다. 그때에야 비로소 “거리마다 오고 가는 많은 사람들이 웃으면서… 아이들도 노인들도” 마음을 모아 함께 “은종을 만들어 거리마다 크게 울리”게 될 것이다.      2023년 새해는 모든 갈등을 딛고 웃으면서 함께 만드는 푸르른 한 해, 아름다운 은빛 소식들로 가득한 한해가 되기를 소원한다.                 김동훈 인문학자. 서양고전학자·철학자. 서울대와 고려대에서 희랍과 로마문학 및 수사학, 철학을 공부했다. 희랍어와 라틴어 및 고전과 인문학을 가르친다. 인문학의 서사를 담아 사회적 가치를 실현하는 ‘퓨라파케’ 대표. 『인공지능과 흙』 『브랜드 인문학』 『키워드 필로소피』  『별별명언』  등을 썼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>이혜민 추진력+박홍민 꼼꼼함… ‘핀다’ 제2의 ‘토스’ 될까</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/262/0000016145?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>● 실리콘밸리에서 만난 1980년대생 의기투합● 출범 7년, 서비스 3년 만에 빅3로 성장● 기준금리 3% 시대, 대출 갈아타기 수요 급증● 금융기관 심사 데이터 활용 정확도 높여● 자동차금융·부동산평가 등 영역 확대로 차별화이혜민 핀다 공동대표(왼쪽)와 박홍민 공동대표. [핀다]10년 만에 기준금리 3% 시대가 열렸다. 한국은행은 2022년에만 모두 7차례 기준금리를 인상했다. 2021년까지 0.5%이던 기준금리는 14개월 만에 3.25%까지 높아졌다. 2023년 상반기까지 0.25∼0.50%포인트 더 오를 것이란 전망도 나온다.이자 부담이 커지면서 기존에 받은 대출보다 더 좋은 조건으로 갈아타려는 소비자도 늘어나고 있다. 자연스럽게 대출상품 금리와 한도를 한 번에 비교할 수 있는 대출 비교 서비스의 수요도 높아졌다.금융 정보 비대칭에 주목해 탄생현재 대출 비교 플랫폼 시장은 토스, 카카오페이, 핀다의 3파전 양상을 보이고 있다. 이 가운데 가장 늦게 출발한 핀다는 출범 7년, 서비스 시작 3년 만에 굴지의 빅테크와 어깨를 나란히 하는 수준으로 성장했다.핀다의 부상은 갑작스럽지 않다. 오랜 기간 갈고닦은 내공과 타이밍이 만난 결과다. 2년 전부터 금융권 일각에선 “핀다가 제2의 토스가 될 것”이란 말이 조금씩 흘러나오기 시작했다. 핀다는 토스와 같은 길을 갈 수 있을까.핀다는 대출 비교 플랫폼을 운영하는 핀테크 기업으로 2015년 설립됐다. 사용자는 핀다 애플리케이션(앱)에서 제휴된 금융회사의 대출 조건을 조회하고 금리와 한도 순서로 조건에 맞는 대출을 찾아볼 수 있다. 흩어진 대출 정보를 한곳에서 모아 보거나 더 유리한 대환대출 조건 등도 확인할 수 있다.핀다는 판매자와 구매자, 공급자와 수요자 사이 정보의 비대칭에 주목한 서비스다. 실제 공동 창업자 2명이 대출 과정에서 금융 정보 부족으로 설움을 겪은 데서 아이디어를 착안해 사업을 시작했다.현재 시장을 선도하는 3사 가운데 토스가 점유율 40%대로 가장 앞서 나가고 있다. 카카오페이가 30%대, 핀다가 10%대인 것으로 추정된다. 점유율만 보면 사실상 3곳이 대출 비교 시장을 장악하고 있다.시장규모는 날이 갈수록 커지고 있다. 김한규 더불어민주당 의원실 자료에 따르면 3사의 금융상품 중개 건수는 2020년 17만2842건에서 2021년 80만9687건으로 1년 만에 4.6배나 급증했다. 기준금리 인상이 본격화한 2022년에는 이를 훌쩍 뛰어넘는 성장세를 기록했을 것으로 추정된다.핀다의 성장은 기본적으로는 외부 환경의 변화에서 비롯됐다. 코로나19 여파로 많은 사람이 금융기관 업무를 볼 때도 비대면을 선호하면서 핀다에 길이 열렸다. 핀다와 손잡으려는 금융회사가 하나둘 늘어났다. 또 대출총량 규제가 강화된 점 역시 영향을 미쳤다.핵심에 집중, ‘가장 정확하다’는 강점그러나 이것만으로는 핀다의 급성장이 설명되지 않는다. 핀다의 경쟁력은 우선 가장 많은 제휴사를 보유하고 있다는 데서 나온다. 핀다에서는 모두 62개 금융회사의 대출상품을 한 번에 비교할 수 있다. 카카오페이는 57개, 토스는 54개 금융회사와 제휴했다.핀다가 내세우는 강점은 정확성이다. 금융기관에서 실제 심사에 쓰는 데이터를 활용하다 보니 대출 심사와 관련해 정확도가 높다는 설명이다. 핀다를 이끄는 박홍민 대표와 이혜민 대표 모두 여러 번의 창업과 실패를 경험하면서 ‘본질이 중요하다’는 교훈을 얻었다. 그러면서 자연스럽게 서비스의 핵심에 집중했다.사업이 어느 정도 정상 궤도에 다다른 지금도 다르지 않다. 여전히 핀다의 가장 큰 관심은 더 싸고, 더 빠르고, 더 정확한 대출 비교 서비스 개발에 있다. 정확도를 높이기 위한 프로젝트도 지속적으로 진행한다.핀다는 2015년 출범해 2016년부터 웹을 기반으로 금융상품 정보를 제공하는 서비스를 시작했다. 당시엔 개인정보를 취급할 수 없었고 1개 금융회사의 대출상품만 취급해야 하는 ‘1사 전속주의’ 때문에 지금과 같은 서비스는 제공할 수 없었다. 그러다가 2019년 금융위원회 혁신금융서비스에 대출 비교 플랫폼 1호로 선정됐고, 가장 먼저 앱 서비스를 선보였다. 초창기 4년 동안 제대로 된 사업을 펼치지 못했지만 그사이 조용히 내공을 쌓았다.핀다의 성장 속도는 회사 규모로 간단하게 확인된다. 2021년 6월 50명대에 그친 임직원 수는 현재 150명에 이른다. 10월 기준 누적 대출 조회 건수는 690만 건, 누적 대출 승인액은 1417조 원에 이른다. 앱에 가입한 누적 회원 수도 150만 명에 이른다.2021년 누적 174억 원 규모의 시리즈B 투자를 유치한 핀다는 현재 시리즈C 투자 유치를 진행하고 있다. 기관투자자를 대상으로 투자설명회(IR)를 진행하는 것으로 알려졌다. 이번에 핀다가 투자자들에게 제시하고 있는 기업가치는 6000억 원 수준이다. 2021년 1월 1000억 원의 기업가치를 인정받은 지 채 2년도 지나지 않았는데 무려 6배 높아졌다. 이번 투자 유치는 회사의 운영자금이 필요해서라기보다는 인수합병(M&amp;A) 등 다양한 사업 전략을 고려하기 위한 것으로 전해진다.다만 금융시장 불안과 투자 위축으로 핀다가 제시한 6000억 원이 다소 높다는 의견도 있다. 기본적으로 중개수수료에만 기대는 핀다의 수익모델에 대한 의구심도 나온다.대출 비교 플랫폼 ‘핀다’는 출범 7년, 서비스 시작 3년 만에 굴지의 빅테크와 어깨를 나란히 하는 수준으로 성장했다. [핀다]네이버도 등판, 경쟁 심화 예고앞으로의 시장 상황은 더욱 만만치 않다. 대출 비교 플랫폼 시장의 경쟁은 더욱 치열해질 것으로 전망된다. 토스, 카카오페이에 이어 또 다른 빅테크인 네이버도 이 시장에 가세했기 때문이다.네이버파이낸셜은 2022년 11월 말 신용대출 상품 금리와 한도를 비교할 수 있는 ‘네이버페이 신용대출비교’ 서비스를 시작했다. 현재 7개 시중은행을 포함해 50개 금융회사가 입점해 있다. 2023년 1월까지 7개 금융회사가 더 합류한다.압도적인 플랫폼 지배력을 가진 네이버가 참전하면서 시장에 지각변동이 일어날 것이라는 전망이 벌써부터 나온다. 주요 시중은행이 핀다를 비롯해 대출 비교 플랫폼과 제휴를 맺지 않으면서 ‘팥 없는 찐빵’이라는 지적도 나온다. 주요 시중은행은 대출 비교 플랫폼과 서비스 제휴에 소극적이다. 해당 서비스를 이용하는 은행 고객이 적다는 게 가장 큰 이유다. 1금융권 고객들이 해당 은행이 아닌 다른 플랫폼을 이용해 대출을 받는 경우가 많지 않기 때문에 은행 입장에서 해당 서비스와 제휴해야 할 필요성을 못 느끼고 있다는 설명이다. 플랫폼 주도권을 핀테크 기업에 내주지 않겠다는 의도 역시 숨어 있다.핀다는 서비스 개시 이후부터 꾸준히 시중은행과 제휴를 확대하기 위해 힘쓰고 있다. 현재 카카오페이와 토스가 신한은행·우리은행·하나은행과 제휴를 맺었고, 핀다는 하나은행과만 제휴했다. 네이버는 우리은행과 하나은행이 입점한 상태로 시작했다. 시중은행이 대출 비교 플랫폼과 손잡는 것을 주저하는 만큼 이들을 얼마나 끌어들일 수 있을지가 서비스의 본질 경쟁력을 좌우할 것으로 보인다.서비스 자체가 극복해야 할 한계도 있다. 플랫폼이 제시하는 금리는 소비자의 신용이나 소득, 주거래 은행일 경우 받는 우대금리 등을 제대로 반영하지 못한다. 또 플랫폼과 제휴한 금융회사의 상품만 추천한다는 한계도 있다. 금융감독원은 최근 “플랫폼의 비교·추천 결과가 이용자 본인에게 최저금리 또는 최적의 조건을 보장하는 것이 아님을 유의하라”는 보도자료를 내기도 했다.“대출의 모든 영역 다루는 게 목표”대출 비교 플랫폼은 기본적으로 서비스 격차가 그리 크지 않다. 핀다가 차별화 전략을 고민한 이유도 여기에 있다. 핀다는 다양한 소비자의 대출 수요에 부응하기 위해 사업 영역을 넓힌다는 계획이다. 궁극적으로는 대출의 모든 영역을 다루는 게 목표다.핀다는 앞서 2022년 7월 빅데이터 상권분석 스타트업 ‘오픈업’ 지분 100%를 인수했다. 그동안 직장인 신용대출에 집중하던 플랫폼 서비스를 프리랜서, 소상공인 등 사업자 대상으로 본격 확대하기 위해서다. 오픈업이 갖고 있는 8400만 개의 매출 데이터와 매월 새롭게 생성되는 70만 개의 데이터를 분석해 소상공인에게 실질적 도움을 주는 정보와 분석 서비스를 개발하겠다는 목표다.자동차 금융에도 도전하고 있다. 앞서 4월 현대차, 기아, 하나은행과 손잡고 ‘커넥티드카 1Q 오토론’을 선보였다. 현대차와 기아의 신차를 구매할 때 최장 120개월 분할 상환할 수 있고, 최대 1.4%까지 금리 할인이 적용되는 전용 상품이다. 자동차 구입 자금 마련을 위해 핀다를 찾는 사람이 많다는 점에 착안해 설계됐다.2022년 10월 BNK캐피탈과 함께 ‘자동차 금융 플랫폼 활성화’를 위한 전략적 업무협약(MOU)도 체결했다. 핀다의 혁신 기술 및 데이터 경쟁력을 통해 새로운 자동차 금융서비스를 고객에 제공하는 것이 목표다.최근에는 인공지능(AI) 기반 부동산 가치평가 전문 스타트업 ‘공간의가치’에도 투자했다. 대출 담보 대상을 아파트에서 빌라와 상가건물까지 확장하면서 대출 정확도를 높이고 범위를 넓히기 위한 행보라는 해석이 나왔다. 정확한 투자 금액은 알려지지 않았다.7년 넘게 공동대표… 역할 분담이 비결핀다는 박홍민 대표와 이혜민 대표가 의기투합해 세웠다. 두 사람은 2015년부터 지금까지 공동대표로 호흡을 맞추고 있다. 인연은 실리콘밸리의 유명 벤처캐피털(VC) ‘500스타트업’에서 시작됐다.박 대표는 500스타트업의 엑셀러레이션 프로그램을 받던 파일 공유 앱 ‘선샤인’에서 최고마케팅책임자(CMO)로 근무했다. 이 대표는 500스타트업의 어드바이저로 일하고 있었다. 둘은 한국에서 대출받기 어려워 고생한 서로의 경험을 공유하다가 한국에 들어와 함께 창업하기로 결심했다.박 대표는 서울대 경제학과를 졸업하고 미국 펜실베이니아대 석사과정에서 도시계획을 전공했다. 미래에셋자산운용에서 펀드매니저로 일한 후 여러 차례 창업과 실패를 맛봤다. 이 대표는 고려대 서어서문학과를 졸업하고 STX지주회사 신사업전략기획실에서 근무하다 돌연 창업 전선에 뛰어들었다. 샘플 화장품 정기배송 서비스 ‘글로시박스’와 유아용품을 정기배송하는 ‘베베앤코’가 대표적이다. 건강관리 서비스 ‘눔(Noom)’의 한국법인 대표도 맡아봤다. 핀다가 네 번째 작품인 셈이다.개성 강한 두 명의 창업자가 7년 넘게 결별하지 않은 비결로는 역할 분담이 꼽힌다. 이 대표가 추진력이 좋은 스타일이라면 박 대표는 꼼꼼한 스타일이라고 한다. 둘 모두 1980년대생이다.핀다(FINDA)라는 이름은 영어 ‘금융(Finance)’과 한자어 ‘다(多)’를 조합해 만들었다. ‘많은 금융상품이 있다’는 뜻이기도 하지만 중의적인 의미도 상당히 많다. ‘웃음꽃이 핀다’ ‘구겨진 것을 핀(편)다’ ‘인생이 핀다’ 등 다양한 뜻이 있다고 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>네이버·카카오 '페이 서비스' 내년부터 수수료율 공개</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000192561?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>금감원, 전자금융업자 수수료 공시 가이드라인 최종 확정해 시행월평균 간편결제 규모 1000억 원 이상 업체 결제수수료율 공개네이버, 카카오 등 빅테크 기업이 제공하는 간편결제 서비스에 대한 수수료율이 공개될 예정이다. 페이 사업자들이 높은 수수료를 받음으로써 소상공인 부담을 키운다는 지적에 따른 것이다. /더팩트DB네이버, 카카오, 쿠팡 등 빅테크 기업의 간편결제 서비스 수수료율이 내년부터 공개된다.금융감독원은 28일 '전자금융업자 수수료 구분 관리 및 공시 등을 위한 가이드라인'을 최종 확정해 오는 30일자로 시행한다고 밝혔다.이번 조치는 일반 신용카드사들보다 페이 사업자들이 높은 수수료를 받음으로써 소상공인·자영업자의 부담을 키운다는 지적에 따른 것이다. 전자금융업자의 간편결제 수수료 공시 시스템은 윤석열 정부 국정과제 중 하나이기도 하다.금감원에 따르면 빅테크 등이 가맹점으로부터 받는 수수료에는 결제수수료 외에도 홈페이지 구축·관리비, 각종 프로모션 명목 수수료 등 다양한 수수료가 포함돼 있으나 이들 기업은 수수료를 항목별로 구분해 관리하지 않고 가맹점과도 수수료를 통합해 계약을 체결해 왔다.예를들어, 인터넷 쇼핑몰에서 영세가맹점이 부담하는 수수료 수준은 8~12%인데, 이중 지급결제수수료는 1~3% 수준이고 나머지 7~11%는 다양한 명목으로 부과하는 '기타수수료'라는 게 금감원의 설명이다.이 때문에 소상공인 입장에서는 서비스 항목별 수수료율에 대한 정보가 없고 협상력도 약해 적정 수수료율 수준을 가늠하기 어려웠다.간편결제 공시 가이드라인은 전자금융업자에 대해 수수료를 '결제수수료'와 '기타수수료'로 구분해 수취하고 관리토록 했다.결제수수료는 결제서비스와 직접 관련된 수수료로 신용카드사 등 결제원천사 수수료와 결제대행(PG) 및 선불결제 수수료 등이 포함된다.기타수수료는 총 수수료 중 결제 수수료를 제외한 나머지 수수료다. 홈페이지 구축·관리 명목의 호스팅 수수료, 오픈마켓 입점 및 프로모션 수수료 등이 해당된다.이 가운데 기타수수료율을 제외한 결제수수료율이 공시 대상으로 정해진 업체는 서식에 따라 각사별로 홈페이지를 통해 공개해야 한다.월평균 간편결제 규모가 1000억 원이 넘는 업체를 정리한 표. /금융감독원 제공결제수수료율 공시 대상 업체는 월평균 간편결제 규모가 1000억 원 이상인 업체다. '페이 수수료 부담완화'라는 국정과제명을 감안해 간편결제 거래규모 상위 업체를 공시대상 업체로 선정했다.이에 따라 △네이버파이낸셜(네이버페이) △쿠팡페이(쿠페이) △카카오페이(카카오페이) △지마켓(스마일페이) △11번가(SK페이) △우아한형제들(배민페이) △NHN페이코(페이코) △SSG닷컴(SSG페이) △비바리퍼블리카(토스페이) △롯데멤버스(엘페이) 등 10개 업체가 공시대상이 됐다.이들 10개사의 간편결제 거래규모는 지난해 기준 총 106조 원으로, 지난해 전체 간편결제 거래액(110조 원)의 약 96.4%에 해당된다.한편 금감원은 공시대상 업체들이 회계법인의 확인 절차를 거쳐 내년 3월말까지 최초 공시를 실시토록 할 예정이다. 가이드라인대로라면 내년 2월말에 첫 공시가 이뤄져야 하지만 준비 기간을 감안했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.12.31.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>실패가 토스한 Toss의 성공 [창업자의 생각법]</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005068103?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>적은 임금, 혹독한 추위, 칠흑 같은 어둠 속에서의 수개월, 상시적인 위험, 한전하게 귀환할 수 있을지 미지수, 성공할 경우 명예와 인정이 뒤따름.토스의 창업자 이승건은 2013년 처음으로 온라인 구인광고를 내면서 한 세기전 영국의 탐험가 어니스트 섀클턴 경의 남극 탐험대 모집 공고 문구를 인용했습니다. 성공을 보장할 수 없는 험난한 여정이 눈 앞에 펼쳐져있다는 점에서 남극 탐험대와 토스의 첫걸음은 닮았습니다. 그리고 이승건도 섀클턴 경을 닮았습니다. 섀클턴 경이 한명의 낙오자도 없이 탐험대를 이끌었듯이 이승건 역시 ‘핀테크’가 무엇인지도 모르던 황무지에서 오늘의 토스를 일구었으니까요. 남극탐험대◆실패가 쌓여 꽃핀 성공‘치과 의사’ 이승건이 처음 창업을 결정한 순간부터 1400만명이 이용하는 혁신적인 금융 서비스로 성장할 때까지의 이야기를 담은 책 &lt;유난한 도전&gt;이 최근 출간됐습니다. 그런데 말이죠, 성공 스토리와 성공에 대한 자부심으로 가득 찼을 이 책을 두고 저자인 정경화 토스 콘텐츠 매니저는 ”대체로 실패하고 가끔 성공하는 이야기“라고 했습니다. 성공한 사람들의 의례적인 겸양일까요? 그렇지는 않습니다.  이 책을 쓰기 위해 오늘의 토스를 만든 35명의 주역들을 심층 인터뷰한 뒤 정경화 매니저가 결론내린 토스의 성공비결이 바로 ‘제대로 실패하기’였습니다.정 매니저는 ”토스에는 실패를 도전을 할 때 자연스럽게 나타날 수 있는 결과라고 인식하는 문화가 있기 때문 실패 자체에 매몰되지 않는 것 같다“고 합니다. ”실패를 통해서 앞으로 해야만 할 것과 해서는 안될 것을 구분할 수 있고, 또 더 중요한 것은 성공에 대한 더 간절한 마음을 실패를 통해 얻게 되는 것 같아요.“  그래서 토스에서는 실패를 선언할 때는 팀원들이 함께 모여 무엇이 부족했 반드시 실패를 반추해보는 시간을 갖습니다. 그 과정을 통해 성공의 길을 찾는 것이죠.빠르게 실험해 실패하고, 또 실패한 끝에 성공을 만들어내는 것. 토스팀이 경험한 유일한 성공 방정식이었다. 비바리퍼블리카 이승건 대표◆내가 틀릴 수도 있습니다떠오르는 생각을 다 믿지는 말라.스웨덴의 승려 출신 작가인 비욘 나티코 린데블라드는 &lt;내가 틀릴 수도 있습니다(I may be wrong)&gt;에서 이렇게 말합니다. 그는 “‘내가 틀릴 수 있어. 내가 다 알지는 못해’라는 생각에 익숙해지는 것만큼이나 우리가 확실하게 행복해질 방법은 흔치 않다”고 말합니다.현자의 ‘행복법’이 이승건의 ‘성공법’과 일맥상통하는 면이 있습니다. 정경화 매니저는 창업자로서 이승건이 가진 최대의 장점으로 ‘내가 틀릴 수도 있다’는 생각을 꼽았습니다. ”승건님은 ‘내가 틀릴 수도 있다’는 생각을 계속 상기하려고 노력하는 것 같아요. 그것이 토스가 실패를 하고도 다시 도전할 수 있는 힘이 되기도 했고 더 큰 실패를 막을 수 있는 요소이기도 한 것 같아요.“이승건의 이런 태도가 이제는 토스의 수평적인 기업 문화로 자리잡게 됐습니다. 스스로 틀릴 수 있다는 자각을 갖게 되니 팀원들 하나하나의 의견을 존중하게 되고 그런 존중이 다시 팀원들이 책임감이 되고, 책임감이 성과로 이어지는 것이죠. 창업멤버 중 한명인 이태양의 토스 소개글처럼 말이죠.기민하고, 책임감 있고, 논쟁을 즐기며, 그 끝에 결정을 내린다. 그렇게 우리는 실패하지만 결국 성공한다◆아하 모먼트(Aha moment)2013년 12월 세밑,  서울 강남역 사거리를 걷던 이승건이 구세군의 종소리를 듣지 못했다면 어쩌면 최초의 핀테크 유니콘 ‘토스(Toss)’는 태어나지 못했을지 모릅니다. 그해 10월 ‘송금과 결제를 frictionless하게(마찰없이)’ 할 수 있는 혁신적인 금융 서비스 사업화 계획을 세웠지만 아무리 생각해도 ‘어떻게(how)’가 떠오르지 않았습니다. 그 상황 속에서들려온 구세군의 종소리는 구원의 손길이었습니다. 구세군 냄비에 쌓여있는 기부약정서에 눈길이 갔고 자신의 통장에서 매달 봉사단체로 기부금이 빠져나간다는 사실이 자연스럽게 떠올랐던 것입니다. “아하! CMS 자동이체 방식을 활용하면 되겠구나.”누구에게나 ‘아하 모먼트(Aha moment)’는 불쑥 찾아옵니다. 문제는 그 순간을 포착해내고 그것을 실현할 수 있는 방법을 찾아내느냐는 것이죠. 토스 창업자 이승건과 그가 이끈 토스팀은 그것을 해낸 사람들입니다.이승건이 ‘비바리퍼블리카’를 창업한 것 자체가 ‘아하 모먼트’가 있었기 때문입니다. 스티브 잡스가 아이폰을 세상에 내놓았던 바로 그 순간입니다. 치과의사로 살아야할지 아니면 세상을 바꿀 다른 일을 찾아야 할지 고민이 쌓여갈 그 때 ‘아이폰’이 바로 이승건의 마음을 붙잡은 것이죠.정경화 매니저는 “이승건님이 아이폰을 경험하면서 기술이야말로 세상을 변화시키는 힘이라는 것을 인식했고 자신이 기술로 세상을 선하게 바꿀 수 있다고 생각한 것 같다”고 말했습니다.◆유난한 도전은 계속된다섀클턴 경이 이끈 남극 탐험대의 도전에는 분명 그 끝이 있지만 이승건이 이끄는 토스의 도전에는 끝이 없습니다. 사실 도전을 멈추는 순간 “기술로 세상에 선한 영향력을 미치겠다”는 목표마저 사라지게 되죠.정경화 매니저는 토스 앞에 펼쳐진 도전에 대해 이렇게 말합니다.“토스의 현재 월이용자수(MAU)가 대략 1400만명 정도입니다. 비약적으로 성장했지만 아직 토스를 경험해 보지 못한 분들이 많고 다른 거대 빅테크 기업에 비해서는 상대적으로 적은 편이죠. 그분들에게 더 나은 금융 생활을 선사해 주는 것이 우리 앞에 놓인 도전입니다.” &lt;유난한 도전&gt; 저자인 정경화 토스 콘텐츠매니저※유튜브 채널 ‘매경5F(youtube.com/channel/UCOVR1GNM8BDgL2bUSSg1xwg)’에서는 더 많은 ‘창업자의 생각법’을 동영상으로 볼 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>서울대 ‘관악S밸리’ 만들어 창업 지원…KAIST ‘1랩1스타트업’ 교수·학생 협업</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003247516?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>“토스와 두나무, 직방 등 한국 유니콘의 30%는 서울대 출신이 창업했다. 하지만 이들이 성장하는 데 있어 서울대가 도와준 건 거의 없다.”      오세정 서울대 총장은 20일 서울대 문화관에서 열린 ‘혁신창업국가 대한민국’ 국제 심포지엄에서 이같이 대학의 역할을 강조했다. 그는 “미국에서 제철로 대표되던 피츠버그는 산업 쇠퇴와 함께 지역이 몰락하고 있었지만, 카네기멜런대와 피츠버그대를 중심으로 로봇을 새로운 주력 사업으로 삼아 지역경제를 성장시키고 있다”고 설명했다. 그러면서 “서울대도 당연히 이런 일을 해야 한다”고 덧붙였다.      서울대는 창업 지원을 위한 전담 조직과 특허기술 이전을 통한 기술사업화 부서를 만들었다. 창업보육센터에서는 대학 안팎의 혁신창업가에게 자금·공간·제도 등을 지원한다. 서울대 인근에는 ‘관악S밸리’를 조성해 창업 생태계와 연계했다. 그 결과 서울대 교원이 창업한 120곳 중 총 14곳이 상장에 성공했다.      KAIST는 ‘1랩(연구실) 1스타트업’이라는 모토를 내걸고 혁신창업을 지원하고 있다. 이광형 KAIST 총장은 ‘카이스트 혁신창업 비전과 성과’를 주제로 한 발표에서 “교수나 학생이 참여해 모든 랩마다 회사 하나씩 세우자는 목표를 세웠다”고 소개했다.      동시에 행정 절차도 간소화했다. 이전엔 교수가 창업하려면 승인에만 6개월이 걸렸는데, 이제는 학과 승인만 하면 된다. 또 학생들이 창업하면 무기한으로 휴학할 수 있도록 했다.      그 결과 2년 전 4개뿐이던 교수 창업이 매년 2배씩 늘어 지난달엔 17개가 됐다. 학생이 창업한 기업 수는 지난해 66개, 올해 11월에는 57개다. 이 총장은 “목표는 10년 후 연 1000억원의 기술사업화 수입”이라며 “창업하고 잘되면 학교에 기부하는 선순환 구조를 만들어 학교 재정 자립도도 높일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>보안에도 디테일을…인터넷은행, 다양한 혁신기술 적용 나서</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002139689?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 기존 은행권에 신선한 자극을 주고 있는 인터넷전문은행이 IT인프라 구성에도 혁신을 더하고 있다. 오픈소스 인프라의 채택 및 클라우드 활용 등에 있어 한발 앞서가고 있는 인터넷 전문은행은 특히 보안 분야에 있어서 그동안 은행권에서 검증된 기술은 물론 새로운 접근방법에도 나서고 있어 주목된다.이러한 IT신기술 도입을 통해 인터넷은행들은 IT인프라에 디테일을 더하고 있다. 이는 결과적으로 고객의 편의성 향상에 도움이 되고 있다는 분석이다. 토스뱅크가 최근 적용한 ‘OTAC mOTP’는 강력한 인증 보안을 필요로 하는 서비스에서 손쉽게 이용 가능한 모바일 OTP다. 보안기업 센스톤의 OTAC mOTP는 별도의 기기(카드형, 토큰형 등)를 가지고 다닐 필요 없이 휴대폰에서 바로 생성되는 일회용 비밀번호, OTP이며, ID와 비밀번호 이외에 매번 새로운 비밀번호를 이용한 추가 인증(2FA/MFA) 수단으로 활용된다. 대부분 은행에서 1000만원을 초과한 고액 이체를 위해서는 OTP 인증이 필수적이다. 이를 위해 실물 OTP(카드형, 토큰형)를 발급받거나, 핀번호 등을 입력하는 모바일 OTP가 필요하다. 문제는 실물 OTP는 배송 등 발급 과정이 복잡하고, 핀 번호만을 누르는 모바일 OTP는 보안성이 다소 취약할 수 있다는 점이다. 센스톤의 원천기술인 OTAC는 근거리무선통신(NFC) 기술을 활용해 사용자가 본인의 스마트폰 뒷면에 카드를 태깅하면 금융 서비스를 이용하는 과정에서 본인 인증은 물론, 고액 송금 및 이체를 위한 2차 인증까지도 한 번에 가능하다. 기존 OTP가 ID/PW 또는 생체인식 로그인 이후 2차 인증 용도로만 사용되는 반면, 카드 태깅형 모바일 OTP에 적용된 OTAC는 고유 사용자 식별이 가능하고 타 사용자와 코드 중복 가능성이 없어 곧바로 1회 인증만으로도 금융 서비스를 제한 없이 이용할 수 있다.이러한 기술이 적용된 ‘OTAC mOTP’는 기존 OTP와는 달리 물리적인 보안 카드 없이 스마트폰 앱으로 일회용 비밀번호 생성이 가능하기 때문에 매우 강력한 본인 인증 시스템을 구축할 수 있다. 이러한 방식은 앞서 카카오뱅크도 도입한 것으로 전해진다. 카카오뱅크는 최근 '셀카 OTP(일회성 패스워드)' 서비스를 출시했다. 실물 OTP 없이도 간단한 셀카 촬영만으로 본인 인증이 가능해져, 보안성 강화는 물론 고객 편의 제고에도 도움이 될 것으로 기대된다. 카카오뱅크가 내놓은 셀카 OTP는 고객이 셀카 사진을 등록하면 신분증 사진과 비교해 본인임을 확인하는 방식으로 발급된다. 추후 OTP 이용 시에는 등록해 둔 셀카 사진과 실시간 셀카 사진을 비교해 본인 인증을 진행한다. 한편 OTAC 기반의 mOTP는 OTP를 생성하기 전에 사용자가 등록한 PIN, 생체 정보 등 인증 정보를 먼저 확인하고 해당 암호화 값을 OTP를 생성하는 연계 정보로 사용해 보안성을 강화한다. 또한 수취인 이름/계좌번호 및 송금액 등 금융 거래 정보와 연동된 OTP 생성 후 인증하는 기술로 메모리 해킹이나 중간자 공격(MITM)에 대해 보다 안전하게 대응할 수 있다는 것이 센슨톤측의 설명이다.토스뱅크는 앞서 센스톤의 ‘카드 태깅형 모바일 OTP’를 도입한 바 있다. 이 서비스는 현금 인출 및 결제를 위한 토스뱅크의 체크카드에 연계되어 단순히 본인의 스마트폰 뒷면에 체크카드를 태깅하는 것만으로 고액 송금 서비스를 이용할 수 있다. 이로 인해 ‘2차 인증’만을 위한 별도의 OTP 카드를 발급받을 필요가 없고, 국내 금융기관에서 많이 사용하는 모바일 OTP와 달리 PIN 번호 입력도 필요 없다. 카드 태깅형 모바일 OTP에 적용된 센스톤의 OTAC(One-Time Authentication Code) 기술은 카드 태깅을 통해 생성된 다이내믹 코드를 스마트폰에서 서버로 전송하는 단방향 방식이기 때문에 아이폰에서도 적용할 수 있다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>하나은행, 금융권 최초 24시간 FX 거래 시대를 연다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006522418?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) = 남궁원 하나은행 경영기획그룹 부행장(오른쪽)과 오창훈 토스증권 대표이사가 지난 15일 오후 서울 중구 을지로 하나은행 본점에서 24시간 FX 거래를 위한 전략적 업무협약을 체결하고 있다.하나은행은 토스증권과 API를 통한 24시간 환율 제공 및 거래 서비스 제공, FX시장의 성장과 효율성 제고를 위한 안정적 시스템 구축, 24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다. (하나은행 제공) 2022.12.16/뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스 “나만의 눈사람 꾸미고 따뜻한 연말 기부 함께 하세요”</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000036617?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>초록우산어린이재단과 함께 ‘나만의 눈사람 만들기’회당 1000~200만원 기부 가능…횟수 제한은 없어30일 오후 11시까지…20명에 경품 추첨 이벤트도     토스, 연말 맞이 ‘나만의 눈사람 만들기’ 이벤트 실시. [사진 토스]    비바리퍼블리카(토스)가 연말을 맞아 초록우산어린이재단과 함께 ‘나만의 눈사람 만들기’ 이벤트를 실시한다고 20일 밝혔다.    나만의 눈사람 만들기는 다양한 이모티콘으로 ‘나만의 눈사람’을 꾸미고 토스페이로초록우산어린이재단에 기부할 수 있는 이벤트다. 연말을 맞아 기부에 쉽고 재미있게 참여하고자 하는 소비자들의 수요를 반영해 기획했다는 게 토스의 설명이다.    회당 기부할 수 있는 금액은 최소 1000원부터 최대 200만원으로 이벤트 기간 내 횟수 제한 없이 참여할 수 있다. 기부금 영수증 발급 신청도 가능하며 토스를 통해 모인 기부금은 전액 초록우산어린이재단에 전달된다. 이벤트는 30일 오후 11시까지 진행된다.    또한 추첨을 통해 20명에게 토스 캘린더와 다이어리를 증정하는 공유 이벤트도 실시한다. 나만의 눈사람을 만든 후 개인 인스타그램 계정에 올리고, 토스 공식 인스타그램 계정을 태그하면 참여가 완료된다.    토스 관계자는 “기부가 어렵다는 편견을 깨고 쉽고 재미있게 접근할 수 있도록 이번 이벤트를 기획했다”며 “직접 꾸민 ‘나만의 눈사람’ 이미지를 개인 소셜미디어(SNS)에 공유해 선한 영향력을 나누며 함께 따뜻한 연말을 만들 수 있기를 바란다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>“유니콘 30%가 서울대 출신…하지만 학교 도움은 거의 없어”</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003247435?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>20일 ‘혁신창업국가 대한민국’ 국제 심포지엄오세정 서울대 총장 “창업 시스템 정착시켜 ‘학교의 도움받아 성공했다’는 평가 받고 싶어”이광형 KAIST 총장은 ‘1랩1스타트업’ 강조해“행정 절차 줄였더니 2년 새 창업 4→17개로”   서울대와 한국과학기술원(KAIST), 중앙일보가 주최하고, 서울대가 주관한 '혁신창업국가 대한민국' 국제심포지엄이 20일 서울대 관악캠퍼스 문화관에서 열렸다. 이날 오세정 서울대총장이 ‘대한민국 혁신창업 주요성과’에 대해 발표하고 있다. 김상선 기자       “토스와 두나무, 직방 등 한국 유니콘(기업가치 10억 달러 이상의 비상장 기업)의 30%는 서울대 출신이 창업했습니다. 하지만 이들이 성장하는 데 있어 서울대가 도와준 건 거의 없습니다.”      오세정 서울대 총장은 20일 서울대 문화관에서 열린 ‘혁신창업국가 대한민국’ 국제 심포지엄에서 “교내에 창업 시스템을 정착시켜 뒤이어 나오는 유니콘에는 ‘학교의 도움을 받아 좀 더 쉽게 성공했다’는 평가를 받고 싶다”며 이렇게 말했다. 오 총장은 이날 ‘대한민국 혁신창업의 주요 성과’를 주제로 발표했다.      오 총장은 미국 피츠버그와 디트로이트를 비교하면서 지역 경제를 이끄는데 대학의 역할이 중요함을 강조했다. 그는 “피츠버그와 디트로이트는 각각 제철과 자동차로 대표되지만 산업 쇠퇴와 함께 지역이 몰락하고 있었다”며 “다만 피츠버그는 카네기멜런대와 피츠버그대를 중심으로 로봇을 새로운 주력 사업으로 삼아 지역경제를 성장시키고 있다”라고 설명했다. 그러면서 “서울대도 당연히 이런 일을 해야 한다”고 덧붙였다.      서울대는 창업 지원을 위한 전담 조직과 특허기술 이전을 통한 기술사업화부서를 만들었다. 창업보육센터에서는 대학 안팎의 혁신 창업가에게 자금·공간·제도 등을 지원한다. 서울대 인근에는 ‘관악S밸리’를 조성해 창업 생태계와 연계했다. 그 결과 서울대 교원이 창업한 120곳 중 총 14곳이 상장에 성공했다.      서울대와 한국과학기술원(KAIST), 중앙일보가 주최하고, 서울대가 주관한 '혁신창업국가 대한민국' 국제심포지엄이 20일 서울대 관악캠퍼스 문화관에서 열렸다. 이날 이광형 카이스트대 총장이 환영사를 하고 있다. 김상선 기자       한국과학기술원(KAIST)은 ‘1랩(연구실) 1스타트업’이라는 모토를 내걸고 혁신창업을 지원하고 있다. 이광형 KAIST 총장은 ‘카이스트 혁신창업 비전과 성과’ 주제로 한 발표에서 “교수나 학생이 참여해 모든 랩마다 회사 하나씩 세우자는 목표를 세웠다”고 소개했다.      동시에 KAIST는 창업에 장벽이 됐던 수많은 행정 절차를 간소화하고 학내 규정도 바꿨다. 이전엔 교수가 창업하기 위해서는 학과장과 단과대학장, 총장까지 승인을 받아야 했다. 승인에만 6개월이 걸렸는데, 이제는 학과 승인만으로 창업이 가능하다. 또 학생들이 창업하면 무기한으로 휴학할 수 있도록 휴학 제한도 없앴다.       그 결과 2년 전 4개뿐이던 교수 창업이 매년 2배씩 늘어 지난달엔 17개가 됐다. 학생이 창업한 기업 수는 지난해 66개, 올해 11월에는 57개다. 이 총장은 “목표는 10년 후 연 1000억원의 기술 사업화 수입”이라며 “학생과 교수진이 창업하고 잘되면 학교에 기부하는 선순환 구조를 만들어 학교 재정 자립도도 높일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>"월급 86%가 고정지출"…절반은 "소득 30% 저축 어려워"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005198445?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>'2023 대한민국 금융소비자 보고서'응답자 12.7%, 소득보다 지출이 커31.3%, 재정목표 없거나 당장 이슈 우선고물가, 고금리 시대를 맞아 금융소비자들이 당장 먹고사는 문제 해결이 우선이라고 응답하며 저축 여력이 크지 않은 것으로 나타났다. 소득의 3분의1을 저축하기 어려운 소비자가 절반 가까이 됐다.하나금융연구소는 29일 '2023 대한민국 금융소비자 보고서'를 통해 만 20~64세 남녀 5000명을 대상으로 금융소비자의 금융생활 전반을 분석했다.이 보고서에서 따르면 월 평균 가구소득(489만원)의 86%(421만원)는 매월 고정 소비, 보험, 대출상환, 고정 저축·투자 등으로  쓰였고 이중 여윳돈은 68만원에 그쳤다. 고정 저축, 투자금 및 잉여를 모두 저축한다고 가정했을 때 평균 저축 여력은 소득의 30.9% 수준인 150만원 내외였다.응답자 중 25%만 소득의 절반 이상을 저축할 여력이 있고, 45%는 저축 여력이 소득의 30%를 밑도는 것으로 나타났다. 응답자의 12.7%는 소득보다 지출이 커 저축이 불가능한 수준인 것으로 조사됐다.보고서에 따르면 올해의 재정·경제적 목표를 묻는 질문에 금융소비자들의 17.9%는 당장 먹고 사는 문제 해결이 우선, 13.4%는 재정 목표가 없다고 응답했다. 이러한 인식은 MZ세대(밀레니얼+Z세대)에서 더 높게 나타났는데 저축 여력이 부족해 미래를 대비할만한 여유가 많지 않은 것으로 추측됐다.또 금융소비자 10명 중 8명이 가상화폐 투자를 경험한 것으로 조사됐다. 투자 경험자의 71.1%는 누적 수익률이 -10% 이상 손실을 본 것으로 나타났다.내년 기존 금융기관 거래를 중단하고 신규 기관을 이용할 의향이 있는 금융 소비자도 절반에 달하는 것으로 나타났다. 금융소비자가 향후 신규 금융기관과 거래를 시작할 의향은 51.6%, 기존 거래 기관을 이탈할 의향은 54%로 신규 및 이탈 의향 모두 절반을 넘었다. 핀테크와 빅테크는 단기적으로 1년 내 거래 의향이 높은 반면, 전통 금융기관은 장기적으로 노후자금 관리를 위한 거래 의향이 높았다.해당 보고서에 따르면 그간 MZ세대의 전유물인줄 알았던 빅테크나 핀테크의 서비스는 보편화됐다. 마이데이터서비스는 50%가 경험할 만큼 빠르게 확산됐다. 네이버페이, 카카오페이, 토스, 페이코, 핀크, 뱅크샐러드 등 빅테크와 핀테크의 금융 서비스를 이용하는 소비자는 91.9%에 달했다. 특히 하나금융연구소 측은 "MZ세대의 경우 10명 중 2명은 금융거래 시 은행보다 빅테크나 핀테크를 더 중요한 금융기관으로 인식하고 있어 모바일 금융으로의 패러다임 변화를 실감케한다"고 설명했다.금융소비자가 많이 이용하는 금융 채널도 '모바일 앱'이었다. 최근 6개월 내 은행 모바일 앱 이용자는 82.1%로 지점 이용자보다 2.2배 많았다. 윤선영 하나금융경영연구소 연구위원은 "업권 간 경계가 없는 치열한 경쟁 여건과 한 치 앞을 내다보기 어려운 불황 속에서 빠르게 움직이는 금융소비자의 변화를 이해하고 예민하게 반응해야 할 필요성은 더욱 커졌다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>토스증권, 하나은행과 환율·환전 서비스 '맞손'</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000012381?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>MTS 내 환율 정보·환전 서비스 제공 협력토스증권이 환율·환전 서비스를 강화하기 위해 하나은행과 손잡았다. 이를 통해 연내 목표로 한 환전 업무 이중화를 완료하는 한편 좀 더 안정적인 환전 서비스를 제공할 수 있을 것으로 기대된다.토스증권은 지난 15일 서울 중구 하나은행 본점에서 하나은행과 '환전 서비스 협력을 위한 업무협약식'을 체결했다. 협약식에 참석한 오창훈(왼쪽) 토스증권 대표와 남궁원 하나은행 부행장이 기념 촬영을 하고 있다./사진=토스증권 제공토스증권은 16일 하나은행과 환전 서비스 부문 협력을 위한 업무협약을 체결했다고 밝혔다.지난 15일 서울 중구 하나은행 본점에서 열린 협약식에는 오창훈 토스증권 대표와 남궁원 하나은행 경영기획그룹 부행장 등 관계자들이 참석해 외환(Foreign Exchange·FX) 트레이딩 시스템 사업 협력을 위한 협약서에 서명했다.토스증권은 이번 업무협약으로 해외주식 서비스를 이용하는 고객에게 보다 경쟁력 있는 환율과 안정적인 환전 거래 환경을 만들어줄 수 있을 것으로 기대하고 있다. 양사는 환율·환전 서비스 제공 외에도 FX 시스템 구축 등 FX 시장 선진화와 서비스 향상을 위한 다방면의 협업을 이어가기로 했다.오창훈 토스증권 대표는 "하나은행의 FX 부문 서비스 노하우는 토스증권의 고객 서비스 향상에 큰 도움이 될 것"이라며 "특히 이번 협약을 통한 환전 업무 이중화 시스템 구축은 토스증권이 국내 최고 수준의 해외주식 거래 플랫폼으로 성장하기 위한 안정성을 강화하는 데 있어 남다른 의미가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>은행권 '청소년 결제' 집중 공략…"미래 고객 잡아라"</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002667517?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>체크카드처럼 송금·결제 가능'시초' 카뱅미니, 157만명 이용케이뱅크가 14~18세 미만 청소년을 대상으로 내놓은 선불전자지급수단 서비스 '하이틴' 소개 포스터. ⓒ케이뱅크[데일리안 = 김효숙 기자] 국내 은행들이 청소년 고객을 잡기 위한 결제 서비스를 속속 내놓고 있다. 가상 계좌에 선불금을 충전해놓고 체크카드처럼 쓰는 청소년용 결제서비스와 모바일뱅킹처럼 쓸 수 있는 애플리케이션(앱)도 출시하는 추세다.은행 입장에서는 청소년이 당장 이자수익 등으로 큰돈을 벌 수 있는 고객은 아니지만, 어릴 때부터 친숙한 이미지로 다가가 미래 충성 고객으로 확보하려는 취지다.16일 금융권에 따르면 케이뱅크는 지난 14일 만 14~18세 미만 청소년을 위한 선불전자지급수단 서비스인 '하이틴'을 출시했다.청소년들은 간단히 케이뱅크 앱에서 휴대폰 본인인증, 약관동의, 비밀번호 설정 등으로 하이틴에 가입하면 입금, 출금, 이체 등 이를 은행 계좌처럼 사용할 수 있다.앱과 연결된 하이틴 카드를 발급받으면 체크카드처럼 이용할 수 있다. 한도는 하루 50만원으로 월 총 200만원이다. 하이틴에 보관할 수 있는 금액 한도도 50만원이다. 특별한 실적 조건이 없어도 월 최대 2000원 캐시백을 제공하는 것도 특징이다.법적으로 만 12세~13세가 체크카드를 발급받으려면, 법정대리인, 즉 부모님 등과 함께 은행을 방문해야만 한다. 만 14세부터 스스로 만들 수 있지만 꼭 은행을 방문해야하고 신분증, 주민등록초본 등 제출 서류가 필수라서 번거로운 절차가 필요하다.앞서 카카오뱅크는 2020년 9월 청소년을 위한 선불서비스 '카카오뱅크 미니'를 은행권 중 처음 출시하면서 청소년 고객 선점 경쟁에 막을 올렸다. 카카오뱅크 미니도 14~18세 미만 고객 대상으로 하며, 최대 50만원까지 보유가 가능하고 하루 30만원, 월 200만원까지 쓸 수 있다. 관련 카드를 발급받으면 결제, 현금자동입출금기(ATM) 입·출금이 가능하다.첫 주자답게 카카오뱅크 미니의 지난달 말 기준 가입자 수는 약 157만명에 달했다. 이들의 82%인 129만명이 미니 카드를 발급받았다.카카오뱅크가 출시한 청소년 금융 서비스 미니 소개 포스터.ⓒ카카오뱅크인터넷은행이 포문을 열자 시중은행도 따라붙었다. KB국민은행은 지난해 11월 청소년을 위한 금융플랫폼 '리브넥스트'를 출시했다. 특히 14∼18세 청소년 전용 선불전자지급수단인 '리브포켓'은 고유번호를 받아 실제 계좌처럼 금융거래를 할 수 있다.하나은행은 아예 초등학생부터 가입할 수 있는 '아이부자 앱'으로 Z세대를 공략하고 있다. 결제, 송금, ATM 출금 외에 주식투자 체험, 기부를 할 수 있다. 학생증 겸용 선불카드인 '아이부자 학생증 카드'도 선보였다.핀테크와 카드사에서도 청소년 고객에 열을 올리고 있다. 토스는 7세부터 사용할 수 있는 '토스 유스카드'를 선보였고 신한카드도 신한은행과 함께 만 14~18세 이하 청소년 고객을 대상으로 별도의 결제계좌 없이 발급받아 사용할 수 있는 선불전자지급서비스 '신한 밈'을 운영하고 있다.금융권이 청소년에 특화된 서비스를 내놓는 것은 미래 충성 고객으로 확보하려는 취지다. 인터넷과 모바일에 익숙한 Z세대에게 편리한 플랫폼으로 금융서비스를 경험하게 하면, 타사로 갈아타기 쉽지 않기 때문이다. 실제 만 19~20세 카카오뱅크 미니 고객 중 카카오뱅크에서 계좌를 만든 고객 비중은 70%에 이른다.금융권 관계자는 "청소년의 서비스 보유 금액이나 결제 금액은 수만원 수준으로 당장 수익이 나는 고객층은 아니지만 잠재 고객으로 중요한 이들"이라며 "지금부터 재밌고 편리한 금융 경험을 선사해 실제 계좌, 카드 서비스로 이어지게 하는 것이 목표"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>하나은행, 토스증권과 24시간 FX 거래 위한 업무협약</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004788050?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>하나은행은 토스증권과 24시간 외환(FX) 거래를 위한 전략적 업무협약을 체결했다고 16일 발표했다.이번 협약으로 하나은행은 토스증권과 API를 통한 24시간 환율 제공 및 거래 서비스 제공, FX 시장 성장과 효율성 제고를 위한 시스템 구축, 24시간 환율 서비스를 통한 유리한 투자기회 제공 등에서 상호협력을 추진하기로 했다.하나은행은 토스증권에 오전 9시부터 오후 3시30분까지 열리는 서울외환시장 거래와 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>은행서 5억 퇴직금 받고 짐싼 82년생…인뱅에 줄섰다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002080760?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>대출 규모·신사업 확장하는 인뱅…비개발직 수요↑전통금융권 출신 인력 인기 예전만 못해[게티이미지뱅크][헤럴드경제=홍승희 기자] “일주일에 열 명씩 입사 면접을 봅니다. 전통 금융권 출신의 비개발직군 면접자가 많은 편입니다”인터넷전문은행 관계자의 전언이다. 올해 5대 은행(KB·신한·하나·우리·NH농협)에서 거의 2400명이 짐을 싸는 가운데, 인터넷은행 채용시장은 반대로 활기를 띄는 모습이다. 올해 시중은행의 희망퇴직 대상자에는 1982년생(만 40세)까지 포함되고 퇴직금으로 받는 돈이 최대 5억원에 달한다. 퇴직한 인력의 향후 발길에도 관심이 쏠리고 있다.일부 전통 금융사들의 직원들이 인터넷은행에 입사하기 위해 줄을 섰다는 전언도 나온다. 분위기가 보다 자유롭고, 향후 사업 확장 가능성이 큰 핀테크로의 이동을 선호하는 이들이 잇따르는 것이다. 하지만 비개발직군 인력을 지속적으로 채용하며 몸집을 불리고 있는 인터넷은행은 전통 금융권 출신의 인력들을 그대로 흡수하지는 않을 전망이다. 과거와 달리 경쟁력이 떨어졌다는 판단이다.비개발직 채용 절실해진 인터넷은행20일 금융권에 따르면 국내 인터넷은행들은 개발직뿐 아니라 비개발직에 대한 채용을 확대하고 있다. 대출 수요가 높아지고 있을 뿐 아니라, 자산관리 등 신사업에 대한 수요가 급증하고 있기 때문이다. 카카오뱅크의 경우 오는 31일까지 상시 채용을 위한 인재풀 등록을 진행 중이다. 이는 별도의 마감 일정이나 전형 일정 없이 1년 내내 상시 진행된 것으로 기술팀과 비기술팀을 모두 포함해 이력서를 받고 있다.케이뱅크는 지난 10월부터 개발직 외 개인 신용대출상품 담당자, 전세대출상품 담당자를 채용 중이다. 은행을 창립한지 갓 1년이 지난 토스뱅크도 비개발 직군 인력이 상시 부족하다는 설명이다.인터넷은행이 이같이 채용을 늘리는 데는 대출 규모가 성장하고 있기 때문이다. 지난 상반기 기준 국내 5대 시중은행의 가계대출이 9조원 급감할 때 인터넷뱅크 대출은 오히려 6조원 늘었다. 그러다 보니 개발자의 비중이 압도적으로 높던 인터넷은행 초기와 달리, 비개발자에 대한 필요도 높아지는 실정이다. 신사업 확장도 주요 이유로 꼽힌다.각 사에 따르면 케이뱅크의 경우 개발자와 비개발자의 비율이 4: 6을 유지하고 있고, 카카오뱅크도 5: 5 수준에 이르렀다. 가장 연력이 짧은 토스뱅크는 개발자 비율이 6, 그리고 비개발자 비율이 4로 여전히 개발자 비중이 높은 편이다.“전통 금융권 출신은 안 반가워”하지만 인터넷은행은 예전처럼 전통 금융권 출신의 인력을 환영하지는 않는 분위기다. 카카오뱅크와 케이뱅크의 경우 설립된 지 6년이 돼가는 시점에서 은행 고유 영역에 대한 인력은 이미 어느정도 확충됐다는 판단이다. 전통 금융권 출신의 전문가보단 오히려 다른 플랫폼 인재들의 적극적인 입사 지원을 바라는 눈치다.전통 금융권 출신 인사들의 몸값이 지나치게 비싸다는 판단도 깔려있다. 국내 시중은행에 따르면 우리은행의 경우 희망퇴직 조건은 관리자, 책임자, 행원급에서 각 1974년, 1977년, 1980년 이전 출생자다. NH농협은행의 경우 일반 직원 중 1982년생 직원부터 희망퇴직 대상에 포함됐다.한 인터넷은행 관계자는 “인터넷은행이 시중은행에서 일을 시작한 인력들보단 보다 새로운 인력을 많이 필요로하는 것 같다”며 “어지간한 기본 인력들은 다 갖춰졌기 때문”이라고 말했다.또 다른 관계자는 “인터넷은행은 현재 가상자산이나 게임 등 더 새로운 분야와 접목시켜 다른 산업군과의 제휴를 희망하고 있다”며 “새로운 시도가 많이 필요한 시점에서 전통 은행에 있던 사람들의 경험이 필요하지는 않을 듯하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2금융권, 연말 총량관리 위해 꼼수 대출 중단</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003736834?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>/자료=대출 비교 플랫폼 '토스' 화면 캡쳐										연말을 앞두고 일부 저축은행과 캐피털 등 제2 금융권 회사들이 ‘시스템 점검’을 이유로 온라인 대출 서비스를 중단하고 있다. 실제로는 신규 대출을 축소하려는 목적인데 시스템 점검이라는 ‘꼼수’를 쓴다는 지적이다. 이에 따라 생활비 등 급전이 필요한 중·저신용자들의 어려움이 예상된다.26일 대출 비교 플랫폼 ‘토스’에 따르면 제휴 금융사 52곳 중 22곳이 내부 시스템 점검을 이유로 연말까지 대출 금리·한도 조회 결과를 제공하지 않고 있다. SBI저축은행은 신용대출, 웰컴저축은행은 ‘웰컴중금리대출’을, 신한저축은행은 햇살론 상품 신청을 중단했다.인지도가 낮은 2금융권 금융사 대출은 주로 토스 같은 대출 비교 플랫폼을 통해 이뤄지기 때문에 플랫폼에서 대출을 취급하지 않으면 공급량이 확 줄어든다. 이 업체들의 경우 자사 홈페이지나 모바일앱을 통해서는 대출 신청을 받지만 심사를 까다롭게 하는 방식으로 대출을 크게 줄이고 있다.한 저축은행 관계자는 “금융 당국에서 부여한 올해 가계대출 증가율(최대 14.8%)을 거의 다 채운 영향”이라며 “건전성 관리도 필요한 시점이라 업계 전반적으로 대출 영업을 보수적으로 하고 있다”고 말했다.기준금리 상승 탓에 2금융권 조달 금리가 급등한 것도 대출을 위축시키는 요인으로 꼽힌다. 지난달 연 3.77%였던 햇살론 조달 금리는 이달에 연 5.22%까지 올랐다. 햇살론 금리 상단은 연 10.5%로 막혀있는데 조달 금리가 치솟다 보니 금융사들이 역마진을 우려해 저마다 공급을 줄이는 것이다. 한 금융권 관계자는 “2금융권을 이용하는 취약 차주들이 더욱 제도권에서 밀려나고 있다”며 “정책금융 상품을 늘려 이들을 두껍게 지원할 필요가 있다”고 했다. 금융위원회는 내년에 100만원 한도로 생활비를 빌려주는 ‘긴급 생계비 대출’ 등을 도입할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 내일부터 고신용자 신용대출 중단···토뱅·케뱅은?</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005390590?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>카뱅, 신용대출 신규 신청 연말까지 제한중신용자·취약층 대출 상품은 유지 방침인뱅 동참 여부 주목..."대출 중단 계획 없다"[이데일리 유은실 기자] 카카오뱅크가 이달 21일부터 고신용자 신용대출 상품의 신규 취급을 중단하기로 했다. 고신용자 대출 잔액이 급격하게 늘면서 중저신용자 대출 비중 목표치를 맞추기가 힘들어지자, 고신용자 대상 대출 창구를 한시적으로 닫기로 한 것으로 풀이된다. 토스뱅크·케이뱅크 등 다른 인터넷 전문은행들도 이 같은 대응에 동참할지 주목된다.(사진=카카오뱅크)20일 은행권에 따르면 카카오뱅크는 지난 19일 ‘일부 신용대출 상품 신규 신청 중단 안내’를 공지했다. 중신용대출, 중신용플러스대출, 햇살론15 등 중저신용 관련 상품을 제외한 모든 신용대출 상품의 신규 신청을 이달 31일까지 받지 않겠다는 방침이다. 사실상 고신용자 신용대출 창구는 닫고 중신용자 대출 창구만 열어두는 셈이다.카카오뱅크 관계자는 “연말을 맞아 고신용대출 잔액이 급격히 증가하고 있는 상황이라 부득이 한시적으로 중단하게 됐다”고 설명했다.업계는 인터넷 전문은행들의 중저신용자 대출 목표치가 잔액 기준이 아닌 비중이기 때문에 관리에 어려운 점이 있어, 이를 위해 카카오뱅크가 선제적으로 고신용자 대상 대출 관리에 들어간 것으로 보고 있다. 카카오뱅크는 지난해에도 연말까지 허용된 대출 총량을 관리하기 위해 고신용자 대상 신용대출과 전월세보증권 대출 상품 등을 약 한달 간 전면 중단한 바 있다.대출이 몰리는 연말, 인터넷전문은행에서 신용대출 중단 사례가 나온 만큼 토스뱅크와 케이뱅크 등 주요 인터넷 전문은행의 움직임에도 관심 쏠린다. 지난해는 카카오뱅크를 포함한 인터넷은행들이 중저신용자 목표치 비중을 달성하지 못했지만, 올해는 비중 관리에 역량을 쏟으면서 인터넷은행 3사 모두 중저신용자 비중을 목표치에 근접한 수준까지 끌어올린 상황이기 때문이다. 카카오뱅크의 올해 중저신용대 대출 비중 목표치는 25.0%이다. 3분기 기준으로 중저신용자 대출 비중은 23.2%를 기록하고 있다. 토스뱅크는 올해 인터넷전문은행 중 가장 높은 목표를 세웠다. 토스뱅크의 중저신용자 대출 비중 목표치는 42.0%로, 지난달 19일 기준으로 40.1%까지 달성했다. 토스뱅크 관계자는 “중저신용자 대출 목표치 달성 여부는 올해 연말 가야 정확히 알 수 있겠지만 달성을 위해 노력할 것”이라면서 “다만 대출 비중을 맞추기 위해 신용대출을 중단할 계획은 없다”고 말했다.카카오뱅크와 같이 목표치(25.0%)를 설정한 케이뱅크도 비중 관리를 위한 대출 중단 조치는 따로 하지 않을 것으로 보인다. 올해 3분기 기준 케이뱅크의 중저신용자 대출비중은 24.7%로, 목표치에 가장 근접한 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>케이뱅크·토스뱅크서도 '희망플러스 특례보증' 신청 가능</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013648912?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>케이뱅크·토스뱅크서도 '희망플러스 특례보증' 신청 가능[연합뉴스 자료사진]    (서울=연합뉴스) 신선미 기자 = 신용보증재단중앙회는 인터넷전문은행인 케이뱅크, 토스뱅크와 '희망플러스 특례보증 업무협약'을 체결했다고 19일 밝혔다.    이에 따라 소기업·소상공인들은 이날부터 케이뱅크, 토스뱅크 앱(애플리케이션)에서도 희망플러스 특례보증을 신청할 수 있게 됐다.    이로써 희망플러스 특례보증을 신청할 수 있는 은행은 기존 12곳에서 14곳으로 늘었다.    희망플러스 특례보증은 코로나 방역 조치로 피해를 본 소기업·소상공인 등에게 대출을 저금리로 지원하는 금융지원 프로그램이다.[신용보증재단중앙회 제공. 재판매 및 DB금지]    sun@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>티사이언티픽, 'i-PMS v2.0 GS인증' 블록체인 보안업체 인수</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004943769?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>티사이언티픽 CI [파이낸셜뉴스] 코스닥 상장사 티사이언티픽이 이미지파일 탐지 분야에서 국내 최초로 ‘i-PMS v2.0 GS인증’을 획득한 아이티노매즈의 기존 주주지분 100%를 인수한다.   19일 금융감독원 전자공시에 따르면 티사이언티픽은 지난 16일 공시를 통해 이 같이 밝혔다. 취득예정 주식 수는 30만주이며 금액은 210억원으로 지분율 100%와 함께 경영권을 확보한다. 취득목적은 블록체인 기반의 신사업 추진이다.   아이티노매즈는 한국인터넷진흥원(KISA), 한국은행, 한국거래소, 서울시, 대법원 등 금융·공공기관뿐만 아니라 삼성SDS, SK C&amp;C, LG유플러스, LG CNS, 토스페이먼츠 등 일반기업까지 폭넓은 레퍼런스를 보유하고 있다.   이 회사는 또 2019년 i-PMS v2.0 GS 인증을 획득했다. 같은 해 개인정보 노출 차단 통합솔루션 ‘i-PMS v2.0’도 론칭했다. GS인증은 국가가 소프트웨어 제품에 부여하는 인증제도로, 공공기관 우선구매 대상, 행정 및 공공 정보화 사업 구축·운영시 우선 도입 대상 제품으로 지정된다. 2020년에는 나이스디앤비로부터 기술등급 중 최상급에 속하는 T-2를 획득할 만큼 기술력을 인정받았다.   최근 아이티노매즈는 한국인터넷진흥원과 과학기술정보통신부가 주관하는 ‘2022년 민간분야 블록체인 시범사업’에 선정돼 기부·펀드 블록체인 플랫폼 ‘드림버튼’을 오픈했다. 또 한국인터넷진흥원의 연구개발(R&amp;D)과제인 ‘대화형 텍스트 데이터에서 인공지능(AI) 기반 개인정보 탐지 및 비식별화 기술 개발’을 오는 2024년까지 진행할 예정이다.   아이티노매즈가 지분 32%를 소유, 2대주주로 있는 시큐위즈는 지난 11월 한국인터넷진흥원으로부터 ‘SecuwaySSL U V2.1 KISA 정보보호제품 성능평가’를 획득한 바 있다.   티사이언티픽 관계자는 “기존 IT 사업과 아이티노매즈의 블록체인 IT 종합 솔루션서비스 사업 간의 시너지 창출과 지속적인 투자를 통해 내년에는 블록체인, 보안 IT기업으로서 본격적인 행보를 이어갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>전문직 플랫폼, 온드미디어 활성화…롱폼 콘텐츠로 신뢰 강화</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003067210?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>전문직 플랫폼이 온드 미디어 채널을 구축하고 있다. 법률, 세무, 의료 등 서비스 분야에서 심화되는 정보 비대칭을 해소하기 위해서다.배민, 오늘의집, 토스 등 다양한 플랫폼은 온드 미디어를 활용하며 브랜딩을 강화하고 있다.브랜드 마케팅, 투자와 인재 유치 등이 주요 목적으로 꼽힌다. 최근 전문직역 플랫폼이 온드 미디어를 적극 활용하는 양상을 보이고 있다. 흥미 위주의 숏폼 콘텐츠를 제공하는 기존 온드 미디어와는 달리 전문직역 플랫폼은 롱폼 형태의 콘텐츠를 제공, 정보성을 높였다. 복잡한 법률, 세무, 의료 서비스 분야에서 발생하는 정보 비대칭을 해소하기 위한 새로운 시도로 평가받고 있다.로앤컴퍼니는 이달 법률 소비자의 사법 접근성을 높이기 위해 온드 미디어 '로톡엑스'를 오픈했다. '법이 더 가까워지는 곳'이라는 슬로건으로 다양한 콘텐츠를 선보이고 있다. 법률서비스와 인공지능(AI)의 만남 등 리걸테크 기술을 이해하기 쉽게 풀어낸 아티클을 제공 중이다. 법률 시장에서 소비자와 공급자가 겪는 부담과 어려움을 이해하고 정보기술(IT)에 해결책이 있다는 점을 짚고 있다. 리걸테크 산업 성장 가능성과 세계 법률 시장 트렌드를 제공, 리걸테크 브랜딩 체계를 구축하고 있다. 회사와 서비스, 조직에 얽힌 비하인드를 전하며 기업 투명성도 높인다.삼쩜삼을 운영하는 자비스앤빌런즈는 올해 3월부터 본격적으로 세 가지 온드 미디어 채널을 운영 중이다. 인스타그램·삼쩜삼 블로그·삼쩜삼 헬프센터는 각각 고객 마케팅, 회사 소개, 삼쩜삼 이용 고객의 서비스 관련 문의 소통 채널이다. 목적을 구분해 채널 성격에 맞춘 운영 전략을 구사한다. 인스타그램은 일반 이용자가 많다는 점을 겨냥, 이벤트 공지뿐만 아니라 '연말 정산 때 놓친 공제 환급받는 법' '소득 공제와 세금 공제 차이점' 등 쉽게 풀어쓴 정보를 전달 중이다. 블로그는 심도 있는 정보를 전달한다. 삼쩜삼이 돌려주는 돈의 실체와 수령 대상을 명확히 설명하고 참조한 외부 자료의 출처를 명확히 남겨 정보 객관성과 신뢰도를 확보한다.강남언니는 유튜브 채널 '강남언니 방송반'을 운영 중이다. 시술이나 수술에 관심이 있지만 의료정보 접근이 어려운 이용자를 위한 영상 콘텐츠를 제작한다. '코 필러 맞고 안경 써도 괜찮을까' '종아리 주사 맞고 구두 신어도 괜찮을까' 등 이용자가 궁금해할 만한 정보를 전달한다. 의사 출신 박기범 강남언니 공동창업자를 비롯, 전문 의사와 논문 검증을 통해 신뢰도 높은 의료 상식을 알린다. 올해 상반기 애니메이션 기법을 활용한 의료상식 영상으로 콘텐츠를 확대했다.향후 전문직역 플랫폼은관련 서비스 분야 콘텐츠를 지속 생산, 이용자의 심리적 부담을 낮출 계획이다. 기존 고객과는 유대감을 쌓고 신규 고객에게는 신뢰감을 줄 수 있다는 설명이다. 더 많은 유저를 보유하고 있는 미디어를 활용해 잠재 고객군에게 서비스를 알릴 수 있다는 장점도 있다. 이 외에도 이해관계자와의 소통 강화, 핵심 인재 유치 등에도 긍정적인 영향을 미칠 것으로 보인다.업계 관계자는 “전문직 서비스 분야는 갈등, 정보비대칭성 등 다양한 문제로 다른 산업군에 비해 혁신이 느리다”며 “전문직 플랫폼이 자사 채널로 전면에 나서 콘텐츠를 생산함으로써 시장에 대한 관점 변화까지도 주도해 나갈 수 있을 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>중·저신용대출 막판 열 올리는 인터넷은행들</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002774838?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>인터넷전문은행이 중·저신용자 비중 연말 목표치 달성을 위해 심혈을 기울이고 있다. 각사 제공    인터넷 전문은행들이 금융당국에 제출한 올해 중·저신용자 목표치 달성을 위해 총력을 다하고 있다. 일부 은행은 고신용자 대출을 중단하고 중신용대출 특판에 나서는 등 집중 관리에 나서는 모습이다.27일 금융권에 따르면 카카오뱅크가 출시한 '중신용 대출 상품'은 아직 한도가 소진되지 않았다. 카카오뱅크는 지난 21일 신용점수 하위 50%(KCB기준 850점 이하)의 연소득 2000만원 이상, 재직기간 1년 이상 고객을 대상으로 최저 연 4.45% 금리로 대출해주는 상품을 2000억원 한도로 내놨다. 카카오뱅크는 지난주 고신용자대출을 중단하기도 했는데, 인터넷 전문은행 중 여수신 규모가 가장 큰 은행인 만큼 연말 고신용자 수요가 몰릴 경우 비중 관리가 어려워질 것을 감안한 것으로 풀이된다. 인터넷은행이 금융당국에 제출한 중·저신용자 대출 비중 목표치는 '비중'으로 관리되기 때문에 올해가 얼마 남지 않은 현시점에서 하루 최소 20%에서 50% 사이의 중·저신용대출을 취급해야 하는 상황이다. 게다가 지난해 가계대출 총량관리 여파로 목표치를 넘지 못하자 인터넷은행 설립 취지인 포용금융을 실천하지 않았다는 비판이 쏟아진 바 있어 인터넷 은행들은 올해 목표치를 꼭 달성하겠다는 분위기다. 올해 카카오뱅크와 케이뱅크는 25%, 토스뱅크는 42%를 목표로 내놨다.지난 3분기 말 기준 세 은행의 중·신용자 대출 비중은 각각 23.2%, 24.7%, 39.0% 이었다. 토스뱅크는 지난 11월 말 40%를 돌파한뒤 목표치 달성에 심혈을 기울이고 있다. 토스뱅크 관계자는 "연말까지 약속한 중저신용자 비중 달성을 위해 노력하고 있지만, 녹록지 않은 상황"이라며 "일 평균 40퍼센트 이상의 중저신용 대출을 지속해오고 있다"고 설명했다.금융권에서는 세 은행 모두 연말 목표치를 달성할 것으로 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>5대 시중은행 예대금리차, NH농협 높고 KB국민 낮아</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011600901?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>기사내용 요약11월 가계 예대금리차 농협 1.33%p, 국민 0.44%p은행권에서는 전북은행 6.5%p 최대…기업은행 0.24%p 최저[서울=뉴시스] 홍효식 기자 = 한국은행의 기준금리 연 1.25% 인상으로 KB·신한·우리·하나·농협 등 5대 시중은행이 이번 주 들어 모두 예·적금 금리를 상향 조정했다. 20일 서울 시내 시중은행 현금자동입출금기(ATM). 2022.01.20. yesphoto@newsis.com[서울=뉴시스] 이정필 기자 = 지난달 5대 시중은행의 대출금리에서 저축성수신금리를 뺀 예대금리차는 NH농협은행이 가장 큰 것으로 나타났다. KB국민은행은 0.5%포인트 이하로 가장 작았다.20일 은행연합회 공시에 따르면 11월 시중은행이 신규 취급한 가계대출금리에서 저축성수신금리를 뺀 가계예대금리차는 농협은행이 1.33%포인트로 가장 높았다.우리은행의 가계예대금리차는 1.08%포인트로 뒤를 이었다. 다음으로 신한은행 0.84%포인트, 하나은행 0.71%포인트, 국민은행 0.44%포인트 순이었다.농협은행은 8월(1.76%포인트), 9월(1.90%포인트), 10월(1.60%포인트)에 이어 4달 연속 시중은행 중 가장 큰 예대금리차를 보였다.농협은행 관계자는 "정부 정책성 자금을 취급하는 당행 특성상 만기가 짧은 자금을 다수 취급하는 영향으로 예대금리차가 높게 형성된 부분이 있다"며 "11월 기준 가계와 기업의 대출금리는 5대 은행 중 최저 수준이다. 가계 여수신 금리의 경쟁력이 있다는 점을 참고해 달라"고 설명했다.인터넷전문은행 중에서는 토스뱅크의 가계예대금리차가 5.61%포인트로 가장 높았다. 케이뱅크는 2.28%포인트, 카카오뱅크는 1.59%로 나타났다.토스뱅크 관계자는 "당행이 아직 신용대출만 있고 담보대출이 없다보니 대출금리가 높게 나타났다"며 "연 2%대 수시입출금 통장도 수신금리에 미반영됐다. 상대적으로 대출 금리가 높은 중저신용자와 개인사업자 위주의 포용적 금융을 목표로 하고 있는 영향이 예대금리차에 반영됐다"고 설명했다.지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중 가계예대금리차가 가장 큰 곳은 전북은행으로 6.50%포인트다. 가계예대금리차가 가장 작은 곳은 IBK기업은행으로 0.24%포인트다.5대 시중은행의 정책서민금융을 제외한 가계예대금리차는 ▲농협 1.29%포인트 ▲우리 0.79%포인트 ▲신한 0.72%포인트 ▲하나 0.65%포인트 ▲국민 0.41%포인트 순으로 나타났다.기업대출을 포함한 예대금리차는 ▲농협 1.67%포인트 ▲우리 1.13%포인트 ▲신한 1.11%포인트 ▲하나 1.05%포인트  ▲국민 1.02%포인트 순으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>하나은행, 토스증권과 24시간 FX 거래 위한 업무협약</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011594588?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>15일 서울 중구 하나은행 본점에서 24시간 FX 거래를 위한 전략적 업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다.(사진=하나은행 제공) *재판매 및 DB 금지[서울=뉴시스]이주혜 기자 = 하나은행은 토스증권과 24시간 외환(FX) 거래를 위한 전략적 업무협약(MOU)을 체결했다고 16일 밝혔다.이번 협약으로 하나은행은 토스증권과 ▲API를 통한 24시간 환율 제공 및 거래 서비스 제공 ▲FX시장의 성장과 효율성 제고를 위한 안정적 시스템 구축 ▲24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다.하나은행은 토스증권에 오전 9시부터 오후 3시30분까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공한다. 기존 시장가격과 차이가 있는 환율로 거래했던 해외주식 투자자에게도 실시간 환율 정보를 제공할 수 있게 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>[르포]토스뱅크 전산의 심장 '김포 DR센터'를 가다</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003068491?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>김기암 토스뱅크 인프라팀 네트워크 엔지니어가 토스뱅크 DR센터 장비에 대해 설명하고 있다.“재해복구(DR)가 왜 어려우냐면, 평상시에 잘 사용하지 않기 때문입니다. DR센터 가동은 단순히 접속만 하면 되는 것이 아니고 보안 요건이나 방화벽 문제, 암호화 키 등 복잡한 문제가 얽혀 있습니다. 갑자기 가동하려면 업데이트 누락 등에서 예상치 못한 문제가 발생하기 마련이죠.”(김기암 토스뱅크 인프라팀 네트워크 엔지니어)인터넷전문은행 토스뱅크가 금융 전산기술의 핵심 'DR센터'를 최초 공개했다.올해 많은 금융사가 재난·재해로 인한 블랙아웃 문제에 제대로 대응하지 못하고 소비자 피해를 유발했다. 형식적인 DR센터 운영과 대응경험 부족으로 올바른 조치를 취하지 못한 것이 원인으로 꼽힌다. 반면에 토스뱅크는 최신 설비와 전문화된 기술로 DR 운용 영역에서 정보기술(IT) 기업 위용을 보여줬다는 평가를 받는다. 토스뱅크 DR센터를 찾아 네트워크 엔지니어들에게 '무중단 서비스' 구현의 비결을 물었다.토스뱅크는 신세계아이앤씨가 운영하는 김포 데이터센터에 입주해 있다. 신세계백화점, 이마트, 스타벅스를 포함해 신세계그룹사들이 이 데이터센터를 함께 쓴다. 서울 구로구에서 운영하던 것을 2019년 김포로 옮기면서 최신 기술과 장비를 대거 도입했다는 장점이 있다.특히 '무중단 전력 공급 구조'를 자랑하는데, 전력 회선의 인입부터 IT 장비에 이르기까지 완벽한 이중화를 구현한 것이 특징이다. 공사 중 사고 등으로 한 쪽 전력공급회선이 완전히 파괴되더라도 다른 채널로 들어오는 전기로 장비를 구동하는 데 문제가 없다. 외부전력뿐만 아니라 내부에 소재한 무정전전원장치(UPS)와 분전반까지도 이중화 장치가 마련돼 있다.김기암 토스뱅크 인프라팀 네트워크 엔지니어는 “실제 전기는 항상 일정한 전압으로 공급되지 않기 때문에 전압 차이로 인한 스파크가 되면 정전이 발생해 치명적인 피해를 유발할 수 있다”며 “이런 상황을 대비해 UPS는 정류기 역할도 겸하며 부속품을 교체를 위해 한 쪽 전원을 차단해야 하는 상황에서도 전원 이중화는 매우 중요하다”고 설명했다.토스뱅크의 무중단 서비스는 IDC의 양자활성화(Active-Active) 구조의 역할도 매우 중요하다. 토스뱅크는 이용자 트래픽을 절반씩 주센터와 DR센터로 흘려보내는데, 한 IDC에서 문제가 발생하더라도 다른 IDC에서 이를 100% 수용할 수 있다는 장점이 있다.토스뱅크가 주센터와 DR센터를 동일 수준으로 가동할 수 있는 배경에는 '글로벌 서버 로드 밸런싱(GSLB)' 기술이 있다. 이는 서버가 과부하되거나 장애가 발생했을 때, 이를 자동으로 체크해 이용자가 다른 서버로 접속하도록 지원해 서비스 중단을 최소화하는 기술이다.이용자의 모바일 디바이스에서 같은 토스뱅크 도메인 네임(www로 시작하는 주소)으로 접속을 시도하더라도, 재해상황이나 사용자의 지리적 위치 등에 따라 GSLB가 실제로는 다른 IP 주소로 데이터를 요청하도록 처리한다. 이는 교통사고가 난 도로로 자동차의 진입을 막아 목적지까지 원활하게 이동하도록 돕는 것과 비슷하다.김기암 엔지니어는 “GSLB는 IT 기업들이 많이 사용하는 기술이지만, 유입되는 트래픽뿐만 아니라 내부에서 처리되는 트래픽에도 GLSB를 구현하는 것이 매우 어렵고 중요하다”며 “프론트엔드뿐만 아니라 내부에 있는 AP서버 및 DB서버까지 센터를 넘나들 수 있는 가용성 경로를 확보해야 하는데, 이는 평상시 DR센터의 꾸준한 가동을 통해 얻게 된 노하우”라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>하나은행, 토스증권과 손 잡고 24시간 외환거래 제공..."금융권 최초"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000063318?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>하나은행은 지난 15일 오후 서울 중구 을지로 하나은행 본점에서 토스증권과 24시간 FX 거래를 위한 전략적 업무협약을 체결했다. 업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다. (사진=하나은행)하나은행(은행장 박성호)은 지난 15일 오후 을지로 하나은행 본점에서 토스증권(대표이사 오창훈)과 24시간 FX 거래를 위한 전략적 업무협약(MOU)를 체결했다고 밝혔다.이번 업무협약을 통해 하나은행은 토스증권과 ▲API를 통한 24시간 환율 제공 및 거래 서비스 제공 ▲FX시장의 성장과 효율성 제고를 위한 안정적 시스템 구축 ▲24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다.특히, 하나은행은 토스증권에 오전 9시부터 오후 3시 30분 까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공하여 기존 시장가격과 차이가 있는 환율로 거래 했던 해외주식 투자자들에게도 실시간 환율 정보를 제공할 수 있게 됐다.앞으로도, 하나은행은 24시간 FX 거래 확대를 통해 비대면 FX 전자 플랫폼 시장을 선도해 나갈 예정이다.남궁원 하나은행 경영기획그룹 부행장은 “토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다앙한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다” 고 밝혔다.한편, 하나은행은 20년 5월, 영업점 방문 없이 비대면으로 실시간 현물환 및 선물환 거래를 체결할 수 있는 ‘HANA FX 트레이딩 시스템’ 런칭 이후, 지속적인  고도화를 통한 안정적인 운영으로 손님들의 만족을 얻고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>애플페이 출시설에 이용자 기대 '고조'…법률 검토 마지막 변수</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013648690?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>개인정보보호법·신용정보법 등 위반 소지…NFC 단말기는 증가 추세애플페이[편집 김민준](서울=연합뉴스) 오규진 기자 = 아이폰을 12년째 사용하고 있다는 직장인 강모(29) 씨는 애플의 근거리무선통신(NFC) 결제 서비스 애플페이 국내 출시설에 설렘을 감추지 않았다.    외국에서 생활하며 애플페이를 요긴하게 써온 강 씨는 "휴대전화와 워치, 노트북까지 애플을 사용하는 입장에서 반쪽짜리 서비스만 받는다는 느낌이 들었다"면서 "유독 한국에서만 애플페이가 출시가 늦어지는 게 이해되지 않는다"고 말했다.    얼마 전 아이폰으로 휴대전화 단말기를 교체한 직장인 박모(28) 씨도 "삼성페이를 쓰다 애플로 오니 간편결제 기능이 못내 아쉬웠다"면서 "애플페이가 도입되면 불편함이 훨씬 줄지 않을까 싶다"고 덧붙였다.    19일 업계에 따르면 애플페이 출시에 대한 기대감이 커지고 있는 가운데 출시 시점을 두고 금융당국의 법률 검토가 변수로 작용하고 있다.    애플페이 국내 제휴사인 현대카드는 애플과 일정 기간 배타적 사용권을 갖는 계약을 맺고 애플페이의 국내 출시를 준비해왔다. 지난 5일에는 금융감독원 약관 심사를 통과하면서 출시까지 '9부 능선'을 넘었다는 전망이 업계에서 흘러나왔다.    하지만 관계 당국은 애플페이가 국내 가맹점 결제 정보를 비자·마스터카드의 결제망을 거쳐 승인하는 결제처리 방식을 두고 개인정보보호법·신용정보법에 저촉될 소지가 있다며 제동을 걸고 나섰다.    당국은 국내 가맹점의 결제 업무를 해외 사업자에 위탁해 처리할 수 있는지, 이 과정에서 개인정보 보호를 위한 기술적 안정성 문제가 없는지 등을 들여다보고 있다.    애플페이 호환 단말기나 소프트웨어(앱 포함)를 대형 가맹점에 무상으로 보급할 때 여신전문금융업법 위반 소지가 있는지도 살펴보고 있다.    앞서 금융위는 2019년 환경변화에 카드사가 적극적으로 대응하기 위해 호환 단말기를 대형 가맹점에 무상 제공할 때 이 법이 규정한 '부당한 보상금의 제공'에 해당하지 않는다고 봤으며, 현대카드도 이를 근거로 출시 전략을 짠 것으로 알려졌다.    그러나 신기술 관련 단말기 보급이라도 해당 단말기 제공이 새로운 결제 방식의 확산 등 공익적인 목적을 위한 게 아닌 제휴사와의 배타적인 거래를 위한 계약 목적이라면 리베이트에 해당한다는 게 금융위의 일관된 입장이다.    당국의 이런 움직임과는 별개로 애플페이 결제에 필요한 NFC 단말기를 도입하는 점포는 늘고 있다. 국내 신용카드 가맹점 290만 개 가운데 NFC 단말기를 보유한 곳은 10％ 전후인 것으로 알려졌다.    지난달 이디야커피는 이달 23일까지 점주들에게 POS 결제 단말기 교체를 진행하고, 무인주문기(키오스크)에 있는 결제 단말기는 내년 초 교체한다고 공지했다.    롯데백화점은 애플페이 도입설이 나오기 전부터 NFC 기능을 지원하는 결제 단말기를 매장에 도입했다. 롯데하이마트 역시 NFC 결제 단말기를 일부 매장에 설치한 것으로 알려졌다.    '토스' 운영사 비바리퍼블리카의 자회사 토스플레이스는 서울 시내 약 300개 가맹점에서 NFC 기능을 지원하는 결제 단말기를 시범 보급했으며, NHN KCP는 홈페이지 매장용 키오스크 설명에서 '애플페이 사용 가능' 문구를 넣었다 삭제하기도 했다.    간편결제 업계에서는 애플페이가 시장에 미치는 영향이 크지 않다고 보면서도 긴장을 늦추지 않는 분위기다.    한 업계 관계자는 "국내 간편결제 서비스와 애플페이가 사용하는 NFC 결제 규격이 달라 간편결제사 입장에서는 서비스 호환을 위해 단말기에 펌웨어 수정 등 별도 조치를 해야 한다"고 말했다.      애플페이 도입설과 관련해 당사자로 지목된 현대카드와 애플은 모두 침묵을 지키고 있다.acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>“신용 1등급인데 이자 13% 내래요” 중고차 사지도, 팔지도 못하는 사람들</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002084061?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>신용점수 900점 이상 중고차 금융 최대 19.90%“중고차 사지도 팔지도 말라는 이야기” 원성 ↑대형 캐피털 4사 신용대출은 중단[게티이미지뱅크][헤럴드경제=홍승희 기자] “중고차를 사지도, 팔지도 말라는 얘기입니다. 캐피털 리스 대출을 모두 거절당했어요.”(직장인 A씨)제2금융권 대출 중단 사태가 덮치면서 중고차 시장이 얼어붙고 있다. 자동차 금융을 비중있게 취급하는 캐피털사들이 신용대출을 중단한 데 이어 자체 채널을 통한 중고차 금융을 보수적으로 취급하면서 ‘사지도 팔지도 못한다’는 원성이 터져 나오는 것이다.28일 여신금융협회에 따르면 신용점수 900점(NICE 기준) 이상을 대상으로 한 중고차 금융 상품의 최고금리는 19.90%를 기록하고 있다. 특히 중고차 금융을 비중있게 취급하고 있는 현대캐피탈과 KB캐피탈은 지난 26일과 13일 각각 최고금리를 재공시했는데, 전분기의 평균 실제금리가 각각 9.95%, 8.50%에 불과하던 두 회사는 재공시 결과 9.40~19.50%, 11~16.90%로 금리가 뛰었다.상단금리가 최대 19.50%까지 오르면서 신용등급이 높은 구매자들도 고금리를 산정받거나 대출을 받지 못하는 상황이 발생하고 있다. 통상 중고차는 가격이 신차보다 싸기 때문에 더 저렴한 중고차를 할부로 구매한다는 건 경제 상황이 어렵다고 판단해 중고차 금융상품은 새차 할부금융보다 금리가 높다. 하지만 고신용자에겐 10% 안팎으로 가능하던 중고차 리스 상품 금리가 현재 최대 19%대까지 오른 것이다.중고차를 구매하려던 한 직장인 A씨는 “신용등급이 900점이 훌쩍 넘는데도 작년 8.6%였던 중고차 금융 금리가 이번에 13% 나왔다”며 “다른 캐피털 두 곳에선 대출을 거절당했다. 이러면 중고차를 사지 말라는 이야기”라고 말했다. 또 다른 차 주인은 “대출 1억원 미만에 신용 좋은 사람들도 대출받기가 아슬아슬하다”며 “차를 사지도 팔지도 못하는 상황”이라고 했다.실제 중고차 금융을 취급하고 있는 한 캐피털사 관계자는 “플랫폼을 통해 유입되는 신용대출은 연체율이 높아 이미 중단해놓은 상태”라며 “자동차 금융의 경우 자체 플랫폼을 통해 매우 보수적으로 운영하고 있다”고 설명했다. 또 다른 관계자는 “우량차주 위주로 대출을 내주고 있다”며 “신용이 좋더라도 이미 다른 대출로 채워져 있으면 중고차 금융은 대출이 안 나올 수 있다”고 전했다.캐피털사가 줄줄이 대출을 중단하는 이유는 자금조달에 대한 어려움과 건전성 관리의 필요성이 모두 반영된 결과다. 캐피털사의 경우 대부분 회사채 발행을 통해 영업을 이어 나가는데, 신용등급이 낮은 캐피털채를 사려는 수요는 현저히 떨어지기 때문이다.이 같은 이유로 캐피털사 신용대출의 경우 대출 비교 서비스를 통한 대출은 이미 막힌 상황이라 중저신용자들의 연말 자금공급이 더 어려울 것이란 분석이다. 대출 비교 서비스 토스에 따르면 캐피털사 중 우량한 업체에 해당하는 현대캐피탈, OK캐피탈, DGB캐피탈, 웰컴캐피탈 등 4사는 신용대출 취급을 중단했다. 이들 업체 중 한 관계자는 “리스크 관리가 가장 중요한 시점에서 비교대출 플랫폼을 통해 유입되는 차주들의 연체율이 높은 편이라 중단에 들어갔다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>입지 달라진 알뜰폰, 내년 10명 중 2명 쓰는 'MZ폰'으로</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003248712?sid=105</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[일간스포츠 정길준]   KT는 자사 이동통신망을 사용하는 알뜰폰 고객의 통합 문의 채널을 운영하고 있다. KT 제공     '아재폰' 이미지에 외면을 받았던 알뜰폰이 내년에는 국민 10명 중 2명 이상이 쓰는 일상 서비스로 거듭날 전망이다. 이동통신 3사와 품질은 똑같은데, 약정 부담이 없고 요금은 확 낮춘 강점이 소비자의 선택으로 이어지고 있어서다. 더구나 금융업체들까지 뛰어들어 선택권이 더 다양해지면서 인기는 계속될 것으로 보인다.    28일 과학기술정보통신부에 따르면 지난 10월 기준 국내 알뜰폰 가입자는 1246만2574명으로 전월 대비 20만명 이상 늘었다. 전체 이동통신 가입자(7661만4456명)의 16.27%에 해당하는 수치다.    알뜰폰 가입자는 이통 3사가 5G 서비스를 상용화해 공격적으로 마케팅을 펼쳤던 2019년을 제외하고 해마다 증가세를 보였다.    올해도 매달 약 20만명의 가입자가 유입됐다. 업계 1위 SK텔레콤의 5G 월평균 신규 가입자가 30만명에 조금 미치지 못한 것을 고려하면 눈에 띄는 성장이다. 경기 침체 장기화로 고정비 지출을 조금이라도 줄이려는 수요가 반영된 것으로 보인다.    이런 추세가 이어지면 이르면 2023년 말에는 알뜰폰이 전체 서비스에서 차지하는 비중은 20%(약 1530만명)에 달할 것으로 관측된다. 10명 중 2명은 알뜰폰을 쓰는 셈이다.    알뜰폰의 가장 큰 매력은 저렴한 가격이다.    알뜰폰 1위 KT엠모바일의 '5G 모두다 맘껏 10GB+'는 월 3만3000원에 데이터 10GB를 제공하고, 이를 모두 소진해도 최대 1Mbps 속도로 서비스를 계속 이용할 수 있다. 같은 양의 데이터를 주는 KT의 '5G 슬림'보다 2만원 이상 싸다.    음악을 자주 듣는 고객은 월 4만~5만원에 5G 데이터 100GB 이상을 보장하고 음원 스트리밍 서비스 지니뮤직 이용권을 혜택으로 주는 상품을 선택할 수 있다.      KB국민은행의 알뜰폰 리브모바일은 LG유플러스와 KT에 이어 올해 SK텔레콤과도 망 제휴를 맺었다. KB국민은행 제공     알뜰폰이 이통사 상품 대비 품질이 낮다는 인식은 사라진 지 오래다.    소비자 연구기관 컨슈머인사이트가 매년 집계하는 이동통신 기획조사에서 알뜰폰 체감 만족률은 2020년 이통 3사를 넘어섰다.    올해 하반기 알뜰폰 이용자 만족률은 62%로 전년 동기보다 1%포인트 하락하며 상승세가 주춤했지만 여전히 이통 3사와 8%포인트 격차를 보였다.    여기에 40대 이상이 주를 이뤘던 과거와 달리 젊은 세대가 절반의 비중을 차지하며 알뜰폰의 'MZ폰' 변신을 이끌고 있다. 20~30대 가입자가 2019년 33%에 그쳤지만 올해 49%로 크게 늘었다. 알뜰폰 추천 의향률도 20대 66%, 30대 63%로 높게 나타났다.    이처럼 시장 규모가 안정적으로 커지자 금융업계도 알뜰폰 진출에 팔을 걷어붙였다.    은행권 최초 알뜰폰 사업인 KB국민은행의 리브모바일은 서비스 출시 2년 만에 가입자가 35만명을 돌파하는 성과를 거뒀다. 모든 이통사와 망 제휴를 맺어 서비스 신뢰도를 높였으며, 고객 선호도가 높은 15종의 LTE·5G 상품 라인업을 구축했다.    한 리브모바일 이용자는 온라인 커뮤니티에 "주거래 은행이 국민은행이라면 실적에 따라 요금을 할인해주기 때문에 매우 만족할 것"이라고 했다.    금융 앱 '토스'를 운영하는 비바리퍼블리카도 지난 7월 알뜰폰 사업자 머천드코리아를 인수한 데 이어 내년 1월 관련 요금제를 선보일 계획이다.    정길준 기자 kjkj@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>티사이언티픽, 블록체인 보안업체 아이티노매즈 210억원에 인수</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004830368?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>티사이언티픽이 블록체인 보안업체 아이티노매즈의 지분 100%(30만주)를 210억원에 인수한다고 19일 밝혔다. 자기자본대비 8.61% 규모로, 취득 목적은 블록체인 기반의 신사업 추진이다.설립 18년차인 아이티노매즈는 한국인터넷진흥원(KISA), 한국은행, 한국거래소, 서울특별시, 대법원 등 금융·공공기관뿐만 아니라 삼성SDS, SKC&amp;C, LGU+, LGCNS, 토스페이먼츠 등 다양한 고객을 보유한 보안 솔루션 전문업체다. 아이티노매즈는  2019년 이미지파일 탐지 국내 최초 i-PMS v2.0' GS 인증을 획득했고 , 개인정보 노출 차단 통합솔루션 'i-PMS v2.0'을 론칭했다.  GS인증이란 정부가 소프트웨어 제품에 부여하는 인증제도로, 공공기관 우선 구매 대상  행정 및 공공 정보화 사업 구축·운영 시 우선 도입 대상 제품으로 지정된다.  2020년에는 나이스디앤비로부터 기술등급 중 최상급에 속하는 T-2를 획득할 정도로 기술력을 인정받았다.아이티노매즈는 한국인터넷진흥원과 과학기술정보통신부가 주관하는 '2022년 민간분야 블록체인 시범사업'에 선정되어 기부펀드 블록체인 플랫폼 '드림버튼'을 공개했다. 드림버튼 프로젝트를 시작으로 향후 개인정보보호, 데이터보안사업 외에도 클라우드 및 블록체인과 관련한 신규사업 확대를 계획하고 있다. 이밖에 한국인터넷진흥원의 연구개발(R&amp;D) 연구과제인 '대화형 텍스트 데이터에서 인공지능(AI) 기반 개인정보 탐지 및 비식별화 기술 개발'을 2024년까지 진행할 예정이다.티사이언티픽 관계자는 "기존 IT사업과 아이티노매즈의 '블록체인 IT토탈 솔루션 서비스' 사업간 시너지 창출과 지속적인 투자로 사업 확장할 계획"이라며 "내년에는 블록체인, 보안 IT기업으로서 본격적인 행보를 이어가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.12.17.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>파산한 코인 거래소 FTX, 토스에 왜 투자했을까…진실은</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011596232?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>기사내용 요약뱅크먼-프리드 "한국인 친구 계정에 알라메다 부채 숨겨"FTX, 토스에 1500억원 규모 투자하기도올해 상반기에는 빗썸 인수까지 검토했으나 협상 결렬업계 "FTX, 한국 시장에 대한 투자나 활용도가 컸을 것"[서울=뉴시스]이지영 기자 = 최근 파산을 신청한 글로벌 가상자산(가상화폐) 거래소 2위 'FTX'가 한국(Korea) 계좌를 통해 자회사의 부채를 숨기려 했던 정황이 발견돼 논란이 불거지고 있다. 또한 FTX의 관계사가 최근 국내 핀테크 기업인 '토스'의 지분을 보유 중인 사실도 뒤늦게 발견돼 관심을 끈다. FTX가 그간 사업 과정에서 '한국 시장'을 많이 활용했다는 평가가 다시 한번 부각되면서다.17일 업계에 따르면 FTX가 유동성 위기의 진원지가 된 자회사 알라메다 리서치의 대규모 부채를 감추기 위해 '한국(Korea)' 계정을 사용했다는 분석 결과가 제기됐다. 블룸버그 통신은 지난 14일(현지시간) FTX 내부 문서 분석 결과를 인용하며 "미국 상품선물거래위원회(CFTC)는 샘 뱅크먼-프리드 창업자와 FTX, 알라메다 리서치 등을 상대로 제기한 소송에서 FTX가 80억달러(약10조4960억원)에 달하는 알라메다 부채를 쉽게 구별할 수 없도록 FTX 고객 계정에 숨겼다"고 보도했다.특히 뱅크먼-프리드는 해당 계정에 대해 "우리 한국인 친구의 계정"이라고 언급한 것으로 전해졌다. 알라메다의 급증하는 부채를 감추기 위해 만들라고 지시했다는 것이다.그가 언급한 '한국인 친구'가 실제 한국인의 계좌인지, 단순한 지칭인지는 아직 확인되지 않았다. 다만 FTX의 전 고위 임원인 니샤드 싱의 '깃허브(GitHub)' 계정에 ‘KOREA KYC'와 'BD 비용 계좌' 등이 적혀 있는 것이 블룸버그를 통해 전해졌다. 깃허브는 오픈소스 소프트웨어 커뮤니티로 보통 개발자들이 코드를 저장하고 공유하기 위해 사용하는 프로그래밍 코드 저장소다.이 가운데 그간 FTX가 한국 시장에 높은 관심을 보여왔던 사실이 주목받고 있다. 실제로 뱅크먼-프리드는 사업의 시작이 우연히 알게 된 '김치프리미엄'이었다고 밝힐 정도로 한국 시장에 대한 애정을 직접 드러내기도 했다. 최근에는 FTX의 관계사인 알라메다벤처스가 '토스'의 지분을 보유 중인 사실도 확인됐다. 지난 6일(현지시간) 파이낸셜타임즈가 공개한 FTX 그룹 투자 포트폴리오에 따르면 '알라메다벤처스'로 알려진 '매클로린인베스트먼트'는 한국 기업으로 표기된 '토스'에 투자했다. 투자 규모는 1억1370만달러(약1491억원)다. FTX 측은 토스의 기업가치를 99억3700만달러(약13조373억원)로 평가했으며, 해당 가치에 따르면 알라메다벤처스가 보유한 토스 지분은 약 1.14%다.업계에서는 이를 두고 FTX가 토스를 통해 한국 거래소 사업을 진행하려 했다고 해석했다. 국내 가상자산 벤처캐피탈(VC) 임원 A씨는 "FTX가 토스 통해 은행 계좌 개설하고 거래소 사업을 해보려 한 것으로 안다"고 전했다. 토스는 현재 인터넷 은행인 토스뱅크를 운영 중이다. 하지만 특금법에 따라 토스를 통해 한국에 직접 진출하는 것이 무산되자 빗썸 인수도 추진했다. 실제로 빗썸 인수를 위한 논의가 진행됐으나 올해 상반기쯤 협상이 깨진 것으로 전해졌다. 이 밖에도 FTX는 지난 2018년 7월 한국에 '한남그룹'이라는 법인을 설립하기도 했다. 등기부등본상 한남그룹 대표는 뱅크먼-프리드다. 한남그룹은 사업 목적으로 ▲블록체인 관련 사업 ▲블록체인 관련 경영 컨설팅 및 자문 ▲자산 등에 대한 투자 등을 밝혔다.국내 가상자산 VC 관계자 B씨는 "업계에서는 FTX가 한국에 관심을 많이 두고 있다는 사실이 많이 퍼져있었다"며 "일단 한국이 가상자산 거래량 자체가 많다 보니 2위 거래소로서 한국 시장에 대한 관심이 많을 수 밖에 없고, 이에 따라 한국 시장에 대한 투자나 활용도가 컸을 것"이라고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>다올인베스트먼트, 우리금융 품으로?…피인수설에 주가도 상승세</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000079082?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>(다올인베스트먼트 제공)다올인베스트먼트 주가가 급등세다. 투자은행(IB)업계에서는 다올인베스트먼트의 매각 성사 가능성이 높아진 점을 주가 상승의 배경으로 꼽는다.12월 26일 오전 10시 30분 기준 다올인베스트먼트의 주가는 전 거래일 대비 16.86% 오른 3535원에 거래되고 있다. 다올인베스트먼트의 모회사인 다올투자증권도 전 거래일보다 3.13%오른 2970원에 거래 중이다.금융권에 따르면 인수합병(M&amp;A) 시장에 매물로 나온 다올인베스트먼트의 인수를 위한 우선협상자로 우리금융지주가 유력한 것으로 알려졌다. 우리금융 외에도 신영증권, 미래에셋그룹 등이 주식 매매 거래 경쟁 입찰에 참여했으나 금액과 조건 등에서 우리금융이 가장 앞선 것으로 나타났다.우리금융은 비은행 포트폴리오를 늘리기 위해 지속적으로 인수합병을 추진 중이다. 우리금융은 2019년 지주사 재출범 첫해 우리자산운용, 우리글로벌자산운용, 우리자산신탁 등을 인수했으며 2020년에도 우리금융캐피탈, 우리금융저축은행을 자회사로 편입했다.앞서 지난 12월 6일 다올투자증권은 다올인베스트먼트 매각을 추진한다고 밝혔다. 자사가 보유한 다올인베스트먼트 지분 전량(52%)을 매각하는 조건이다. 다올 측은 2000억원 이상의 매각가를 희망하는 것으로 알려졌다. 지난 23일 종가 기준 이 회사 시가총액 3025억원을 기준으로 순수한 시장 가치는 1573억원 수준이다. 여기에 경영권 프리미엄 등을 덧붙인 가격이 2000억원 이상으로 평가받는 셈이다.다올인베스트먼트는 다올투자증권의 벤처캐피털(VC) 자회사로 전신은 KTB네트워크다. 1981년 설립돼 국내에서는 ‘1세대 VC’라는 평가를 받고 있다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘에 잇달아 투자하며 인지도를 높였다.다올투자증권이 VC 자회사를 매물로 내놓은 건 유동성 위기를 극복하기 위해서다. 현재 다올투자증권은 태국 법인의 매각 작업도 진행하고 있다. 삼일PwC가 VC 자회사와 증권 태국 법인의 자문을 모두 맡았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>‘착오송금’ 반환 지원…5000만원까지 확대</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/662/0000011938?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>예보, 새해부터 적용새해부터는 잘못 송금했을 때 최대 5000만원까지 돌려받을 수 있다.예금보험공사는 21일 ‘착오송금 반환지원 등에 관한 규정’을 개정해 착오송금 반환지원제도 지원금액 상한을 1000만원에서 5000만원으로 확대했다고 밝혔다. 개정사항은 내년 1월1일부터 시행된다. 예보는 “최근 비대면 금융거래가 늘면서 착오송금 발생 건수와 금액이 증가했다”고 배경을 설명했다.착오송금 반환지원제도는 금융소비자가 실수로 보낸 돈을 예보가 대신 찾아주는 것으로 지난해 7월6일 도입됐다. 시중은행은 물론 토스·카카오페이 등 간편 송금업자를 통해 보낸 돈도 돌려받을 수 있다.착오송금 반환지원제도는 예보 누리집 또는 서울 중구에 있는 본사 1층 상담센터에 방문해 신청할 수 있다. 착오송금 여부를 확인할 수 있도록 이체확인증을 함께 제출하면 된다. 송금할 때 이용한 금융사에 자금반환 신청을 먼저 해야 한다. 금융사로부터 돈을 잘못 전달받은 수취인과 연락 불가 또는 반환 거부를 통보받아야 착오송금 반환지원제도를 신청할 수 있다.착오송금으로 인정되면 약 2개월 이내에 잘못 송금한 돈을 돌려받는다. 단, 잘못 보낸 돈에서 우편 안내, 지급 명령 관련 비용 등을 뺀 잔액을 받는다.예보는 최근 착오송금이 늘고 있다며 금융소비자에게 송금 전 ▲예금주·계좌번호 확인 ▲송금액 확인 ▲최근·자동 이체 목록 주기적 정리 ▲음주 후 송금 자제를 당부했다.예보는 “내년 하반기에는 스마트폰으로 착오송금 반환을 신청할 수 있도록 모바일 서비스를 출시할 예정”이라고 밝혔다. 김소진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>"금융당국과 약속 못 지키나" 카카오뱅크, 내일부터 고신용자 대출 중단</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000879248?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 오는 21일부터 고신용자에 대한 신용대출을 중단한다./사진=카카오뱅크 카카오뱅크가 연말 고신용자에게 내주는 신규 신용대출을 한시적으로 중단한다.20일 은행권에 따르면 카카오뱅크는 오는 21일부터 31일까지 중신용대출, 중신용플러스대출, 햇살론15를 제외한 신용대출 상품의 신규 신청을 제한한다.카카오뱅크 관계자는 "연말을 맞아 고신용대출 잔액이 급격히 증가하고 있는 상황이라 부득이 한시적으로 중단하게 됐다"고 설명했다.이번 고신용자 신용대출 중단은 카카오뱅크가 금융당국과 약속한 중·저신용자 대출 비중 목표치를 맞추기 위한 조치로 분석된다.중·저신용자란 신용평점 하위 50%인 대출자로 KCB(코리아크레딧뷰) 기준 신용점수가 850점 이하인 경우를 말한다.카카오뱅크의 중·저신용자 대상 신용대출 비중(잔액 기준)은 지난 9월말 기준 23.2%다. 이달말까지 금융당국과 약속한 목표치인 25.0%를 달성하려면 1.8%포인트 끌어올려야 한다.앞서 카카오뱅크는 중·저신용자 대출 비중을 끌어올리기 위해 지난해 11월부터 올 6월까지 고신용자 대상 대출을 한시적으로 중단한 바 있다.카카오뱅크 뿐만 아니라 케이뱅크, 토스뱅크 등 인터넷전문은행들은 중·저신용자 대출을 확대하라는 금융당국의 주문에 따라 해당 비중을 확대하고 있다.케이뱅크도 올해말 중·저신용자 대상 신용대출 비중을 25%까지 끌어올려야 하는데 지난 9월말 기준 해당 비중은 24.7%로 집계됐다.토스뱅크의 중·저신용자 대출비중은 지난달 19일 기준 40.1%로 연말 목표치(42%)에 바짝 다가섰다.한편 금융당국은 지난 5월 발표한 '혁신적 포용금융을 위한 인터넷전문은행 중·저신용자 대출 확대 계획'에서 "인터넷은행이 (중·저신용자 대출 확대) 계획을 미이행하면 신사업 인허가 등에 고려하겠다"고 명시한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>"카톡 쓰면 '아재' 소리 들어요"…Z세대는 '인스타'가 대세</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002079164?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>NHN데이터, 2800만명 앱 설치 분석 유일하게 Z세대 카톡대신 인스타 1위[헤럴드경제=채상우 기자] Z세대(현 13∼24세)가 가장 많이 설치한 앱은 '인스타그램'인 것으로 나타났다.NHN데이터는 안드로이드 이용자 2800만 명의 앱 설치 데이터를 α(알파) 세대(0세∼12세), Z세대(13∼24세), 밀레니얼 세대(25∼44세), X세대(45∼59세)별로 분석한 결과를 16일 공개했다.이에 따르면 카카오톡은 α·밀레니얼·X세대를 통틀어 가장 많이 설치한 앱으로 나타났으며, 유일하게 Z세대에서만 인스타그램·네이버에 이어 3위를 기록했다.엔터테인먼트 및 소셜미디어 앱으로 범주를 좁히면 Z·밀레니얼 세대는 인스타그램을 가장 많이 설치했고 X세대는 '밴드'를 가장 많이 이용했다.반면 α세대에서는 게임·메타버스 플랫폼 '로블록스'가 1위를 차지했고, 이어 '틱톡'과 '포켓몬 고' 순으로 나타났다.금융 앱은 '토스', 식품 앱은 '배달의민족'이 전 세대를 통틀어 설치율 1위로 나타났다.X세대의 경우 Z·밀레니얼 세대와 비교해 신용카드 관련 앱 설치율이 높게 나타났고, '포켓 CU'·'나만의냉장고'·'세븐일레븐' 등 편의점 앱은 α·Z세대에서 상위권에 들었다.특정 세대의 설치 비중이 높은 앱은 생애주기에 따른 생활 패턴 변화를 반영하고 있었다.저연령층인 α세대의 경우 무료 게임 앱이 높은 비중을 차지했다. 반면 청소년∼20대 초반인 Z세대는 '나라사랑포털'·'병무청 간편인증' 같은 병역 관련 앱, 가정통신문 앱 '아이엠스쿨 학생', 대학생 커뮤니티 '에브리타임' 설치율이 높았다.사회인 비중이 높은 밀레니얼 세대는 '280days', '열나요', '베이비타임' 등 임신·출산·육아 관련 앱이 1위부터 10위까지를 석권했고 중장년층인 X세대는 'SBS골프'·'JTBC골프'·'골프몬' 등 골프 관련 앱이 상위권을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 피유엠피, 200억 원 규모의 시리즈B 투자 유치</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003470256?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아가 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.피유엠피, 200억 원 규모의 시리즈B 투자 유치공유 킥보드 '씽씽'을 운영하는 피유엠피가 200억 원 규모의 시리즈B 투자를 유치했다. 이번 투자는 TS인베스트먼트와 SK 주도로 진행했으며, 한국정보통신, KB인베스트먼트, 신한캐피탈 등이 신규 참여했다.출처: 피엠피유씽씽은 올해 3분기 영업이익을 달성했다. 씽씽은 모든 기기를 본사가 소유해 급변하는 시장 변화에 유연하게 대처가 가능하다. 기기 소유권까지 넘기는 프랜차이즈식 운영 방식보다 시장에 빠르게 대응하며, 높은 수익성을 노릴 수 있다.기술 및 서비스 기획 경쟁력과 성장성도 인정받았다. 씽씽은 지난 2022년 10월 신형 모델 ‘Q1.0’을 도입해 킥보드 이용자의 안전과 편의 확보에 주력했다. 씽씽 자체 앱뿐만 아니라 카카오모빌리티, 티맵모빌리티, 티머니고 등 다양한 모빌리티 플랫폼에서 씽씽을 이용할 수 있도록 제공한다. 또한, 올해는 ‘블록체인' 제휴를 통해 새로운 리워드 서비스 ‘씽씽걷기'를 선보였다.씽씽은 이번 투자 유치 자금을 통해 신규 기기를 확보하고, 인공지능 기반의 퍼스널모빌리티 플랫폼을 개발할 예정이다. 피유엠피 김상훈 대표는 “이번 시리즈B 투자는 얼어붙은 투자 시장 혹한기 속에서 씽씽의 경쟁력과 미래 성장성을 인정받은 것”이라며, “앞으로도 지속적인 기술 개발과 준법 경영을 통해 고객 서비스 품질을 높여나가겠다"라고 강조했다.온다, 120억 원 규모의 시리즈B 투자 유치온다가 120억 원 규모의 시리즈B 투자를 유치했다. 이번 투자는 티에스인베스트먼트, 나우IB캐피탈, 기업은행, 스퀘어벤처스, 케이브릿지인베스트먼트, 브리즈인베스트먼트 등이 참여했다. 누적 투자 유치 자금은 315억 원 규모다.출처: 온다온다는 지난 2016년 설립한 호텔 및 숙박 B2B SaaS 기업이다. 올 상반기 최초로 반기 거래액 1,000억 원을 돌파했으며, 매출은 지난해 대비 2배 이상 성장했다. 국내 온라인 숙박 판매 시장의 60~70%를 커버하는 통합 판매 시스템 ‘ONDA HUB(구 온다 GDS)’를 중심으로 호텔 SaaS 솔루션 ‘호텔 플러스’, 펜션 등 중소 숙박 SaaS 솔루션 ‘펜션 플러스’ 등이 주요 사업모델이다. 또한 지난 2년여간 개발한 호텔 PMS ‘DIVE’를 오는 2023년 1월 공개할 예정이다.온다는 이번 투자 유치를 통해 국내 호텔 시장의 디지털 전환 사업을 가속화하고, 인바운드 고객 유치를 위한 시스템을 개발할 예정이다.해외 진출도 본격화한다. 온다 오현석 대표가 글로벌 사업 TF 리더를 맡아 동남아 호텔 시장에 진출하고 있다. 글로벌 시장에서 한국 아웃바운드 관광객이 편하게 현지 호텔을 이용할 수 있도록 솔루션을 제공할 예정이다.온다 오현석 대표는 “이번 투자 유치로 온다 사업 방향은 시장에서 인정받은 증거”라며 “포스트 코로나 시대에 국내는 물론 글로벌 시장에서도 K-관광 시장의 성장을 뒷받침하는 기업으로 성장하겠다”라고 전했다.스테이폴리오, 100억 원 규모의 시리즈 A 투자 유치스테이폴리오가 100억 원 규모의 시리즈A 추가 투자를 유치했다. 이번 투자는 TBT와 IBX파트너스, 쿼드자산운용 등이 참여했다.출처: 스테이폴리오스테이폴리오는 ‘파인 스테이’라는 여행 장르를 개척하며 전세계 430여 개의 파인 스테이를 추천하고 있다. 고객과 숙박시설 연결뿐만 아니라 공간에 대한 콘텐츠와 개인 맞춤형 추천 등을 제공한다. 특히, ‘AMAN’과 직계약을 통해 국내 독점으로 서비스를 제공하고 있다.스테이폴리오는 이번 투자 유치를 통해 글로벌 경쟁력을 강화할 계획이다. 싱가포르, 일본 지사를 바탕으로 시장 점유율을 높이고, 공간 경험을 제공할 수 있는 서비스 및 독점 숙소를 개발해 공간 경험 플랫폼으로 진화한다는 목표다.스테이폴리오 이상묵 대표는 “어려운 시장 상황에도 불구하고 성장성을 바탕으로 투자를 유치할 수 있었다“라며, “글로벌 여행 활성화로 인/아웃바운드가 증가했고, 기술 발전으로 숙박 시장 내 스마트 기술 도입 속도는 빨라졌다. 이번 투자 유치를 계기로 해외 점유율을 높일 수 있도록 경쟁력을 강화할 것”이라고 전했다.오내피플, 시리즈A 투자 유치온라인 개인정보보호 솔루션 ‘캐치시큐'를 운영하는 오내피플이 파이오링크로부터 시리즈A 투자를 유치했다.오내피플 조아영 대표, 출처: IT동아캐치시큐는 개인정보 보호법·정보통신망법 등 88개의 법률 조항 준수에 필요한 업무를 관리할 수 있는 B2B SaaS 솔루션이다. 개인정보 동의서·처리 방침 문서 작성, 개인정보를 안전하게 수집하여 관리할 수 있는 보안 시스템 등을 제공한다.최근 오내피플은 이벤트, 상담, 문의 접수 등 여러 상황에서 수집하는 개인정보를 인공지능이 자동 탐지하고 분류해 동의서를 만드는 AI 캐치폼 기능을 출시했다. 개인정보보호 전문 지식 없어 개인정보를 규제에 맞춰 관리할 수 있어 글로벌 대기업, 국내외 스타트업, 공공기관, 협회 등이 서비스를 이용하고 있다.오내피플 조아영 대표는 “얼어붙은 스타트업 투자 시장 속에서 캐치시큐 서비스의 성장 가능성과 사업성을 인정받았다”라며, “이번 시리즈A 투자 유치 자금을 통해 개인정보 관리 자동화 영역을 확대, 개인정보를 안전하게 보호하고 활용할 수 있는 서비스로 고도화할 계획”이라고 밝혔다.페이워크, 프리-시리즈A투자 유치자영업자 및 특수고용근로자를 위한 업무 정산 SaaS 스타트업 페이워크가 프리-시리즈A 투자를 유치했다. 이번 투자는 더인벤션랩, IPS벤처스, PMF인베스트먼트, 프라이머사제 파트너스가 참여했으며 규모는 비공개다.출처: 페이워크페이워크는 특수형태근로종사자, 프리랜서, 긱워커(초단기 근로자) 등의 계약 관리를 위한 서비스다. 견적서, 거래명세서, 청구서, 현금영수증 등 개인 사업자들이 주고받는 문서 작성과 발행, 관리 등에 필요한 시간과 수고를 덜기 위해 개발했다.기존 견적서 작성 및 발행은 주로 엑셀 등 문서 편집 프로그램과 이메일 전송을 통해 진행했다. 이에 페이워크는 이동이 잦은 고객 업무 형태에 적합한 모바일 앱 서비스를 제공한다. 필수 정보만 입력하면 1분 안에 할인, 부가세 등을 적용한 맞춤 견적서를 완성할 수 있으며, PDF, 이미지, 링크 등을 메신저와 이메일로 바로 공유할 수 있다.정확한 정산과 분쟁 방지 등을 위한 ‘변경 사항 히스토리’ 기능도 제공한다. 수량 및 금액 등의 수정 기록, 상대방 열람 시간, 서명 완료 여부 등을 시간 순서대로 히스토리에 남아 확인할 수 있다. 고객 정보 및 미수금 관리도 할 수 있으며, 카드 단말기 없이 고객에게 카드 결제를 안내할 수 있는 신용카드 및 네이버페이 결제도 지원한다.페이워크 손지인 대표는 “페이워크는 청구하고 정산받는 과정을 간편히 진행하고, 고객은 일에만 집중할 수 있도록 돕는 것이 목표”라며, “사업자 수는 지난해 900만 명을 돌파했다. 자영업자 및 특수형태근로종사자가 늘어나고 있는 만큼, 이용자가 인지하지 못하는 불편함까지 해결할 수 있도록 서비스를 고도화할 것”이라고 말했다.브레이브터틀스, 퓨처플레이로부터 프리-시리즈A 투자 유치브레이브터틀스(Brave Turtles)가 퓨처플레이로부터 프리-시리즈A 브릿지 투자를 유치했다고. 올해초 프리 시드 투자 유치 후 진행한 추가 투자 유치로, 금액은 비공개다.출처: 브레이브터틀스브레이브터틀스는 메타버스 및 소셜 게임을 전문 개발하는 게임 스튜디오다. 지난 2022년 11월말 패션 토너먼트 배틀 신규 월드 ‘런웨이 Z(Runway Z)’를 메타버스 플랫폼 제페토에 출시했다.런웨이 Z는 사용자가 자신의 아바타를 패션 테마에 맞춰 다양하게 스타일링하고 런웨이에 올려, 투표를 받아 승자를 결정하는 토너먼트 방식 게임이다. 총 8명이 함께 즐길 수 있는 멀티플레이 기능과 사용자들이 소통할 수 있는 소셜 기능을 지원한다.런웨이 Z는 출시 일주일 만에 방문자 수 100만 명을 기록했으며, 같은 기간 전체 제페토 월드 중 가장 높은 방문율을 보였다. 출시 3주가 지난 현재 방문자 수는 400만 명 이상이며, 제페토 월드 중 사용자당 가장 긴 게임 플레이 시간을 기록했다.브레이브터틀스 케빈 김 대표는 “런웨이 Z는 사용자와 소통하며 매일 새롭게 업데이트하고 있다”라며, “이번 투자 유치를 통해 앞으로 런웨이 Z를 스테디셀러로 만들고 계속해서 새로운 메타버스 월드를 개발해 메타버스 콘텐츠 스타트업으로 자리매김할 것”이라고 전했다.에프랩앤컴퍼니, 매쉬업엔젤스로부터 초기 투자 유치현직 및 예비 개발자를 위한 개발자 멘토링 서비스 ‘에프랩(F-Lab)’을 운영하는 에프랩앤컴퍼니가 초기 스타트업 전문 투자사 매쉬업엔젤스로부터 초기 투자를 유치했다.에프랩앤컴퍼니는 개발자 역량 강화를 위한 교육 및 멘토링 서비스를 제공하는 스타트업이다. 하이퍼커넥트, 네이버 등에서 10년 이상 개발 업무한 박중수 대표를 주축으로 카카오스타일, 넥스터즈, 엘리스 출신의 개발자 및 PM 등 전문 인력으로 팀을 구성했다.출처: 에프랩앤컴퍼니에프랩(F-Lab)은 신입 개발자들이 중급 개발자로 성장할 수 있도록 돕는 액셀러레이팅 프로그램으로, 개발자를 위한 소수 정예 멘토링 서비스를 제공한다. 에프랩의 멘토풀은 구글, 페이스북, 네카라쿠배 등 빅테크 기업 출신 개발자 중 기술 역량과 이력 등을 검증해 선발한 전문가들로 구성되어 있다.에프랩 수강생은 온라인으로 2:1 소수 정예 멘토링을 받을 수 있으며, 멘토에게 기술, 커리어 관련 조언과 피드백을 요청할 수 있다. 멘토와 토론하는 플립러닝(flipped learning) 방식 멘토링으로, 선행학습 후 멘토의 질문을 통해 추론하며 개발할 수 있는 방법과 논리적인 사고를 갖출 수 있도록 돕는다. 현재 에프랩의 개발자 멘토는 약 100명이며, 누적 교육생 500명을 달성했다.에프랩앤컴퍼니 박중수 대표는 “이번 투자 유치를 통해 실력과 경험을 갖춘 개발자 멘토풀을 확대해 멘토링 프로그램 활성화 및 지식 선순환 구조를 가속화할 예정”이라며, “향후 멘토단과 함께 개발자 역량 강화를 위한 콘텐츠를 발행할 예정이며, 사수가 없는 초급 개발자들도 중급 개발자로 성장할 수 있도록 기업과 교육 연계 강화에도 주력할 계획”이라고 말했다.씨그로, 중기부 팁스 프로그램 선정이커머스 성과 통합 솔루션 씨그로(cigro)가 중소벤처기업부가 주관하는 팁스(Tech Incubator Program for Startup, TIPS) 프로그램에 최종 선정됐다. 팁스는 중기부가 주관하는 민간투자주도형 기술 지원 프로그램으로, 민간 투자사가 선발한 스타트업에 정부가 2년간 최대 5억 원의 연구개발(R&amp;D) 비용을 지원해 스타트업의 기술 개발과 사업화를 돕는다.출처: 씨그로씨그로는 이커머스 사업자를 돕기 위한 데이터 통합 솔루션이다. 판매 및 광고 채널을 연동해 데이터를 자동 집계한 후, 이를 대시보드로 제공하는 것이 포인트다. 이용자는 해당 데이터들을 성과 알림톡으로 받아볼 수 있다. 또한, 데이터를 바탕으로 공헌 이익을 산출해 대표 및 경영진의 경영 판단을 돕는다.씨그로 김응진 대표는 "최근 시드 투자 유치에 이어 팁스 선정이라는 성과를 달성했다. 데이터 솔루션 역량 고도화를 위해 연구개발을 계속할 예정"이라며, "이커머스 기업를 위한 데이터 기반 경영관리 시스템을 정착시킬 수 있도록 노력할 것"이라고 전했다.카카오벤처스, 2022년 투자 활동 발표카카오벤처스가 올해 43개 스타트업에 500억 원 이상 신규 및 후속 투자를 진행했다. 전체 투자 건 중 시드 투자와 프리-시리즈A 투자는 약 84%였으며, 기존 패밀리(피투자사) 후속 투자는 16%를 각각 차지했다. 분야별로는 서비스 16곳, 딥테크 7곳, 게임 4곳, 디지털헬스케어 16곳이다. 투자 금액은 서비스 분야 242억 원 규모, 딥테크 분야 150억 원 규모로 집계됐다.출처: 카카오벤처스신규 투자한 스타트업은 31곳이다. 전년도 신규 투자는 28건이었다. 신규 투자는 시드 22건, 프리-시리즈A 7건이었다. 31곳 중 25곳은 카카오벤처스가 각 기업의 최초 기관 투자사로 이름을 올렸다. 미국과 싱가포르 등 해외 스타트업에도 투자했다.서비스 분야는 에듀테크, HR, 중고거래, 콘텐츠, 웰니스 등의 분야에서 ICT 기술을 바탕으로 문제를 풀어나가는 팀에 주목했다. 딥테크는 드론, AI, 이미지 영상처리 등 기술력과 확장성을 가진 팀에 투자했다. 디지털헬스케어는 모바일 헬스부터 의료데이터, 전임상지원, 원격의료 등에 진행했다.올해는 카카오벤처스 패밀리 중 시프트업과 한국신용데이터 두 회사가 유니콘으로 평가 받았다. 두 회사는 카카오벤처스가 지난 2016년 첫 기관 투자사로 초기 투자했다. 지난 2014년 투자한 의료 인공지능 기업 루닛은 올해 코스닥에 상장했다. 간편 운동식 전문기업 허닭과 애드테크 리메이크디지털, 모바일 영상 솔루션 개발사 삼십구도씨는 인수합병(M&amp;A)을 진행했다.카카오벤처스는 패밀리 성장을 위한 외부 전문가 연결을 강화한 한해라고 평가했다. 올해 임형철 블로코어 대표를 웹3 부문 밸류업파트너로 영입해 웹3 관련 패밀리가 필요할 때 실질적인 도움을 주기 위해 노력했다. 카카오벤처스는 지난 2018년부터 프로덕트, 운영, 게임, 그로스해킹, 조직관리 등의 전문가와 함께하며 패밀리가 도움을 요청할 때 자문할 수 있는 ‘밸류업파트너’ 프로그램을 운영 중이다.카카오벤처스 정신아 대표는 "모험자본시장의 최고와 최저를 오간 2022년은 지난 10년 간 스타트업 생태계에 유래없을 정도로 모든 스타트업에게 어려운 시기였다. 스타트업은 본질과 기본 체력에 집중하며 어려운 시기를 보내고 있고, 카카오벤처스도 기본으로 돌아가는 한 해였다”라며, "2023년은 극초기 투자 본질에 집중하며, 패밀리의 나머지 부분을 채워주고 어려울 때 든든한 코파일럿으로 스타트업의 여정을 함께 만들어나가겠다"라고 밝혔다.카카오벤처스는 지난 2012년 케이큐브-1호 벤처투자조합을 시작으로 3,500억 원 규모 이상의 펀드 9개를 결성했다. 2022년 기준, 운용 중인 펀드는 8개이며, 총 패밀리는 240곳 이상, 누적 투자금은 3,200억 원 이상이다.베이스인베스트먼트, 2022년 총 32개 사에 324억 원 투자베이스인베스트먼트가 올해 총 32개 사에 324억 원을 투자했다. 시드 및 프리-시리즈A에 투자한 비중은 82%이며, 2022년 하반기에 집행한 투자 비중은 60% 이상이다.출처: 베이스인베스트먼트베이스인베스트먼트는 ‘스타트업의 첫번째 동반자’를 지향한다. 올해 투자한 기업 중 첫 번째 기관 투자자인 비중은 60% 이상이다. 주요 기업은 ‘모요’, ‘나만의닥터(메라키플레이스)’, ‘핵클’, ‘메디빌더’, ‘레베뉴마켓’, ‘부스터스’ 등이다. 올해 후속 투자한 규모는 총 투자 금액의 30%에 해당하는 101억 원 규모다. 올해 초 1,280억 원 규모의 블라인드 펀드 결성 당시 취지에 맞춰 극초기 단계 이후 성장성이 높은 유망 스타트업에 적극 투자했다.또한, 베이스인베스트먼트에서는 초기 스타트업이 시행착오를 줄이며 성장할 수 있도록 돕기 위해 기존 채용 및 기술 자문역의 전문 어드바이저에 더해, 올해부터 비바리퍼블리카(토스) 공동창업자 출신 이태양 그로쓰 파트너를 합류시켰다. 이외에도 예비 및 극초기 스타트업 대상으로 3~6개월 동안 사무 공간을 제공하는 창업가 라운지 운영을 시작했다.베이스인베스트먼트 신윤호 대표는 “초기 스타트업의 성장을 돕는 미션을 꾸준히 수행하는 과정”이라며, “시장 상황에 좌우되기 보다 이럴 때 일수록 적극적으로 초기 스타트업에 투자하겠다”라고 밝혔다동아닷컴 IT 전문 권명관 기자 tornadosn@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2금융권, 플랫폼 대출 영업 축소···대출총량 관리 나서</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003195073?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>토스 대출 비교 서비스에서 2금융권 일부 회사들이 ‘점검’이라는 이유를 들어 조회 서비스를 제공하지 않고 있다.   토스 화면 캡처·연합뉴스연말을 맞아 2금융권이 가계대출 총량 및 건전성 관리에 나서면서, 플랫폼을 통해 판매하던 대출 상품 취급을 한시적으로 중단했다. 저소득·저신용 등 취약차주는 2금융권에서도 대출받기 어려운 상황에 놓였다.26일 금융권과 연합뉴스에 따르면 최근 2금융권은 대출 비교 플랫폼에서 일반 대출뿐만 아니라 햇살론 등 정책서민금융의 대출 신청을 받지 않고 있다.지난 23일 기준 토스의 대출 비교 서비스에 입점한 금융사 52곳 중 22곳이 올해 연말까지 대출 조회 결과를 제공하지 않고 있다. SBI저축은행은 신용대출, 웰컴저축은행은 ‘웰컴중금리대출’ 신청을 받지 않고 있다.이들 금융회사는 대부분 자사 금융 애플리케이션(앱) 등을 통해서만 대출 신청을 받고, 대출 심사를 더욱더 까다롭게 하고 있다.한 저축은행 관계자는 “금융당국에서 부여한 대출 총량 규제 목표치를 거의 채웠다”라며 “이 때문에 햇살론과 일반 신용대출을 거의 취급하지 못하고 있다”라고 말했다. 건전성 관리를 위해 대출 속도를 조절하는 분위기도 저축은행업계 전반에 퍼져 있다.이에 따라 생활비 등 실수요 목적의 대출이 급한 취약차주는 제도권에서 대출받기가 더 어려워졌다.금융당국은 취약차주를 지원하기 위해 정책서민금융 상품의 보완 방안을 논의하고 있다. 금융위는 내년도에 100만원 한도 내에서 생활비를 빌려주는 ‘긴급 생계비 대출’을 도입한다. 또 정책금융상품의 금리 조정 방안, 한도 확대 방안 등을 검토하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>저축銀·캐피털·대부업 1위업체들도 돈줄 말라 ‘개점휴업’</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003737391?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>줄줄이 신용대출 중단… 서민들, 불법 사금융으로 밀려날 우려							캐피털(할부 금융)업계 1위 현대캐피탈, 최대 저축은행인 SBI저축은행, 대부업계 선두 ‘러시앤캐시’가 신규 신용 대출을 사실상 중단했다. 자금 사정이 악화되고, 부실 대출 우려가 커지자 업계 1위 업체들마저 대출 창구를 닫아버린 것이다.2금융권과 대부업체의 경우 대개 저신용 서민들이 주로 이용하는데, 당장 연말 만기가 도래해 상환해야 할 대출이 많은 다중 채무자들이 ‘대출 절벽’ 현상 때문에 불법 사채 시장으로 밀려날 우려가 커지고 있다.사진=게티이미지 자산 38조 현대캐피탈 개점휴업							28일 금융권에 따르면, 현대캐피탈은 최근 토스, 카카오뱅크, 카카오페이, 핀다 등 대출 비교 플랫폼을 통한 신규 대출을 중단했다. 현대캐피탈 관계자는 “대출 비교 플랫폼에서는 연말까지 대출 비교 서비스를 중단했지만, 현대캐피탈 웹·애플리케이션 등 자체 채널 등을 통해서는 신규 대출이 가능하다”면서 “이전보다 보수적으로 대출 심사를 하고 있긴 하다”고 말했다.캐피털업계에서는 자산 규모가 38조2000억원으로 업계 전체의 18%에 달하는 압도적인 1위 회사가 대출을 사실상 중단한 것을 심각하게 받아들이고 있다. 캐피털업체들은 수신 기능이 없어 대부분의 자금을 채권 발행을 통해 조달하는데, 최근 채권과 자금 시장이 말라붙어 조달 비용이 급격히 늘어난 것이 결정적인 원인이다. 업계 관계자는 “회사 신용 등급이 ‘AA0′로 업계에서 가장 높은 현대캐피탈마저 추가 대출을 줄이려고 할 정도면, 업계 전체가 사실상 개점휴업 상태라고 봐야 한다”고 했다. 저축은행업계 대출 축소 도미노							저축은행 역시 일반 대출 상품은 물론 햇살론 등 정책금융 상품 취급을 대폭 축소하고 나섰다. 자산 규모 기준으로 저축은행업계 1위인 SBI저축은행은 연말까지 신용 대출을 받지 않는다. 웰컴저축은행은 웰컴중금리대출, 신한저축은행은 햇살론 상품 신청을 중단했다. 대부분 자사 앱 등을 통한 대출 신청만 받고 대출 심사는 더욱 까다롭게 하는 방식으로 취급하는 대출을 대폭 줄인 것이다. 이처럼 연말·연초까지 ‘점검’을 이유로 대출 비교 플랫폼에서 조회 결과를 제공하지 않는 금융사가 카카오페이 57곳 중 37곳, 토스 52곳 가운데 22곳에 달한다.2금융권에서도 밀려난 서민들이 주로 찾게 되는 대부업계 역시 상황이 마찬가지다. 대부업체는 대부분 저축은행이나 캐피털에서 자금을 조달하는데 2금융권의 조달 창구가 막히자 대부업계도 영향을 받는 것이다. 최근 대부업계 1위 업체인 아프로파이낸셜대부(러시앤캐시)는 신용 대출을 포함한 모든 신규 대출을 아예 중단했다. 조달 금리가 계속 올라 이미 법정 최고 금리인 연 20% 상단에 가까운 금리로 영업을 해오던 대부업계는 신규 대출 취급을 축소하는 추세다.대부업계 신용 대출 10만명 가까이 줄어							2금융권과 대부업체가 차례로 대출 빗장을 걸게 되면, 돈을 빌릴 곳이 없어진 저신용 서민들은 제도권 밖의 불법 사금융 등으로 밀려날 위기다. 실제로 올해 대부업체가 취급하는 신용 대출 규모가 작년보다 줄어든 것으로 나타났다.28일 진선미 더불어민주당 의원이 금융감독원에서 받은 자료에 따르면, 대부업계에서 신용 대출을 받은 대출자는 지난해 12월 말 106만7005명에서 올 9월 말 96만8688명으로 9만8317명 감소했다. 대출 잔액 역시 지난 연말 8조4578억원에서 올 9월 말 8조373억원으로 줄어든 것으로 나타났다. 특히 저신용자의 감소세가 두드러졌다. 신용 점수가 300점대(300~399점)인 저신용 차주가 44만2336명에서 37만1504명으로 7만832명 감소해 가장 큰 감소 폭을 보였다. 700점대 차주가 2만2234명 감소했고, 600점대가 8678명 줄었지만 500점대 차주는 2545명, 400점대 차주는 345명으로 소폭 늘었다.금융감독원에 따르면, 올해 6월 말 기준 대부업체 대출 가운데 담보 대출이 8조5488억원으로 53.8%를 차지했다. 신용 대출은 7조3276억원(46.2%)에 그쳤다, 대부업의 신용 대출 비율은 작년 6월 말 48.1%를 기록해 사상 처음으로 50% 아래로 내려간 뒤 계속 줄어들고 있다. 담보가 없는 저신용자들은 대부업체에서도 돈을 빌리기가 어려워지고 있다는 뜻이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>‘숙제 마감’ 코앞이라···카카오뱅크, 최저 연 4.45% 중신용대출 특판</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003194176?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>카카오뱅크 제공카카오뱅크가 연말까지 최저금리 연 4%대의 중신용대출 상품을 특별판매한다고 21일 밝혔다. 금융당국에 제출한 중·저신용자 대상 신용대출 비중을 맞추기 위해 막판 스퍼트를 올리는 것으로 풀이된다.카카오뱅크는 이날 최저금리 연 4.45%, 최대한도 1억원의 중신용대출 상품 특판을 시작했다. 대출금리를 종전 대비 최대 1.98%포인트 인하했다.대출 대상은 신용점수 하위 50%(코리아크레딧뷰로 기준 850점 이하), 연 소득 2000만원 이상, 재직기간 1년 이상인 차주(대출받는 사람)다. 원(리)금 균등분할 상환 방식으로, 최대 10년까지 빌릴 수 있다. 중도상환해약금은 면제다.이 상품은 이달 말까지 판매되지만, 한도 2000억원이 소진되면 조기 종료될 수 있다.카카오뱅크는 또 이달 말까지 대출을 새로 실행한 중·저신용 차주를 대상으로 첫 달 이자를 지원하는 행사를 하고 있다. 별도로 신청하지 않아도 첫 달 이자가 차주 본인 명의의 카카오뱅크 계좌로 지급된다.카카오뱅크가 중신용대출 상품 금리를 대폭 인하해 특판에 나선 것은 중·저신용 신용대출 비중을 올리기 위해서인 것으로 해석된다. 카카오뱅크는 중신용대출 특판과 함께 고신용자에 대한 대출을 한시적으로 중단했다.카카오뱅크는 올해 연말까지 중·저신용자 대출 비중 25%를 달성하겠다고 금융당국에 약속했으나 아직 이 비율을 맞추지 못한 것으로 보인다. 지난 9월 말 기준 카카오뱅크의 중·저신용자 대출 비중은 23.2%다.앞서 금융당국은 인터넷전문은행이 중·저신용자 대출 확대라는 설립 취지와 달리 고신용자 위주로 신용대출을 실행하자, 이들 은행에 중·저신용자 대출 비중 목표치를 제출하도록 한 바 있다.또 다른 인터넷은행 케이뱅크는 연말까지 이 비중을 25%, 토스뱅크는 42%로 올릴 계획이다. 지난 9월 말 케이뱅크의 중·저신용 대출 비중은 24.7%, 토스뱅크는 39.0%였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.12.18.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>혁신이라더니...금융상품 판매통로 된 알뜰폰</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004943557?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카, 1월 알뜰폰 서비스 출시공격적 마케팅 펼친 KB국민은행, ‘리브엠’ 인기몰이통신업계 “도매대가 이하 요금제 경쟁 촉발될까 우려”중소형업체 “거대 금융업 사업 확장 막아야” [파이낸셜뉴스] 오는 1월 비바리퍼블리카(토스)가 알뜰폰 사업에 진입한다. 금융권에서는 국민은행에 이어 두 번째다.   금융당국의 금산분리 완화 조치 결과에 따라 금융권의 알뜰폰 사업 진출이 가속화될 것으로 전망돼 중소 알뜰폰 업체의 반발이 커지고 있다.    ■토스도 다음 달 알뜰폰 출시  18일 금융권에 따르면 토스는 지난 7월 인수한 알뜰폰 업체 머천드코리아의 홈페이지를 ‘토스모바일’로 정식 개편하며 알뜰폰 출시를 공식화했다. 토스 관계자는 “토스앱 유저를 상대로 알뜰폰 서비스 관련 선호도 조사를 마쳤다”면서 “현재 요금제 등 세부 내용을 조율 중”이라고 말했다. 출시일은 내년 1월 말로 예정됐다.   토스는 알뜰폰 가입부터 결제, 민원 처리까지 원스톱으로 구성해 사용자의 편의성을 높이겠다는 전략이다. 기존 토스 앱을 사용하던 고객들이 별도로 통신사 앱을 설치하지 않고도 토스모바일을 통해 데이터 사용량, 요금 조회, 요금제 변경 등의 서비스를 누릴 수 있게 만들 예정이다. 고객 서비스(CS) 처리 미흡 등 기존 알뜰폰 사용자들이 지적해온 부분도 24시간 고객센터를 운영해 대비한다. 금융업계 중 토스보다 먼저 알뜰폰 사업에 뛰어든 곳은 KB국민은행이다. 가입자 수는 2년 만에 35만명을 넘겼다.   특히 금융위가 지난달 열린 제4차 금융규제혁신회의서 금산분리 제도 개선방안을 논의한 만큼 금융계의 알뜰폰 등 비금융업 진출이 더욱 늘어날 것으로 전망된다.   타 시중은행들도 알뜰폰 서비스 관련 물밑 작업에 들어간 것으로 파악됐다. 시중은행 관계자는 “기존 금융정보에 더해 통신정보를 기반으로 여러 상품을 설계할 수 있는 것이 큰 장점”이라며 “신용대안평가 혹은 대출, 보험 기존 은행 상품 개발에도 활용할 수 있다”고 기대했다.    ■알뜰폰업계 "우린 뭐 먹나" 볼멘소리 통신업계는 과도한 출혈경쟁을 이유로 반발하고 있다. 윤영덕 더불어민주당 의원실에 따르면 국민은행의 리브엠은 지난 2020년과 2021년 각각 139억원, 184억원 손실을 냈다. 은행의 통신업 진출이 사실상 금융상품을 판매하기 위한 통로라는 지적이다.   요금제 경쟁을 촉발할 것이란 우려도 나온다. 이미 금융상품과 연계된 알뜰폰 요금제가 나온 상황에서 더 많은 금융사가 진입할 경우 저가 요금 경쟁이 더욱 심해질 것이라는 해석이다. 한 알뜰폰 업체 관계자는 “막대한 자본력을 갖춘 시중은행이 알뜰폰 사업에 진출하면 가격 경쟁력에서 상대가 될 수 없다”면서 “연계할 금융상품도 없고 상대적으로 가격도 비싸다면 희생양이 될 수밖에 없다"고 주장했다.   한편 지난해 알뜰폰 가입자 현황에 따르면 통신 3사 계열 알뜰폰 자회사가 50.8%, KB국민은행 등 기타 사업자가 49.2%의 점유율을 기록해 중소 알뜰폰 업체의 시장점유율이 절반이 채 되지 않는 상황이다. #국민은행 #토스 #알뜰폰 #리브엠</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>"토스도 알뜰폰 출시…통신사 망 사용 대가 증가 기대감↑"-KB</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004789299?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>이미지=한경DB토스 운영사 비바리퍼블리카가 내년 1월 알뜰폰 서비스를 출시할 것으로 전해졌다. KB국민은행에 이어 알뜰폰 서비스를 운영하는 두 번째 사업자가 될 전망이다. 증권가에선 통신사 망 사용 대가가 증가할 것이란 기대감이 흘러나온다.20일 김준섭 KB증권 연구원은 일부 언론 보도를 인용해 "토스는 알뜰픈 사업에 진출하기 위해 지난 7월 알뜰폰 사업자인 머천드코리아를 인수했다"며 "피인수된 머천드코리아는 통신 3사의 통신망을 모두 확보해 알뜰폰 서비스를 운영 중이었고 가입자는 10만명에 달했다"고 했다.이어 "토스는 머천드코리아 인수 후 수만명의 토스 이용자를 대상으로 무작위로 요금제 선호도 조사를 진행, 최근 마무리했다"며 "해당 설문지엔 △월 2만원 데이터 5GB  △월 2만5천원 데이터 10GB △월 3만원 데이터 25GB △월 3만5천원 데이터 50GB △월 4만5천원 데이터 100GB 등 총 5개의 요금제가 존재하는 것으로 알려진다"고 밝혔다.알뜰폰 서비스에 대한 금융권의 관심은 확대되고 있다. 토스 이외에 시중은행 등 금융사들도 알뜰폰 서비스 관련 사업을 검토 중인 것으로 알려지고 있다. 이들 금융사들은 알뜰폰 서비스를 운영함으로써 금융 정보에 통신정보를 더해 금융, 통신 복합 상품을 설계하는 등 차별점으로 사업을 운영할 수 있다는 점에 주목하는 것으로 보인다. 일례로 신한은행은 작년부터 KT엠모바일, 스카이라이프, 스테이지파이브, 세종텔레콤 알뜰폰 사업자들과 제휴 형태로 지속적으로 요금제를 출시하고 있다.이런 가운데 통신사 입장에선 요금제 경쟁보단 망 사용 대가 증가에 주목할 필요가 있단 시각이다.김 연구원은 "토스의 선호도 조사에 포함된 요금제 선택지를 보면 통신사의 요금제와 요금 수준에서 큰 차이가 없는 것으로 보인다"며 "토스 등 금융사들은 혁신금융서비스의 취지 상 도매 대가보다 낮은 요금제를 출시하는 것은 쉽지 않다는 점을 강조하고 있기 때문"이라고 말했다.그러면서 "금융업종의 신규 알뜰폰 사업자 증가로 통신사의 통신망을 사용할 사업자가 증가하면서 망 사용 대가가 증가하는 데 기여할 것이라는 점에 주목할 필요가 있을 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>[기획]화재·수해 난리나도 '돌부처'…토스뱅크 양자활성화 DR '눈길'</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003066872?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>올해 정보기술(IT)업계 주요 화두는 '재난'이었다. 여름 물난리로 서버실 전원 공급이 끊겨 증권사 홈트레이딩시스템(HTS)이 먹통이 되고, 데이터센터에서 화재가 발생하자 전 국민이 쓰는 메신저 서비스가 장애를 빚었다. 재난 상황을 대비하기 위한 재난복구(DR)센터를 마련만 해 놓았지, 정작 제대로 돌아가는 경우가 드물었다.이런 가운데 지난해 10월 출범한 토스뱅크의 경우 연속되는 재해에도 한 번의 시스템 장애도 빚지 않아 주목받았다. 모기업 토스가 2000만명이 넘는 고객을 대상으로 운영해 온 트래픽 관리와 IT 시스템 기술력을 그대로 계승한 덕분이다. 50여개가 넘는 서비스를 100여개가 넘는 다양한 금융사와 연동하고 협업하며 축적해 온 노하우도 빛을 발했다.특히 '원앱' 전략을 채택하고 있는 토스그룹은 계열사 서비스 일부에서 장애가 발생하더라도 전체 시스템으로 확산되지 않도록 만전을 기하고 있다. 지난달 진행된 토스그룹 계열사 4개 회사 간 재난대응훈련도 성공적으로 마무리 지으며 기술적으로 차별화된 면모를 보였다.◇흉내낼 수 없는 토스뱅크 '양자 활성화(Active-Actcive)' 기술전통 금융사들은 기존 운영하던 주센터에서 파생된 형태로 DR센터를 운영하는 경우가 일반적이다. 형식상 DR센터를 구축한 사례가 많아 갑작스런 재난 발생 시 주센터에서 DR센터로 전환에 어려움을 겪는다.토스뱅크는 주센터(논현)와 DR센터(김포)를 거의 동일한 자원과 리소스를 들여 '양자 활성화(active-active)' 형태로 운영하는 것이 특징이다. 한 센터가 셧다운 돼도 바로 다른 센터로 모든 서비스가 즉각 이관되고 실행 가능한 태세를 갖추고 있다.형식상 주센터를 두긴 하지만 실제로는 각각 IDC 1, IDC 2로 부를 정도로 동일한 수준을 유지한다. 평상 시 고객 트래픽도 각 센터에 절반씩 흐를 수 있도록 설계했다.주센터·DR센터 모두 지진, 홍수, 화재 등 재해나 비상 상황과 관련해 신속한 의사결정 및 복구 작업 진행 체계가 마련돼 있다.화재 대비를 위해 화재 탐지시설 및 자동소화설비를 구축했다. 내진 설계 적용 기준도 논현센터의 경우 진도 6.0, 김포센터 진도 8.0를 버틸 수 있도록 설계돼 있다. 큰 홍수가 발생해도 문제가 없도록 배수펌프를 구비하고 있으며, 홍수위는 논현센터는 해발 53m, 김포센터는 해발 8m를 견딜 수 있다. 또한 양 센터의 지리적 위치를 30㎞ 이상 떨어트려 놓아 큰 재해 시에도 한 번에 모든 센터가 셧다운 되는 것을 방지하고 있다.이와 더불어 상시적인 대응 훈련을 통해 실제 상황에 대한 대비를 하고 있다. 토스앱 장애 시에도 토스뱅크를 포함한 타 회사들도 각각의 서비스가 독자적으로 운영될 수 있도록 했다.토스뱅크가 채택한 양자 활성화 전략은 서비스 안정화 효과가 있지만 비용이 많이 든다는 문제가 있다. 토스뱅크는 토스의 '원앱' 전략으로 절감한 앱 개발 비용을, 이처럼 안정된 서비스로 고객에게 돌려줌으로써 차별화하겠다는 전략을 취하고 있다. 이와 더불어 시중은행 대비 지점 및 창구운영 비용을 아낄 수 있는 인터넷전문은행이라는 점도 시스템 고도화에 집중할 수 있는 요인 중 하나다.◇'태생이 IT'라 가능한 MSA 시스템…슬림하고 유연하다IT 서비스 기반 토스뱅크는 시스템 구조상에서도 전통 금융사들과 큰 차이점을 보인다. 전통 금융사들은 굉장히 큰 규모의 모놀리틱 시스템(MA:Monolithic Architecture)을 운영하며 20~30년 전 형태 구조를 그대로 가져가고 있다. 토스뱅크는 각각 서비스별로 쪼개지는 마이크로 서비스 아키텍쳐(MSA:Micro Service Architecture)라는 '슬림'한 형태의 구조를 띄는 것이 특징이다.안정적인 뱅킹 서비스를 제공하기 위해 토스뱅크는 고객과 계좌 관련 정보 등을 다뤄야 하는 계정계 시스템은 MA를 구축하고, 은행 업무에 필요한 다양한 채널계는 MSA 시스템을 구축하고 있다. MSA 시스템에서 여신, 수신 카드 서비스는 서버와 데이터베이스가 별도로 분리되며, 시스템의 직접적인 참조 대신 HTTP API 등 통신을 통해서만 참조를 진행한다.통상 MSA 시스템은 MA 시스템에 비해 △각 모듈 간 정보 공유의 단절 문제 △네트워크 간 빈번한 호출에 따른 레이턴시 영향 극대화 등 문제에서 불리하다. 하지만 토스뱅크는 가상화 기술 발전에 따라 물리적 리소스를 유연하게 활용할 수 있게 됨으로써 이와 같은 문제를 여유롭게 해결했다. 동시에 유연한 변경과 새로운 서비스의 배포가 가능하다는 장점을 더해 고객 맞춤형 서비스를 구현했다.토스뱅크와 시중은행 시스템의 더 큰 차이점은 채널계가 전달자 역할에 그치는 것이 아니라 실제로 수행자 역할을 하고 있다는 점이다. 이는 모놀리틱 시스템인 계정계가 더 커지는 것을 방지하고 테스트 자동화, 서비스 배포 시점의 문제 인지 및 빠른 롤백 등 시스템을 구축하는 결과로 이어지고 있다.토스뱅크 관계자는 “계정계는 은행 서비스를 빠르게 구축하는 과정에서 아직은 과도기적으로 기존 금융사의 것을 유지하고 있는데, 향후 이 또한 점차 토스뱅크만의 모습으로 구축해 나갈 계획”이라며 “현재 추가되는 서비스는 채널계 서버에 반영해 빠르고 유연하게 대처해 나가고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>'오픈페이' 공식 출범… "신한카드 앱서 하나카드로 결제"</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000879952?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 하나의 카드 앱으로 여러 카드를 등록해 결제할 수 있는 '오픈페이'가 공식 출범하면서 간편결제 시장의 판도를 바꿀 수 있을지 눈길이 쏠린다. 네이버페이, 카카오페이 등 빅테크의 공습이 거세지는 가운데 카드사들은 편의성을 내세워 결제 앱 경쟁력을 끌어올린다는 계획이다.22일 여신금융협회에 따르면 이날부터 신한·KB국민·하나카드가 '오픈페이'를 위한 앱카드 상호연동 서비스를 시작한다. 앱카드 상호연동은 고객이 1개의 카드사 결제앱(플랫폼)으로 카드사(발급사) 구분없이 여러장의 카드를 등록해 사용·조회할 수 있는 서비스다.그동안 여러 카드사의 카드를 보유한 고객은 카드사 결제앱을 모두 설치해야 했다. 하지만 소비자 불편이 제기되자 카드업계는 앱카드 상호연동 서비스로 카드사 구분없이 하나의 카드 앱에 보유 중인 카드를 모두 등록·사용하도록 했다.서비스 이용을 위해서는 A사 결제앱에서 B사를 선택하고 약관동의 및 본인인증 후 신용·체크카드를 등록하면 된다. 이후 A사 앱으로 오프라인 가맹점에서 바코드·QR·근거리무선통신(NFC)·마그네틱보안전송(MST) 방식으로 결제하면 된다.오는 2023년 2월 롯데카드에 이어 3월 비씨카드, 하반기 NH농협카드가 서비스를 시작할 계획이다. 우리카드와 현대카드도 서비스에 참여할 예정이며 일정 등은 논의 중에 있다. 내년 하반기엔 온라인 가맹점에서의 결제도 가능하다.카드사들이 '적과의 동침'을 택한 건 빅테크 간편결제 서비스에 밀릴 수 있다는 위기감이 고조되면서다. 한국은행에 따르면 올해 상반기 기준 간편결제 서비스 이용건수와 이용금액은 일평균 2317만건, 7232억원으로 전기와 비교해 각각 8.3%, 10.7% 증가했다.이 가운데 네이버·카카오·토스 등 전자금융업자의 영향력은 확대되는 추세다. 전자금융업자가 제공하는 간편결제의 일평균 서비스 이용건수 및 금액은 전기와 비교해 9.7%, 11.7% 증가한 1330만건, 3642억원으로 집계됐다.특히 지난해 한국핀테크산업협회가 진행한 설문조사 결과에 따르면 MZ세대(밀레니얼+Z세대) 10명 중 9명은 간편결제 서비스로 전자금융업자 플랫폼을 이용하는 것으로 나타나면서 미래 금융고객을 뺏길 수 있다는 위기감도 커진 상황이다.여신금융협회 관계자는 "앱카드 상호연동 서비스를 통해 고객 편의가 개선되고 카드사 결제앱 경쟁력이 제고될 것으로 기대 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.12.18.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>"걸음 수만큼 금리 올리고 보험료 낮추고"…'걷기 마케팅' 쏟아지는 금융권</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006524894?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>걸음수 비례해 적금 우대금리, 현금 대체 포인트 제공"ESG·플랫폼 강조하는 트렌드에도 부합"ⓒ News1 이지원 디자이너(서울=뉴스1) 한유주 기자 = #60대 여성 A씨는 매일 하루 걷기만으로 140원을 번다. 토스의 만보기 기능을 이용해 적립 '스팟'을 찾아다니며 포인트를 버는 것. 소소하게 쌓은 포인트는 토스 페이로 결제할 때 현금처럼 사용한다. 최근에는 우리은행의 '데일리 워킹 적금'에 가입했다. 매일 1만보씩 걸으면 적립한 돈의 10%까지 이자를 준다. 이 역시 매일 하루 2만보씩을 걷는 A씨에겐 '식은죽 먹기'다.금융업계가 '걷기 열풍'에 빠졌다. 소비자들의 걸음수를 측정해 적금 우대금리를 얹어주고, 보험료를 할인해준다. 하나씩만 보면 '티끌' 같은 소소한 혜택이지만, 여러 회사의 혜택을 중복해서 받으면 꽤나 쏠쏠한 '걷+테크'가 될 수 있다.18일 금융권에 따르면 '수신경쟁'이 치열한 은행업계에선 걸음수마다 금리혜택을 주는 적금상품을 속속 내놓고 있다. 시작은 웰컴저축은행이 열었다. 웰컴저축은행은 지난 9월부터 최고금리 연 10%를 제공하는 '웰뱅워킹적금'을 판매하고 있다. 가입기간 12개월간 누적된 걸음수마다 우대금리가 붙어, 500만보를 달성할 경우 8%p의 우대금리를 받을 수 있다. 우리은행과 KB국민은행도 이달 들어 비슷한 상품을 내놨다. 최고 연 11%를 제공하는 우리은행의 '데일리 워킹 적금'은 하루 단위로 걸음 수를 측정한다. 가입기간 6개월 동안 매일 최대 1만원씩 적립할 수 있고, 1만보를 달성하면 입금액의 10%p가 우대금리로 붙는다. 사전신청을 받아 선정된 10만명까지만 가입할 수 있는 특판 상품으로, 신청기한은 마감됐다.가입 기회를 놓쳤다면 KB국민은행의 '온국민 건강적금'을 노려볼만 하다. 최고 연 8%의 금리를 제공하는데, 매달 10만보를 걸을 때마다 0.5%p씩 우대금리가 붙어, 걷기만으로 최대 3%p의 우대금리를 받을 수 있다.이 상품들은 구조는 비슷하지만 하루·월·연단위로 걸음수를 측정하기 때문에 생활패턴에 따라 선택하면 좋다. 온라인에 게재된 가입자 후기를 보면, 매일 1만보씩 정기적으로 걷는 경우엔 우리은행의 적금을, 한번에 걸음수를 채우고 싶은 경우엔 웰컴저축은행이나 KB국민은행의 상품을 선호하고 있다.걸음수마다 포인트를 주는 금융앱 기능은 이미 '짠테크족' 사이에서 유명하다. 이달 24일까지 진행되는 신한은행의 신한SOL(쏠)앱 '만보걷기'는 1주일간 하루 평균 5000보를 걸을 경우 마이신한포인트 최대 300포인트를, 1만보 이상엔 최대 1000포인트를 지급한다. 토스의 '만보기' 기능도 1000보·5000보·1만보마다 10~20원의 포인트를 제공하며, 앱에서 안내되는 지점에 도달할 경우 추가 포인트를 제공한다.헬스케어 사업에 관심이 많은 보험업계는 '걷기 마케팅'에 특히 적극적이다. KB손해보험은 걸음수마다 보험료를 할인해주는 '자동차보험 걸음수 할인 특약'을 내놨다. 50일 이상 하루 5000보 이상을 걸을 경우 개인용 자동차보험료를 3% 할인해준다. 삼성화재 다이렉트는 매일, 매월 걸음수마다 포인트를 제공하는 '착!한걷기' 프로젝트를 진행 중이다. 월 최대 1500포인트까지 적립 가능한 포인트는 보험료 납입, 상품 구매, 기부 등에 사용할 수 있다. 이처럼 금융권이 앞다퉈 '걷기 프로모션'을 진행하는 이유는 뭘까. 금융권 관계자는 "ESG를 강조하는 흐름에 맞춰 고객들의 건강증진, 탄소배출량 감소에 기여한다는 긍정적인 면이 있다"며 "고객들이 걷기 미션을 하면서 한번이라도 더 자사 애플리케이션에 찾아오는 기회를 만들 수 있기 때문에 플랫폼을 키우려는 전략에도 맞는다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.12.18.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>시니어층 모시려는 카카오뱅크, 답은 '임영웅'에 있다?</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041832?sid=105</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>'멜론뮤직어워드 2022(MMA 2022)' 5관왕을 차지한 가수 임영웅.(사진=카카오엔터테인먼트)인터넷전문은행 카카오뱅크가 팬들의 높은 참여도를 기대할 수 있는 투표를 매개로 국민가수로 불리는 임영웅의 팬클럽 '영웅시대'를 자사 고객층으로 포섭하려는 전략을 펴고 있다.18일 업계에 따르면 지난달 열린 '멜론뮤직어워드 2022(MMA 2022)'는 특별상으로 '카카오뱅크 모두의 스타상'을 신설했다. 카카오뱅크가 MMA 2022의 메인스폰서로 참여해 해당 상의 수상자 선정 과정을 주관했다.카카오뱅크는 자사 계좌 또는 청소년 전용 금융서비스 '미니(mini)' 보유 고객에 한해 모두의 스타상 후보들에게 하루에 한 표씩 투표할 수 있도록 했다. 후보는 뉴진스, 더보이즈, 몬스타엑스, 방탄소년단, 블랙핑크, 아이브, (여자)아이들, 임영웅, 투모로우바이투게더, 태연 총 10명이었다. 이 중 중장년층의 팬 비중이 가장 높은 아티스트는 임영웅으로 여겨진다. 콘서트에 온 중장년 팬들이 오래 앉아있는 것을 고려해 극세사 방석을 깔아두는 배려를 보일 정도다.멜론뮤직어워드는 엠넷의 '마마' 등과 함께 한국의 주요 대중음악 시상식으로 평가받는다. 높은 위상을 갖고 있는 시상식에서 가장 애정하는 가수에게 상을 안겨주기 위한 팬들의 노력은 투표로 이뤄진다. 팬 커뮤니티에서는 투표에 참여하고 독려하는 행위를 통상 '노동한다'고 일컫는다. 영웅시대 역시 MMA 투표기간동안 이런 '노동'에 주력했던 것으로 알려졌다.올해 MMA에서 카카오뱅크 모두의 스타상은 방탄소년단에 돌아갔다. 이는 BTS의 데뷔 연차가 10년차에 달해 팬 규모가 상당한 점을 비롯, 카카오뱅크 계좌를 갖고 있는 연령층이 20~40대 위주인 영향이 있는 것으로 분석된다. 카카오뱅크에 따르면 올해 3분기 기준 고객 비중은 △10대 8% △20대 24% △30대 25% △40대 23% △50대 이상 19%다. 그러나 임영웅은 올해 MMA에서 대상 격인 올해의 아티스트상을 비롯해 '5관왕'을 하면서 위세를 떨쳤다.임영웅은 내년 2월 예정된 미국 콘서트 티켓을 열자마자 전석 매진이 이뤄질 정도로 인기세를 더하고 있다. 내년에도 '모두의 스타상'이 열린다면 유력한 후보다. 카카오뱅크로선 MMA와의 지속적인 스폰서십을 통해 영웅시대를 고객층으로 유입할 수 있는 점이 기대된다. 멜론은 카카오 계열사인 만큼 업무 협조가 유리하다. MMA 역시 임영웅을 통해 관람객층의 저변이 넓어졌다.멜론 관계자는 &lt;블로터&gt;와의 통화에서 "임영웅님이 5관왕을 하기도 했고 출연한다고 널리 알려져 있어서 올해 MMA는 10대부터 50대 분들까지 다양하게 오신 것 같다"고 말했다.카카오뱅크는 상장 기업으로 기업가치가 곧 시가총액이다. 성장성과 수익성을 충족해야 기업가치를 높일 수 있다. 이에 주식, 가상자산, 펀드, 마이데이터 등의 신규 서비스를 내년 잇따라 선보일 예정이다. 신규 서비스의 성공을 위해선 자산규모가 타 연령층보다 상대적으로 많은 중장년층의 적극적인 참여가 필요하다.다양한 편의 서비스를 선보인 결과 올해 신규 카카오뱅크 가입자 중 절반인 50%가 40대 이상으로 나타났다. 신용정보를 조회하고 올릴 수 있는 '내 신용정보' 서비스를 이용한 50대 이상 고객 수는 지난달 기준 126만명에 이르며, '휴면예금·보험금 찾기'를 써본 고객 수도 72만명에 달한다. 예적금 상품은 세이프박스, 저금통, 모임통장 순으로 중장년층이 많이 찾았다.최근에는 카카오뱅크 입출금 계좌를 보유한 만 50세 이상 시니어 고객들에게 금융안심보험을 무료로 제공하는 이벤트를 진행 중이다. 보이스피싱 등 비대면 온라인금융사기 피해가 발생했을 때 실제 금전손실액을 500만원 한도 내에서 보상하는 카카오페이손해보험의 상품이다.여기에 MMA와 같은 대중문화 분야까지 고객 확장 전략을 펼치면서 카카오뱅크의 시니어 고객층은 더욱 두터워질 전망이다. 이는 타 인터넷은행에 가질 수 있는 비교우위다. 토스뱅크의 경우 전체 이용자 중 MZ세대가 약 75%를 차지하는 것으로 알려졌다. 카카오뱅크는 지난 9월 기준으로 고객 수가 경제활동인구 2909만명 중 68%에 달한다.한편 카카오뱅크는 이번 MMA 관람객들에게 카카오의 대표 캐릭터인 라이언 모양으로 눈송이를 뭉칠 수 있는 '라이언 눈집게(스노우볼 메이커)'를 제공해 호응을 얻었다. 눈오리 등 눈송이로 귀여운 캐릭터를 형상화해 SNS에 전시하는 유행을 겨냥한 것이다. 젊은층은 물론 중장년층까지 폭넓게 소구할 수 있는 물품이라고 멜론 측은 판단했다.멜론 관계자는 "저희 회사를 상징하는 물품을 통해서 재미와 실용성을 함께 충족하고자 했다"며 "나이 어린 분들부터 중장년까지 다들 이용하실 수 있는 물품인 것도 고려가 됐다"고 설명했다.한 온라인 커뮤니티에서 MMA 관객에게 '라이언 눈집게'를 줬다는 소식을 공유하고 있다.(사진=온라인 커뮤니티 캡처)</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인증 수단에 모바일 OTP 탑재</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002277224?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>고액 송금 시 활용인터넷전문은행 '토스뱅크'가 '모바일 OTP'를 고액 송금 추가 인증수단으로 도입했다고 21일 밝혔다.모바일 OTP는 1회 1천만원, 1일 5천만원이 넘는 돈을 송금할 때 사용된다. 고객은 모바일 OTP를 통해 본인이 사용 중인 토스 앱 여부가 식별되면, 실시간으로 변경되는 인증 데이터와 함께 안전한 환경 속에서 고액 송금을 할 수 있게 된다.모바일 OTP는 토스뱅크 설정에 들어가 인증수단을 클릭한 후 등록할 수 있다. 이후 모바일 OTP 등록 후 사용을 위한 6자리 핀(PIN)번호를 새로 설정하면 된다. 해당 핀(PIN)번호는 높은 보안성의 암호화 상태로 처리되며 토스 인증서 등과 더불어 송금 과정 인증에 활용된다.토스뱅크의 모바일 OTP는 ‘단방향 무작위 코드 방식’을 사용했으며, 이는 네트워크가 없는 환경에서도 사용자 및 기기 식별과 인증이 가능한 코드가 생성된다. 특히 생성되는 코드는 다른 사용자와 절대 중복되지 않도록 해 보안성을 강화했다는 게 은행 측 설명이다.여기에 기기 변경, 애플리케이션(앱) 재설치, 핀(PIN) 반복 오입력 등의 상황에서는 모바일 OTP가 해제된다.토스뱅크는 현재 고액 송금 인증수단으로 ▲토스뱅크 카드 인증 ▲다른 은행 OTP ▲얼굴인증(셀피인증) 등을 도입해 운영하고 있다.한편 토스뱅크에서는 임시 증액을 신청하면 실명 확인 절차를 거쳐 1회 10억원, 1일 20억원까지 송금·이체가 가능하다. 단 임시한도는 신청한 날 하루 동안만 유지된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>금감원 "전산 3시간 멈추면 현장점검…손배 조항 추가"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000719344?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>전산사고 금융사 엄중 조치…전사 노력하면 정상 참작금융감독원이 카카오 전산센터 화재 사고와 같은 전산 사고로 대고객서비스를 3시간 이상 중단한 금융사에 대해서는 즉각적인 현장점검에 나서기로 했다.이명순 금감원 수석부원장은 27일 열린 '은행권 IT 내부통제 강화를 위한 부행장 간담회'에서 IT 검사 방향을 설명하며 이같이 밝혔다.금융감독원 본원. [사진=아이뉴스24 DB]연계 서비스를 운영하는 금융사는 사전에 연계 서비스 제공업체에 대한 IT 위험 평가를 하고, 손해배상 조항도 추가하도록 했다.기본적인 IT 내부통제 사항들을 소홀히 해 전산사고를 일으킨 금융사는 엄중히 조치하지만, 경영진의 관심과 전사적인 노력을 기울인 경우에는 정상 참작한다.참석 부행장들은 지속 가능한 금융서비스 제공을 최우선 가치로 삼고 IT 내부통제 강화와 IT 거버넌스 전반에 걸친 혁신에 총력을 기울이겠다고 입을 모았다.이 수석부원장은 "전산사고를 미연에 방지하려면 잠재 IT 리스크를 조기에 감지해 조치해야 한다"며 "이를 위해서는 정교한 IT 내부통제 체계를 구축해야 한다"고 강조했다.간담회에는 국민·신한·하나·우리·SC제일·부산·대구·광주·산업·기업·농협·수협은행과 카카오·케이·토스뱅크 등 15개 은행 부행장이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.12.30.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>고금리 시대, 이자 부담 줄이고 싶다면…'신용점수' 관리법 주목! (손희애 금융 크리에이터)｜머니클라스</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000326989?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>■ 인용보도 시 프로그램명 'JTBC 상암동 클라스'를 밝혀주시기 바랍니다. 저작권은 JTBC에 있습니다.■ 방송 : JTBC 상암동 클라스 / 진행 : 이가혁[앵커]경제를 잘 알지 못하는 사람을 위한 당장 내 돈이 되는 지식 '머니클라스' 오늘(30일)의 키워드 먼저 보시죠. &lt; 내 대출이자 깎아줄 '신용점수 관리법' &gt;[김광석/한양대 겸임교수 (12월 26일) : 2023년 금리는 아마도 여러분이 살아가실 남은 인생동안 가장 높은 금리가 될 겁니다.]가장 높은 금리 시대에 살고 있는 우리. 갚아야 할 이자는 늘어나고 대출을 더 받자니 부담이 되고 슬프지만 내년에도 금리가 더 올라갈 예정이라서 신용불량자가 늘어날 수 있다는 우려도 나옵니다. 그래서 준비했습니다. 이자 부담을 조금이라도 줄이는 아주 중요한 방법 바로 신용점수를 관리하는 건데요. 2022년 마지막 머니클라스 신용점수가 곧 내 돈이 되는 시대. 어떻게 내 신용점수 확인하고 또 올릴 수 있는지 바로 알아보겠습니다. 부자되는 개념 쏙쏙 알려주는 손희애 금융 크리에이터와 얘기 나눠보겠습니다. 안녕하세요.[손희애/금융 크리에이터 : 안녕하세요.][앵커]금리가 참 요새 걱정인데 처음 만난 사람이랑 우리가 통성명할 때 우리가 명함을 주고받잖아요. 그것처럼 은행 가면 신용점수가 명함처럼 쓰인다면서요?[손희애/금융 크리에이터 : 네, 맞습니다. 은행에서는 대출을 해 준다거나 혹은 신용카드를 발급을 해 준다거나 이 사람에게 금융 업무를 처리를 해 줄 때 '이 사람이 이런 사람이구나'라는 걸 확인하기 위해서 신용점수를 확인을 하는 건데요. 그러니까 쉽게 얘기해서 이 신용점수랑 대출의 금리는 반비례 관계라고 생각하시면 될 것 같아요. 우리가 보시는 것처럼 시소가 이렇게 무게가 이쪽으로 쏠렸잖아요. 그러니까 만약에 신용점수가 높은 사람이라면 대출금리를 낮게 책정을 받을 수 있는 거고 신용점수가 좀 낮은 사람이라면 대출금리를 비싸게 우리가 치를 수밖에 없는 건데요. 신용점수가 높다라는 얘기는 이 사람이 평소에 대출의 이자도 상환이력 잘 지켜왔고 신용카드의 대금도 잘 갚아왔다라는 걸 우리가 보여주는 증거로 쓸 수 있는 거잖아요. 그래서 '아, 우리 은행에서 대출을 해 주더라도 이 사람은 상환이력 절대 어길 일이 없겠구나'라고 추측을 하는 겁니다. 그래서 이런 걸 바탕으로 신용점수가 명함처럼 활용이 된다라고 보시면 되는 거고요. 그러니까 때로는 신용점수 자체가 낮으면 신용카드가 아예 발급이 안 되는 경우도 있고요. 그리고 또 한 편 우리가 낮게 측정할 수 있는 금리 인하요구권 역시 신용점수가 굉장히 큰 그런 영향을 끼치고 있습니다.][앵커]금리를 낮춰달라고 요구하려면 어쨌든 신용점수가 좀 높아야 된다. 그렇군요. 그런데 최근에도 은행들이 리스크 관리를 하면서 신용점수가 낮은 사람은 아예 사실은 대출을 거의 못 받는다고 그러더라고요.[손희애/금융 크리에이터 : 맞아요. 그니까 시중은행뿐만 아니라 저축은행에서조차 신용도가 좀 낮은 분들에 대한 대출 아예 옥죄고 있는 모습을 볼 수 있는 건데요. 대표적으로 새희망홀씨나 사잇돌대출 등이 예시로 꼽을 수 있을 것 같습니다. 보실 수 있는 것처럼 사잇돌대출만 하더라도 기존에 2021년도에는 2681억원 정도의 대출이 나갔었거든요. 그런데 올해 11월 기준으로는 87억 5000만원만 대출이 나갔습니다.][앵커]뚝 떨어졌네요.[손희애/금융 크리에이터 : 96% 정도가 떨어진 거라고 볼 수 있는 겁니다. 그러니까 이 말은 은행에서는 이렇게 서민금융대출을 내보내는 것 자체가 건전성이랑 연결이 된다라고 보기 때문에 은행에서 자금을 좀 옥죄기 위해서 우선 이런 서민대출 먼저 옥죈 것으로 볼 수 있는 거고요. 사실은 이렇게 경제가 침체되는 상황에서는, 물론 금융당국에서도 저신용자를 위해서 많은 조치를 내놓으셔야겠지만 본인 스스로도 신용점수를 관리하는 데 각별히 신경 써야 되는 이유가 바로 이런 데에서 나타나는 거죠.][앵커]제도도 제도지만 내가 또 스스로 내가 조절할 수 있는 걸, 점수가 중요한 거군요. 그런데 예전에 신용등급이란 말이 저는 더 익숙하거든요. 신용등급이랑 신용점수랑 다른 건가요?[손희애/금융 크리에이터 : 사실은 우리 이제 가혁 기자처럼 사회생활을 좀 오래 하신 분들은 등급이죠. 익숙하실 수 있을 것 같습니다. 이런 데서 나이가 나오는 것 같은데요. 이게 사실 2016년에 신용등급에서 점수로 넘어가기 위한 계도기간을 거쳤었고요. 그리고 나서 20년도부터는 이렇게 등급에서 점수제로 바뀌게 된 건데요. 왼쪽처럼 몇 등급이라고 했던 게 가혁 기자가 얘기를 했던 것처럼 등급제인 거고요. 오른편 점수로 나타내는 게 점수제인 건데. 기존에는 몇점부터 몇점은 1등급, 몇점부터 몇점은 6등급 이런 식으로 구간을 나눠서 나타냈다면 이제는 엄청 세분화하게 나눠서 점수로 나타내는 건데요. 사실 이렇게 등급으로 나누면 누구나 다 2등급이면 같은 취급을 받았고 같은 적용을 받았습니다. 그런데 이제는 완벽하게 1점부터 1000점까지 더 세분화해서 나눈 거기 때문에 더 상세한, 세밀한 적용을 받는다라고 보시면 되겠습니다.][앵커]그렇군요. 섬세하게 더 1점이라도 다르면 다르게 순위가 되는 거군요.[손희애/금융 크리에이터 : 맞아요. 그리고 쉽게 앱을 통해서, 핀테크앱을 통해서 본인의 신용점수도 확인하실 수가 있는데요. 요즘에는 방법도 너무 간단하고 그리고 만약에 돈이 든다면 조회를 하는 게 겁날 거잖아요. 무료로 조회를 하실 수 있어요. 보통은 신용평가사에서는 상환이력 그리고 부채 수준, 거래기간, 신용형태를 바탕으로 신용점수를 평가를 하는데요. 이런 것들을 몇 점인지 수시로 조회를 해 본다면 내가 잘 관리를 하고 있구나. 혹은 내가 좀 잘못하고 있구나 이런 것들을 확인할 수 있으니까.][앵커]조회를 자주 하면 약간 좀 불이익받는 거 아니에요?[손희애/금융 크리에이터 : 이게 2011년 이전에는 확실히 조회를 하는 것이 점수들, 그때는 등급이었죠. 영향에 끼쳤었는데요. 이제는 영향을 끼치지 않는 것으로 바뀌었기 때문에 오히려 이런 핀테크앱들 자주 확인해 주셔서 좀 더 건전성을 잘 챙기시는 게 좋을 것 같습니다.][앵커]저는 자주 확인하면 안 좋다라는 말을 들어서…그런데 바뀌었군요? 불이익이 없다. 그리고 자주 자기(점수)를 확인하는 게 좋겠네요. 알겠습니다. 실제로 신용점수에 따라서 대출이자가 그렇게 진짜 많이 차이가 나나요?[손희애/금융 크리에이터 : 그러니까 우리가 은행연합회의 데이터를 좀 보면 차이가 나는지 아닌지를 확실히 볼 수가 있는데요. 보통은 '신용점수가 돈이다.' 이런 얘기까지도 많이 하거든요. 제가 은행연합회의 표를 가져온 겁니다. 은행연합회에서는 예대금리차를 요즘 공시를 하고 있잖아요. 신용점수 50점 단위별로 9개의 구간으로 이렇게 나누어 두었어요. 그래서 신용점수가 높은 분들. 우리가 좀 최상위 구간이라고 하시는 분들은 신용대출 기준으로 6%대 초반으로 이렇게 대출금리가 설정이 되고 있고요. 소위 말하는 우리가 신용점수가 좀 낮은 구간의 분들은 10%를 훌쩍 넘는 모습까지 볼 수 있습니다. 이걸 제가 계산을 한번 해 봤습니다. A라는 은행에서 우리가 대출을 받을 때 신용점수가 높은 분은 6%를 적용받고 신용점수가 좀 낮은 분은 10%대의 대출금리를 적용받는다라고 예시를 해봤을 때 5년 만기의 대출, 1억을 대출받는다라고 가정을 해 본다면 6%의 금리를 적용받았을 때에는 1590만원의 총이자를 내시지만 10%의 금리를 적용받으셨을 때에는 2740만원의 이자를 내게 되세요. 이것만 봐도 '신용점수가 확실히 돈이랑 완벽하게 직결이 되는구나'를 우리가 확인할 수 있는 거죠.][앵커]거의 1100만원 정도 넘게 차이가 나는데 이렇게 데이터로 보니까 신용점수를 관리하는 게 얼마나 중요한지 알겠는데 그러면 신용점수 올리는 방법 좀 구체적으로 설명을 해 주세요. 소득이 많거나 원래 가진 게 많으면 신용점수가 높은 건가요?[손희애/금융 크리에이터 : 우리가 흔히 말하면 재산이 많다거나 소득이 고연봉자라면 신용이 더 높은 거 아니냐 이렇게도 생각하시는데요. 이 부분은 상관이 없고요. 그러니까 그야말로 내가 금융건전성을 얼마나 잘 유지를 했는가, 이게 제일 큰 영향을 끼치는 거예요. 신용평가기관에서는 이 1년 동안에 90일 이상 연체를 할 가능성이 있는지 이런 것들을 실시간으로 평가를 해서 점수를 책정을 하는 겁니다. 그래서 점수를 좀 높게 우리가 유지를 할 수 있는 팁을 드리자면 보통은 대출을 받거나 혹은 신용카드를 갖고 계셔서 어느 정도 신용에 관련된 이력들을 쌓아가셨다면 점수가 높으실 확률이 큽니다. 하지만 우려의 생각이 들어서 하나 말씀드리자면 일부러 신용점수를 높이기 위해서 대출을 받으실 필요는 없는 거고요. 신용카드를 이용을 하신다면 연체되지 않을 수 있도록 대금을 꼬박꼬박 잘 갚아주시는 게 굉장히 중요하고요. 그리고 우리가 비금융자료들, 비금융 요소들이라고 얘기를 하는 부분은 가산점 요소가 될 수 있습니다. 이 비금융정보에 해당되는 게 대표적으로 공공요금이나 국민연금 등이 있는데요. 이런 것들을 우리가 납기기한이 정해져 있잖아요. 이런 요소 역시 연체 없이 꾸준히 납부를 하셨고 우리가 성실 납부기간이 길어지면 길어질수록 신용점수가 높아질 수 있는 가능성이 높다라고 보시면 되겠습니다.][앵커]낼 걸 잘 내고, 제때 내고 이게 중요한 거네요. 연체는 정말 적이네요.[손희애/금융 크리에이터 : 맞아요.][앵커]그리고 아까 말씀하신 뱅크샐러드나 토스 같은 앱에서도 수시로 확인이 가능하시니까 자기를 잘 체크해 보는 게 좋을 것 같습니다. 그럼 끝으로 안 깎이려면 어떻게 해야 됩니까?[손희애/금융 크리에이터 : 두 글자 기억해 주시면 됩니다. 바로 연체입니다. 연체와는 절대 친하게 지내지 않는 것이 우리가 신용점수를 올릴 수 있는 방법이라고 생각을 해 주시면 될 것 같고요. 조금 전에 우리가 신용카드 대금 잘 갚아야 된다, 이런 얘기했잖아요. 그래서 신용카드 대금도 잘 갚아주셔야 되고요. 그리고 화면에 리볼빙에 관련된 화면을 띄워주신 거예요.][앵커]이거 저 문자로 홍보 문자 오기도 해요. 이용해 보라고.[손희애/금융 크리에이터 : 맞아요. 마케팅 문자. 이거 가입하면 선물드립니다. 이런 마케팅 문자 많이 오잖아요. 이 리볼빙이라는 게 이달의 결제대금을 다음 달로 미뤄줄 수 있는 그런 서비스거든요. 대신에 일정 수수료는 가져가는 거고요. 그래서 우리가 카드론을 이용을 한다거나 카드리볼빙처럼 이렇게 우리가 결제대금을 미룰 수 있는 서비스를 장기간 이용을 하다 보면 이 신용점수가 내가 생각했던 것보다 훨씬 크게 걷잡을 수 없이 떨어질 수 있습니다. 사실 우리가 올리는 건 정말 힘들지만 떨어지는 건 한순간이거든요. 그래서 보시는 것처럼 이 수수료율도 굉장히 크기 때문에 신용점수도 깎이지 않고 수수료도 내지 않을 수 있도록 리볼빙도 멀리 하시고 카드론도 최대한 멀리 하시는 게 나의 신용점수를 잘 지키는 방법이라고 할 수 있겠습니다.][앵커]그러니까 굳이 필요하지 않은 상황이면 다른 선택이 있는데도 혹시 이벤트 한다고 하니까 들어가보고 이러면 안 되겠네요.[손희애/금융 크리에이터 : 맞습니다. 그리고 연체가 된다고 하더라도 상환했을 때 바로 이 내역이 사라지는 게 아니라 일정 기간, 최장기간으로는 5년에서 10년까지도 이 내역이 남아 있으니까 연체 두 글자랑은 멀리멀리 친하게 지내지 않으시는 게 좋겠습니다.][앵커]알겠습니다. 지금까지 머리클라스 손희애 금융 크리에이터와 얘기 나눠봤습니다. 새해에 보겠네요.[손희애/금융 크리에이터 : 새해 복 많이 받으세요.][앵커]감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>"금융권 최초 24시간 외환거래"…하나銀, 토스증권과 맞손</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005192920?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>실시간 환율로 해외주식 거래 가능전망남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 15일 오후 서울 중구 을지로 하나은행 본점에서 토스증권과 '24시간 FX 거래를 위한 전략적 업무협약'을 체결하고 오창훈 토스증권 대표와 기념촬영을 하고 있다.(제공=하나은행)하나은행이 토스증권과 손잡고 24시간 외환거래가 가능한 시스템을 구축하기로 했다.16일 하나은행은 전날 서울 중구 을지로 하나은행 본점에서 토스증권과 '24시간 FX 거래를 위한 전략적 업무협약(MOU)'을 체결했다고 밝혔다.이에 따라 양사는 ▲응용프로그램인터페이스(API)를 통한 24시간 환율 제공 및 거래 서비스 제공 ▲외환(FX)시장의 성장과 효율성 제고를 위한 안정적 시스템 구축 ▲24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다.특히 하나은행은 토스증권에 오전 9시~오후 3시30분 사이 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공하기로 했다. 이에 따라 기존 시장가격과 차이가 있는 환율로 거래했던 해외주식 투자자들에게도 실시간 환율 정보를 제공할 수 있게 됐다.향후 하나은행은 24시간 FX 거래 확대를 통해 비대면 FX 전자 플랫폼 시장을 선도해 나가겠다는 방침이다. 남궁원 하나은행 경영기획그룹 부행장은 "토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다양한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>다올인베스트먼트 장 초반 15% 넘게 급등</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005065481?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>사진제공=다올인베스트먼트장 초반 다올인베스트먼트의 주가가 급등하고 있다. 우리금융지주가 다올인베스트먼트 인수를 검토한다는 소식에 매수세가 몰린 것으로 풀이된다. 다올인베스트먼트는 다올투자증권의 벤처캐피탈(VC) 자회사로 전신은 KTB네트워크다. 1981년 설립돼 국내에선 ‘1세대 VC’란 평가를 받고 있다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘에 투자하며 인지도를 높였다.26일 오전 9시 45분 기준 다올인베스트먼트의 주가는 전 거래일 대비 15.37% 오른 3490원에 거래되고 있다. 투자은행(IB) 업계에선 다올인베스트먼트의 매각 성사 가능성이 높아진 점을 주가 상승의 배경으로 꼽는다.다올투자증권은 최근 다올인베스트먼트를 매각하기 위해 삼일PwC를 주관사로 선정했다. 별도 입찰 절차 없이 인수후보군들을 개별적으로 접촉하고 있다. 이번 거래 대상은 다올투자증권이 보유한 회사 지분 52%다. 다올투자증권 지분율을 감안하면 거래 가격은 2000억원 안팎에서 책정될 가능성이 높다. 여기에 우리금융지주가 다올인베스트먼트의 인수를 위한 우선협상자로 유력하다는 소문이 덧붙여지면서 주가는 계속해서 상승하는 분위기다.다올투자증권이 VC 자회사를 매물로 내놓은 건 유동성 위기를 극복하기 위해서다. 다올투자증권은 자기자본 중형급 증권사 중에서 부동산PF 비중이 높은 편으로 평가받아왔다. 유동성이 여의치 않게 되자 자회사 매각으로 자금을 급히 수혈하게 된 것이다. 현재 다올투자증권은 태국 법인의 매각 작업도 병행하고 있다. 삼일PwC가 VC 자회사와 증권 태국 법인의 자문을 모두 맡아 매각 작업을 진행하고 있다. 다올금융그룹 안팎에선 두 자회사를 매각해 최대 4000억원 안팎의 실탄을 확보하길 희망하는 모양새다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>머니투데이 '2022년을 빛낸 중견·중소기업' 79개사 선정</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004833655?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>27일 머니투데이가 주최한 '2022 제8회 대한민국 기업대상' 시상식이 열렸다. △ICT(정보통신기술) △바이오 △핀테크 △사회공헌 등 각 분야에서 자신만의 경쟁력을 갖추고 올 한 해 시장에서 호평받거나 업계 모범이 된 기업들을 뽑는 행사다. 머니투데이는 지난 10월부터 두 달간 사전 조사를 통해 △기술성 △사업성 △기업 연혁 등을 두루 고려해 올해 15개 분야 79개 기업을 최종 선정했다.선정 기업의 주요 업종은 IT솔루션·제조·에너지·모빌리티·헬스케어 등 산업 전 분야를 아우른다. 그 가운데 수상 기업들을 관통하는 핵심 키워드는 '플랫폼 비즈니스'다. 국경을 허무는 디지털 장을 열어 네트워크 효과를 내거나, 분산 정보를 모으고 새로운 생태계를 조성해 가는 기업들이 다수 포진했다.레드컬튼(대표 이상진)은 문화 애호가를 위한 플랫폼으로, 해시퍼플(대표 이주언)은 K팝 팬덤을 위한 플랫폼으로 국내외 시장에서 두각을 나타내고 있다. 신차 견적 플랫폼 업체 준컴퍼니(대표 박근영)와 K뷰티 무역 플랫폼 업체 리테일라군(대표 윤준명)은 소비자 및 업계의 페인포인트를 해결해주고 있다는 평가를 받았다. 피프틴에이치(대표 지성구)는 플랫폼 개발 서비스 사업에 역량을 갖춘 곳이다.'데이터 활용 역량'이 뛰어난 기업들도 이번 수상 명단에 올랐다. 씨즈데이터(대표 정승인)는 데이터 가공 솔루션 '다줌'을, 에이데이타(대표 이동혁)는 빅데이터 수집·연계 솔루션 'SCV'를 개발한 기업이다. 사미텍(대표 김혜민)은 블록코드형 데이터 팩토리를, 에이셀테크놀로지스(대표 김형민)는 대체 데이터를, 투비콘(대표 노정한)은 의료 데이터를 강점화한 곳이다. 모밋(대표 김홍찬)은 직무 데이터 HR 플랫폼으로, 비엠텍시스템(대표 김봉구)은 마이크로서비스로, 올시데이터(대표 엄항섭)는 선박 빅데이터 분석 시스템으로, 라임에스엔씨(대표 김종훈)는 데이터 정보시스템으로 수상했다.'AI 기술' 분야에서는 스위트케이(대표 김민철)와 머신비전 알고리즘 개발사 클레(대표 이진한·조덕현), AI 스마트팩토리 회사 아임토리(대표 성노윤), AI 엔터프라이즈 솔루션 기업 피플앤드테크놀러지(대표 임진순·홍성표), 자율 주행 및 AI 주차 솔루션 기업 베스텔라랩(대표 정상수), AI 개발 플랫폼 '와이즈프로핏' 개발사 위세아이텍(대표 김종현·이제동) 등이 뽑혔다.'콘텐츠 경쟁력'으로 차별화를 이룬 곳도 선정됐다. 학습 및 훈련 콘텐츠와 메타버스, 가상인간 등에서 경쟁력을 갖춘 사례다. 크라우드에듀케이션(대표 허근행)이 코딩 부트캠프 부문으로, 알파서클(대표 신의현)이 8K 초고화질 VR(가상현실) 부문으로, 비브스튜디오스(대표 김세규)와 퍼니스톰(대표 유충길)이 메타버스 부문으로 수상했다.알데바(대표 김진오, 스티브 박)는 맞춤형 수술 트레이닝 솔루션으로 , 어뮤즈랩(대표 유영일)은 미디어 가공·분석 솔루션으로, 다비다(대표 이은승)는 양방향 교육·회의 플랫폼으로 높은 평가를 받았다. 인터랙트(대표 권남혁)는 XR(확장현실) 교육훈련 시스템으로, 코스윌(대표 이상준)은 디지털 휴먼 홀로그램으로 수상을 차지했다. 씨앤컴(대표 김태균)은 마케팅 부문에서, 네오엔터디엑스(대표 권택준)는 버추얼 인플루언서 부문에서 이름을 올렸다.'브랜드 경쟁력'을 인정받아 수상한 화장품 기업은 베베드블랑(대표 박재빈)과 스킨케어 업체 유리코스(대표 김선미), 2개 사다.'디지털 의료' 쪽에서는 휴벳바이오(대표 정형화)가 AI 액체생검을, 에아스텍(대표 이보아)이 AI 신약 개발을, 리워크(대표 이동진)가 보행 재활 로봇을, 지엘(대표 김도현)이 XR 인지 재활을 주력 아이템으로 삼고 수상 리스트에 올랐다.'안전한 사회'를 만드는 데 앞장서는 기업도 선정됐다. '스마트 안전 플랫폼'의 스마트인사이드에이아이(대표 박승희)와 'AI 경계 시스템'의 아디아랩(대표 이재철), 'IoT(사물인터넷) 복지'의 에이나인(대표 박용연) 등이다. 에스프레스토(대표 손동현)는 불법 촬영 예방 기술로, 에이브레인(대표 박기언)은 중대재해 예방 솔루션으로 이목을 끌었다.보안 분야에서는 4개 사가 수상했다. 정보보호 인증 컨설팅의 린시큐어(대표 최창윤)와 지정맥 인증 기술의 이터널(대표 안정민·김영국·조우열), 지문인식 보안 알고리즘의 렙톤소프트(대표 이재복), 정품 인증 플랫폼의 알엠지(대표 김희정) 등이다.지속 가능성 및 ESG 경영 사례를 보여준 곳은 10개 사다. △블록체인 기부 플랫폼 '체리'-이포넷(대표 이수정) △일회용 폐기물 저감 솔루션-더그리트(대표 양우정) △폐플라스틱 재활용 기술-넥스코(대표 권은화) △폐플라스틱 자연 순환-에코드림(대표 김덕규) △AI 에너지관리-한국그린데이터(대표 이호준) △ESG 컨설팅-코즈웍스(대표 노재권) △친환경 세제 '슈가버블'-슈가에코(대표 정완덕) △지열 신재생에너지-지앤지테크놀러지(대표 조희남) △그린 수소생산 수전해-넥슨스타(대표 이덕원) △기부 등 사회 공헌-휴먼피부임상시험센터(대표 정희정) 등이다.소부장(소재·부품·장비) 관련 기업도 다수 수상했다. 그래핀올(대표 유희준)은 화학적 박리 그래핀을, 포티스라이프사이언스코리아(대표 윤영국)는 생명공학 원부자재를, 레이어와이즈(대표 이정식)는 금속 3D프린팅 후가공 솔루션을 만드는 곳이다. 아콘텍(대표 라웅재)은 슬림형 스마트 아크 차단기를, 오즈세파(대표 오계동)는 유수 분리 나노필터를, 나노팬텍(대표 곽종영)은 3차원 세포배양용기를 개발했다. 반도체 관련 기업은 2개사다. 반도체 공정진단 업체 더블유지에스(대표 유임수)와 반도체 디자인 하우스 에이직랜드(대표 이종민)다.핀테크 분야에서는 미국 부동산 투자 플랫폼의 네오집스(대표 어태수)와 AI 로보어드바이저 펀드의 두물머리(대표 천영록), 해외 송금 솔루션의 와이어바알리(대표 유중원) 등이 뽑혔다.특정 업무를 돕는 소프트웨어 개발사들도 올해를 빛낸 기업으로 이름을 올렸다. △이커머스 협업 솔루션-거북선컴퍼니(대표 염승헌) △HR 클라우드 플랫폼-오이사공(대표 임채연) △자전거 정비 예약 서비스-와이크(대표 이무비) △특허 명세서 작성·번역 플랫폼-아이팩토리(대표 유장현) △공사 관리 플랫폼-씨엠엑스(대표 이기상) 등이다.세상에 없던 제품을 만들었거나 개발에 도전 중인 기업들도 '2022 대한민국 기업대상'을 빛냈다. 난치성 뇌질환 신약에 도전하는 큐어버스(대표 조성진), 자가면역질환 치료제 개발에 나선 리윤바이오(대표 이진희·윤정인), 인공혈액 연구·개발에 매진하는 레드진(대표 박갑주), 단백질분해기술 신약에 집중하는 프레이저테라퓨틱스(대표 인경수), 희귀 의약품 개발 특화 기업으로 알려진 제이인츠바이오(대표 조안나) 등이다. 세계 최초로 치매 전용 방사선 치료법을 개발한 레디큐어(대표 정원규)와 2채널 휴대용 뉴로피드백 시스템을 개발한 파낙토스(대표 박병운)도 그 주인공이다.사진=김휘선 기자이날 열린 시상식에서 심사평을 맡은 이종섭 동국대학교 교수는 "수상 기업들의 공통점은 산업 분야에서 '올 한 해를 빛낸 기업들'이라는 점"이라며 "꾸준한 혁신으로 성장세를 유지하며 업계에 모범이 되는 연속상 기업부터, R&amp;D에 집중 투자해 성과를 낸 기업, 미래 유니콘으로서의 성장 가능성을 갖춘 스타트업, 화두로 떠오른 ESG를 확산할 수 있는 제품과 서비스 및 기술을 선보인 곳들도 선정됐다"고 말했다.제8회 2022 대한민국 기업대상 시상식 /사진=김휘선 기자 hwijpg@ 박종면 머니투데이 대표는 인사말을 통해 "올해는 유독 큰 사건이 많았고 경기 침체에 대한 불안감이 어느 때보다 높아진 형국"이라고 화두를 꺼냈다. 이어 "어려운 상황 속에서도 위기를 기회로 바꿀 수 있는, 그 누군가는 반드시 존재한다고 믿는다"며 "그 누군가가 '여러분'이었으면 좋겠다"고 덧붙였다.━올해를 빛낸 기업들 '2022 제8회 대한민국 기업대상' 수상기업 명단━</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>'△△페이' 수수료 얼마?…내년부터 공시한다</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004792996?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>네이버페이 등 10개 빅테크 대상네이버파이낸셜(네이버페이)과 쿠팡페이(쿠페이), 카카오페이 등 온라인 간편결제 서비스를 제공하는 빅테크 10곳은 내년부터 결제수수료율을 반기마다 공시해야 한다. 금융감독원은 28일 이 같은 내용의 ‘전자금융업자 수수료 구분관리 및 공시 등을 위한 가이드라인’을 발표했다.빅테크가 가맹점으로부터 걷는 수수료를 결제수수료(카드사 수수료, 결제대행 및 선불결제 수수료 등)와 기타수수료(호스팅 수수료, 오픈마켓 입점 및 프로모션 수수료 등)로 구분하고, 이 중 결제수수료율을 개별 홈페이지에 반기마다 공시하도록 하는 게 골자다. 작년 기준 간편결제 거래 규모가 월평균 1000억원 이상인 10개사(네이버페이, 쿠페이, 카카오페이, 스마일페이, SK페이, 배민페이, 페이코, SSG페이, 토스페이, L페이)가 대상이다. 대상 업체는 회계법인 등의 확인 절차를 거쳐 내년 3월 말까지 공시해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>하나은행, 금융권 최초 24시간 FX 거래 열었다</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002079093?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>토스증권과 MOU 체결FX시장 위한 안정적 시스템 구축하나은행은 지난 15일 오후 서울 중구 을지로 하나은행 본점에서 토스증권과 24시간 FX 거래를 위한 전략적 업무협약을 체결했다. 업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다.[헤럴드경제=서정은 기자] 하나은행은 지난 15일 서울 을지로 하나은행 본점에서 토스증권과 24시간 외환(FX) 거래를 위한 전략적 업무협약(MOU)를 체결했다고 밝혔다.이번 업무협약을 통해 하나은행은 토스증권과 24시간 환율 제공 및 거래 서비스 제공, FX시장의 성장과 효율성 제고를 위한 안정적 시스템 구축, 24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다.특히 하나은행은 토스증권에 오전 9시부터 오후 3시 30분 까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공한다. 앞으로도 24시간 FX 거래 확대를 통해 비대면 FX 전자 플랫폼 시장을 선도해 나갈 예정이다.남궁원 하나은행 경영기획그룹 부행장은 “토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다앙한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다” 고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.12.23.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 연이자가 4%? '파킹 통장' 인기라는데…｜머니클라스</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000326194?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>■ 인용보도 시 프로그램명 'JTBC 상암동 클라스'를 밝혀주시기 바랍니다. 저작권은 JTBC에 있습니다.■ 방송 : JTBC 상암동 클라스 / 진행 : 이가혁[앵커]요새 재테크에 많이 나오는 통장 종류 중 하나가 파킹. 파킹 통장, 이걸로 통장 쪼개기하는 건 어떻습니까?[손희애/금융크리에이터 : 맞습니다. 파킹 통장 그러니까 파킹, 차를 잠깐 세워두는 것처럼 돈을 잠깐 예치를 해 두는데 이자를 준다, 이런 특징 때문에 많이들 이용을 하시는 거죠.][앵커]매일매일 이자가 붙는 건가요?[손희애/금융크리에이터 : 맞아요, 맞아요. 그냥 수시 입출금통장 입출금 통장인데도 이자를 더 주니까 우리 입장에서는 이용을 하지 않을 이유가 없는 거잖아요. 게다가 비상금통장이라고 하면 금액도 꽤 크니까요. 특히나 화면에서 보시는 것처럼 예전에는 파킹통장이라고 하면 많이 이자를 받는다고 하더라도 한 2%대 정도로 생각을 했는데 최근에는 토스뱅크와 에큐온저축은행 경우에는 4%까지 금리를 설정해 주면서 파킹통장이 이렇게 금리를 많이 받는다고라고 생각이 들 만큼 높은 금리를 제공하고 있습니다. 비상금통장이라 하면 말 그대로 비상시에 언제든지 사용을 할 수 있어야 되잖아요. 이 파킹통장 같은 경우에는 말 그대로 입출금통장이기 때문에 언제든지 돈을 빼쓸 수 있으면서 금리를 챙길 수 있는 게 우리가 가장 큰 장점이라고 뽑을 수 있겠습니다.][앵커]그러면 생활비통장이나 비상금 통장을 파킹통장으로 하는 것도 괜찮은 방법이겠네요.[손희애/금융크리에이터 : 맞습니다.][앵커]지금까지 머니클라스 손희애 금융 크리에이터와 이야기 나눠봤습니다. 감사합니다.[손희애/금융크리에이터 : 감사합니다.]</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>인터넷은행 예대금리차 재확대…건전성도 '흔들'</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002669058?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>토뱅 5.61%…전월比 0.24%↑중저신용 고객 확대 막판 스퍼트케이뱅크, 카카오뱅크, 토스뱅크. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행의 이자 장사 정도를 보여주는 예대금리차가 지난 달 들어 다시 확대된 것으로 나타났다. 금융당국이 제시한 중저신용자 대출 목표치를 채우기 위해 관련 영업을 확대한 영향으로 풀이된다. 문제는 이처럼 상대적으로 취약한 차주에 대한 대출을 늘리면서 여신 건전성이 악화되고 있다는 점으로, 인터넷은행들로서는 연말에 안팎으로 이중고를 겪는 모습이다.22일 은행연합회에 따르면 지난달 햇살론뱅크·햇살론15·안전망 대출 등 정책서민금융을 제외한 토스뱅크의 예대금리차는 5.61%로 전월 대비 0.24%포인트(p) 늘었다. 토스뱅크 예대금리차는 전월 1위였던 전북은행을 제치고 전체 19개 은행 가운데서 가장 높은 차이를 기록했다.케이뱅크 지난달 예대금리차 역시 2.28%로 같은 기간 대비 0.57%p 확대됐다. 카카오뱅크도 1.48%로 인터넷은행 중에서는 가장 낮았지만 0.37%p 더 벌어졌다.시중은행에서는 우리은행이, 지방 및 외국계 은행에서는 제일은행, 경남은행, 대구은행, 광주은행, 전북은행 등이 정책서민금융을 제외한 가계 예대금리차가 확대됐다.인터넷은행을 포함해 은행들의 예대금리차가 다시 벌어진 것은 금융당국이 지난달 2금융권 자금이 1금융권으로 과도하게 쏠리는 '역머니무브'를 막기 위해 전체 은행권에 수신금리 경쟁 자제를 권고했기 때문이다. 한국은행이 지난달 24일 기준금리를 0.25%p 올린 후 대출 금리는 오른 반면, 예·적금 금리는 제자리걸음을 하면서 자연스럽게 예대금리차가 벌어진 것이다.특히 인터넷은행은 중저신용자 비중 목표치를 달성해야하는 과제를 안고 있어 다른 은행들 보다도 예대금리차가 더 크게 확대됐다. 시중은행에서 대출이 거절되는, 중저신용 고객까지 포용하다보니 조달 비용이 상승할 수 있고 이게 대출금리에 반영돼 오를 수 밖에 없다는 설명이다.인터넷은행 관계자는 "연말까지 달성해야하는 중·저신용자 목표치가 있어 대출을 확대하다보니 예대금리차가 커졌다"고 설명했다.중저신용 고객 늘리기에 힘을 쏟다보니 자연스럽게 건전성도 악화하는 형국이다. 인터넷은행 3사의 고정이하여신비율도 올해 3분기 말 0.43%로 지난해 말 보다 0.17%p 올랐다. KB국민·신한·하나·우리은행 등 4대 시중은행의 고정이하여신 비율이 0.23%에서 0.20%로 개선된 것과 대조적이다.이와중에 이들이 중저신용 목표치를 달성할 수 있을지도 미지수다.카카오뱅크, 케이뱅크, 토스뱅크는 연말까지 각각 목표치인 25%, 25% 42%를 채워야 한다. 카카오뱅크, 케이뱅크의 올해 9월 말 기준 중·저신용 대상 신용대출 비중은 각각 23.2%, 24.7%이다. 토스뱅크는 지난달 21일 기준 중·저신용 대출 비중이 40.1%라고 밝혔다.이들 3사 모두 금융당국이 정한 가이드라인에 대부분 바짝 다가섰지만, 고금리 시대 하루가 다르게 불어나는 이자가 부담스러운 차주들이 대출을 갚거나 대출 수요가 줄고 있는 현실이 막판 변수가 되고 있다.금융당국은 인터넷은행이 목표 달성 계획을 제대로 지키지 않을 시 이를 신사업 인·허가 등에 고려하겠다고 했다.연말까지 남은 10여일 간 목표치를 채우기 위해 인터넷은행들도 막판 스퍼트를 내고 있다. 카카오뱅크는 이달부터 중저신용 고객을 대상으로 첫달 대출 이자를 지원하고 있다. 또 21일부터 최저 금리 4.45%, 최대 한도 1억원의 중신용대출 상품을 특별판매하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Z세대, 카톡보다 ‘인스타그램’ 더 깔았다</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001189032?sid=105</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Z세대(현 13∼24세)가 가장 많이 설치한 앱은 '인스타그램'이었다. NHN데이터가 안드로이드 이용자 2800만 명의 앱 설치 데이터를 α(알파) 세대(0세∼12세), Z세대(13∼24세), 밀레니얼 세대(25∼44세), X세대(45∼59세)별로 분석해 16일 공개한 결과다.α·밀레니얼·X세대에서는 카카오톡이 가장 많이 설치한 앱이었는데 유일하게 Z세대에서만 인스타그램·네이버에 이어 카톡은 3위를 기록했다.엔터테인먼트 및 소셜미디어 앱으로 범주를 좁히면 Z·밀레니얼 세대는 인스타그램을 가장 많이 설치했고 X세대는 '밴드'를 가장 많이 이용했다.반면 α세대에서는 게임·메타버스 플랫폼 '로블록스'가 1위를 차지했고, 이어 '틱톡'과 '포켓몬 고' 순으로 나타났다. 금융 앱은 '토스', 식품 앱은 '배달의민족'이 전 세대를 통틀어 설치율 1위로 나타났다.X세대의 경우 Z·밀레니얼 세대와 비교해 신용카드 관련 앱 설치율이 높게 나타났고, '포켓 CU'·'나만의냉장고'·'세븐일레븐' 등 편의점 앱은 α·Z세대에서 상위권에 들었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>센스톤, 자사 ‘OTAC’ 기반으로 산업통상자원부 신기술 인증 획득</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002139232?sid=105</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 인증보안 기업 센스톤은 자사 개별 사물인터넷(IoT) 디바이스 기기 인증 및 전송데이터 보안 기술이 산업통상자원부의 신기술(NET) 인증을 획득했다고 21일 밝혔다.   산업통상자원부 국가기술표준원과 한국산업기술진흥협회가 운영하는 NET 인증은 국내 기업 및 연구기관, 대학 등에서 개발한 신기술을 조기 발굴해 우수성을 인증하는 제도다. 국내에서 최초로 개발된 기술 또는 기존 기술을 혁신적으로 개선·개량한 우수한 기술을 대상으로 한다.   NET 인증을 획득한 센스톤의 기술은 단방향 무작위 고유식별 인증 OTAC(One-Time Authentication Code)를 기반으로 한다. 특정 시간 동안에만 유효한 단방향 일회성 OTAC 토큰으로 사용자를 식별하고 인증한다. 인증을 위한 별도의 일회용비밀번호(OTP) 기기를 휴대할 필요가 없다는 것이 특징이다.   디바이스 내에서 단독 생성되기 때문에 서버와의 네트워크가 단절된 상황에서도 인증코드 생성이 가능하다. ID 및 비밀번호와 같이 외부 위협에 취약한 고정값 기반의 인증 대신, 일회성 다이내믹 코드 기반의 기기 인증체계를 통해 IoT 장비의 보안성을 혁신적으로 개선한다는 점에서 그 우수성을 인정받았다는 것이 센스톤의 설명이다.   센스톤은 현재 토스뱅크, 국방부 밀리패스, 인도네이사 조폐공사 전자수입인지 서비스 등에 해당 기술을 제공 중이다. 여기에 더해 이번 NET 인증을 계기로 보다 지능적으로 진화하고 있는 사이버 위협에 대응하기 위해 강력한 인증보안 기술을 필요로 하는 금융 및 IoT 시장을 우선적으로 공략한다는 방침이다.   유창훈 센스톤 대표는 “IoT 시장의 성장과 기술 발전만큼 이를 둘러싼 사이버보안 위협이 나날이 증가하고 그 수법 또한 고도화되고 있다”며 “NET 인증으로 센스톤의 혁신적인 기술력이 다시 한번 공식적으로 인정받았다. 사용자 편의를 해치지 않으면서 안전한, 더 혁신적이고 파괴적임 금융 및 IoT 서비스가 등장할 수 있도록 협력할 것”이라고 말했다.   한편 센스톤의 OTAC 기술은 약 260여개의 글로벌 특허를 출원 및 보유하고 있다. 다른 사용자와 중복되지 않으면서도 매번 변경되는 알고리즘의 특성을 기반으로 금융부터 IoT 등 다방면에 적용 가능한 인증 솔루션을 개발 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>정기예금 못지않네…인뱅·저축은행 파킹통장 "하루 맡겨도 연 5%"</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011615903?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>기사내용 요약OK저축 최고 연 5%…토뱅 최고 연 4%파킹통장, 별도 해지 없이 자금 이동 쉬워0.1%p 차이에도 '금리 노마드족' 움직여[서울=뉴시스]이주혜 기자 = 최근 인터넷전문은행들이 하루만 맡겨도 이자를 받을 수 있는 '파킹통장' 금리를 올린 데 이어 저축은행도 인상에 나섰다. 시중은행의 예금금리 인상이 주춤하면서 '금리 노마드족'을 겨냥한 것이다. 파킹통장 금리는 은행권 정기예금 수준인 연 4~5%대로  뛰었다.29일 금융권에 따르면 최근 OK저축은행은 최고 연 5% 금리를 적용하는 수시입출금통장을 내놓았다.26일 출시된 'OK읏백만통장Ⅱ'은 넣어놓은 돈을 언제든 찾아 쓸 수 있는 파킹통장이다. 500만원까지 최고 5%의 금리를 적용한다. 기본금리는 연 4.5%로 오픈뱅킹 등록 시 0.5%포인트의 우대금리가 추가된다. 500만원 초과 5000만원까지는 최고 연 4%의 금리를 적용한다.OK저축은행은 기존 상품인 'OK세컨드통장' 금리도 5000만원까지 최고 연 4%로 상향 조정했다.단기 여유자금을 고금리 입출금상품에 넣어두려는 수요가 늘어나면서 파킹통장의 금리를 올린 것이다. 파킹통장 최고 금리는 주요 시중은행의 1년 만기 정기예금보다도 높은 수준이다. 최근 시중은행 정기예금 금리가 답보 상태에 빠지면서 이를 관망하는 자금 수요도 늘어나는 분위기다.앞서 인터넷은행들도 파킹통장 금리를 인상하며 경쟁에 나섰다. 토스뱅크는 13일부터 수시입출금 통장인 '토스뱅크 통장'의 금리를 5000만원 초과분에 한해 연 4%로 높였다.수시입출금 통장 외에 정기예금 상품이 없는 토스뱅크는 해당 통장에 연 2.3% 금리를 제공해왔다. 5000만원 이하 금액에는 기존 연 2.3% 금리가 적용된다. 해당 통장에 1억원을 예치하면 5000만원까지 연 2.3%, 나머지 5000만원에는 연 4% 금리가 제공되면서 실제 적용 금리는 연 3.15%가 된다.케이뱅크도 파킹통장인 '플러스박스' 금리를 연 2.7%에서 연 3.0%로 0.3%포인트 인상했다.파킹통장은 하루만 맡겨도 이자를 받을 수 있다. 금리가 인상되면 재가입 등 별도 절차 없이 인상된 금리가 적용된다. 다른 상품으로 자금을 옮기기도 쉽다. 투자처를 찾기 위해 단기간 돈을 넣어두면서 이자를 조금이라도 더 받으려는 금융 소비자들이 선호한다. 자금 이동이 쉬운 특성 탓에 금리 변동에 민감하다. 저축은행 관계자는 "특히 저축은행을 이용하는 고객은 금리 민감도가 높아 금리가 0.1%포인트라도 높은 상품이 나오면 쉽게 이동하는 경향이 있다"면서 "저축은행권에서도 인터넷은행의 파킹통장 금리를 의식할 수밖에 없다"고 말했다.반면 금융당국의 인상 자제 권고에 정기예금 금리는 하락세다. 주요 시중은행 예금금리는 연 5%대에서 4%대로, 저축은행 예금금리는 6%대에서 5%대로 내렸다.은행연합회 소비자포털에 따르면 KB국민·신한·하나·우리은행의 주요 정기예금(12개월) 금리는 28일 기준 연 4.27~4.63%다. 우리은행 'WON플러스예금' 연 4.63%, 하나은행 '하나의정기예금' 연 4.60%, 신한은행 '쏠편한 정기예금' 연 4.50%, 국민은행 'KB Star 정기예금' 연 4.27% 등이다.저축은행중앙회가 집계한 전국 79개 저축은행의 정기예금 금리 상단은 연 5.70%다. 평균 금리는 연 5.39%로 한 달 전(5.53%)보다 0.14%포인트 낮아졌다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>"빅테크 잡는다" 신한·KB국민·하나카드 '오픈페이' 출격</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000879755?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 하나의 카드 앱으로 여러 카드를 등록해 결제할 수 있는 '오픈페이'가 드디어 첫발을 뗀다. 네이버페이, 카카오페이 등 빅테크의 공습이 거세지면서 카드사들은 동맹을 통해 반격에 나설 계획이다.21일 여신금융협회에 따르면 오는 22일부터 신한·KB국민·하나카드가 '오픈페이'를 위한 앱카드 상호연동 서비스를 시작한다. 앱카드 상호연동은 고객이 1개의 카드사 결제앱(플랫폼)으로 카드사(발급사) 구분없이 여러장의 카드를 등록해 사용·조회할 수 있는 서비스다.그동안 여러 카드사의 카드를 보유한 고객은 카드사 결제앱을 모두 설치해야 했다. 하지만 소비자 불편이 제기되자 카드업계는 앱카드 상호연동 서비스로 카드사 구분없이 하나의 카드 앱에 보유 중인 카드를 모두 등록·사용하도록 했다.서비스 이용을 위해서는 A사 결제앱에서 B사를 선택하고 약관동의 및 본인인증 후 신용·체크카드를 등록하면 된다. 이후 A사 앱으로 오프라인 가맹점에서 바코드·QR·근거리무선통신(NFC)·마그네틱보안전송(MST) 방식으로 결제하면 된다.오는 2023년 2월 롯데카드에 이어 3월 비씨카드, 하반기 NH농협카드가 서비스를 시작할 예정이다. 우리카드와 현대카드도 서비스에 참여할 예정이며 일정 등은 논의 중이다. 내년 하반기엔 온라인 가맹점에서의 결제도 가능하다.━카드사가 '적과의 동침' 택한 이유는━카드사들이 협업에 나서게 된 건 네이버페이, 카카오페이 등 빅테크에 밀릴 수 있다는 위기의식이 주효했다.한국은행에 따르면 올해 상반기 기준 간편결제 서비스 이용건수와 이용금액은 일평균 2317만건, 7232억원으로 전기와 비교해 각각 8.3%, 10.7% 증가했다.네이버·카카오·토스 등 전자금융업자 영향력은 확대되는 추세다. 전자금융업자가 제공하는 간편결제의 일평균 서비스 이용건수 및 금액은 전기와 비교해  9.7%, 11.7% 증가한 1330만건, 3642억원으로 집계됐다.특히 지난해 한국핀테크산업협회가 진행한 설문조사 결과에 따르면 MZ세대(밀레니얼+Z세대) 10명 중 9명은 간편결제 서비스로 전자금융업자 플랫폼을 이용하는 것으로 나타나면서 미래 금융고객을 뺏길 수 있다는 위기감도 커진 상황이다.여신금융협회 관계자는 "이번 앱카드 상호연동 서비스를 통해 고객 편의가 개선되고 카드사 결제앱 경쟁력이 제고될 것으로 기대 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>신규 알뜰폰 사업자 등장에 통신사도 '긴장모드'</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002668187?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>알뜰폰 LTE 가입자 1125만명 돌파…전년 비 272만명5G가입자 증가세 둔화 뚜렷..."요금제 개편 움직임도"서울 시내의 한 휴대전화 매장.ⓒ뉴시스[데일리안 = 남궁경 기자] 통신 시장이 신규 알뜰폰 업체 등장으로 격화될 조짐을 보이고 있다.19일 과학기술정보통신부가 최근 발표한 ‘무선통신서비스 가입자 통계’에 따르면, 국내 알뜰폰 LTE 가입자는 지난 10월 기준 1124만7989명으로 전년 동기(852만1009명)대비 272만6980명 증가했다. 전달(1103만4462명)보다는 21만여명 늘며 성장세를 기록 중이다.반면 SK텔레콤·KT·LG유플러스 등 이동통신 3사의 5G 가입자 증가폭은 줄어들고 있다. 5G가입자 규모는 올해 1월(3.11%), 2월(3.33%) 3% 대 증가율을 보이다 3·4·5·6·7·8·9월부터 2%로 내려간 뒤 회복하지 못하고 있다. 게다가 순증 규모도 월 50만명 수준에 머물고 있다.5G 가입자가 많아야 하는 상황에서 되려 알뜰폰 사용자가 늘어나자, 통신사들은 긴장하고 있다. 특히 유망기업들의 알뜰폰 사업 진출 소식이 이어지면서 통신사들의 고민은 깊어질 전망이다.내년 신규 알뜰폰 서비스를 시작할 업체는 통합전자결제 서비스 기업 KG모빌리언스와 토스 운영사 비바리퍼블리카 등이다.이들은 신규 알뜰폰 브랜드 출시 막바지 단계에 있는 것으로 전해졌다. KG모빌리언스의 경우 자사 ‘모빌리언스카드’ 회원을 기반으로 알뜰폰 고객 유치에 나선다는 계획을 세웠다.이 중 가장 두각을 나타낼 사업자로는 지난 7월 알뜰폰 사업자 머천드코리아 인수를 한 비바리퍼블리카(토스)가 꼽힌다. 이들은 현재 신규 브랜드 '토스모바일' 출시 준비에 한창이다. 업계에서는 내년 1월 말부터 토스모바일 서비스가 이뤄질 것으로 전망하고 있다. 토스는 기존 머천드 코리아가 하고 있던 선불폰 사업을 이어가되, 공격적인 마케팅은 자제하고 후불 폰 중심으로 사업을 전개할 방침이다.이에 따라 통신사들도 긴장의 끈을 놓지 않고 있다. 특히 최근 소비 형태가 온라인으로 변화함에 따라 온라인 전용 요금제를 전면 개편하고 위약금 해지와 유무선 결합 할인 등 이용자 유인책을 내놓고 있다.첫 시작을 끊은 곳은 SK텔레콤이다. 회사는 최근 가입 조건을 낮추는 동시에 혜택을 강화한 온라인 전용 요금제 '다이렉트 플랜'을 선보였다. 기존에는 약정에 가입 중인 고객이 온라인 요금제에 가입(T다이렉트샵 휴대폰 구매 시)하려면 위약금을 납부해야 했으나, 앞으로는 약정 승계 제도를 통해 위약금 없이 다이렉트 플랜에 가입할 수 있다. 또 요즘가족플랜 등 유무선 결합 상품 가입이 가능하다.KT와 LG유플러스는 아직까지 온라인 요금제 개편을 단행하지 않았다. 다만, 통신사 중 한 곳이 요금제를 내놓을 경우, 경쟁사들이 비슷한 스펙 요금제를 내놓는 경향을 보여왔던 만큼, 향후 2사도 관련 요금제 개편을 진행할 것으로 관측된다. KT관계자는 "KT는 고객 편의 제공 위한 다양한 혜택을 강화하기 위해 노력 중"이라 말했다. LG유플러스 관계자는 "아직 개편을 진행하고 있지 않다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>IPO 빙하기에 추락하는 장외株…'영끌' MZ 또 비명 [투자360]</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002081321?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>12월 K-OCT 시총, ‘年 최고치’ 2월보다 48.5% 감소 ‘반 토막’‘증권플러스 비상장’ 시가총액 상위 10개 종목 합산 시총도 연초 대비 44.7%↓가상자산 거래소 운영사 비상장株 낙폭 최대…81.8% 하락까지증권플러스 비상장 이용자 43.78%가 MZ세대…20대 비율도 22.55%까지 ↑[게티이미지뱅크][헤럴드경제=신동윤 기자] 올 한 해 기업공개(IPO) 시장에 매섭게 불어닥친 한파의 영향으로 이른바 예비 상장 종목들로 꼽히는 비상장주(株)가 된서리를 맞았다. 심지어 이름만 들어도 알만한 굵직굵직한 비상장 기업들의 가치가 연초와 비교했을 때 ‘반 토막’은 물론, 5분의 1 토막 이하까지 폭락하는 경우까지 속출했다.이런 상황의 가장 큰 피해자가 MZ세대(밀레니얼+Z세대)라는 분석도 나왔다. 최근 비상장 주식 거래에 어떤 세대보다 적극적으로 나서며 ‘큰손’으로 떠올랐던 상황이기 때문이다.21일 금융투자협회에 따르면 전일 기준 12월 K-OTC 시장의 시가총액은 약 17조7361억원으로 올 한 해 최고치를 기록했던 지난 2월(약 34조4214억원)보다 48.5% 감소했다. 사실상 반 토막 수준으로 줄어든 셈이다. K-OTC는 금융투자협회에서 운영하는 제도권 비상장 주식 거래 시장이다.비상장 주식 거래소인 증권플러스 비상장의 시가총액 상위 10개 종목의 합산 추정 시가총액도 올해 1월 3일 기준 약 99조2695억원에서 20일 기준 54조8525억원으로 44.7% 감소했다.개별 주요 기업들의 상황을 가장 잘 설명할 수 있는 단어도 바로 ‘곤두박질’이다.가장 낙폭이 큰 부문은 가상자산 거래소 운영사들이다. 국내 최대 가상자산 거래소 ‘업비트’ 운영사인 두나무의 주가는 연초 49만4000원에서 현재 11만3000원으로 77%나 떨어졌고, ‘빗썸’ 운영사인 빗썸코리아는 51만원에서 9만3000원으로 무려 81.8% 하락하며 5분의 1 토막이 났다.여기에 간편결제 플랫폼 ‘토스’ 운영사인 비바리퍼블리카의 주가는 13만9000원에서 3만6700원으로 73.6% 추락했다.올해 당장 불어닥친 찬바람을 피하느라 IPO를 내년으로 미룬 상장 예정 업체들의 주가도 눈에 띄게 떨어졌다. 케이뱅크와 컬리의 주가는 각각 연초 대비 45%, 74.1%씩 급하강했다.이 밖에도 야놀자가 51.4%, 현대오일뱅크가 36.9% 수준의 주가 하락을 경험했다.[증권플러스 비상장 자료]투자업계에선 비상장사가 당분간 IPO 시장에 나서기 힘들다는 사실이 비상장주의 가치 하락에 영향을 끼쳤다는 분석을 내놓았다. 특히, 2020~2021년 IPO 시장이 흥행했던 덕분에 비상장 기업들의 몸값이 크게 높아진 것도 낙폭을 커지게 하는 주요 요인으로 작용했다는 것이다.올해 들어 현대엔지니어링, SK쉴더스, 원스토어, 라이온하트스튜디오 등 조 단위 ‘대어’가 증권신고서를 제출했다가 상장을 철회했고, CJ올리브영, SSG닷컴 등은 상장 계획을 연기했다. 11월 이후에도 밀리의서재, 바이오인프라, 자람테크놀로지 등이 코스닥 상장 추진을 철회했다.특히, 바이오 콘텐츠·동물 진단 기업인 바이오노트는 흥행 참패에도 불구하고 ‘반값’ 상장을 강행하며 완주를 선택했지만, 기업 가치는 뚝 떨어졌다. 당초 희망했던 공모 밴드 상단 가격이 2만2000원이었던 점을 감안하면 공모가로 결정된 9000원은 60% 가까이 할인된 것이다.한편, 비상장 주식의 가격이 폭락하는 것은 MZ세대의 자산 감소로도 이어질 수 있다는 우려도 나왔다. 최근 들어 비상장 주식에 가장 적극적으로 달려드는 세대가 바로 MZ세대이기 때문이다.실제로 지난 2020년 10월부터 2021년 10월까지 증권플러스 비상장 이용자의 연령대를 살펴보면 MZ세대가 43.78%로 다수를 차지했다. 특히, 20대 투자자 비율은 2021년 5월 19.12%에서 2022년 1월 22.55%로 증가했다.한 증권업계 관계자는 “단시간 내 침체된 국내 주식 시장의 반등을 기대하긴 힘들 상황”이라며 “특히 내년 상반기까지 하락 흐름이 지속될 가능성이 높은 만큼 IPO 움직임 역시 위축될 것”이라고 설명했다. 이어 “상장 무산·연기 등으로 가치가 떨어지면서 투자자들의 관심도도 줄어드는 장외시장의 부진 현상은 내년에도 이어질 전망”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>P2P 금융사 기관투자 유치 가능해진다</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003067378?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크온라인투자연계금융업계의 오랜 숙원이었던 '기관투자 유치'가 현실적으로 가능해진다.온라인투자연계금융협회(협회장 임채율)는 금융위원회가 제5차 금융규제혁신회의를 통해 우선 4가지의 규제를 풀어 업계 활성화를 꾀하기로 했다고 21일 밝혔다.가장 먼저 내년 1분기에 추진될 예정인 규제혁신은 금융기관의 온투업 연계투자 문제다. 금융위는 각 온투업체의 차입자 개인식별정보를 투자를 하는 금융기관에 제공할 수 있도록 허용함으로써 기관투자의 걸림돌을 없애기로 했다. 구체적인 개인식별 제공 방식은 관계기관과 협의해 내년 1분기 중 마련 계획이다. 따라서 내년부터는 각 온라인연계투자업체가 적극적인 기관투자 유치를 통해 규모의 경제를 이뤄 수익화를 꾀할 수 있게 됐다. 이와 더불어 개인투자자의 연계투자 규모도 확대될 예정이다.온투업계의 영업환경 개선을 위해 카카오페이나 토스 같은 외부플랫폼을 통한 광고도 허용하기로 했다. 앞으로는 가능한 광고 범위 및 유형을 명확히 해, 이에 따른 광고는 법상 투자자모집 업무에 위반하지 않는다는 유권해석을 함으로서 외부플랫폼 광고를 허용할 계획이다.임채율 온라인투자연계금융협회장은 “협회 회원사들도 영업환경이 개선되는 만큼 지금까지 노력해온 것처럼 업계에 대한 신뢰도를 제고하면서 중금리 대출기관으로 역할에 충실할 수 있도록 내실 있는 경쟁을 펼쳐나가길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>동양생명, '고객중심 서비스' 역량 강화에 집중</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005394049?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>모바일 청약 시스템 고도화로 간편 본인인증매년 고객센터 직원 대상 스킬·감정 교육 진행5년 연속 '서비스품질지수 고객접점부문' 1위[이데일리 유은실 기자] 동양생명이 고객 중심 경영 실현을 위한 고객 서비스 역량 강화에 집중하고 있다. 고객에게 최상의 보험 서비스를 제공하는 금융 회사로의 도약을 위해 고객 편의를 강화하고 가치 있는 경험을 강화하겠다는 전략이다.(사진=동양생명)동양생명은 긍정적인 고객 경험을 확대하고자 간편 서비스를 지속적으로 선보이고 있다.이달 고객들의 간편한 보험 청약을 위해 기존의 모바일 청약 시스템을 한층 고도화했다. 고객들이 모바일로 청약서 작성 시 간편하게 본인 인증을 할 수 있도록 인증 수단을 휴대폰, 신용카드, PASS, 카카오페이, 토스페이 등 5가지 방식으로 확대했으며, 청약 시 여러 번의 자필서명을 해야 하는 번거로움도 없앴다.‘엔젤U’ 서비스도 시행하고 있다. 이는 고객센터에서 신분증 등 추가 서류가 필요한 경우 고객 휴대폰에 웹주소(URL)를 전송, 고객이 해당 URL에 접속해 직접 서류를 촬영 후 이미지를 올릴 수 있도록 한 서비스다. 이를 통해 고객은 팩스나 우편으로 서류를 사후에 추가로 접수하지 않아도 된다. 변액보험 펀드 변경 또는 적립금 이전, 펀드 편입 비율 변경 등이 필요한 경우에도 고객이 엔젤U 서비스를 통해 관련 서류를 휴대폰으로 바로 제출할 수 있다.차별화된 고객 서비스 제공을 위해 내부 역량 강화에도 지속적으로 힘쓰고 있다.동양생명은 고객센터 내방 고객들에게 차별화된 가치를 제공하고자, 매년 고객센터 직원을 대상으로 CS 스킬업 및 매니저 교육 등 직급별 맞춤 교육과 자율 독서 학습 등 감정 관리 교육을 병행해 진행하고 있다. 장애인 및 고령 소비자 등을 위한 고객센터 내 전담 응대 직원을 지정하는 등 금융 취약 계층을 위한 고객 서비스 제공에도 신경을 쓰고 있다. 동양생명은 이러한 고객 중심 경영 환경 구축을 통해 지난 7월 한국능률협회컨설팅이 주관한 ‘2022 한국산업의 서비스품질지수(이하 KSQI)’ 고객접점부문 조사에서 5년 연속 생명보험업계 1위 기업으로 선정되기도 했다. 동양생명 관계자는 “보험 가입부터 심사, 상담에 이르기까지 보험과 관련한 업무 처리 전 과정에서 고객들이 동양생명만의 차별화된 서비스를 경험할 수 있도록 다양한 혁신 방안을 모색할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>와이즈케어, 토스페이먼츠와 PG서비스 제휴</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011604602?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>기사내용 요약가맹점 편의성 극대화한 통합 결제 솔루션 제공[서울=뉴시스] 김경택 기자 = K-OTC 상장 인공지능(AI) 플랫폼 전문기업 와이즈에이아이는 관계사 와이즈케어가 토스페이먼츠와 PG(전자결제대행) 서비스 제휴 계약을 체결했다고 22일 밝혔다. 토스페이먼츠는 모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카의 페이테크 계열사다.이번 계약으로 와이즈케어는 토스페이먼츠의 PG 서비스, 브랜드페이, 토스의 간편결제 서비스 '토스페이' 등 다양한 결제 서비스를 제공할 수 있는 계기를 마련했다. 한층 더 신속하고 안전한 결제를 지원할 수 있을 것이라고 회사 측은 전망했다.와이즈케어는 지난 2016년 KB금융그룹의 핀테크 업체 매칭투자를 유치한 바 있는 전자결제·핀테크 전문 기업이다. 와이즈케어의 대표 간편결제 서비스 '스마트페이 AI'는 가맹점의 비용 절감과 매출 증대는 물론, 관리 편의성까지 증가시킬 수 있는 온·오프라인 통합 결제 솔루션이다. 스마트페이 AI는 전국 6000여개의 병의원, 가맹점에서 사용되고 있다.와이즈케어는 스마트페이 AI를 통해 할부 결제, 수기 결제 등 가맹점의 시스템 환경에 맞는 다양한 결제 솔루션을 제공하고 있다. 카카오페이, 삼성페이, SMS결제 등 비대면 간편 결제까지 지원해 고객의 편의성을 극대화한 점이 특징이다.송형석 와이즈케어 대표는 "토스페이먼츠의 높은 기술력과 보안 수준을 기반으로 더욱 편리하고 안전한 결제서비스를 제공할 수 있게 됐다"며 "일반 쇼핑몰 등 더욱 많은 가맹점들이 와이즈케어의 편리한 통합 결제 솔루션을 활용할 수 있을 것으로 기대된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>AI자동채점서비스로 토익 교육 획기적으로 개선하겠다...정하진 제인토스 대표</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003068548?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>“10년간 토익스피킹 강사로 일하면서 말하기 시험공부에 대한 핵심 피드백을 제공함에 있어 한계를 느꼈습니다. 효율적 교육 서비스를 구현하기 위해 직접 사업을 시작했습니다.”베테랑 토익 강사 정하진 대표. 토익 스피킹 온라인 수업과 교재를 판매하는 제인토스의 대표이사이자 대표강사다. 정 대표가 토익 스피킹 시장을 획기적으로 개선하겠다며 팔 걷고 나섰다. 인공지능(AI)을 통해 토익 스피킹 시험의 학습 체계를 완전히 바꾸겠다는 포부다.그는 “경험이 많은 강사가 자세한 진단과 피드백을 제공하면 수강생은 정확히 개선점을 파악하고 학습방향을 잡을 수 있다”며 “하지만 강사는 한 명이고 학생들은 많다는 점이 난제”라고 말했다.정 대표는 조교와 보조강사를 고용해 자체교육을 진행하고 채점·첨삭 과정을 대체·확장하는 시도도 해봤다. 그렇지만 그에 따라 다양한 오류가 발생하고 그 과정과 결과가 순조롭지만은 않았다. 정 대표는 과감하게 AI를 도입키로 했다. 교육 서비스 본질에 대한 이해와 경험을 토대로 토익 스피킹 교육의 방향성을 재설정하겠다는 각오다.아래는 일문일답.-AI자동채점서비스 개발 배경은.▲영어 말하기 시험 교육 핵심은 학습자의 말하기 실력이 향상되고 시험이 요구하는 조건을 충족케 하는 데 있다. 학습자 답변이 시험 평가기준에 부합하도록 교정해주기 위해 필요한 것이 바로 첨삭이다. 수강생 답변 수준 향상에 실질적 도움을 주기 위해 1:1 녹음 첨삭을 진행해왔다. 수강생 한 명 한 명의 답변녹음 파일을 듣고 약점을 분석해서 보완점까지 제시해 준다.답변 각각의 복잡하고 섬세한 요소를 평가하는 작업을 시스템이 해주면 좋겠다는 생각을 했다. 이것이 제인토스 AI자동채점서비스(가칭) 개발의 시작점이라 할 수 있다.-보유 기술을 구체적으로 설명하면.▲지난 10년간 모은 약 1000회 분량 시험 문제 데이터를 가지고 있다. 여기에 수집된 음성데이터 1만개를 더해 머신러닝을 돌릴 계획이다. 채점 알고리즘도 별도로 개발한 상태다. 현재 기술과 관련한 특허 2개를 출원했으며 베타버전 개발을 진행하고 있다. 내년 초 초기 형태의 유료서비스를 시작할 계획이다. 서비스와 함께 앞으로 3년 동안 솔루션 고도화 작업도 병행할 예정이다. 이와 함께 영어 말하기 시험 음성답변의 '내용의 적절성'을 자동으로 채점하는 솔루션도 5년 안에 상용화할 계획이다.-AI자동채점서비스의 최종 목표는.▲현재 영어 말하기 음성답변을 자동으로 채점하는 영역은 주로 발음이며 제한적으로 억양, 강세, 문법, 표현 등이 있다. 하지만 답변 내용이 질문에 얼마나 적절한지, 또 답변 전체 구성이 얼마나 짜임새 있고 일관적인지를 평가하는 것은 여전히 사람의 영역이다.제인토스 AI자동채점서비스는 답변 내용의 적절성, 완성도, 연계성을 AI솔루션을 통해 진단하고 그 결과에 기반해 개선점을 보완해줄 학습 콘텐츠를 큐레이션 해준다. 지속적 테스팅과 진단 반복을 통해 학습을 관리해주는 서비스로 발전하는 것이 목표다.-제인토스의 주력 상품과 차별점은.▲'평생패스'라는 상품이 독보적이다. 기초부터 실전까지 모든 등급 인강을 평생 제공할 뿐만 아니라, 등급별 라이브 클래스 VoD도 제공한다. 이 VoD의 특장점은 라이브 클래스에 실제로 참여했던 수강생 답변을 듣고 참고할 수 있다는 점이다. 답변에 대해 제시한 피드백을 통해 점수가 어느 정도로 나오겠구나 하는 것도 알 수 있다. 가장 큰 차별점은 최신 기출 변형 자료를 매달 제공하는 것이다. 매달 토익스피킹 기출문제를 복기해 평생패스 수강생들이 최신 출제 경향에 대비토록 지원한다.-라이브클래스 강좌도 화제라고 들었다.▲유사상품이 존재하지 않는 '줌빡공스터디'라는 라이브 클래스 강좌가 있다. 강좌명에서 알 수 있듯이 실시간 줌 강의로 이뤄지는 수업이다. 제가 직접 수강생 한 명 한 명 밀착 관리해 단기간에 목표를 달성토록 이끌어준다.줌빡공스터디는 핵심 인강, 라이브 클래스, 녹음 첨삭이라는 트리플 콤보 학습법을 제시한다. 수강생은 핵심 인강으로 예습한 제인토스의 만능 템플릿을 라이브 클래스에서 '떼창 암기'하고 이를 녹음해 숙제로 제출하면 일대일 첨삭을 통해 약점과 개선 방향에 대한 피드백을 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>파킹통장 금리 인상 나선 저축은행-인뱅, '주춤' 전망…왜?</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000910591?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>사진|연합뉴스[스포츠서울 | 홍성효기자] 저축은행과 인터넷은행이 단기자금 유치를 위해 파킹통장 금리 인상에 나서고 있다. 하지만 금융당국의 경쟁 자제 요청에 당분간 수신상품 금리인상은 주춤할 전망이다.27일 금융권에 따르면 OK저축은행은 지난 22일 파킹통장인 ‘OK세컨드통장’과 ‘OK읏통장’ 최고금리를 연 4%로 올린 데 이어 최고 연 5%까지 이자를 주는 입출금통장 상품인 ‘OK읏백만통장Ⅱ’를 출시했다. 대신저축은행도 지난 15일부터 ‘더드리고입출금통장’의 2억원 이하 금액에 3.9% 금리를 제공하고 있다. 애큐온저축은행의 ‘머니쪼개기’와 하나저축은행의 ‘하이하나보통예금’은 각각 4%, 3.8% 금리를 제한다. 파킹통장은 말 그대로 ‘잠깐 주차하듯’ 짧게 돈을 맡겨도 일반 통장보다 많은 이자를 받을 수 있는 상품이다. 또한, 수시입출금 통장이라는 뜻에서 보통예금이라고도 부른다. 수시로 돈을 넣고 빼는데 부담이 없어 단기 자금을 운용하기 좋은 상품으로 여겨지고 있다.인터넷은행들도 파킹통장 금리 인상에 나서고 있다. 토스뱅크는 파킹통장인 ‘토스뱅크통장’의 최고금리를 연 4%로 올렸다. 토스뱅크는 5000만원까지는 이전과 같은 연 2.3%를 적용하지만 5000만원이 넘는 금액은 연 4%를 제공한다. 케이뱅크도 지난 12일 파킹통장인 ‘플러스박스’의 금리를 기존 연 2.7%에서 연 3%로 인상한 바 있다. 카카오뱅크는 파킹통장에 최대 1억원까지 연 2.6%(세전) 금리를 지급한다. 시중은행에서는 SC제일은행이 ‘제일EZ통장’의 기본금리를 0.6%p 올려 첫 거래 고객에게 계좌 개설일로부터 6개월 간 최고 4.1%의 금리를 제공하고 있다.하지만 당분간 수신상품의 금리 인상은 주춤할 것으로 보인다. 한국은행의 기준금리 인상에도 금융당국이 은행권에 수신금리 경쟁 자제를 요청했고, 경기 침체 우려로 은행채 금리가 떨어졌기 때문이다. 이 영향으로 최근 예금 금리는 하락세를 보이고 있다. 27일 기준 저축은행 79개사의 12개월 만기 기준 정기예금 평균 금리는 5.40%로 나타났다. 지난달 기준 12개월 만기 기준 최고 금리의 경우 연 6%대를 웃돌기도 했다.시중은행도 비슷한 모습을 나타내고 있다. 시중은행의 예금 금리는 5%에서 4%로 대부분 하향하고 있다. 우리은행의 ‘우리 WON (원) 플러스 예금’의 1년 만기 금리는 연 4.70%로 지난달 13일 연 5.18%까지 올랐지만 최근 4% 후반대까지 떨어졌다. 하나은행의 ‘하나의정기예금’도 이달 초 5.1%였지만 4.7%, NH 농협은행은 ‘NH 올원e예금’이 이달에 접어들면서 5.1%를 줬지만 최근엔 4.75% 금리를 제공하고 있다. 지난달 14일 처음으로 연 5%대로 올라선 KB국민은행의 ‘KB 스타(STAR) 정기예금’도 연 4.27%까지 떨어졌다.금융권 관계자는 “금융당국에서 은행권에 권고한 것을 무시하고 수신 상품의 금리를 올릴 수 없는 것이 은행의 입장”이라며 “최근 수신이 크게 줄어든 저축은행이나 인터넷은행의 경우 특수한 상황으로 금리를 인상하는 것으로 보인다”고 말했다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>P2P 금융사, 내년부터 기관투자 유치 가능해진다</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005195179?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>금융위, 온투업 규제 완화방안 발표개인투자한도 확대·외부플랫폼 광고 허용내년부터 온라인투자연계금융(P2P금융)업계도 금융기관의 투자를 받을 수 있게 될 전망이다.업계에 따르면 금융위원회는 20일 제5차 금융규제혁신회의를 열어 이같은 내용이 담긴 온투업 규제 완화 방안을 발표했다.금융위는 내년 1분기부터 금융기관에 각 온투업체의 차입자 개인식별정보를 제공할 수 있도록 했다. 지금까지는 금융기관이 차입자의 실명, 주민등록번호 등 개인식별정보를 알 수 없어 투자가 불가능했다. 구체적인 개인식별정보 제공 방식은 관계기관과 협의해 내년 1분기 중 마련할 계획이다. 투자 걸림돌이 해소된 온투업계는 내년부터 적극적인 기관투자 유치에 나서 수익화를 꾀한다는 계획이다.개인투자자 투자 관련 규제도 완화된다. 현재 3000만원으로 제한돼 있는 개인투자자의 온투업 투자한도를 확대하기로 한 것이다. 업계에서는 시행령에서 정하고 있는 5000만원까지 확대될 것으로 기대하고 있다. 이 조치는 내년 상반기 내 이뤄질 것으로 보인다.이와 함께 광고 등 영업환경도 개선될 전망이다. 금융위는 내년 1분기부터 온투업계의 외부 플랫폼 광고를 허용키로 했다. 각 온투업체는 자체 애플리케이션 외에도 카카오페이, 토스 등에서 투자자 유치를 할 수 있게 된다.임채율 온투협회장은 이같은 온투업 활성화 방안과 관련해 “그간 업계에서 지속적으로 호소해온 어려움을 금융위가 긍정적으로 검토하고 개선방안을 내놓은 데 대해 감사하다”면서 “영업환경이 개선되는 만큼 협회 회원사들도 업계 신뢰도를 제고하면서 중금리 대출기관 역할에 충실할 수 있도록 내실 있는 경쟁을 펼쳐나가길 바란다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>하루 평균 7000억 '페이전쟁'..."넌 무슨 페이쓰니?" [돈창]</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005393846?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>비대면 바람 타고 'OO페이' 시장 급성장네이버플러스 멤버십, 쇼핑하면 5% 적립카카오페이 해외서 가능...할인 혜택 풍성토스 '만보기·이번주미션'으로 포인트 제공[이데일리 유은실 기자] 온라인 쇼핑을 즐기는 직장인 박민정(29)씨는 네이버페이 포인트로 모은 12만원을 크리스마스 선물 사는 데 사용했다. 박 씨는 ‘네이버플러스 멤버십’에 가입한 이후 5% 포인트 적립 혜택을 쇼핑에 쏠쏠히 활용하고 있다. 이번 크리스마스 외출엔 지갑과 실물 카드를 따로 챙기지도 않았다. 베이커리 케이크 구매, 영화관·맛집 등 웬만한 곳에선 모두 카카오페이로 결제가 가능해서다. 또 평소 자주 사용하는 토스 앱에선 매일 ‘만보기’, ‘버튼 누르고 10원 받기 미션’을 수행하고 포인트를 받아 현금처럼 쓰기도 한다. 박민정 씨는 “페이백·적립금 이벤트도 꼭 챙겨 참여하는 편이라 온·오프라인 경계 없이 일상 생활 속에서 각종 페이를 편하게 사용하고 있다”며 “휴대폰이 애플이라서 애플페이가 나오면 바로 사용할 예정”이라고 말했다.현금은 물론 카드 없이도 결제 가능한 시대가 열리면서 간편결제 서비스가 금융소비자 일상 깊숙이 그리고 빠르게 파고들고 있다. ‘OO페이’로 결제되는 금액은 이미 일평균 7000억원을 훌쩍 넘었다. 신종 코로나바이러스 감염증(코로나19) 이후 플랫폼·결제 키트 등 간편결제 인프라가 구축된 데다 비대면 금융이 익숙한 MZ세대(밀레니얼+Z세대)가 늘면서 간편결제가 빅테크·카드사 등의 새로운 격전지로 떠올랐다. 여기에 애플페이가 국내 상륙한다는 소식까지 전해지자, 간편결제 시장을 둔 경쟁이 다시 후끈 달아오르고 있는 모양새다. [이데일리 김일환 기자]간편결제 시장 1년만에 30% 성장26일 한국은행에 따르면 올해 상반기(1~6월) 기준 간편결제 서비스 이용금액은 일평균 7232억원으로 1년 만에 29.4%나 성장했다. 작년 상·하반기 기준으로 일평균 간편결제 이용금액이 각각 5000억원, 6000억원을 돌파했다는 점을 고려하면, 올해 하반기엔 8000억원을 넘을 수 있다는 예상도 가능하다. 이용건수 역시 작년 상반기 1821만명, 작년 하반기 2139만명, 올해 상반기 2317만명으로 큰 폭 확대되는 추세다. 간편결제 시장의 성장은 ‘빅테크의 간편결제 시장 진출’과 궤를 같이하고 있다. 카카오가 지난 2014년 9월 국내 최초로 간편결제 서비스인 ‘카카오페이 결제 서비스’를 출시한 이후 약 2년 만에 간편결제 서비스를 제공하는 업체는 11개사로 늘었다. 또 한국은행의 작년 기준 간편 전자지급서비스 이용금액을 살펴보면, 전자금융업자가 전체 중 차지하는 비중은 무려 50%에 달한다. 금융기관(27.6%)과 비교해도 2배가량 높은 수치다. 대표적인 전자금융업자엔 네이버파이낸셜·카카오페이 그리고 토스 운영사 비바리퍼블리카 등이 포함된다. 이른바 빅테크 3사로 불리는 이들은 네이버페이·카카오페이·토스페이 서비스를 제공하며 현재 간편결제 시장에서 주요 플레이어로 활동 중이다. 기본적으로 플랫폼 이용자 수가 굉장히 많다는 점과 온·오프라인을 통해 간편결제 서비스를 제공한다는 점은 비슷하지만, 각자의 특성과 혜택은 천차만별이다. 네이버 ‘쇼핑’, 카카오 ‘넓은 혜택’, 토스 ‘일상’ 먼저 네이버파이낸셜의 간편결제 서비스인 네이버페이는 ‘쇼핑’에서 두각을 나타내고 있다. 네이버 아이디 하나로 결제부터 배송, 반품 및 교환, 포인트 적립 및 충전까지 모두 가능하다. 네이버 내 ‘쇼핑경험’ 중심엔 네이버페이가 있는 셈이다. 네이버페이의 현재 가입자수 약 3000만명, 월 순결제자수 1600만명을 넘어섰다.특히 네이버플러스 멤버십 사용자인 경우 5%(기본적립 1%+멤버십적립 4%)의 포인트 적립 혜택을 받을 수 있고, 네이버페이 제휴 통장을 활용한 충전결제 시에는 포인트 추가 적립을 제공받을 수 있다. 네이버파이낸셜은 금융과 쇼핑·결제를 서로 연결해 사용자에게 혜택을 제공하는 ‘미래에셋대우 CMA-RP 네이버 통장’에 이어 지난 11월 ‘네이버페이 머니 하나 통장’도 출시했다. 이는 선불충전금을 계좌에 보관하고 금리를 제공할 뿐만 아니라 별도 충전 없이도 계좌를 통해 바로 충전결제 서비스를 이용해 최대 3%의 적립 혜택을 추가로 누릴 수 있다.카카오페이는 범용성이 높다는 특징이 있다. 카카오페이는 카카오 공동체 서비스, 오프라인뿐만 아니라 해외까지 폭넓은 결제처를 확보하고 있다. 온라인 결제처엔 떠오르고 있는 온라인동영상서비스(OTT), 온·오프라인 연계 서비스(O2O)와 30~50대 이용률이 높은 홈쇼핑, 대형마트 온라인 몰 등이 있다. 또 오프라인에선 전국 프랜차이즈 브랜드 매장과 노래방, PC방 등 특수업종 매장에서도 결제 서비스 이용이 가능하다. 연세대, 이화여대, 숭실대, 경희대 등 일부 대학교 교내 캠퍼스에서도 카카오페이로 결제할 수 있다. 국내뿐 아니라 해외 결제가 필요할 때에도 페이서비스를 사용할 수 있다. 카카오페이 사용자라면 해외 국가를 방문했을 때 환전 없이 결제 가능하다. 현재 일본과 마카오, 싱가포르, 중국에서 서비스 이용이 가능하며, ‘Alipay +’라는 로고가 부착된 오프라인 매장에서 별도 환전 과정 없이 스마트폰으로 바로 결제할 수 있다. 카카오페이는 다양한 할인 혜택도 제공한다. 이달 말일까지 제주항공 이용 시 카카오페이로 결제하면 최대 2만원이 즉시 할인되며, 한정판 거래 서비스를 제공하는 솔드아웃에서 카카오페이로 20만원 이상 결제하면 1인당 3회까지 6% 할인, 솔드아웃 포인트 0.1% 적립, 한정판 스니커즈 당첨 자동 응모(10명) 혜택을 받을 수 있다. 또 이달 말일까지 주중 저녁타임에 언제든 그래비티 판교 앤디쉬 현장에서 카카오페이머니로 결제하면 10%가 할인되며, 비발디파크 현장에서 카카오페이로 결제 시 주간 타임패스 리프트와 렌탈 패키지 혜택을 같이 받을 수 있다. 한편 토스는 일상을 파고드는 전략을 택했다. 토스 사용자라면 만보기, 이번 주 미션, 브랜드 캐시백 등 일상 속 재미를 더하는 활동을 통해 토스포인트를 받을 수 있다. 포인트는 토스페이에서 결제시 사용 가능하다. 예컨대 한 사용자가 매일 1만보를 걸어 토스포인트를 20원씩 적립하고 각종 미션을 달성해 토스포인트 2000원을 적립했다면, 교보문고에서 12000원 책을 구입할 때 토스포인트 2000원을 적용해 결제 가능하다. 또 토스페이 사용자가 할인제휴 가맹점에서 토스페이로 결제할 경우 최대 2만원 즉시할인 혜택도 적용된다. 유료맴버십 ‘토스프라임’도 눈여겨 볼만하다. 이는 가맹점에서 토스로 결제하면 결제 금액의 일정 비율을 토스 포인트로 적립 받을 수 있는 일종의 캐시백 제도다. 적립률은 결제금액 구간별로 다른데 20만원 이하는 4%, 20~60만원 구간은 1%가 적립된다. 적립한도는 매월 1만2000원, 월 이용료는 5900원이다. 이를 활용해 아파트아이 앱에서 아파트관리비를 토스로 납부할 수도 있다. 만약 이달 아파트관리비가 16만원일 경우 토스포인트로 6400원이 적립되는 식이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.12.30.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>내년 온라인플랫폼 보험상품 중개 땐 ‘빅테크 쏠림’ 가능성</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001576645?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>기존 서비스는 보험 선택  한계 지적과도한 수수료 등 보험료 인상 우려도내년 중 온라인 플랫폼의 보험상품 중개업 진출이 본격적으로 이뤄지면 무게추가 빅테크로 기울 것으로 보인다. 기존에 업계에서 제공하던 서비스가 있지만 소비자 선택권 확대에 큰 도움이 못 됐다는 평가가 지배적이다. 게다가 중소형 보험사를 중심으로 오히려 플랫폼의 중개 서비스에 대한 기대감을 보이는 분위기가 형성되고 있다.29일 보험업계 및 빅테크업계에 따르면 온라인플랫폼의 보험상품 비교·추천 서비스는 내년에야 출시될 수 있을 전망이다. 앞서 금융위는 지난 8월 ‘금융규제 샌드박스’를 통해 이 서비스를 시범 운영할 수 있도록 허용했지만 이후 보험업계의 강력한 반발 속에 금융위는 가이드라인조차 배포하지 못했고 시범 사업자 선정도 이뤄지지 않은 상태다.보험업계가 중개 서비스를 반대하는 근거 중 하나는 이미 유사한 서비스가 있다는 점이다. 손해보험협회와 생명보험협회는 2015년 11월부터 자동차보험 등 8개 범주의 보험 상품 가격 비교가 가능한 ‘보험다모아’라는 서비스를 운영하고 있다.그러나 보험다모아는 소비자의 선택권 확대에 일조하지 못했다는 평가가 우세하다. 우선 표준화된 가입조건으로 보험료를 산출하기 때문에 여러 조건을 다양하게 반영하지 못한다. 보험다모아에서 안내한 보험료와 실제 가입 시 보험료가 다르다는 불만도 많다. 이 때문에 사실상 각사 홈페이지 링크를 모아놓은 수준이라는 지적이다.반면 플랫폼 운영 노하우를 쌓아온 빅테크 업체들의 경우 보다 질 좋은 서비스를 제공할 것이란 기대가 있다. 실제로 지난해 9월 금융 당국이 카카오페이, 토스의 보험 비교추천 서비스를 금융소비자보호법(금소법)상 중개로 판단하면서 중단시키기 전까지 소비자 만족도가 높았다.플랫폼이 제공하는 중개 서비스가 도입되면 중소형 보험사들 위주로 빅테크의 서비스를 적극 활용할 가능성이 크다. 장기적 업황에 대한 두려움보다 당장 눈앞의 실적 개선이 중요한 탓이다. 이에 서비스가 출시되기 전인데도 일부 중소형사의 자발적인 협력 문의도 이어지고 있다.서비스 진출을 준비하고 있는 한 빅테크 관계자는 “아직 서비스 시작 전이지만 중소형 보험사들로부터 서비스 출시하면 함께 하자는 연락을 많이 받고 있다”고 말했다.다만 장기적으로 빅테크가 중개 시장을 지배할 경우 이들이 보험사에 과다한 수수료, 시책비 등을 요구해 결국 보험료 인상으로 이어질 것이란 우려도 있다. 보험업계 관계자는 “보험사에 대한 수수료 부과가 이뤄지고 이로 인해 보험료 인상이 유발될 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>‘토양어선’ 별명 붙은 이 회사…“실패에서 다음 길을 찾았죠”</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002620447?sid=105</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>인터뷰ㅣ‘토스’ 콘텐츠매니저 정경화씨&lt;유난한 도전&gt; 저자 정경화씨가 20일 서울 강남구 토스뱅크 사옥에서 인터뷰하고 있다. 토스 제공토스, 토스증권, 토스뱅크, 토스페이먼츠 등 여러 핀테크 서비스를 운영하는 ‘비바리퍼블리카’(이하 ‘토스’)가 최근 책을 한 권 냈다. 2015년 간편송금 서비스를 처음 출시한 이래 각종 규제와 부딪히고, 때로는 없던 제도를 만들어내기까지 하며 시장에서 살아남으려 고군분투한 이야기를 총망라한 &lt;유난한 도전&gt;(정경화 지음, 북스톤)이다.엄밀하게 말하면 이 책의 지은이는 ‘토스팀’(토스 구성원들이 회사를 가리킬 때 즐겨 쓰는 표현)이 아니다. 책은 &lt;조선일보&gt;에 2012년 기자로 입사해 8년간 일한 뒤 2020년 토스에 합류한 정경화(34) 콘텐츠매니저 이름으로 세상에 나왔다. 그는 지난해 말부터 다른 업무는 접고 책 집필에만 몰두했다. 토스를 창업한 이승건 대표 등 30여명을 인터뷰하고, 이들이 갖고 있던 메모와 회의록 등을 그러모았다.지난 20일 서울 강남구 토스뱅크 사옥에서 만난 저자는 “대체로 실패하고 간혹 성공하면서, 다음 갈 길을 찾는 걸 즐기는 유난스러운 사람들이 모인 회사가 한국에 하나쯤은 있다는 걸 보여주고 싶어서 책을 쓰게 됐다”고 말했다. 이어 “오늘 아침 막 7쇄를 찍은 걸 보니 반응도 괜찮은 것 같다”고 말했다.“일을 단지 밥벌이 수단으로 여기는 사람들이 있는가 하면, 하루에 최소 8시간을 할애하는 대상인 일에서 가치를 못 찾는다면 허무하다고 느끼는 사람들도 있잖아요. 점점 이 두 부류가 충돌하는 시대가 되어 간다는 생각이 들어요. 어느 조직에나 일을 유난스럽게, 진심을 갖고 하는 사람들이 있는데, 그런 사람들이 ‘미련하다’는 이야기를 듣기도 하고요. 토스팀의 일하는 방식이 반드시 정답이라는 건 아니지만, 각자 자리에서 ‘유난한 도전’의 시간을 보내는 분들께 응원이 되고 싶었어요.”토스 제공정보기술(IT) 업계에서 토스는 ‘워라밸’(일과 삶의 균형)을 좇기보다는 자신을 한계로 몰아붙이길 즐기는 이들이 모인 회사로 알려져 있다. 회사 이름 앞글자와 ‘원양어선’을 합해 ‘토양어선’이라는 별명까지 붙었을 정도다. 정 매니저는 토스가 창업 초기 빠르게 성장하는 과정에서 불가피하게 이런 악명을 드높이게 된 속사정을 가감 없이 책에 담았다. 예를 들어, ‘성장통’이라는 제목의 장에서는 한 초기 멤버가 ‘번아웃’을 이기지 못하고 회사를 떠나며 동료들에게 남긴 편지를 그대로 실었다.책엔 토스가 세상에 없던 서비스를 만들어내는 과정에서 금융 규제 당국, 전통 금융 회사, 빅테크 플랫폼 등 여러 이해 관계자와 때로는 충돌하고 때로는 긴밀하게 협업하며 겪은 우여곡절 또한 생생하게 담겨 있다. 이승건 대표가 초고를 읽은 뒤 ‘So Vivid!’(아주 생생하네요)라고 적은 메모를 붙여 돌려줬을 정도다. 정 매니저는 “책이 나오고 나서 ‘토스가 카카오를 생각보다 많이 의식했네?’ 하는 반응도 있었는데 그런 내용까지 모두 담으려고 의도한 것”이라고 말했다. “토스팀이 초기 스타트업으로서 노련했다고 말하기는 어렵지만 그런 좌충우돌 끝에 지금의 토스가 있다는 걸 드러내지 않는다면 재미도 없고 안 읽히잖아요.”최근 스타트업 투자 시장이 빠르게 얼어붙으며 추가 투자를 유치하려 울며 겨자 먹기로 몸값을 낮추거나 상장을 포기하는 기업마저 나오는 와중에 ‘고속 성장기’를 담은 책을 내놓는 데 따른 부담은 없었을까? 정 매니저는 “고속 성장기를 다뤘다고 하기에는 책에서 주로 다루는 내용이 ‘실패’ 아닌가”라고 답했다. 이어 “그게 직접 몸담고 일하면서, 그리고 취재를 하면서 느낀 토스팀의 일하는 문화의 본질”이라고 말했다.책에는 2011년 봄부터 2022년 초까지 약 11년 동안의 이야기가 담겼다. 정 매니저는 “그보다 더 가까운 현재는 마치 살아 숨쉬는 생물 같아서 감히 글로 정리하지 못했다”고 밝혔다. 책이 미처 담지 못한 가까운 과거에도 토스는 알뜰폰, 오프라인 결제 등으로 영역을 넓히며 다양한 시도를 이어오고 있다. 정 매니저는 “이런 이야기들은 한 10년쯤 지나서 다시 한 번 평가할 수 있지 않을까”라고 말했다.“신문사에 다닐 때도 회사에서 나눠준 사사를 너무 재미있게 읽었어요. 이번 책을 쓸 때도 참고를 많이 했고요. 지금은 ‘전통 미디어’로 분류되는 신문사도 100년 전에는 너무나 스타트업스러웠더라고요. 한자를 덜 쓴다거나 국외에서 최신 인쇄기를 들여오는 등 새로운 시도도 많이 했고요. 토스가 업계에서 처음으로 ‘내 신용 관리’ 서비스를 내놓은 뒤 ‘없던 수요를 창출해 신용 등급 인플레이션 효과를 이끌었다’는 긍정적인 평가를 받은 것처럼, 크고 작은 실패 끝에 토스팀과 이용자가 함께 성장하는 순간이 지금보다 잦아진다면 국내 금융 환경도 더 좋아지리라 믿어요.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 연말까지 고신용자 신용대출 중단</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006528000?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>연간 중·저신용자 대출 비중 관리 차원 풀이(카카오뱅크 제공)(서울=뉴스1) 신병남 기자 = 카카오뱅크가 연말 고신용자에 대한 신규 신용대출을 한시적으로 중단한다.카카오뱅크는 오는 21일부터 31일까지 중신용대출, 중신용플러스대출, 햇살론15를 제외한 신용대출 상품의 신규 신청을 제한한다고 19일 밝혔다.카카오뱅크 관계자는 "연말을 맞아 고신용대출 잔액이 급격히 증가하고 있는 상황이라 부득이 한시적으로 중단하게 됐다"고 설명했다. 이번 조치는 카카오뱅크가 금융당국과 약속한 중·저신용자 대출 비중 목표치를 맞추기 위한 조치로 풀이된다. 관련 대출 비중을 끌어올리기 위해 지난해 11월부터 올해 6월까지 고신용자 대상 대출을 한시적으로 중단한 바 있다.카카오뱅크의 중저신용자 대상 신용대출 비중(잔액 기준)은 지난 9월 말 기준 23.2%다. 연말까지는 당국에 약속한 목표치인 25.0%를 달성해야 한다.카카오뱅크 뿐만 아니라 케이뱅크, 토스뱅크 등 인터넷전문은행들은 당국의 중·저신용자 대출 확대 주문에 따라 지난해부터 취급 비중 확대에 나서고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>'K-핀테크' 15조 혁신성장펀드 도입… '미래금융' 날개단다</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000879231?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[머니S리포트 - 아듀! 임인년… 위기에도 빛난 K-산업]⑪ 선넘는 금융, 빅테크 메기효과 톡톡[편집자주]임인년(壬寅年) 한 해 글로벌 경제는 유례없는 위기를 맞았다. 신종 코로나바이러스 감염증(코로나19) 팬데믹(세계적 감염병 대유행) 여파 속에 러시아와 우크라이나의 전쟁으로 원유를 비롯한 주요 원자재 가격이 급등하며 글로벌 경제가 수렁에 빠졌다. 자원부국들은 보호무역 장벽을 높이며 자원 무기화에 나섰고 특히 미국은 중국 견제를 목표로 동맹이자 우방국인 한국의 산업에도 심각한 피해를 입힐 수 있는 정책을 강화했다. 경기 침체와 수요 둔화, 고물가·고금리·고환율의 '3고(高)' 현상 등 각종 악재가 몰아치면서 한국의 경제는 위태로워졌다. 하지만 한국은 쉽게 무너지지 않았다. 최악의 위기 속에서도 각 산업의 초격차 경쟁력을 바탕으로 눈부신 성과를 발휘했다. 여러 차례 위기를 딛고 일어선 한국만의 '위기극복 DNA'가 또 한 번 저력을 발휘했다. 위기 속에서 빛난 'K-산업'의 활약을 되짚어봤다.김주현 금융위원장(왼쪽 네번째)을 비롯한 참석자들이 28일 오전 서울 중구 롯데호텔 서울에서 열린 코리아 핀테크 위크 2022 개막식에서 기념촬영을 하고 있다./사진=장동규 기자 금융과 IT가 결합한 핀테크 기업이 국내 금융시장에서 경쟁력을 키우고 있다. 금융당국은 경계가 허물어지는 '빅블러(Big Blur)시대'에 금융산업의 문턱을 낮추고 핀테크 기업에 금융 부수 업무를 허용하는 등 금융완화 기조를 이어간다. 핀테크 기업들이 혁신적인 아이디어를 선보여 금융회사와의 경쟁을 촉진하는 '메기 효과'를 기대할 수 있어서다.금융당국은 지난 1월 은행과 증권사의 고객정보를 핀테크에 제공하는 마이데이터 사업을 시행했다. 지난 9월 기준 마이데이터 누적 가입자는 5480만명으로 서비스를 시작한 지난 1월(1400만명)보다 약 3.9배 증가했다. 사용자가 늘면서 마이데이터 전송 건수도 급증했다. 전체 누적 전송 건수는 지난 1월 85억건에서 9월 말 1048억건으로 12.3배 폭증했다.카카오, 토스 등 빅테크는 지난 2015년 'IT·금융 융합 지원방안'에 따라 OO페이로 불리는 간편결제서비스를 선뵀고 카드사의 '지급결제' 본업을 위협하고 있다. 한국은행에 따르면 올 상반기 간편결제 서비스의 하루 평균 이용금액은 7232억원으로 한은이 관련 통계를 집계한 2016년 이후 최대치를 기록했다. 지난해 하반기와 비교하면 10.7% 늘어난 수준이다. 네이버페이와 카카오페이의 이용금액은 3641억원으로 전체의 50%가 넘는 비중을 차지했다. 은행과 카드사 등 금융사는 1887억원(26.1%) 수준이다.━디지털 금융혁신 고삐… 1.5조원 투자━정부는 핀테크 스타트업의 금융지원을 확대해 '제 2의 빅테크' 육성에 나선다. 15조원 규모의 혁신성장펀와 실리콘밸리 은행식 벤처대출을 도입해 혁신기업의 성장을 지원할 방침이다. 금융당국은 내년부터 해마다 3조원씩 5년 간 혁신성장펀드를 조성하기로 했다. 혁신산업과 성장지원으로 분야를 구분하고 각 분야에 연 1조5000억원씩 지원하는 방식이다. 혁신사업 대상은 반도체, AI, 항공우주 등 신산업분야의 중소·벤처기업이 속하고 유니콘 기업으로 성장할 수 있는 창업·벤처기업이 성장지원 대상에 들어간다. 기업은행, 산업은행, 신용보증기금 등 정책금융기관도 6조3000억원 규모의 자금 공급 프로그램을 신설한다. 재무제표 중심의 심사 방식에서 벗어나 기업의 성장성에 초점을 두고 심사할 방침이다. 기업은행은 벤처기업들이 초기 투자유치 이후 후속투자를 받기까지 자금이 부족한 기간에 시중금리보다 낮은 금리로 대출을 이용할 수 있도록 일반 대출에 0% 금리의 신주인수권부사채를 결합한 실리콘밸리은행식 벤처대출을 도입한다. 담보가 부족하거나 신용등급이 낮아도 기술력·성장잠재력이 높으면 최근 1년 이내 투자유치금액의 50%(창업 3년 이내 기업은 100%) 이내 한도로 대출을 받을 수 있다. 핀테크 기업에 특화한 '핀테크 혁신펀드'가 5000억원에서 1조원으로 확대된다. 금융권 출자를 바탕으로 성장금융이 운용하는 '핀테크 혁신펀드'는 4년(2020~2023년)간 5000억원 지원이 목표였으나 향후 4년 간 5000억원을 추가 결성할 계획이다. 김주현 금융위원장은 "금융위와 정책금융기관이 성장 잠재력 있는 혁신적 벤처기업에 대한 지원과 민간자금공급의 마중물 역할을 강화할 것"이라며 "민간자금이 충분히 유입될 수 있도록 혁신분야의 자금공급과 모험자본육성에 힘써달라"고 당부했다. ━'낡은 규제' 금산분리, 온투법 손질━정부가 핀테크 기업을 육성하기 위해 꺼낸 카드는 과감한 규제혁신이다. 김 위원장은 취임 일성으로 내세운 금산분리 규제를 원점에서 재검토한다는 입장이다. 1995년 도입한 금산분리법은 금융자본과 산업자본이 각각의 지분을 소유하거나 지배하는 것을 금지한다. 하나의 법률이 아닌 공정거래법, 은행법, 금융지주회사법에 따른 세분화된 규제다. 독점규제 및 공정거래에 관한 법률(공정거래법) 제8조의 2(지주회사 등의 행위제한 등) 제2항 5호에 따르면 일반기업으로 이뤄진 지주회사는 금융업이나 보험업을 영위하는 회사의 주식을 취득할 수 없다. 은행법 제16조의2(비금융주력자의 주식보유제한 등)는 비금융주력자(산업자본)가 은행 주식의 4%를 초과 보유할 수 없도록 규정하고 있다. 기업이 은행을 지배할 경우 고객의 자산을 빼돌려 자회사를 지원하거나 계열사를 늘릴 수 있다는 우려에서다.가령 산업자본이 증권사, 보험사의 지분을 보유하려면 ▲대주주·계열사와 거래내역 공시 ▲대주주·계열사에 대한 금융감독·검사 강화 ▲대주주·주요 출자자 자격요건(대주주 적격성) ▲보유 자기 계열사 주식 의결권행사 일부 제한 등 조건을 성립해야 한다. 투명한 경영을 위해 기업이 더 많은 정보를 공개해야 하는 셈이다.금융자본이 산업자본을 소유하는 행위도 제한한다. 금융지주회사법 제6조의3과 37조1에 따르면 금융지주는 비금융회사 주식을 보유할 수 없고 은행과 보험사는 다른 회사 지분에 15% 이상 출자할 수 없다. 금융위는 지난 7월 금융규제혁신위원회를 출범하고 금산분리, 비금융 정보 활용 등 전방위적 규제 개선 논의에 착수했다. 이를 위해 은행법과 금융지주회사법 개정에 나서고 있다.디지털 전환에 대응한 규제혁신도 추진한다. 고금리 시대를 맞아 수요가 늘고 있는 온라인투자연계금융(P2P) 제도를 손봐야 한다는 입장이다. 지난 2020년 온라인투자연계금융업법(온투법)은 시행으로 P2P업체들이 중금리대출 시장에 진입했으나 자본금(자기자본) 요건을 충족하지 못하는 업체가 속출해 투자자 불안도 가중되고 있다. 지난해 금융위에 등록한 온투업체 36개로 지난해 말 기준으로 자본금 유지 요건을 충족하지 못한 업체는 7개(19.4%)사다. 이들은 올해 말까지 자본금을 확충하지 못하면 2년 연속 기준에 미달해 등록이 취소된다. 금융위는 금융규제혁신회의에 온투법 개정을 논의하고 필요한 경우 적극적인 유권해석과 혁신금융서비스 지정 등을 통해 애로사항을 해소할 계획이다.김 위원장은 "금융규제혁신회의에 온투법 개정을 논의하고 필요한 경우 적극적인 유권해석과 혁신금융서비스 지정 등을 통해 애로사항을 해소할 계획"이라며 "핀테크가 금융산업에 단단히 뿌리내리고 알찬 과실을 맺을 수 있도록 적극 지원할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>금융앱, 평가 1위는 카카오뱅크…토스·뱅샐·NH콕뱅크 1점차 ‘각축’</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000036847?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>컨슈머인사이트, 2022 금융 앱 이용만족도 종합 순위 발표카카오뱅크는 디자인·조작 편리성, 토스는 금융거래·자산관리 효율 강점     금융 앱 연간 이용자 만족도 순위(1~10위). [사진 컨슈머인사이트]    올해 금융 플랫폼 가운데 앱 이용자 평가가 가장 높은 곳은 카카오뱅크로 나타났다. 토스와 뱅크샐러드가 간발의 차로 2·3위를 차지했다.    22일 소비자리서치 전문 연구기관 컨슈머인사이트는 2022년 금융 앱 이용자 평가 결과를 발표했다. 이용자 만족도는 총 27개 앱(은행·인터넷뱅크 11개, 페이 5개, 멤버스 4개, 핀테크·빅테크 7개)을 대상으로 했으며, 조사를 시작한 3월부터 11월까지 매주 평가한 데이터를 합산한 결과다.    1위는 카카오뱅크, 2위는 토스, 3위는 뱅크샐러드 순으로 나타났다. 모두 인터넷전문은행 또는 핀테크 앱이었다. 이어 간발의 차이로 시중은행 앱인 NH콕뱅크(4위), 신한 쏠(5위)이 뒤를 이었다.      카카오뱅크 VS 토스, 항목별 만족도 비교. [사진 컨슈머인사이트]    핀테크 기반의 앱들은 사용성과 서비스 측면에서 시중은행 앱보다 만족도가 높았다.    17개 세부항목별로 우수한 평가를 받은 앱 3순위까지를 살펴보면 ▶보안/인증 절차의 편리함 ▶개인정보 관리의 신뢰감 ▶필요시 상담을 받기 편리한 점 등에서는 기존 시중은행의 앱이 양호한 평가를 받았다.    반면 앱의 사용성과 서비스 측면 등 나머지 평가항목에서는 카카오뱅크, 토스, 뱅크샐러드 등 핀테크 기반 앱의 만족도가 높게 나타났다.    카카오뱅크는 앱의 디자인, 조작의 편리성, 빠른 구동속도, 수수료 등 부대비용 측면에서 우위를 가졌다. 토스의 경우 금융거래나 자산관리 효율성, 차별적이고 혁신적인 서비스 요소가 강점으로 나타났다.    아울러 페이앱 중에는 네이버페이가, 멤버스앱 중엔 하나금융지주의 하나머니가 가장 높은 평가를 받은 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>보안 강화에 힘쓰는 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000909809?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>사진|카카오뱅크[스포츠서울 | 홍성효기자] 인터넷은행에서 보안 강화를 위해 힘쓰고 있다.카카오뱅크는 신분증 사본 탐지 기술을 고도화해 적용하고 관련 특허도 출원했다. 카카오뱅크는 신분증 이미지의 원본 촬영 여부를 판별하는 기술을 자체적으로 개발해 지난 9월부터 적용하고 있다. 지난 3개월간 일평균 200건 이상의 신분증 사본 및 부정 제출을 탐지했다.원본이 아닌 신분증을 촬영하면 육안으로는 식별이 불가능한 특유의 패턴이 발견된다. 이에 착안해 카카오뱅크 인식기술팀은 신분증 사본 촬영 여부를 탐지하는 모델을 만들었다. 고·저해상도 및 주사율, 촬영 거리, 프린트 품질 데이터를 다양하게 학습한 결과 모니터와 스마트폰에서 촬영된 이미지를 검출해내는 기술을 개발할 수 있었다.카카오뱅크는 탐지 기술을 기반으로 신분증 제출자의 거래 이력, 진위확인 상태 등에 따른 부정사용 가능성을 계산해 고위험 신분증을 우선적으로 검수하는 기술도 개발했다. 이를 통해 신분증 부정 사용에 따른 거래제한 프로세스를 획기적으로 개선하고 관련 특허도 출원하는 등 금융사기 예방 기술의 독창성과 우수성을 입증했다.아울러 카카오뱅크는 고객이 카카오뱅크 모바일 앱 접속 시 휴대폰에 악성 앱 설치 여부를 탐지하는 탐지 솔루션도 9월부터 적용하고 있다. 고객에게 악성 앱 설치 여부를 팝업으로 보여주고 고객이 직접 삭제할 수 있도록 유도하는 서비스를 제공한다.사진|토스뱅크토스뱅크는 모바일 뱅킹 서비스의 보안을 강화하고 고객들의 편리한 금융환경을 조성하기 위해 ‘모바일 OTP’를 고액 송금 추가 인증수단으로 도입했다. ‘모바일 OTP’는 고액송금 이용 고객의 인증수단 중 하나다. 고객은 모바일 OTP를 통해 본인이 사용 중인 토스 앱 여부가 식별되면, 실시간으로 변경되는 인증 데이터와 함께 안전한 환경 속에서 고액 송금을 할 수 있게 된다.토스뱅크의 모바일 OTP는 ‘단방향 무작위 코드 방식’을 사용했으며, 이는 네트워크가 없는 환경에서도 사용자 및 기기 식별과 인증이 가능한 코드가 생성된다. 특히 생성되는 코드는 다른 사용자와 절대 중복되지 않도록 해 강력한 보안성을 갖췄다.또 기기 변경, 앱 재설치, 핀(PIN) 반복 오입력 등의 상황에서는 모바일 OTP를 해제시켜 안전성까지 확보했다. 모바일OTP는 토스뱅크 설정에 들어가 인증수단을 클릭한 후 등록할 수 있다. 이후 모바일 OTP 등록 후 사용을 위한 6자리 핀번호를 새로 설정하면 된다. 해당 핀번호는 높은 보안성의 암호화 상태로 처리되며 토스 인증서 등과 더불어 송금 과정 인증에 활용된다.인터넷은행의 보안이 불안하다는 말은 이제 옛말이 돼가고 있다. 인터넷은행의 보안강화를 위한 노력은 지속될 것으로 보여 안정성은 더욱 강화될 것이다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>전담조직 만들고 민간 협업해 혁신문화 조성</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003470608?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>소상공인시장진흥공단이달 14일 개최된 소상공인시장진흥공단 혁신성과대회에서 박성효 소진공 이사장이 혁신성과 발표를 경청하고 있다. 소상공인시장진흥공단 제공혁신하지 않으면 지속가능성을 담보하지 못하는 시대다. 공공기관도 예외는 아니다.  변화의 바람은 7월 정부의 공공기관 혁신 가이드라인 발표 이후 본격화 됐다. 기관들은 앞다퉈 조직개편과 혁신체계 마련에 박차를 가하고 있다. 그중 자발적인 혁신의 바람을 불러일으키며 주목할 만한 혁신 공공기관이 있어 눈길을 끈다. 바로 소상공인과 전통시장의 회복과 도약을 지원하는 소상공인시장진흥공단(소진공)이다. 소진공은 혁신문화 기틀 마련을 위해 혁신전담조직(혁신이끄미) 신설, 혁신문화조성 공모전, 토스·당근마켓 등 민간기업과 혁신과제 협업 활동으로 기관 혁신에 나서고 있다.  최근에는 올 한 해 혁신성과를 공유하고 우수사례를 벤치마킹하기 위해 ‘제1회 소진공 혁신성과대회’를 12월 13∼14일과 20일, 사흘에 걸쳐 개최했다.   ‘중복과 비효율은 빼고, 성과와 국민체감은 더하고’라는 혁신 슬로건을 걸고 소진공 본부 부서 23개·지역본부 7개·지역센터 21개가 혁신 성과를 대외에 선보였다. 평가는 정부혁신 분야에서 전문성을 갖춘 중앙정부, 지방정부, 공공기관 소속 등 외부위원과 소진공 임직원 등 총 31명으로 국민 체감을 반영할 수 있도록 구성했다. 51건의 혁신 사례 중 최우수 2건, 우수 4건, 장려 4건이 최종 선정되었다.  소진공 본부 최우수상은 손실보상지원실의 ‘디지털 기술을 활용한 업무 효율화(과제명)’가 선정됐다. 업무 효율성을 높이고, 고객이 체감할 수 있는 공공 서비스를 구현했다는 점에서 높은 평가를 받았다.  콜센터 등 고객 상담과정에서 디지털 기술인 AI 보이스봇을 활용해 대기시간을 줄여 고객 만족도를 18.8% 높임과 동시에 약 2억2000만 원의 인건비 절감효과도 거뒀다. 또한 디지털 안내고지 서비스를 도입하여 미신청자를 30% 감소시키고, 고지 송달시간 축소 및 92%의 비용절감 효과도 거두어 최우수 과제로 선정됐다.  지역센터 중에서는 성남센터의 ‘기름솔솔 백년향기 모란이 피기까지(과제명)’가 최우수상으로 선정되었다. 성남센터는 모란전통기름시장 내 오랜 명맥을 유지하고 있는 점포들을 백년가게·백년소공인으로 발굴하고, 노후 된 시설을 집중 정비하였다. 또한 판로 확대를 위해 카카오 메이커스에 ‘백년기름특화거리상품관’을 입점시켰으며, 성남시와 협업하여 대한민국 ‘제1호 백년기름특화거리’로 지정을 이끌어낸 것이 좋은 평가를 받았다.  우수상을 받은 혁신과제 4건 중 주목할 만한 것은 국민과 직원 모두에게 편리한 공공서비스 혁신을 추진한 기획조정실의 ‘소상공인확인서 고객 편의 개선(과제명)’이다. 이 과제는 소상공인확인서가 착한임대인 세액공제용, 소진공 직접대출 대상 확인을 위한 대환대출확인서 등 용도에 따라 명칭과 발급창구가 달랐던 것을 일원화시켜 소상공인의 불편함을 해소하고 편의성을 높인 측면에서 높은 점수를 받았다. 발급시스템 개선으로 처리 시간은 75% 단축됐다. 지난 3년간 총 38만 건의 확인서가 용도와 쓰임에 맞게 신속 발급되었고, 소상공인 정책자금 자격확인과 지원사업 참여 등 소상공인의 경영애로를 해결하는 데 활용됐다.  소진공은 설립 이래 최초로 실시한 이번 혁신성과대회에서 혁신 우수부서(10개)와 기여자(6명)에게 총 800만원 규모의 상금과 상장으로 혁신에 대한 노력을 보상한다.  특히 최우수 혁신사례로 선정된 ‘AI보이스봇 도입’은 소상공인 손실보상금뿐만 아니라 소진공의 정책자금 단기연체 콜센터에도 2023년 2월 중으로 확대 적용하기로 했다.  박성효 소진공 이사장은 “공단 혁신에 있어서 업무 효율화, 자치단체와 유관기관과의 협력, 국민이 체감할 수 있는 서비스 구현을 강조해왔다”며 “앞으로도 국민이 체감할 수 있는 서비스 개선을 최우선 과제로 삼고, 지속적인 업무혁신을 이뤄나가겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>"기부도 쉽고 재미있게"…토스, 나만의 눈사람 만들기 이벤트</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005390879?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>1000원부터 기부 가능...초록우산어린이재단에 전달[이데일리 임유경 기자] 모바일 금융 서비스 토스 운영사 비바리퍼블리카(이하 토스)는 연말을 맞아 초록우산어린이재단과 함께 ‘나만의 눈사람 만들기‘ 이벤트를 실시한다고 20일 밝혔다.‘나만의 눈사람 만들기’는 다양한 이모티콘으로 ‘나만의 눈사람‘을 꾸미고 토스페이로 초록우산어린이재단에 기부를 할 수 있는 이벤트다. 이용자들이 연말을 맞아 쉽고 재미있게 기부에 참여할 수 있도록 기획했다.토스가 나만의 눈사람만들기 이벤트를 진행한다.회당 기부할 수 있는 금액은 최소 1000원부터 최대 200만원으로 이벤트 기간 내 횟수의 제한 없이 참여할 수 있다. 기부금 영수증 발급 신청도 가능하며 토스를 통해 모아진 기부금은 전액 초록우산어린이재단에 전달된다.‘나만의 눈사람 만들기’ 이벤트는 오는 30일 23시까지 진행된다. 토스는 추첨을 통해 20명에게 토스 캘린더와 다이어리를 증정하는 공유 이벤트도 실시한다. ‘나만의 눈사람’을 만든 후 개인 인스타그램 계정에 업로드하고, 토스 공식 인스타그램 계정을 태그하면 참여가 완료된다. 토스 관계자는 “연말을 맞아 기부에 대한 관심이 높아지고 있는 가운데, 기부가 어렵다는 편견을 깨고 쉽고 재미있게 접근할 수 있도록 이번 이벤트를 기획했다“라며 “직접 꾸민 ‘나만의 눈사람‘ 이미지를 개인 SNS에 공유해 선한 영향력을 나누며 함께 따뜻한 연말을 만들 수 있기를 바란다”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>"연말연시 먹통 사태는 없다" 플랫폼 업계-이통 3사, 트래픽 폭증 대비 비상 체계 돌입</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003954231?sid=105</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>서비스 사용량이 급증하는 연말연시를 앞두고 국내 플랫폼 기업과 통신 3사가 장애 방지를 위해 긴급 서비스 점검과 비상 대응 체계를 구축하고 있는 것으로 전해졌다.먼저 지난 10월 판교 SK C&amp;C 데이터센터 화재로 인한 '먹통 사태'로 논란을 빚었던 카카오는 비상 근무 체제, 상시 모니터링을 통해 강력한 대응 체계를 마련한 것으로 전해졌다. 네이버와 모바일 금융 서비스를 제공하는 토스 역시 원활한 서비스 제공을 위해 점검을 이어가고 있다.최근 카카오는 메신저 서비스 카카오톡을 중심으로 연말연시 트래픽 폭주에 대비할 예정이라고 밝혔다. 지난 2017년과 2020년 1월 1일 새벽 새해 인사 메시지 양이 급증하면서 시스템 오류가 발생, 메시지 수·발신이 원활하지 못한 현상을 겪었던 만큼 고도의 긴장 상태를 유지하고 있다.2018년부터는 '민방위 훈련'이라는 이름으로 불시에 재난 대비 훈련 방식의 연말 트래픽 폭증에도 대비하고 있다.카카오톡 운영진은 연말연시 안정적 서비스 제공을 위해 비상 대기 근무에도 돌입한다고 밝혔다. 올해 해넘이 기간 동안 상시 모니터링 시스템을 가동, 장애가 발생할 경우 빠른 감지와 대응에 나설 예정이다. 담당 서비스 부서의 콘트롤 타워에서 장애 등급을 판단, 신속하게 상황을 전파하겠다는 계획이다. 장애가 발생한 서비스 조직을 포함, 유관 조직에서도 이를 참고해 비슷한 장애를 방지하거나 유사 장애를 단시간 내 복구하는 데 도움을 주는 취지라고 카카오 측은 전했다. 다만 비상 대기 근무 기간동안의 구체적인 근무 인원은 밝혀지지 않았다.카카오 관계자는 "앞서 밝힌 대책 이외에도 다양한 재난·재해 상황에 서비스를 안정적으로 운영할 수 있도록 기술적·시스템적인 대응 방안을 마련하고 있다"면서 "향후 자체 데이터센터와 소방서 간 협력 체계를 구축, 소방당국과 맞춤형 화재 대응 매뉴얼을 공동 개발하고 정기적인 합동 모의 소방훈련을 진행할 계획"이라고 말했다.다른 플랫폼들 역시 연말연시 트래픽 급증 상황을 예의주시하겠다는 입장이다.네이버 관계자는 "네이버 서비스의 경우 연말연시 특별한 트래픽 변동은 없긴 하나 주요 서비스 위주로 가용량 문제가 있는지 점검할 계획"이라고 말했다.토스는 연말연시를 포함한 트래픽 몰림 현상에 대비하기 위해 데이터센터(IDC)를 주 센터와 DR(재해복구) 센터 사이 '상시 활성-활성 상태'로 운영하고 있다고 전했다. 이를 통해 서비스 연속성은 유지하면서도 빠른 장애 대응이 가능하다는 것이다. 현재 토스는 수도권에 3개의 IDC를 운영하고 있으며 1개를 추가로 도입할 예정이다.토스 관계자는 "토스를 이용 고객이 안심하고 서비스를 이용할 수 있도록 관련 시스템 구축과 운영에 투자를 이어가겠다"고 말했다.통신3사도 네트워크 집중 관리에 돌입했다.SK텔레콤은 국내 주요 행사장과 해넘이·해돋이 명소, 주요 고속도로, 터미널 등 트래픽이 몰리는 지역에 5G 및 LTE 기지국 용량을 증설했다고 밝혔다. SKT 관계자는 새해가 되는 12월 31일 자정에는 MMS(멀티메시지) 발송량이 급증할 것으로 예상됨에 따라 서버 용량을 사전에 확충하고 시스템 점검을 마쳤다고 전했다.KT도 유명 해넘이, 해맞이, 타종식 장소와 인파가 많이 몰리는 전국의 100여 곳을 '특별 관리 지역'으로 지정하고 무선 통신 기지국 증설과 사전 서비스 품질 최적화 작업을 마쳤다. KT는 "엔데믹 여파로 많은 고객분들이 전국 유명 장소에서 한 해를 마무리하고 새해를 다짐할 것으로 예상된다"고 말했다.LG유플러스도 연말 네트워크 트래픽 증가가 예상되는 번화가 지역의 5G 및 LTE 기지국을 사전 점검하고 트래픽 용량을 증설했다. 또 함께 많은 인파가 모일 것으로 예상되는 행사 장소에 이동기지국 및 이동중계기를 배치하는 한편, 서울 마곡사옥에 24시간 긴급 대응하는 종합상황실을 열고 원활한 통신 서비스를 제공할 계획이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.12.17.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>요약·브랜드·소비자참여·기부…IT업계 연말 'ABCD' 이벤트</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013647014?sid=105</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스뱅크·오늘의집, 다양한 혜택 행사네이버·카카오·토스·오늘의집[각사 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 올 연말 네이버와 카카오 등 국내 정보기술(IT) 기업의 각종 이벤트 키워드는 'ABCD'로 정리된다. 요약(Abstract), 브랜드(Brand), 소비자(Consumer), 기부(Donation)의 영어 스펠링 첫 자를 조합한 것이다.     17일 IT 업계에 따르면 올 한해 서비스 이용 지표를 요약해 보여주는 포털이 있는가 하면, 인기 브랜드를 주제로 행사를 하거나 소비자 참여를 유도하는 프로모션도 벌인다. 소상공인에 기부금을 전달하는 이벤트도 열린다.    네이버는 '2022 연말결산' 페이지를 통해 올해 사용자 이용 데이터 지표를 요약해 제공한다.     올해 많이 검색된 키워드와 뉴스, 블로그·음악·웹툰, 마이플레이스, 마이박스, 적립한 네이버페이 포인트 통계 등을 제공한다. 사용자는 자신의 이용 데이터를 살펴보고 국민 평균과 비교해볼 수 있다. 연말에 진행되는 이벤트와 네이버 서비스 내 볼거리를 한데 모은 '모아보는 연말북'도 함께 제공된다.    라이프스타일 플랫폼 오늘의집은 이달 25일까지 올해 가장 인기를 끈 상품 브랜드를 한곳에 모아 할인 판매하는 '연말감사제'를 진행한다.    이 중 삼성전자와 함께하는 '브랜드 위크'에서는 거실, 주방, 드레스룸 등 공간별로 오늘의집이 추천하는 삼성 가전제품 100종을 특가에 판매한다.    비바리퍼블리카의 모바일 금융 토스뱅크는 소비자 참여 행사를 진행한다. 이달 24일까지 현대백화점그룹과 함께하는 '크리스마스 선물 상자' 이벤트를 통해 '토스뱅크 모으기' 계좌에 입금한 고객에게 할인 쿠폰 등이 든 총 24개의 선물상자를 준다.     선물 상자 24개를 모두 연 고객 중 2천23명을 추첨해 25일 5만 원의 선물 지원금을 준다.    카카오는 연말을 맞아 사회공헌 플랫폼 카카오같이가치에서 희망브리지 전국재해구호협회와 유니세프한국위원회 등 올해의 우수 모금 프로젝트 10곳을 선정해 시상했다. 올해 들어 11월 말 기준으로 카카오같이가치를 통해 조성된 기부금은 85억 원에 달한다.    아울러 카카오페이는 '12월 페이스탬프 챌린지'로 조성한 기부금과 카카오같이가치의 '함께일하는재단 소상공인 지원 모금함'을 통해 모은 최대 2억 원을 소상공인 지원을 위해 기부할 계획이다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>"제발 돈 좀‥" 피가 마른다. 1위 업체도 대출 축소·중단</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001244568?sid=004</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>할부 금융업계 1위 현대캐피탈과 최대 저축은행인 SBI저축은행 대부업계 선두 ‘러시앤캐시’가 신규 신용 대출을 사실상 중단하거나 대폭 축소했습니다.금융권에 따르면, 현대캐피탈은 최근 토스, 카카오뱅크, 핀다 등 대출 비교 플랫폼을 통한 신규 대출을 중단했습니다.현대캐피탈측은 “외부 플랫폼이 아닌 자체 앱 등을 통해서는 신규 대출이 가능하다"며 "다만 이전보다 보수적으로 대출 심사를 하고 있다"고 밝혔습니다.현대캐피탈의 평균 신용대출 금리는 17.10%에 이릅니다.캐피털 업체들은 대부분 채권 발행을 통해 자금을 조달하는데, 최근 채권과 자금 시장이 말라붙어 조달 비용이 급격히 늘어난 것도 중요 원인중 하나입니다.업계에서 자산규모 1위인 현대캐피탈이 대출을 사실상 대폭 줄인 것으로 신용등급이 가장 높은 회사마저 추가대출을 줄일 정도면 다른 곳의 상황은 더 안좋을 것으로 업계 관계자들은 내다봤습니다.SBI저축은행은 연말까지 신용 대출을 받지 않고 웰컴저축은행은 웰컴중금리대출 신한저축은행은 햇살론 상품 신청을 중단했습니다.역시 대부분 자사 앱 중심으로 대출신청을 받고 심사는 더욱 까다롭게 하는 것으로 알려졌습니다.대부업계 역시 상황이 마찬가지입니다.최근 대부업계 1위 업체인 아프로파이낸셜대부이른바 러시앤캐시는 신용 대출을 포함한 모든 신규 대출을 아예 중단했습니다.2금융권의 대출이 어려워 짐에 따라 저신용 서민들과 연말 만기가 도래하는 다중 채무자들이 ‘대출 절벽’ 현상으로 큰 어려움을 겪을 전망입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토스, 연말 맞이 ‘나만의 눈사람 만들기’ 이벤트</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002773663?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>토스페이로 초록우산어린이재단 기부금융 플랫폼 토스가 초록우산어린이재단과 기부 이벤트를 진행한다고 밝혔다. 토스 제공    모바일 금융 서비스 토스를 운영하는 비바리퍼블리카(토스)가 연말을 맞아 초록우산어린이재단과 함께 '나만의 눈사람 만들기' 이벤트를 실시한다고 20일 밝혔다.'나만의 눈사람 만들기'는 다양한 이모티콘으로 '나만의 눈사람'을 꾸미고 토스페이로 초록우산어린이재단에 기부를 할 수 있는 이벤트로, 연말을 맞아 기부에 쉽고 재미있게 참여하고자 하는 소비자들의 니즈를 반영해 기획됐다.회당 기부할 수 있는 금액은 최소 1000원부터 최대 200만 원으로 이벤트 기간 내 횟수의 제한 없이 참여할 수 있다. 기부금 영수증 발급 신청도 가능하며 토스를 통해 모아진 기부금은 전액 초록우산어린이재단에 전달된다.'나만의 눈사람 만들기' 이벤트는 30일 23시까지 진행되며, 토스는 추첨을 통해 20명에게 토스 캘린더와 다이어리를 증정하는 공유 이벤트도 실시한다. '나만의 눈사람'을 만든 후 개인 인스타그램 계정에 업로드하고, 토스 공식 인스타그램 계정을 태그하면 참여가 완료된다. 이벤트와 관련된 자세한 사항은 토스 앱 내 '나만의 눈사람 만들기' 메뉴에서 확인할 수 있다.토스 관계자는 "연말을 맞아 기부가 어렵다는 편견을 깨고 쉽고 재미있게 접근할 수 있도록 이번 이벤트를 기획했다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>동양생명, 모바일 보험 혁신…고객중심 서비스 역량 강화 눈길</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005062115?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>[사진 = 동양생명]동양생명이 고객중심 경영 실현을 위한 고객 서비스 역량 강화에 집중하고 있어 눈길을 끈다. 고객에게 최상의 보험 서비스를 제공하는 금융사로의 도약을 위해 고객 편의를 강화하고 가치있는 경험을 강화하겠다는 전략이다.이 회사는 먼저 긍정적인 고객 경험을 확대시키고자 간편 서비스를 선보이고 있다. 이달 고객들의 간편한 보험 청약을 위해 기존 모바일 청약 시스템을 한층 고도화했다. 고객이 모바일로 청약서 작성 시 간편하게 본인 인증을 할 수 있도록 인증 수단을 휴대폰, 신용카드, PASS, 카카오페이, 토스페이 등 5가지 방식으로 확대했다.또 청약 시 여러 번의 자필서명을 해야했던 번거로움을 없애고 단 한번의 서명으로 모바일 청약을 완료할 수 있도록 서명 프로세스도 더욱 간소화했다. 카카오페이나 토스페이로 인증 시 자필서명 없이 전자서명만으로도 청약이 가능해, 더욱 간편하고 빠르게 모바일 청약을 진행할 수 있다.이와 함께 휴대폰에 전송된 URL을 통해 고객이 장소나 시간에 얽매이지 않고 간편하게 직접 서류를 접수하거나 받아볼 수 있게 한 ‘엔젤U’ 서비스를 시행하고 있다. 이 서비스는 고객센터에서 신분증 등 추가서류가 필요한 경우 고객 휴대폰에 URL을 전송해 고객이 해당 URL에 접속해 직접 서류를 촬영 후 이미지를 업로드하게 한 것이다. 고객이 팩스나 우편으로 서류를 사후에 추가로 접수해야 하는 번거로움을 줄였다. 변액보험 펀드 변경 또는 적립금 이전, 펀드 편입 비율 변경 등이 필요한 경우에도 고객이 엔젤U 서비스를 통해 관련 서류를 휴대폰으로 바로 제출할 수 있어 고객 편의성이 한층 강화됐다.이와 함께 차별화한 고객 서비스 제공을 위해 내부역량 강화에도 힘쓰고 있다.동양생명은 고객센터 내방 고객에게 차별화한 가치를 제공하고자, 매년 고객센터 직원을 대상으로 CS 스킬업 및 매니저 교육 등 직급별 맞춤교육과 자율독서 학습 등 감정관리교육을 병행해 진행하고 있다.장애인 및 고령 소비자 등을 위한 고객센터 내 전담 응대 직원을 지정하는 등 금융취약 계층을 위한 세심한 고객 서비스 제공에도 각별한 신경을 쓰고 있다. 동양생명은 이러한 끊임없는 고객중심경영 환경 구축을 통해 지난 7월 한국능률협회컨설팅이 주관한 ‘2022 한국산업의 서비스품질지수(이하 KSQI)’ 고객접점부문 조사에서 5년 연속 생명보험업계 1위 기업으로 선정되기도 했다.동양생명 관계자는 “보험 가입부터 심사, 상담에 이르기까지 보험과 관련한 업무처리 전 과정에서 고객들이 동양생명만의 차별화한 서비스를 경험할 수 있도록 다양한 혁신 방안을 모색할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.12.30.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2금융 대출문턱 막히자… 금융당국 "유연하게 대응" 당부</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000882317?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>2금융권을 중심으로 서민들의 자금조달이 어려워지자 금융당국이 유연한 대응을 당부했다./사진=이미지투데이 최근 일부 저축은행과 캐피탈사, 대부업체가 대출취급을 중단하면서 서민들의 자금조달이 어려워지자 금융당국이 유연한 대응을 당부했다.지난 29일 금융위원회, 금융감독원, 한국은행, 금융협회 등은 금융시장 현황 점검회의를 개최해 시장안정대책 지원 실적을 점검하고 오는 2023년 금융시장의 주요 리스크요인을 논의했다.이날 자리에서 금융당국은 2금융권을 중심으로 대출취급 중단 움직임이 확대되는 것과 관련해 각 금융사의 건전성·리스크 관리를 강조하면서도 대출취급 중단은 바람직하지 않다며 '유연한 대응'을 주문했다.대출취급을 중단하기 보다 여신정책에 따라 여신심사기준을 강화하거나 서민금융 우수대부업자의 은행권 차입이 원활히 이루어질 수 있도록 은행권의 협조를 요청하는 식이다.최근 저축은행·캐피탈을 비롯해 제도권 금융 최후의 보루로 여겨지는 대부업체마저 대출취급을 중단하고 있다. 업계 1위 SBI저축은행은 이달 신용대출, 웰컴저축은행은 중금리대출, 신한저축은행은 햇살론 신청을 중단했고 할부금융 업계 1위인 현대캐피탈은 토스·카카오페이 등 플랫폼을 통한 신규대출을 당분간 중단하기로 했다.여기에 지난 26일부터 아프로파이낸셜대부(러시앤캐시)는 신규대출 취급을 중단, 업계 2위인 리드코프는 신규대출을 기존의 20% 수준으로 내주고 있다.당국 관계자는 "금융당국은 햇살론 등 정책서민금융상품이 꾸준히 공급될 수 있도록 노력을 지속할 예정"이라며 "불법사금융에 대해서는 관계기관과 적극 협력해 엄정 대처해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>"승계 염두에 둔 기업 투자 가로막는 가장 큰 장애물은 '제도'"</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005388346?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>중기중앙회 '제4차 기업승계활성화위원회' 개최기업승계 세제지원 쟁점 및 향후 정책과제 등 논의[이데일리 함지현 기자] 중소기업중앙회는 제4차 ‘기업승계활성화위원회’를 개최했다고 16일 밝혔다.중기중앙회에 따르면 기업승계활성화위원회는 기업승계 활성화를 위한 정책 과제의 현장성과 전문성을 높이기 위해 조직된 기구다. 이날 위원회에는 공동위원장인 송공석와토스코리아 대표이사, 윤태화 가천대학교 경영대학원 교수를 비롯해 기업승계 1·2세대 중소기업 대표자와 학계·연구계·법률·세무 분야 등 민간 전문가들이 참석했다.위원회에서는 ‘중소기업 승계 세제지원 쟁점 검토’ 결과 발표와 함께 기업승계 관련 법안 추진 현황을 공유하고, 향후 정책과제에 대해 토의했다.주제발표자로 나선 오문성 한양여대 교수는 “상증세(상속세 및 증여세법) 중 순수하게 개인과 관련된 부분은 공평성을 지향해야 하지만 기업의 승계와 관련된 부분은 효율성을 지향하는 것이 바람직하다”며 “일반상속자산과 가업상속자산은 본질적으로 그 성격이 다르므로 성격이 다른 자산에 대해 상이한 과세방법을 적용하는 것은 헌법상 평등권 침해라고 볼 수 없다”고 주장했다.송공석 공동위원장은 “국회의 관련 법안 논의과정을 지켜보면 항상 현장의 상황과는 전혀 다르게 ‘부자감세’ 이야기가 나온다”며 “지금은 제도가 승계를 염두에 둔 기업의 투자를 가로막는 가장 큰 장애물이 돼버린 만큼 중소기업이 경영에 집중해 신산업에 진출하고 일자리도 창출할 수 있도록 제도를 개선해야 한다”고 강조했다.양찬회 중기중앙회 혁신성장본부장은 “해외에서는 높은 상속·증여세로 기업이 문을 닫는 게 국가와 지역사회에 더 큰 손해라는 인식이 자리잡아 정부가 적극적으로 기업승계 지원에 나서고 있다”며 “기업이 책임지고 있는 일자리와 해당 산업 생태계에 있는 또 다른 기업들이 피해를 보지 않고 계속해서 이어지고 더 확대될 수 있도록 이제는 기업승계에 대한 인식을 바로잡아야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.12.18.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>10∼20대 인스타그램 VS 30∼40대 카카오톡…50∼60대는?</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003765446?sid=105</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>'포켓 CU' '나만의냉장고' '세븐일레븐' 등 편의점 앱, α·Z세대 설치 수서 상위권 랭크    세대별 비중 높은 앱 순위. NHN데이터 제공       Z세대(현 13∼24세)가 가장 많이 설치한 애플리케이션은 '인스타그램'인 것으로 나타났다.     NHN데이터는 안드로이드 이용자 2800만명의 앱 설치 데이터를 α(알파) 세대(0세∼12세), Z세대(13∼24세), M(밀레니얼) 세대(25∼44세), X세대(45∼59세)별로 분석한 결과를 16일 공개했다.     이에 따르면 카카오톡은 α·밀레니얼·X세대를 통틀어 가장 많이 설치한 앱으로 나타났으며, 유일하게 Z세대에서만 인스타그램·네이버에 이어 3위를 기록했다.     엔터테인먼트 및 소셜미디어 앱으로 범주를 좁히면 Z·밀레니얼 세대는 인스타그램을 가장 많이 설치했고 X세대는 '밴드'를 가장 많이 이용했다.     반면 α세대에서는 게임·메타버스 플랫폼 '로블록스'가 1위를 차지했고, 이어 '틱톡'과 '포켓몬 고' 순으로 나타났다.     금융 앱은 '토스', 식품 앱은 '배달의민족'이 전 세대를 통틀어 설치율 1위로 나타났다.     X세대의 경우 Z·밀레니얼 세대와 비교해 신용카드 관련 앱 설치율이 높게 나타났고, '포켓 CU'·'나만의냉장고'·'세븐일레븐' 등 편의점 앱은 α·Z세대에서 상위권에 들었다.     특정 세대의 설치 비중이 높은 앱은 생애주기에 따른 생활 패턴 변화를 반영하고 있었다.     저연령층인 α세대의 경우 무료 게임 앱이 높은 비중을 차지했다. 반면 청소년∼20대 초반인 Z세대는 '나라사랑포털'·'병무청 간편인증' 같은 병역 관련 앱, 가정통신문 앱 '아이엠스쿨 학생', 대학생 커뮤니티 '에브리타임' 설치율이 높았다.     사회인 비중이 높은 밀레니얼 세대는 '280days', '열나요', '베이비타임' 등 임신·출산·육아 관련 앱이 1위부터 10위까지를 석권했고 중장년층인 X세대는 'SBS골프'·'JTBC골프'·'골프몬' 등 골프 관련 앱이 상위권을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.12.25.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>새해엔 '카드 리빌딩'…내 소비패턴부터 파악하라</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004791656?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크'삼성카드 앤 마일리지'와'KB 스카이패스 티타늄'1000원당 2마일씩 쌓여0.8% 적립 '신한 딥드림'최대 이용 부문 3.5% 적립'뉴 페이코 롯데카드'페이코앱 결제 시 3% 적립Getty Images Bank새해를 맞아 필요 없는 신용카드를 해지하고 가성비가 좋은 상품으로 갈아타려는 ‘카드 리빌딩’ 수요가 늘어날 전망이다. 가장 효율적인 카드 조합을 찾기 위해선 자신의 소비 패턴부터 파악하는 게 중요하다.카드 리빌딩의 첫 시작은 주사용 카드를 결정하는 것이다. 주사용 카드는 자주 가는 결제처에서 할인 또는 적립률이 높은 카드나 교통비·통신비 등 고정 지출에 대해 혜택을 극대화할 수 있는 카드로 정하는 것이 좋다. 전월 실적이 필요 없거나 있더라도 기준이 낮은 카드 위주로 고르는 게 바람직하다. 최대 할인·적립률 등 혜택만 보고 카드를 발급했다가 막상 전월 실적을 채우지 못해 낭패를 겪을 수 있기 때문이다.일상에서의 지출은 사용 금액에 따라 카드를 달리하면 효율을 극대화할 수 있다. 예를 들어 고액을 결제할 땐 최대 적립한도가 없는 항공 마일리지 카드를 사용하고, 비교적 소액이라면 포인트 적립 카드를 사용하는 방식이다.주사용 카드로 항공 마일리지 카드를 고민한다면 ‘특별 적립률’에 주목해야 한다. 최근 대부분의 마일리지 카드는 공통적으로 1000원당 1마일을 적립해주지만 특정 영역에서 결제 시 1000원당 2마일(특별 적립률)을 적용하는 카드도 있다. 예를 들어 ‘삼성카드 앤 마일리지 플래티넘’(연회비 4만9000원)은 주유소·백화점·택시 등에서, ‘KB 스카이패스 티타늄 카드’(연회비 4만5000원)는 해외 결제와 면세점에서 적립률이 두 배로 올라간다. 연회비가 부담스럽다면 기본 적립률(1000원당 1마일)은 동일하지만 연회비 2만원의 ‘롯데 스카이패스 아멕스’나 연회비 3만원의 ‘대한항공카드 030(현대카드)’ 등도 있다.포인트 적립카드는 적립 한도와 전월 실적 조건을 잘 살펴야 한다. 예를 들어 ‘신한카드 딥드림’은 전월 실적과 상관없이 국내외 모든 가맹점에서 결제액의 0.8%(신한은행 결제계좌)가 적립된다. 여기에다 △마트 △편의점 △영화관·커피숍 △통신요금 △해외결제 등 5대 영역 중 해당 월에 가장 많이 이용한 영역에서 3.5%를 적립해준다. 이때 전월 실적(30만원 이상)에 따라 통합 적립한도가 결정된다. ‘뉴 페이코 롯데카드’는 페이코 가맹점에서 페이코 앱으로 결제하면 3%, 일반 결제 시엔 0.5%가 적립된다. 전월 실적 30만원 이상, 월 최대 적립한도가 10만 포인트지만 특정 가맹점에서 포인트 결제로도 추가 적립이 가능하다.체크카드를 적절하게 조합하는 것도 좋다. ‘토스뱅크카드’는 편의점·카페·대중교통·영화관 등 7개 영역에서 영역당 하루에 한 번 캐시백을 제공한다. 캐시백 금액은 1만원 미만 결제 시 100원, 1만원 이상은 500원이다. 우리카드 ’카드의정석 쿠키 체크’는 전월 실적(20만~50만원)에 따라 쇼핑·카페·편의점·대중교통 등에서 월 최대 1만원의 캐시백을 받을 수 있다. 연말정산을 대비해 연봉의 25%까지는 혜택이 높은 신용카드를 사용하고 초과액에 대해 소득공제율이 높은 체크카드를 사용하는 게 유리하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>사라진 '캐시백' 이벤트…'고객유치'보단 비용 절감하는 카드사</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004833462?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>현대카드, NH농협카드, 우리카드 등이 금융 플랫폼을 통해 제공하던 신규 카드 가입 고객 대상 캐시백 이벤트를 중단한 모습./사진=토스 내 해당 카드사 카드 안내 페이지 화면 캡쳐토스, 네이버페이, 카카오페이에서 카드사들의 캐시백 이벤트들이 사라지고 있다. 급격한 금리상승기에 따라 경영 환경이 악화하자 마케팅 비용 감축에 나서고 있는 것이다. 27일 금융권에 따르면 토스와 네이버페이, 카카오페이 등 주요 금융 플랫폼에서 신용카드를 새로 발급하면 현금 혹은 현금성 포인트를 캐시백해주는 카드사들의 마케팅이 불과 한 두 달 사이 급격히 줄었다.토스에서 신용카드 신규 가입 고객 대상 캐시백 이벤트를 제공 중인 카드사는 신한·KB국민·롯데카드 등 3곳에 불과하다. 새로 발급받은 신용카드를 일정 금액 이상 사용하는 등 조건을 충족하면 카드별로 5만~13만원의 현금을 돌려주고 있다. 삼성카드와 하나카드가 일부 캐시백 이벤트를 진행 중이지만, 이는 토스와 제휴를 맺은 신용카드만 대상으로 한다.캐시백 혜택 규모도 줄었다. 과거에는 최대 20만원 가까이 돌려줬지만, 지금은 최대 13만원까지 캐시백 혜택이 낮아졌다. 또 카드사마다 3개 카드를 대상으로 이벤트를 진행했는데, 지금은 1~2개로 혜택을 주는 카드 숫자도 줄었다.네이버페이와 카카오페이를 통한 신규 고객 유치 이벤트는 사실상 자취를 감췄다. 대신 기존 고객 중 최근 6개월간 카드를 사용하고 있지 않은 휴면고객을 대상으로 카드 사용을 유도하는 이벤트만 진행 중이다.한 두달 전까지만 해도 모든 카드사들이 캐시백 이벤트를 통해 신규고객 유치에 나섰다. 포화 상태에 이른 카드 시장에서 새 고객을 유치하기 위한 일종의 '고육지책'이었다. 고비용 구조인 카드모집인을 통하는 것보다 온라인 채널을 경유한 카드 모집 비용이 통상 3분의 1가량 적다. 하지만 최근 금융시장 변동성이 급변하면서 상황이 바뀌었다. 급격한 금리인상에 따른 채권금리 급등으로 카드사들의 조달비용이 크게 오르면서 카드사들의 영업 환경이 악화한 것이다.한국기업평가에 따르면 7개 전업카드사의 올해 연간 이자비용은 전년 대비 7000억원 증가할 것으로 추산된다. 나아가 내년에는 올해보다 1조원 이상 이자비용이 증가할 것으로 추정된다. 하현수 한국기업평가 책임연구원은 "카드사들의 2023년 영업수익 규모가 올해와 유사할 것으로 단순 가정하면 이자비용 증가분만으로 영업이익 규모가 2019년에 근접하는 수준까지 감소할 수 있다"며 "수익성 제고 노력에도 불구하고 상당 수준의 수익성 저하는 불가피할 전망"이라고 밝혔다.이에 카드사들은 비용 절감을 통한 '생존모드'로 전환한 상태다. 신한카드와 삼성카드 등 일부 카드사는 온라인 쇼핑과 손해보험 등에 제공하던 무이자 할부 혜택을 6개월에서 2~3개월로 줄였다.한 카드사 관계자는 "신규 고객 대상 캐시백 이벤트는 단기적으로 신규 고객이 느는 효과가 분명하지만, 장기적으로는 비용 부담이 커질 수밖에 없는 구조"라며 "더구나 혜택만 받고 카드를 해지하거나 이용하지 않는 '체리피커' 고객도 상당한 만큼 지금과 같은 '비상 상황'에 적합한 마케팅 방식은 아닌 것으로 판단된다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[핀테크 칼럼]핀테크, 2022년과 2023년</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003069258?sid=004</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>다사다난한 2022년이 저물고 있다. 올 한 해 핀테크업계의 의미 있는 성과라면 어떤 것들이 있을까. 시장에선 올해 본격적인 첫발을 내디딘 마이데이터사업을 첫손에 꼽는다. 마이데이터사업은 빅데이터와 인공지능(AI) 기술을 접목하는 금융권 최초의 융합 신산업이다. 다양한 업계 간 이해 상충과 데이터 제공 범위 이슈 등 어려움이 많았던 만큼 마이데이터의 성공적인 인프라 구축은 높은 점수를 충분히 받을 만한 것으로 평가된다.11월 기준 마이데이터 사업자 수는 연초 33개에서 52개로 약 50% 늘었다. 누적 가입자 수도 5480만명으로 연초 대비 3.9배나 급증했다. 다양하고 편리한 융합서비스 제공으로 마이데이터 이용자 가운데 70% 이상이 긍정적인 응답을 줬다. 또 마이데이터 브랜드 평판은 1위 KB국민은행, 2위 신한은행, 3위 신한카드 순이었지만 앱 고객 확보 순위는 10월 기준 토스·KB국민은행·카카오뱅크로 자리가 바뀌었다. 일단 핀테크·빅테크가 시장 선점에서 앞서고 있단 얘기다.둘째 대환대출이다. 대환대출은 한마디로 '대출 갈아타기'다. A금융사에서 B금융사로 대출 업체를 바꾸는 것이다. 금융사 간 과당경쟁, 수수료 분쟁 등 잡음도 있지만 워낙 고금리시대여서 급성장한 서비스다. 핀다에 따르면 대환대출 수요는 3월 96억원에서 9월 1080억원으로 반년 만에 10배 이상 증가했다. 그만큼 고금리 스트레스에 따른 관심도가 높다는 방증으로 읽힌다. 주택담보대출은 모집인 수수료 비용이나 중개사 제휴 수수료 부담이 없는 인터넷뱅크, 신용대출은 카드사 등 2금융권에서 은행 등 1금융권으로 각각 갈아타는 대환대출이 늘고 있는 것으로 분석된다. 또 대환대출 수요 증가는 대출비교플랫폼 성장으로 연결되고 있다. 토스·카카오페이·핀다에 이어 네이버파이낸셜도 뛰어들면서 경쟁이 치열해지고 있고, 금융당국은 금융회사 간 대출이동시스템을 통한 '온라인 대환대출 플랫폼' 구축계획을 발표했다. 향후 대출비교와 대환대출의 원스톱 플랫폼이 출현할 거란 기대감을 높여 주는 대목이다.조각투자 급부상도 시장에서 반향이 컸다. 뮤직카우의 저작권 참여청구권에 대한 당국의 가이드라인을 계기로 음원, 미술품·명품은 물론 부동산 매매 등으로까지 대상 자산 범위가 확대됐다. 특히 조각투자에 대한 가이드라인은 가상자산 증권성의 판단 기준을 최초로 제시했다는 점에서 의미가 큰 것으로 평가된다.어려운 금융환경 속에서 핀테크혁신 지원정책을 지속해 온 금융 당국도 박수를 받을 만하다. 7월에 금융 규제혁신 회의체를 발족하면서 금융이 디지털전환을 선도하고 금융산업에서 '금융 BTS'를 만들겠다는 기치를 내걸었다. 다섯 차례의 규제혁신회의를 통해 핀테크기업에 대한 자금 지원과 창업활성화 등 방안을 마련해 왔다. 특히 핀테크혁신펀드를 1조원으로 늘리고, 기업별 전담책임자 지정과 초기기업에 대한 인력 공급 및 글로벌 지원체계 마련 등은 업계의 환영을 받았다.2023년은 어떨까. 새해 금융 여건도 금리 고공행진, 유동성 위축 등의 예상이 많아 핀테크업계도 만만치 않을 거라는 게 대다수 시장 의견이다. 혹한기의 냉엄한 '옥석 가리기'가 진행될 것인 만큼 핀테크기업으로선 수익모델, 자금조달, 인력관리전략 마련이 특히 중요하다는 게 전문가들 의견이다. 손익분기점(BEP)을 달성할 수 있는 수익모델 확보는 물론 경우에 따라선 가격을 낮추고 기존 투자자들을 설득해서라도 자금을 적극 조달해야 하고, 스케일링업 단계의 핀테크업체는 우수 인력의 유지·확보에도 남다른 노력이 필요하다. 금융당국에 바람이 있다면 2022년에 발표한 핀테크지원책의 신속한 구체화이다. 특히 어려움을 많이 겪고 있는 P2P와 인슈어테크업계 입장에선 이미 발표한 자금조달지원책 외 P2P 투자위험 완화를 위한 '자동분산투자', 인슈어테크의 '보험비교추천 플랫폼의 현실화' 방안 등의 재검토가 필요한 것으로 생각한다.정유신 서강대 기술경영대학원장 ysjung1617@sogang.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.12.30.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>앱 광고 자리 만든다…카카오뱅크 올해 추이는?</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003769433?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 내년 1월부터 광고 지면(영역)을 본격적으로 운영할 것으로 보인다.     빅데이터 전문기업 TDI(티디아이, 대표 이승주)의 분석 플랫폼 데이터드래곤에 따르면 최근 10월과 11월 금융앱 설치수 분석 결과 카카오뱅크는 토스 다음으로 앱 설치기기수 2위를 지키고 있다.     10월 1696만 3,000대에서 11월 1708만 5,000대로 12만 2,000대 증가했다. 반면 설치수 대비 MAU는 10월 63.38%에서 11월 61.54%로 소폭 감소했다.     2022년 1월 앱 설치수는 1652만 6,000대로 11월에 61만 6,000대 더 증가한 셈이다. 반면 설치수 대비 MAU는 1월 64.32%로 11월에는 2.78% 감소했다.     지난 7~8월 한국기업평판연구소가 공개한 인터넷전문은행 브랜드평판에서는 카카오뱅크가 1위를 차지하기도 했다.     한편 카카오뱅크 광고 영역은 ▲앱 첫 화면 팝업창 ▲앱 화면 상단 영역 ▲알림 성격의 텍스트 광고 ▲푸쉬 알림 광고 등이 마련된 것으로 보인다.     카카오뱅크가 구체적으로 광고 영역을 언제 운영할 지에 대한 시기는 알려진 바 없다. 하지만 카카오뱅크 공지에 따르면 내년 1월 광고 지면에 대한 공식 판매가 시작된 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>지역신보, '희망플러스 특례보증' 취급은행 인터넷 전문은행으로 확대</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006526213?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>기존 시중, 지방은행 12개에서 인터넷 전문은행 2개 추가19일부터 모바일 은행 앱에서 신청 가능29일 서울 중구 명동 상가에 '임대' 문구가 붙어 있다.  신보중앙회는 어려움을 겪는 소기업 및 소상공인을 위한 희망플러스 특례보증 신청 가능 은행을 기존 12개에서 14개로 확대했다고 19일 밝혔다. 뉴스1 ⓒ News1 송원영 기자(서울=뉴스1) 김예원 기자 = 신용보증재단중앙회는 17개 지역신용보증재단를 대리해 케이뱅크, 토스뱅크와 희망플러스 특례보증 업무협약을 체결했다고 19일 밝혔다. 이번 협약으로 희망플러스 특례보증이 가능해진 은행이 12개에서 14개로 확대됐다. 소기업과 소상공인은 업무협약 체결 당일인 19일부터 인터넷 전문은행인 케이뱅크 및 토스뱅크 앱을 통해 희망플러스 특례보증 신청이 가능하다. 보증신청을 원하는 소기업, 소상공인은 전국 14개 은행 및 지역신보를 방문하지 않아도 희망 대출은행의 앱을 통해 자금을 지원받을 수 있다. 희망플러스 특례보증 취급 은행은 △국민 △기업 △농협 △신한 △우리 △하나 등 시중은행 6개와 △경남 △광주△대구 △부산 △전북 △제주 등 지방은행 6개, △케이 △토스 등 인터넷전문은행 2개로 총 14개다. 이상훈 신보중앙회 회장은 "이번에 희망플러스 특례보증 취급은행으로 케이뱅크 및 토스뱅크가 추가돼 소상공인이 신용보증을 더 편리하게 이용할 것으로 기대된다"며 "앞으로도 소상공인에게 적극적인 보증 지원을 할 수 있도록 노력하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>가계통신비 경감 핵심으로 떠오른 ‘알뜰폰’…IoT 회선 여전히 43% [IT클로즈업]</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002139532?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>[디지털데일리 백지영기자] 최근 알뜰폰의 소비자 만족도가 3년 연속 이동통신3사를 앞서는 등 관심이 높아지는 가운데, 정부 역시 가계통신비 부담 인하의 핵심 축으로 꼽고 시장 활성화에 박차를 가하고 있다.    지난 10월 말 기준 알뜰폰 가입자는 1246만명을 돌파한 가운데, 여전히 전체의 40% 이상은 커넥티드카 등 사물인터넷(IoT) 회선이 차지하고 있는 것으로 나타났다. 가계 통신비 인하를 위해 도입된 알뜰폰이지만, 저렴한 회선 탓에 오히려 커넥티드카, 스마트워치 등 IoT 회선 활용이 많다.   최근 김영식 의원실(국민의힘)이 과학기술정보통신부(과기정통부)로부터 제출받은 자료에 따르면, 2022년 10월 말 기준 알뜰폰은 총 1246만2574 회선이 가입한 것으로 분석됐다. 이중 휴대폰 가입자는 715만139명으로 전체의 57%를 차지했으며 나머지는 531만2435는 IoT 회선으로 43%를 점유했다.    휴대폰과 IoT를 통틀어 가장 많은 회선을 가입한 곳은 현대자동차다. 지난 10월 말 기준 현대차를 통한 가입회선수는 246만69개였다. 최근 국내에 출시되는 신규 차량은 대부분 커넥티드카 서비스를 위해 차량용 IoT 회선을 탑재하고 있다.    현대차 이외에도 ▲기아차가 103만8284개로 가장 많았고, 다음으로 ▲벤츠(다임러)	36만143, ▲르노삼성 5만8178, ▲테슬라 4만7331, ▲쌍용차 4만4765, ▲볼보가 8346 회선을 사용 중이다.   휴대폰 가입자는 여전히 통신사 자회사들의 점유율이 높다. 알뜰폰 가입자가 가장 많은 곳은 ▲KT모바일로 123만7041명을 기록했다. IoT 회선가입자까지 합치면 126만3806명이다. 그 다음으로 ▲미디어로그(87만명, IoT 회선 포함) ▲LG헬로비전(72만명) ▲SK텔링크(67만명) ▲KT 스카이라이프(26만명) 등으로 나타났다.   이밖에 금융 자회사 가운데선 KB국민은행(리브모바일)이 35만9293명을 기록했다. 토스모바일(구, 머천트코리아) 가입자도 7만8883명이나 됐다. 내년 토스모바일이 요금제를 출시하고 본격적으로 시장에 뛰어들 경우, 파급력은 더 커질 것으로 예상된다.   기술방식별 가입자는 LTE가 가장 많았다. LTE 가입자는 휴대폰과 IoT 회선을 모두 합쳐 1124만7989명으로 나타났고, 그 다음으로 2G·3G가 108만2043명, 5G는 13만2542명에 불과했다.    한편 최근 과기정통부는 종량형 도매대가 인하와 중소·중견 알뜰폰 사업자의 전파사용료 면제 1년 연장 등의 내용을 담은 알뜰폰 활성화 방안을 발표했으나, 알뜰폰 주력 요금제인 LTE 도매대가는 인하율이 1%에 불과해 실효성 논란이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>인터넷은행 중·저신용 대출 속도...건전성 악화 우려</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001830031?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[앵커]카카오뱅크 등 인터넷 전문은행들이 중·저신용자 대출 비중 목표치를 맞추기 위해 연일 속도를 올리고 있습니다.대출 특판 상품까지 나왔는데요.목표 달성은 가능해 보이지만 연체율이 높아지는 등 건전성이 악화할 수 있다는 우려도 나옵니다.강희경 기자가 보도합니다.[기자]인터넷은행인 카카오뱅크 홈페이지에 올라온 공지입니다.중·저신용자를 위해 4%대 대출 특판을 시작한다는 내용입니다.반면 고신용자에 대한 신규대출은 문을 닫았습니다.이렇듯 대출에까지 특판을 내건 이유는 중금리 대출 비중을 맞추기 위해서입니다.앞서 금융당국은 인터넷은행 도입 취지에 따라 그동안 금융권에서 소외됐던 중·저신용자에 대한 중금리 대출을 확대하라고 거듭 권고해왔습니다.[권대영 / 당시 금융위 금융산업국장 (지난해 4월) : 정부와 인터넷은행이 소통하면서 법과 도입 취지에 부합하도록 잘 관리하도록 하겠습니다.]현재 카카오뱅크와 케이뱅크는 올해 말까지 25%를, 토스뱅크는 42%를 각각 목표치로 내세우고 있습니다.지난 9월 말까지 집계된 자료를 보면 목표치 달성이 임박한 수준으로, 3사 모두 연말까지 더 속도를 올리고 있는 겁니다.[카카오뱅크 관계자 : 중·저신용 고객의 이자 부담이 급격히 늘고 있는 것 같아서요. 올 연말 자금이 필요한 중·저신용 고객들의 금융비용 부담 완화에 도움이 되고자….]이대로라면 목표치 달성은 어렵지 않아 보이지만 문제는 건전성 악화가 우려된다는 점입니다.인터넷은행 3사의 3개월 이상 연체 채권인 고정이하여신 비율은 올해 3분기 말 0.39%를 기록했습니다.1년 전보다 0.13%포인트 높아진 것으로, 시중은행의 고정이하여신 비율이 0.05%포인트 낮아진 것과 대조적입니다.인터넷은행이 내년까지 중금리 대출 비중을 계획대로 높이면 2년 전 0.7%였던 연체율이 최대 2.2%까지 증가할 수 있다는 전망도 나왔습니다.[손진식 / 한은 인터넷전문은행팀 팀장 : 중·저신용자들이 아무래도 다중 채무자일 가능성이 클 수 있거든요. 금리가 상승하면 잠재적으로 연체가 날 가능성은 있을 것 같아요.]금융당국은 인터넷은행 건전성이 실제 악화할 가능성은 작다고 보고, 목표치를 달성하는 게 최우선 과제가 돼야 한다고 강조했습니다.YTN 강희경입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>하나은행, 토스증권에 24시간 외환서비스 제공</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002276732?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>해외주식 거래 시간에 실시간 역외 시장 환율 서비스하나은행이 토스증권과 손잡고 24시간 비대면 외환(FX) 거래를 확대한다.16일 하나은행은 토스증권과 전략적 업무협약(MOU)를 체결했다고 밝혔다.이번 업무협약을 통해 하나은행은 토스증권에 오전 9시부터 오후 3시30분까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공한다.업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(사진 오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다.(사진=하나은행)하나은행 남궁원 경영기획그룹 부행장은 “토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다앙한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>“멤버들의 박탈감…네이버 대출비교, 빅테크 불공정 아닌가 ”</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005395858?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>핀다 박홍민, 이혜민 대표 인터뷰자사와 유사한 네이버파이낸셜 API에 문제제기네이버측, 금융권 관행과 쿠콘 공동사업 등 역사성 해명"검증된 시장에 들어온 빅테크여서 더 문제..토스, 카카오페이와 달라”"사업자 대출 정교화할 것..시리즈C 투자유치도 진행중"[이데일리 김현아 기자]지난 26일 서울 강남구 테헤란로에 있는 핀다 사무실에서 만난 박홍민·이혜민 공동 대표. 사진=핀다 제공“핀다는 대출비교부터 집행까지 비대면으로 1분 안에 가능하게 해주는 서비스입니다. 2015년 창업해 지금까지 ‘이게 가능할까? 이런 기능을 넣으면 어떨까?’ 수없는 개선작업과 테스트와 수정을 통해 핀테크 시장에서 나름대로 성장해 왔습니다. 또한, 문턱이 높은 수많은 금융회사들을 만나 설득하고 또 설득하면서 없던 시장을 만들어냈죠. 이런 노력의 결과 이제는 시장에서 제법 인정을 받고 있습니다.”2015년 핀테크 불모지인 한국에서 창업해 2019년 대한민국 최초의 대출비교서비스를 만들어낸 핀다의 7년간의 노력을 피력하는 것으로 박홍민·이혜민 대표는 말문을 열었다. 이데일리는 지난 26일 이들을 만났다. 하지만, 두 대표는 핀다와 유사한 대출비교 서비스 응용프로그램인터페이스(API)를 사용했으면서도 소통 노력이 전혀 없었던 네이버파이낸셜에 대해선 비판적인 생각을 감추지 않았다“네이버는 저희보다 힘이 세고 덩치가 큰 빅테크 기업입니다. 그 회사에서 저희가 갈고 닦아 놓은 시장에 아무 노력도 없이 무혈입성한다는 부분에 힘이 빠지네요. 네이버파이낸셜이 저희가 만든 응용프로그램인터페이스(API)의 관련 문서를 베끼니 멤버들의 박탈감이 엄청 크더라고요. 업계의 관행이라고 그냥 넘어가기에는 단순한 문제가 아니라고 생각합니다.”(박홍민 대표)“우리 API를 다른 회사에서 베낀 게 이번이 처음은 아닙니다. 하지만, 네이버에 대해선 실망감이 더 큽니다. 토스나 카카오페이는 대출비교 서비스 초기 시장에 들어와 서로 선의의 경쟁을 하면서 함께 시장을 만들고 키워왔습니다. 그런데 스타트업들이 3년 반이라는 시간동안 애쓰며 키워 놓은 시장에 네이버는 트래픽과 자본이라는 무기를 들고 아무 노력 없이 쑥 들어왔습니다. 다시 말해 혁신을 가속하는 그 어떤 노력도 하지 않았다는 생각이 듭니다(이혜민 대표)”“검증된 시장에 들어온 빅테크여서 더 문제”대출비교 서비스 API가 핀다와 유사한 곳은 네이버만은 아니다. 토스도 유사하다. 그런데 핀다는 왜 네이버파이낸셜에 더 실망한 걸까. 네이버 측은 일부러 베낀 것은 아니라는 입장이다. 이미 핀다와 대출비교서비스를 연동한 금융권이 나중에 진입한 빅테크들에도 유사한 명세서를 요구했고, 핀다와 쿠콘이 공동사업을 하는 과정에서 API가 공개된 부분도 있다고 해명했다. 하지만, 이혜민 대표는 “과거에도 금융권이 다른 회사에 저희 것을 보여줘 박탈감이 있었지만 치열하게 시장을 만들면서 생긴 일이어서 나름 이해되는 구석이 있었다. 선의의 파트너라는 생각이더 컸다”면서 “이번은 반대로 실망감이 크다. (핀다, 토스, 카카오페이) 3사가 대출비교 서비스 시장을 전체 신용대출 시장의 18% 정도까지 키웠다. 저희는 (네이버 진출로) 대출비교 서비스 마케팅에 도움이 되거나 금융기관과 여신 프로세스를 만드는데 더 혁신하는 부분이 있거나 하는데 기여하기를 바랬지만 그렇지 않았다”고 평했다.이데일리와 인터뷰를 하게 된 데는 빅테크와 국내 플랫폼 시장에서 경쟁하는 스타트업의 현실을 알리고 싶은 이유도 있다고 했다. 이혜민 대표는 “저희 이름으로 인터뷰가 나가는 것에 대한 부담이 없다”면서 “소위 빅테크들과 싸우면서 겪는 일들, 아쉬움에 대해 기록으로 남기고 싶었다”고 전했다. 박홍민 대표는 “플랫폼과 관련해 공정거래란 어떤 것인가 하는 논의로 이어지면 어떨까”라면서 “대출비교 시장만 보면 3개의 플레이어가 있고 전체 신용대출의 18% 정도밖에 안 된 시장이어서 네이버의 진입으로 경쟁이 활성화된다고 볼 수도 있지만, 트래픽을 쥔 빅테크가 기다렸다가 초기가 아닌 검증된 시장에 들어와 수익화하는 문제를 공정한 경쟁환경으로 볼 수 있는가는 짚어야 한다”고 했다.“사업자 대출 정교화할 것…시리즈C 투자유치도 진행중” 핀다는 내년부터 본격적으로 빅테크 3사와 경쟁한다. 두려움은 없을까.이혜민 대표는 “대출시장은 아직도 개척되지 않은 분야가 무궁무진하다고 생각한다. 비대면으로 전환되지 않는 고객들도 상당하고, 아직 이러한 서비스를 접해 보지 못한 고객도 80%가 넘는다”라며 “트래픽이 많은 빅테크들은 다양한 상품을 붙이는 방식으로 다각화를 시도한다. 그러나 핀다는 지난 7년 동안 대출이라는 한우물만 팠다. 대출에 대해서는 정교한 안목을 갖추고 있다고 자부한다. 유명 맛집은 대부분 잘하는 메뉴 하나로 승부한다. 핀다는 대출분야에서만큼은 최고를 지향한다. 가장 정교하고 고도화된 대출서비스로 승부를 볼 것”이라고 힘줘 말했다.핀다는 사업자대출을 강화하기 위해 빅데이터를 활용한 상권분석 스타트업인 오픈업을 인수했다. 이 대표는 “오픈업은 다들 이미 확보한 사업자의 업력이나 과거 매출이 아니라 휴·폐업, 매출액 최저수준, 자영업자나 소상공인의 능력치 같은 콘텐츠적인 평가를 할 수 있는 최고의 회사”라면서 “사업자 대출 시장에서 훨씬 더 특화된 상품을 만들 수 있을 것이다. 단지 금리가 싸다가 아니라 대출과 관련한 다양한 혜택을 만드는 데 집중하려 한다”고 전했다.핀다는 시리즈B까지 유치하며 기업가치 1000억 원을 인정받은 바 있다. 자본시장이 얼어붙은 속에서 기업 가치가 하락하거나 시리즈C 유치가 어렵진 않을까. 이 대표는 “회사의 성장이 수반되고 있어 기업가치와 관련해 마이너스 같은 안 좋은 소식은 없다. 조만간 업데이트 해 드릴 수 있을 것”이라고 자신했다.“핀다 사용자의 인생이 꽃처럼 피었으면 하는 바람” ‘핀다’라는 사명은 파이낸스(Finance)의 ‘FIN’과 정보의 비대칭성을 해소하는 상품과 사람을 많이 담는 플랫폼을 만들겠다는 의미의 ‘다(多)’의 합성어라고 한다. 이혜민 대표는 “집 때문이든, 학자금 때문이든 대출이 없는 사람이 없다. 어찌 보면 대출은 투자이고 새로운 기회도 만들어주는 것이어서 핀다를 통해 인생이 꽃처럼 피고, 갖고 계신 계획들이 피었으면 하는 바람이 있다”고 전했다.올해 말 현재 핀다 앱의 누적 다운로드는 300만 건을 넘겼고, 월 활성지표(MAU)는 75만 건이다. 올해 핀다를 통해 대환대출을 받은 사용자의 70%는 1인당 평균 금리를 4.61%p 낮추기도 했다.사족: 사실 네이버파이낸셜이 대출 중개에 뛰어들면서 건강보험데이터를 수기 입력하지 않아도 바로 볼 수 있게 하는 서비스를 제공 중이다. 회사는 이를 차별점으로 꼽고 있다. 하지만, 이번 대출비교 API 베끼기 논란을 보면 아쉬움이 남는다. 핀테크에 뛰어든 큰 기업으로서 더 신중해야 했고, 논란이 발생했다면 스타트업과 적극적으로 소통해야 했다. 네이버를 사랑하는 한 전직 임원은 “내가 근무할 때에는 직원들에게 스타트업을 만날 때 기록하라고 했다. 혹시 그의 아이디어가 내 아이디어와 헷갈리지 않는지 확인하고 또 확인하라고 했다”고 전했다. 불편하고 귀찮지만 그게 네이버 같은 대한민국 대표 소프트웨어 기업의 책무라고.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>[단독] "건물이 흔들려요"…토스 입주 사옥 대피 소동</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001072335?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>"역삼동 아크플레이스 건물내 굉음 들려"역삼동 아크플레이스 전경19일 오후 3시쯤 서울 강남구 역삼동 오피스 빌딩인 아크플레이스 내에서 굉음 및 진동이 발생해 직원들이 대피하는 소동이 벌어졌다. 이 건물에는 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카가 입주해있다.19일 금융권에 따르면 비바리퍼블리카 직원들은 이 회사가 입주해있는 아크플레이스 건물에 굉음 및 진동이 발생해 대피했다. 회사 측은 토스뱅크, 토스증권 등 인근 사무 공간으로 대피하거나 재택근무를 하는 등의 조치를 취했다.해당 건물은 지상 24층, 지하 6층의 오피스 빌딩으로, 지난 1999년 5월 준공됐다. 이 건물은 미래에셋자산운용이 '맵스일반사모1호'를 통해 운용 중이며 글로벌 사모펀드인 블랙스톤이 2016년부터 해당 펀드에 단순 투자자로 참여한 바 있다.이에 대해 토스 관계자는 "오후 3시경 굉음이 발생, 직원들을 모두 대피시켰고, 소방당국이 조사 중"이라며 "모바일 서비스 등에는 문제가 없다"고 말했다. 토스는 이 건물의 7개 층을 임대 중이다. 직전까지 페이스북코리아가 입주해있던 22~23층에 지난 7월 입주해 화제를 모은 바 있다.오후 6시 30분 현재, 건물의 관리를 맡고 있는 미래에셋자산운용은 "굉음발생 후 인근 소방서와 경찰서 등이 출동해 합동 점검 결과 특이사항 발견되지 않아 금일 5시 반 경에 현장에서 정식 철수했고, 해당 사실을 빌딩 입주사에 안내 방송했다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>중금리 대출 조이는 은행들… 신용 낮으면 갈 곳이 없다</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000865070?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>중·저신용자 대출이 급감하고 있다. 올해 들어 고금리 현상이 지속하면서 기존 대출자산 부실이 커지자, 은행들이 리스크 관리를 강화했기 때문이다. 시중은행뿐만 아니라 저축은행에서도 중·저신용자 대출을 막으며, 취약차주들의 자금 공급 경로가 막히는 것 아니냐는 우려가 나왔다.서울 시내의 시중은행 ATM기기의 모습. /뉴스1        26일 금융권에 따르면 지난달 기준 4대 은행(KB국민·신한·하나·우리)의 사잇돌대출 취급액은 87억5000만원으로 지난해 말 2680억3700만원 대비 96.7% 감소했다. 같은 기간 계좌수는 3만2060개좌에서 2640개좌로 91.7% 감소했다.사잇돌대출은 SGI서울보증에서 대출원금을 보증해주는 정책금융 성격의 중금리대출 상품이다. 근로자(연소득 1500만원 이상), 사업자(연소득 1000만원 이상), 연금소득자(연간 수령액 1000만원 이상)에게 연 6~10% 금리로 1인당 최대 2000만원까지 대출을 해준다.은행은 신용점수 등 새로운 요건이 생기면서 사잇돌대출의 공급이 줄었다고 설명했다. 시중은행 관계자는 “지난해 사잇돌대출 이용자 66.8%가 1~3등급 고신용자였는데, 금융당국이 지난 2월부터 고신용자의 사잇돌대출 이용을 제약하면서 수요가 크게 줄었다”고 설명했다.하지만 신용점수 기준 변경만으로 설명하기에는 역부족인 측면이 있다. 취급액이 고신용자 감소 비율보다 더 큰 폭으로 줄어들었기 때문이다.또 다른 중·저신용자 중금리대출 상품인 새희망홀씨 역시 취급액이 감소했다. 지난달 말 기준 4대 은행의 새희망홀씨 취급액은 1조2730억원이었다. 이는 지난해 말 기준 2조500억원에 대비 37.9% 감소한 수치다. 계좌 수도 줄고 있다. 지난달 새희망홀씨 계좌는 11만1310개로 지난해 말(17만 5930개) 대비 36.7% 줄어들었다.새희망홀씨는 은행 자체 재원으로 공급되는 정책금융 성격의 중금리대출 상품이다. 연소득 3500만원 이하 또는 연소득 4500만원 이하이면서 신용평점 하위 20%인 이들을 대상이다. 연 10.5% 이내 금리로 최대 3000만원까지 빌려준다.은행 재원으로 조달되는 만큼 새희망홀씨는 다른 서민금융상품에 비해 공급실적이 은행 건전성에 미치는 영향이 크다. 최근 돈줄이 마르는 은행들이 서민금융상품 대출을 줄이는 것도 이러한 이유 때문이다.시중은행 관계자는 “새희망홀씨는 저소득자, 저신용자 대상이라 일반적인 대출에 비해 관리하기 어렵고 은행 자체 재원으로 조달해 부담이 큰 편”이라며 “최근 금리 인상으로 이자 부담이 커지면서 서민금융상품 취급이 줄어든 경향이 있다”고 말했다.저축은행 상황도 비슷하다. 제2금융권은 대출 비교 플랫폼 등 외부 채널을 통한 햇살론·일반대출 신청을 받지 않고 있다. 인터넷 은행 토스의 제3자 대출 신청 서비스는 52곳이 가능한데, 22곳(23일 기준)이 연말까지 점검을 이유로 대출 조회 결과를 제공하지 않고 있다.그나마 중·저신용자 대출을 제공하는 곳은 정책적으로 중·저신용자 대출 목표치가 있는 인터넷 전문은행 정도다. 카카오뱅크의 중·저신용자 대상 신용대출 비중은 지난 3분기 기준 23.2%를 기록했다. 카카오뱅크는 연말까지 금융당국에 제출한 목표치인 25.0%를 달성해야 한다. 케이뱅크는 올 3분기 기준 24.7%로 목표치인 25%에 근접했다. 토스뱅크의 목표치는 42%인데 지난달 40% 선을 넘겼다.금융권에서는 최근 대출금리 부담이 높아져 서민들의 신용 위험이 증가한 만큼 중금리대출 상품 공급을 늘려야 한다고 지적했다. 한 금융권 관계자는 “내년 경기침체가 전망되는 만큼 그나마 자금 여력이 좋은 시중은행 중심으로 서민금융상품 공급을 늘리려 노력해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>개인사업자들이 2년 동안 이자 180만원 줄인 방법은</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004945578?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>토스뱅크 '사장님 대환대출' 서비스, 출시 3개월 만에 360억원 넘겨 토스뱅크 '사장님 대환대출' 잔액 360억원 돌파 관련 이미지. 토스뱅크 제공  [파이낸셜뉴스] 토스뱅크 '사장님 대환대출' 서비스가 출시 3개월 만에 360억원을 넘겼다. 고객은 평균 180만원의 이자 부담을 덜었다.   22일 금융권에 따르면 토스뱅크 '사장님 대환대출' 서비스가 이달 20일 기준 360억원 규모를 달성했다. 이는 시중은행을 포함해 전 은행권에서 3번째로 큰 규모다. 고객이 토스뱅크에서 1인당 대환한 금액은 평균 3200만원이었다.   토스뱅크 '사장님 대환대출'은 코로나19 여파로 피해를 입은 자영업자와 소상공인을 위한 서비스다. 인터넷은행 가운데 유일하게 신용보증기금과 함께 선뵀다.   토스뱅크에 따르면 '사장님 대환대출' 서비스를 통해 자영업자·소상공인 등 개인사업자 고객은 평균 5.59%p의 금리를 낮췄다. 2년 동안 이자를 평균 180만원 줄일 수 있던 셈이다.   이는 제2·3금융권에서 고금리 개인사업자 대출을 받은 고객의 수요가 '사장님 대환대출'로 몰린 영향으로 분석된다. '사장님 대환대출'은 2년간 최대 5.5%의 고정금리를 적용한다.   실제 토스뱅크에서 실행된 대환대출 규모의 82.4%는 저축은행, 캐피탈사 등 제2·3금융권에서 이동해왔다. 이 과정에서 고객은 신용점수도 개선됐을 뿐 아니라 금리인하 요구권의 추가 행사 덕에 금리를 평균 2.33%p 인하하는 효과도 볼 수 있었다.   한편 토스뱅크가 인터넷 전문은행 최초로 선보인 무보증, 무담보 '사장님 대출'은 이달 20일 기준 잔액 1조2700억원을 돌파했다. 올 2월 출시 이후 10개월만이며, 인터넷은행 가운데 가장 큰 규모다. #대환대출 #소상공인 #자영업자 #개인사업자 #토스뱅크 #사장님대출</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인증 수단에 ‘모바일 OTP’ 추가</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004944922?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 토스뱅크가 보안 강화를 위해 '모바일 OTP'를 고액 송금 추가 인증수단으로 도입했다.   토스뱅크는 21일 고액 송금 이용 고객의 인증수단 중 하나로 '모바일 OTP'를 탑재했다고 밝혔다. 1회 1000만 원, 1일 5000만 원이 넘는 고액을 송금할 때 사용된다.   토스뱅크는 현재 고액 송금 인증수단으로 △토스뱅크 카드 인증 △다른 은행 OTP △얼굴인증(셀피인증) 등을 운영중이다.   토스뱅크의 모바일 OTP는 네트워크가 없는 환경에서도 사용자 및 기기 식별과 인증이 가능하게 했다. 기기 변경, 앱 재설치, 핀(PIN) 반복 오입력 등의 상황에서는 모바일 OTP가 해제된다.   모바일 OTP는 토스뱅크 설정에 들어가 인증수단을 클릭한 후 등록할 수 있다.   토스뱅크 관계자는 “시대적 흐름에 따른 기술적 정책적 변화에 앞장서기 위해 모바일 OTP를 도입하게 됐다”며 “토스뱅크 이용에 있어 보안성은 물론 고객 편의성을 갖춘 서비스들을 지속 강화해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>금감원 "금융사 IT사고 엄중조치... 노력 따라 정상참작 가능"</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004833520?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]김선웅 기자 = 8일 금융감독서울 여의도 금융감독원에서 직원들이 건물을 나가고 있다.이명순 금융감독원 수석부원장은 "기본적인 정보기술(IT)내부통제 사항을 소홀히 해 전산사고를 일으킨 금융사에 대해 엄중 조치할 것"이라면서도 "경영진의 관심과 전사적인 노력을 기울인 경우에는 정상 참작하겠다"고 27일 밝혔다.이 수석부원장은 이날 서울 여의도 소재 금감원 본원에서 15개 은행 부행장들과 'IT내부통제 운영현황 및 강화방안' 간담회를 열고 이같이 말했다. 간담회는 카카오 전산센터 화재사고를 비롯해 은행권의 전산장애가 연이어 발생해 IT내부통제 강화방안을 공유하고, 진전된 IT내부통제 체계를 갖출 것을 당부하기 위해 마련됐다. 그간 잇단 금융권의 IT사고로 금융사에 대한 신뢰성이 크게 훼손됐다는 지적이 나왔다.이 수석부원장은 디지털 기반의 전자금융서비스가 경쟁적으로 출시돼 비대면 거래가 급증하는 만큼 전자금융거래 시스템의 안전성이 무엇보다 중요하다고 강조했다.구체적 IT검사 방향도 언급했다. 이 수석부원장은 "전산사고로 대 고객 서비스가 3시간 이상 중단되면 즉각적으로 현장점검에 착수하고, 피해 소비자에 대한 안내와 보상이 제대로 이뤄지는지도 함께 살필 것"이라며 "금융사가 연계서비스를 운영하면 사전에 연계서비스 제공업체에 대한 IT위험평가를 실시하고 손해배상 조항을 추가하도록 해 안전성을 높일 것"이라고 언급했다. 이에 대해 KB국민은행은 내년까지 KB One 클라우드 멀티 AZ(Availability Zone)을 구축해 주 전산센터(김포)와 보조 전산센터(여의도)를 모두 활용할 수 있는 체계를 마련해 센터간 가용성을 확보하겠다고 밝혔다. IBK기업은행도 내년 상반기까지 전문가 정밀진단을 통해 은행 내 모든 시스템의 인프라 구성과 성능을 전수점검하겠다는 방침이다. 토스뱅크 역시 IT인프라 강화를 위해 내년 IT투자 예산을 올해(132억원)보다 약 2배 늘어난 245억원으로 편성하고, 최고기술경영자(CTO) 중심으로 IT내부통제 협의체도 신설하겠다는 계획이다.이외에도 참석자들은 모두 지속 가능한 금융서비스 제공을 최우선 가치로 삼고 IT내부통제 강화와 함께 IT거버넌스 전반에 걸친 혁신에 총력을 기울이겠다고 입을 모았다. 금감원은 금융사들의 IT내부통제에 관한 방향성과 취지에 대해 공감하며 IT내부통제가 실효성 있게 작동할 수 있도록 아낌없는 투자를 약속했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.12.25.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>내년부터 페이업체도 금감원에 상시분담금 낸다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004137449?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>1년 7개월 만에 제도 개선 마쳐P2P·밴사 등 면제 대상서 제외[서울경제] 금융 당국이 내년부터 카카오페이·네이버페이·토스 등과 같은 전자금융사업자, 밴(VAN·금융부가통신망)사, 온라인투자연계금융(P2P)업체로부터 상시 감독분담금을 걷는다. 지난해 5월 신규 업종 등장과 업종 간 점유율 변화 등을 반영한 금융감독원 분담금 제도 개선 작업에 착수한 지 1년 7개월 만이다.금감원은 감독분담금과 발행분담금, 한국은행 출연금 등을 운영 재원으로 한다. 이 중 감독분담금은 검사 대상 기관이 충당하는 돈으로 가장 큰 비중(2022년 총수입 대비 72%)을 차지한다. 금감원이 매년 3월 15일까지 분담액·산출근거·납부방법 등을 명시한 고지서를 발부하면 수검 기관들은 이를 3월 말, 5월 말, 7월 말, 10월 말까지 나눠내야 한다.그러나 2007년 이후 장기간 분담 기준이 사실상 바뀌지 않아 현실성이 떨어지고 형평성에 배치된다는 지적이 이어졌다. 이에 이번 개정은 ‘분담금 면제 대상 축소를 통한 수요자분담 원칙 구현’을 골자로 추진됐다. 신설 업종이라는 이유로 분담금 부과 대상에서 빠져 있던 P2P업체, 금융 재무제표 미분리로 징수액 산출이 어려웠던 전금업자, VAN사 등은 내년부터 상시분담금을 내야 한다. 반대급부로 필요 이상의 감독분담금을 떠안아왔던 금융지주·은행, 보험사·증권사 등은 다소 부담을 덜게 된다.금융 당국이 2020년 부과액을 기준으로 업권별 증감액을 추산한 결과 중대형 보험대리점(GA)은 23억 8000만 원, 전금업은 22억 2000만 원, VAN사는 12억 6000만 원 증가했다. 영업수익 30억 원 미만 회사를 제외한 1사당 부담액은 보험대리점 1934만 원, 전금업 3962만 원, VAN사 7001만 원 꼴이다. 금융 당국 관계자는 “금융회사별 부담액은 수익 규모 대비 감내 가능한 수준”이라며 “감독 수요가 미미해 상시분담금 적용이 불요한 해외송금업 등에 대해서는 건별분담금(건당 100만 원)을 적용해 납부 부담을 최소화한다”고 설명했다.한편 금융위원회는 이번 주 임시회의를 열고 내년도 금감원 예산안을 승인한다.자료 제공=강병원 더불어민주당 의원실·금융감독원</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>저축은행 vs 인뱅…불붙는 파킹통장 금리 경쟁</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000012564?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>OK저축은행 파킹통장 금리 5%대 상품 등장 토스뱅크 5000만원부터는 4% 금리 제공최근 인터넷전문은행들이 파킹통장 금리를 올리자 저축은행들도 단기자금 유치를 위한 파킹 통장 금리 인상에 나서고 있다. 시중은행의 예금 금리가 올라가면서 파킹통장 매력이 반감되는 듯 했지만, 금융당국의 압박으로 시중은행의 예금 금리 인상이 주춤해지면서 다시 파킹통장이 주목받고 있기 때문이다. ▷관련기사:'파킹통장'두고…인뱅·저축은행 경쟁 불 붙는다(6월 30일)파킹통장은 하루만 맡겨도 이자가 적용되고 별도 해지나 재가입 없이 예치금에 인상된 금리가 자동 적용된다. 따라서 예치금액과 기간, 입출금 횟수에 관계없이 약정이자를 받을 수 있는 이점이 있다.돈을 오래 묶어두고 싶지 않지만 이자를 한푼이라도 더 받고 싶은 소비자들에게 적합한 상품이다. 파킹통장도 기존 예적금과 마찬가지로 예금자보호법에 따라 최고 5000만원까지 보호된다.  27일 금융권에 따르면 OK저축은행은 지난 22일 파킹통장인 'OK세컨드통장'과 'OK읏통장' 최고금리를 연 4%로 올린 데 이어 최고 연 5%까지 이자를 주는 입출금통장 상품인 'OK읏백만통장Ⅱ'를 출시했다.  대신저축은행도 지난 15일부터 '더드리고입출금통장'의 2억원 이하 금액에 3.9% 금리를 제공하고 있다. 애큐온저축은행의 '머니쪼개기'와 하나저축은행의 '하이하나보통예금'은 각각 4%, 3.8% 금리를 제공한다. 최근 인터넷 전문은행이 잇달아 파킹통장 금리를 올리자 저축은행도 경쟁에 나선 것으로 풀이된다.이달초 인터넷전문은행인 토스뱅크가 파킹통장인 '토스뱅크통장'의 최고금리를 연 4%로 올렸다. 토스뱅크는 5000만원까지는 이전과 같은 연 2.3%를 적용하지만 5000만원이 넘는 금액은 연 4%를 제공한다. 케이뱅크도 지난 12일 파킹통장인 '플러스박스'의 금리를 기존 연 2.7%에서 연 3%로 인상한 바 있다.다만 모든 예치 금액에 대해 이 금리가 적용되는 건 아니다. 토스뱅크의 경우 통장에 1억원을 넣어두면 5000만원까지 연 2.3%, 나머지 5000만원에는 연 4% 금리가 적용된다. 만일 2억원을 예치 했다면  5000만원까지 동일하게 연 2.3%가 적용되고 남은 1억5000만원에 대해서 연 4% 금리가 적용된다.OK저축은행의 'OK읏백만통장Ⅱ'는 500만원까지는 최고 연 5% 금리를 제공하고 500만원 초과 5000만원까지는 연 4%의 금리를 적용한다. 대신저축은행의 경우 2억원 이하의 금액에는 3.9%, 2억원 이상의 금액에는 0.1%의 금리를 제공한다. 반면 애큐온저축은행의 '머니쪼개기', 하나저축은행의 '하이하나보통예금', 케이뱅크의 '플러스박스'의 경우 최대 가입 금액까지 동일한 금리를 제공한다.당분간 파킹통장의 금리 인상 경쟁은 계속될 전망이다. 저축은행 관계자는 "파킹통장의 경우 입출금이 자유롭기 때문에 0.1% 금리 인상에도 민감하다"며 "그렇다 보니 단기 자금을 유치하기 위해서는 인터넷전문은행이 금리를 인상하면 저축은행 또한 금리를 인상하는 금리 경쟁이 과열될 수밖에 없다."고 설명했다.시중은행은 이러한 파킹통장 금리 인상 경쟁에 별다른 대응을 하지 않을 것으로 예상된다. 시중은행의 경우 파킹통장은 집중 상품이 아니기 때문이다.시중은행 관계자는 "시중은행의 경우 은행채나 정기 예금 위주로 자금 조달을 하기 때문에 파킹통장보다는 머니마켓펀드(MMF), 정기 예금, 은행채 등에 집중하고 있다"며 "정기 예금이 하락세이긴 하지만 여전히 4%대를 유지하고 있기 때문에 파킹 통장 등으로 인해 일시적은 자금 이탈은 감수할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>"요즘 애들 카톡 안써요"…Z세대 '인스타' 대세</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001071906?sid=105</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Z세대가 가장 많이 설치한 앱은 '인스타그램', 밀레니얼세대와 X세대는 '카카오톡'으로 나타났다.NHN데이터는 안드로이드 이용자 2천800만 명의 앱 설치 데이터를 α(알파) 세대(0세∼12세), Z세대(13∼24세), 밀레니얼 세대(25∼44세), X세대(45∼59세)별로 분석한 결과를 16일 공개했다.이에 따르면 카카오톡은 α·밀레니얼·X세대를 통틀어 가장 많이 설치한 앱으로 나타났다. 유일하게 Z세대에서만 인스타그램·네이버에 이어 3위를 기록했다.엔터테인먼트 및 소셜미디어 앱으로 범주를 좁히면 Z·밀레니얼 세대는 인스타그램을 가장 많이 설치했고, X세대는 '밴드'를 가장 많이 이용했다.반면 α세대에서는 게임·메타버스 플랫폼 '로블록스'가 1위를 차지했고, 이어 '틱톡'과 '포켓몬 고' 순으로 나타났다.금융 앱은 '토스', 식품 앱은 '배달의민족'이 전 세대를 통틀어 설치율 1위로 나타났다.X세대의 경우 Z·밀레니얼 세대와 비교해 신용카드 관련 앱 설치율이 높게 나타났고, '포켓 CU'·'나만의냉장고'·'세븐일레븐' 등 편의점 앱은 α·Z세대에서 상위권에 들었다.특정 세대의 설치 비중이 높은 앱은 생애주기에 따른 생활 패턴 변화를 반영하고 있었다.저연령층인 α세대의 경우 무료 게임 앱이 높은 비중을 차지했다. 반면 청소년∼20대 초반인 Z세대는 '나라사랑포털'·'병무청 간편인증' 같은 병역 관련 앱, 가정통신문 앱 '아이엠스쿨 학생', 대학생 커뮤니티 '에브리타임' 설치율이 높았다.사회인 비중이 높은 밀레니얼 세대는 '280days', '열나요', '베이비타임' 등 임신·출산·육아 관련 앱이 1위부터 10위까지를 석권했고 중장년층인 X세대는 'SBS골프'·'JTBC골프'·'골프몬' 등 골프 관련 앱이 상위권을 기록했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.12.16~2022.12.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.12.16~2022.12.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>손태승 연임 또 경고한 당국…김주현 "중징계는 정부 뜻"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004135768?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[5차 규제혁신회의서 일침]핀테크 혁신펀드 1조로 증액하고연 2000억 이상 정책대출도 병행개인사업자 마이데이터 도입 검토금융위원회의 김주현(가운데) 위원장과 김소영(오른쪽) 부위원장, 이복현 금융감독원장이 20일 서울 중구 은행연합회에서 열린 금융규제혁신회의에 참석해 발언하고 있다. 사진 제공=금융위[서울경제] 김주현 금융위원장이 20일 ‘라임펀드’ 사태에 연루돼 중징계가 내려진 손태승 우리금융지주 회장에게 경고성 멘트를 날렸다. 이복현 금융감독원장이 지난달 10일 손 회장의 ‘현명한 판단’을 종용한 지 40일 만이다.김 위원장은 이날 서울 중구 은행연합회에서 열린 제5차 금융규제혁신회의 직후 기자들과 만나 “라임펀드 징계는 금융위가 수차례 회의를 거쳐 최고경영자(CEO)의 책임까지 물어야 한다고 결론내린 건”이라며 ‘정부의 뜻’임을 재강조했다. 최근 신한·NH농협 등 금융지주 회장들이 물갈이되고 있는 민감한 시기에 나온 말이어서 손 회장에게 ‘연임 시도를 멈추라’는 메시지를 재차 전달한 것으로 해석됐다. 문책경고를 받은 이후 ‘장고’에 들어간 손 회장의 연임 의지를 꺾기 위한 발언이라는 거다. 김 위원장은 “금융사 CEO들이 우호적인 세력만 (세워)놓고 이를 중심으로 (이사회를) 운영하는 것이 맞느냐”며 불편한 심기를 내비치기도 했다. 이는 우리금융지주가 16일 정기 이사회에서 손 회장 거취에 대해 내년 1월 이후에나 논의하겠다고 결정을 미루고 있는 걸 겨냥했다는 해석도 나온다.한편 금융위·금감원은 이날 금융규제혁신회의에서 민간위원, 금융협회장, 유관기관장, 연구기관 부원장 등과 디지털 혁신 분야 안건을 심의했다. 우선 핀테크 산업이 지속 가능한 성장 동력을 확보할 수 있도록 핀테크 혁신펀드 규모를 기존 5000억 원에서 1조 원으로 증액하고 연간 2000억 원 이상의 정책 대출·보증 공급도 병행하기로 했다. 아울러 기업CB(기술신용등급제공업·기술신용평가업) 진입 규제를 합리화하고 빅데이터 생태계의 인프라인 데이터전문기관 저변도 확대해 나갈 방침이다. 특히 개인사업자 데이터를 수집·관리해 맞춤형 서비스를 제공하는 ‘내 손 안의 경리’ 도입도 검토된다. 소비 패턴을 고려한 최적의 카드 추천 등 초개인화된 금융 서비스가 개인사업자에게 적용될 수 있는 길이 열리는 셈이다.이 외에 온투업 영업 여건 개선을 위한 광고 규제 완화 및 수수료 체계 개편을 추진하고 기관투자 활성화를 위한 제도 보완에도 나서기로 했다. 최근 그래프펀딩이 폐업을 선언하는 등 중소형업체들의 줄도산 우려가 커짐에 따라 대책 마련에 착수한 것이다. 소액 후불 결제에 대한 할부 거래도 허용해 금융 소외 계층의 편의성을 제고할 계획이다. 현재 네이버페이·카카오페이·토스 등이 제공하고 있는 소액 후불 결제에는 신용카드와 달리 이자가 발생하는 할부, 리볼빙, 현금 서비스 등이 엄격히 제한되고 있는데 일부 빗장을 풀어주자는 취지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>사기 의심 계좌 송금 '멈춰!'…핀테크가 은행보다 잘하네</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002277375?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>은행 자의적 지급 정지 요청 어려워…"고객 주의 필요"개인 간 중고 거래 시장이 급속도로 팽창해 사기 거래도 동반 상승하고 있는 가운데, 은행들도 고객 피해를 줄이기 위한 방안을 고안하고 있다.하지만 시중은행(KB국민은행·신한은행·하나은행·우리은행)에선 직접적으로 사기 의심 계좌 송금을 막는 솔루션을 도입하진 않은 것으로 나타났다. 반면 기업은행과 카카오뱅크나 간편송금 서비스로 사세를 불려온 토스·카카오페이가 관련 서비스를 더 잘 갖추고 있는 것으로 확인됐다.22일 은행업계에 따르면 개인 간 거래서 사기가 의심되거나 사기일 경우에도 전기통신금융사기법에 따라 은행이 직접 사기계좌에 대한 지급 정지가 어렵기 때문에, 사기 계좌 이체에 대한 고객 주의가 각별히 필요하다.(사진=이미지투데이)은행 관계자들은 "사기 거래로 의심되는 계좌를 은행 단독으로 조회해서 송금인에게 정보를 제공할 경우 개인 정보 위반에 해당될 수 있다"면서 "금융 사기는 전기통신금융사기법 중 은행이 지급 정지를 요청할 수 있는 항목이 아니기 때문에 은행이 자의적으로 결정하기 어려운 만큼 송금에 신중을 기해야 한다"고 말했다.은행이 단독적으로 지급 요청을 중지할 수 있는 사례는 보이스피싱이나 대출과 관련된 사기에 연루됐다는 증거가 있을 경우다.다만 은행들은 은행연합회 공동 전산시스템을 활용해 사고 계좌로 신고된 경우에는 영업점은 물론이고 모바일 채널에서도 해당 계좌로 이체할 수 없도록 보완하고 있다.이에 은행들은 첫 거래가 이뤄지는 이체에 관해 주목하고 있다. 수 년간 거래가 이어지지 않다가 갑작스럽게 이체를 요청할 경우 재차 송금인에게 확인을 요구하는 방식이다.■ 간편 송금 서비스들, 사기 의심계좌 조회 서비스 더 잘 갖춰KB국민은행은 최근 3개월 간 이뤄지지 않은 입금자에게 송금할 경우, 1천만원 이상 송금하는 경우에 대해 고객에게 확인을 요구하는 팝업을 띄웠으며, 내년 초 본격 시행할 예정이다.신한은행은 200만원 이하 송금 시 '최근 1년 간 송금하지 않은 계좌'임을 알리는 문구를 띄우고 고객 확인을 받고 있다. 또 보이스피싱, 파밍, 스미싱 등 피해를 방지하기 위해 사전에 지정한 입금 계좌로만 이체가 되는 서비스도 병행 중이다.카카오뱅크도 최근 입금된 거래 내역 중 실제 이체 금액과 다른 금액이 입금자명으로 적힌 내역이 있을 경우 환불 사기 등에 연루될 가능성을 알리며 고객 주의를 환기시키고 있다.은행보다는 간편송금 서비스로 사세를 불려온 토스나 카카오페이가 오히려 사기 의심 계좌 조회 서비스를 더 잘 갖추고 있는 것으로 나타났다.토스는 간편송금 시 이체 금액을 입력 후, 받는 사람의 정보를 입력하면 자동으로 수신자 계좌 혹은 연락처가 사기 의심 거래에 해당하는지를 확인할 수 있도록 한다. 송금을 위해 ‘보내기’ 버튼을 누르더라도 사기 의심 계좌나 연락처로 판명될 경우 송금 전 주의가 필요하다는 문구가 나온다.토스는 이상거래탐지시스템(FDS)팀이 자체 수집한 사기 계좌 데이터와 경찰청 사이버안전지킴이, 더치트 등을 활용하고 있다.카카오페이도 송금 계좌가 사기 계좌인지 확인할 수 있도록 조회 서비스를 제공 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>중저신용대출 목표 달성 비상…인터넷銀 건전성 곳곳 파열음</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000315263?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[앵커]인터넷은행은 애초에 출범할 때 대형 은행은 가기 어렵고 저축은행을 갈 정도는 아닌 중간 등급의 신용자를 위해 만들어졌습니다.그래서 중저신용자의 대출 비중 목표치가 있는데, 연말이 다가오면서 인터넷은행들이 이 목표치 달성에 바빠진 모습입니다.하지만 중저신용자 대출을 늘리면 건전성 문제가 불거질 수 있다는 우려도 나옵니다.최나리 기자, 상황을 보니까 대출에 아예 특판 상품을 내걸었더라고요.[기자]카카오뱅크가 오늘(21일)부터 연말까지 최저금리 4.45% 최대한도 1억 원의 ‘중신용대출 상품’을 특별판매합니다.카카오뱅크는 이번 특판에 대해 "금리가 급격히 올라 중저신용자 부담이 늘었다"며 취약계층의 금융 비용부담 완화에 도움이 되길 바란다고 설명했는데요.카카오뱅크는 대신 고신용자대출을 오늘부터 중단했습니다.중저신용 대출 비중 목표치 달성을 위해 관리에 나선 것으로 해석됩니다.[앵커]예금도 아니고 대출 특판이라니 특이한데, 올해가 며칠 남지 않았는데 목표달성이 가능할까요?[기자]카카오뱅크의 올해 중저신용 대출 비중 목표치 25%인데요.지난달까지 24%를 넘긴 것으로 확인됐습니다.1%p 미만으로 좁혀진 목표치 달성을 위해 고신용대출은 줄이고 중저신용 대출을 빠르게 확대하려는 전략으로 풀이됩니다.최근 토스뱅크와 케이뱅크도 목표치인 42%, 25%에 각각 근접했습니다.[앵커]하지만 최근 금리가 급격하게 오르고 있는데 건전성 관리는 어떻게 되고 있나요?[기자]인터넷은행은 시중은행에 비해 연체율이 3.55배 빠르게 늘고 있는데요.인터넷은행 3사의 3개월 이상 연체된 채권인 고정이하여신 비율은 작년 말 평균 0.26%에서 올해 3분기 말에는 0.43%로 악화됐습니다.올 3분기 카카오뱅크의 고정이하여신 잔액도 809억 원으로 1년 전보다 40% 증가했습니다.같은 기간 케이뱅크도 2배 가까이 늘었고, 작년 10월 출범한 토스뱅크는 누적 165억 원의 부실채권을 보유하고 있습니다.한국은행은 인터넷은행이 내년까지 중저신용자 대출 비중을 계획대로 높이면 2년 전 0.7%였던 연체율이 최대 2.2%까지, 3배 높아질 것으로 전망한 바 있습니다.SBS Biz 최나리입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.12.23.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>영혼까지 다 털린 MZ세대…주식·가상자산·부동산 믿을 놈 하나 없었다 [투자360]</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002082082?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>팬데믹 국면 유동성 기댔던 MZ세대…高금리·긴축에 역풍비상장株 시총 반토막…전체 거래층 절반 육박 MZ세대 한숨비트코인 64%↓…테라·루나 사태, 위믹스 상폐 등 첩첩산중‘영끌족’ 타깃 노도강 급락세…올 들어 영끌족 부동산 거래 급감‘단타’ 거래 이끌던 MZ세대들의 미술 컬렉터도 사라져[연합, 로이터][헤럴드경제=신동윤·윤호·박자연·이한빛 기자] 신종 코로나바이러스 감염증(코로나19) 팬데믹(세계적 대유행) 국면에서 ‘영끌 투자’에 나섰던 MZ세대(밀레니얼+Z세대)들이 역풍을 맞았다. 펜데믹발(發) 경제 위기를 피하기 위해 각국 정부가 천문학적인 돈을 시장에 풀며 넘쳐나게된 유동성 덕분에 달콤한 수익을 취했던 MZ세대들이 기록적인 인플레이션(물가 상승)에 대응하기 위한 각국의 ‘매파(긴축 선호)’ 정책으로 수익은 커녕 막대한 빚더미에 앉고 있기 때문이다. 고(高)금리 정책은 MZ세대의 자산 증식이란 꿈을 ‘일장춘몽(一場春夢)’으로 만들고 있는 것이다.MZ세대의 좌절이 심각한 것은 어느 한 분야에 국한된 것이 아니라 전방위적으로 벌어지고 있다는 점 때문이다 MZ세대 잔혹극은 주식 시장과 가상자산 시장은 물론이고 부동산, 미술 시장에까지 거의 모든 자산 시장에서 벌어지고 있다. 비상장株, ‘5분의 1’ 토막까지…가상자산 폭락에 눈물올해 기업공개(IPO) 시장에 불어닥친 한파의 영향으로 예비 상장 종목으로 꼽히는 비상장주(株)가 된서리를 맞은 가운데, 가장 큰 피해자가 MZ세대라는 분석이 나온다. 이들이 최근 비상장 주식 거래에 적극 나서며 ‘큰 손’으로 떠올라서다.23일 금융투자협회에 따르면 이날 기준 12월 K-OTC 시장의 시가총액은 약 18조3676억원으로 올해 최고치를 기록했던 지난 2월(약 34조4214억원)보다 48.5% 감소했다. 반 토막 수준으로 줄어든 셈이다. K-OTC는 금융투자협회에서 운영하는 제도권 비상장 주식 거래 시장이다.비상장 주식 거래소인 증권플러스 비상장의 시가총액 상위 10개 종목의 합산 추정 시가총액도 올해 1월 3일 기준 약 99조2695억원에서 이달 20일 기준 54조8525억원으로 44.7% 감소했다.[증권플러스 비상장 자료]주요 비상장사들의 연초 대비 주가 하락률을 살펴보면 간편결제 플랫폼 ‘토스’ 운영사인 비바리퍼블리카가 73.6%나 떨어졌고, IPO를 내년으로 미룬 케이뱅크와 컬리의 주가각 각각 45%, 74.1%씩 급하강했다. 이밖에 야놀자가 51.4%, 현대오일뱅크가 36.9% 수준의 주가 하락을 경험했다.비상장 주식 거래 서비스 이용 연령대를 살펴보면, 이번 주가 폭락의 가장 큰 피해자가 MZ세대라는 점은 더 분명해진다. 2020년 10월~2021년 10월 증권플러스 비상장 이용자의 연령대를 살펴보면 MZ세대가 43.78%로 다수다. 특히, 20대 투자자 비율은 2021년 5월 19.12%에서 2022년 1월 22.55%로 증가했다.비상장 주식 중 가장 낙폭이 큰 부분이 가상자산 거래소라는 점도 시사하는 바가 크다. 국내 최대 가상자산 거래소 ‘업비트’ 운영사인 두나무와 ‘빗썸’ 운영사인 빗썸코리아의 비상장 주가는 각각 77%, 81.8%나 하락했다.올해 테라·루나 사태, 세계적인 가상자산 거래소인 FTX 파산, 위메이드가 발행한 위믹스의 국내 닥사(DAXA) 거래소 상장폐지 등 가상자산 시장을 출렁이게 만드는 사건들이 연이어 발생했다. 코인마켓캡에 따르면 전체 가상자산 대장주 격인 비트코인 가격은 연초 4만7200달러에서 이날 1만6800달러로 무려 64%나 폭락했다. 알트코인(비트코인을 제외한 가상자산) 중 시가총액 비중이 가장 큰 이더리움 가격 역시 67% 하락했으며, 위믹스는 무려 96% 폭락했다.[게티이미지뱅크]MZ세대에겐 엎친데 덮친 격인 셈이다. 20·30 ‘영끌족’ 타깃 노도강의 몰락…‘단타’ 거래 싹 사라진 미술시장부동산 시장에선 20·30세대 ‘영끌족’의 비명 소리가 들린다. 이들의 주요 투자 대상이던 이른바 ‘노도강(노원·도봉·강북구)’ 지역의 집값 하락세가 어느 지역보다 가파르기 때문이다. 지난 22일 한국부동산원이 발표한 주간 아파트값 동향에 따르면 서울 노원구는 -1.34%, 도봉구는 -1.26%, 강북구는 –0.96% 각각 하락했다.올 들어 20·30 영끌족도 자취를 감추는 모양새다. 먼저 투자한 MZ세대 영끌족의 비극적 상황을 지켜본데다, 금리인상 여파로 주택담보대출이자가 올라갔고 집값 하락세가 장기간 이어질 수 있다는 불안감 때문이다.[게티이미지뱅크]최근 부동산정보 제공업체 경제만랩이 올 1~10월 한국부동산원의 연령별 주택 매입거래량을 분석한 결과, 30대 이하의 주택 매매거래량은 전체의 24.1%로 한국부동산원이 관련 통계를 작성하기 시작한 2019년 이래(1~10월 기준) 가장 낮은 비율을 기록했다.잔뜩 얼어 붙은 미술 시장도 MZ세대 투자자에겐 비극의 현장이다.최근 2~3년간 이어진 한국미술시장의 급성장세를 이끈 것으로 평가되는 MZ세대 컬렉터들의 ‘플리핑(Flipping)’도 일순간 사라졌다. 시장이 뜨거울 때 ‘단타’ 거래를 통해 자산 증식의 효과를 봤던 MZ세대들이 급랭한 시장 분위기 속에 산 가격 아래로 팔지 않으려는 분위기가 확산되며 거래에 나서고 있지 않고 있기 때문이다.플리핑은 작품을 사서 단기간에 이윤을 붙여 시장에 되파는 것을 의미한다. 거래가 활발하게 일어난다는 장점도 있지만, 동시에 미술품 가격의 거품을 부르는 문제로 늘 지적돼 왔다. 고금리에 유동성이 사라지자 ‘투기’의 대상이던 미술품 거래가 딱 끊어지게 됐다는 것이다.서울 한남동에서 프라이빗 딜러로 활동하는 A 씨는 “MZ세대 컬렉터 사이에서만 인기가 좋았던 젊은 작가들의 작품은 아무래도 (거래가) 어렵다”며 “관망으로 돌아선 시장에 가장 애가 타는건 최근 뛰어든 (MZ세대) 신규 컬렉터들일 것”이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>가상자산 빙하기에도 앱토스 디파이 예치금 ‘쑥’</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005197139?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>메타 출신이 만든 블록체인 이름값에 예치금 46% ↑FTX 사태로 직격탄 맞은 솔라나 예치금은 감소 메타(옛 페이스북) 출신들이 뭉쳐 만든 블록체인이라는 타이틀로 이목이 집중됐던 앱토스의 디파이(탈중앙화 금융·DeFi) 예치금 규모가 증가세를 보이고 있다. 글로벌 가상자산 거래소 FTX 파산 사태 이후 코인 시장이 빙하기를 맞으면서 다른 블록체인의 예치금 규모가 급감한 것과 대조적인 모습이다.27일 디파이 분석 플랫폼 디파이라마에 따르면 전날 기준 앱토스의 총 예치금은 5310만달러(약 678억원)로 집계됐다. 이는 지난달 초와 비교하면 47.42%, 이달 초 대비로는 30.01% 증가한 수치다. 이달 19일 처음으로 총 예치금 규모 5000만달러를 넘어섰다. 지난 26일 기준 전체 예치금 규모는 전일 대비 0.78% 줄어든 394억달러(약 50조3138억원)로 나타났다. 지난달 초 대비 27.96% 감소했다.앱토스 블록체인의 예치금 규모가 증가세를 보이는 것은 FTX 사태로 경쟁 블록체인 솔라나가 직격탄을 맞았기 때문으로 풀이된다. 여전히 솔라나의 예치금 규모가 앱토스보단 높은 수준이지만 감소세가 두드러진다. 지난달 초 9억6231만달러(약 1조2337억원)이던 예치금은 전날 기준 77.67% 감소해 2억1491만달러로 줄었다.앱토스는 '솔라나 킬러'라는 별칭을 가지고 있다. 앱토스는 프로그래밍 언어 무브를 통해 만들어졌는데, 이는 다시 러스트를 기반으로 하고 있다. 솔라나도 무브의 기반이 되는 러스트를 이용해 제작돼 앱토스 생태계로 솔라나 기반 디앱(DApp, 블록체인 애플리케이션)을 유치할 수 있을 것이라는 분석이 나왔다. 국내 거래소 업비트는 디지털자산 보고서를 통해 "경쟁 메인넷으로 지목되는 솔라나가 러스트를 채택하고 있어 앱토스 생태계로 솔라나 기반 디앱을 비교적 수월하게 유치할 수 있다"고 설명했다.앱토스 로고/이미지 출처=앱토스랩 트위터아울러 앱토스는 메타 출신 핵심 인력이 참여해 페이스북이 실패한 가상자산 시장으로의 진출을 꽤했다는 점에서 유명해졌다. 블록체인 유통 코인인 앱토스가 거래소에 상장되자 업비트에선 5일 연속 오름세를 보이기도 했다. 앱토스는 비트코인·이더리움 등 기존 레이어 1 블록체인이 가지고 있는 속도와 수수료 문제를 풀 수 있을 것이라는 기대도 받았다.FTX 위기로 밀접한 관계를 유지해온 솔라나의 인기가 사그라든 반사이익도 챙겼다. FTX의 창업자 샘 뱅크먼-프리드는 앞서 "가장 저평가된 코인은 솔라나(솔라나 블록체인 유통 가상자산)"라며 지지 의사를 내비쳤다. 또 솔라나 기반 디파이 프로젝트 세럼을, FTX 내에 솔라나와 이더리움으로 거래할 수 있는 대체불가토큰(NFT) 마켓플레이스를 만들기도 했다. FTX가 솔라나에 대규모 투자를 진행하고 지갑 보유 자산에서 솔라나 코인 비중이 절반 이상을 차지한다는 사실이 알려진 것도 타격이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>미국 치킨 브랜드 윙스탑, 내년 1월 강남 1호점 연다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000863177?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>전세계에 1800개의 매장을 가지고 있는 미국 치킨 브랜드 윙스탑은 내년 1월 강남에 첫번째 플래그십 레스토랑을 연다고 19일 밝혔다. 이를 시작으로 국내에 총 100개의 레스토랑을 열 계획이다.미국 치킨 브랜드 윙스탑./씨엔비 비브레        윙스탑은 대표 메뉴인 망고 하바네로, 루이지애나 럽, 레몬 페퍼 등 총 9가지 맛으로 한국 시장을 공략한 뒤 한국에서만 맛볼 수 있는 특별 메뉴를 선보일 계획이다. 윙스탑의 치킨 메뉴는 주문과 동시에 조리를 시작하고, 소스 앤 토스라고 부르는 시즈닝 작업을 통해 다양한 맛을 낸다. 사이드메뉴도 인기인데, 부두 프라이와 랜치 소스가 가장 대표적이다.서울 강남역 인근에 위치한 윙스탑 강남 1호점에서는 본토의 맛을 그대로 재현하기 위해 미국 달라스 본사에서 플레이버 엑스퍼트(맛 전문가)팀을 파견해 레시피 전수 교육을 하고 있다.윙스탑은 디지털과 배달 문화에 익숙한 한국 시장에서 다양한 마케팅 활동을 펼칠 계획이다. 한국 내 프렌차이즈와 마케팅은 씨엔비 비브레에서 담당한다.마이클 스킵워스 윙스탑 최고경영자(CEO)는 “전 세계에 다양한 맛과 풍미를 선보이는 것이 윙스탑의 목표”라며 “다른 국가에서 인기를 끌고 있는 것처럼 한국 시장에서도 윙스탑이 많은 사랑을 받을 것이라고 기대하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>인뱅은 연 4% 주는데…시중은행은 고작 1%, '파킹통장의 배신'</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002080769?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>하루만 돈 맡겨도 이자 제공연 4%대 금리 주는 ‘파킹통장’ 열풍에도예적금 금리 경쟁하던 시중은행은 잠잠“기대 수익에 비해 지출·위험 부담 큰 탓”서울 한 상호금융의 광고 현수막.[연합][헤럴드경제=김광우 기자] “토스뱅크는 연 4%라던데…시중은행은 1%, 왜?”하루만 돈을 맡겨도 이자를 받을 수 있는 ‘파킹통장’ 열풍이 계속되고 있다. 최근 인터넷은행들이 연 4%대까지 파킹통장 최고금리를 상향하는 등 여유자금 흡수 경쟁에 열을 올린 탓이다. 다만 적극적으로 예적금 금리를 인상하던 시중은행권에서는 관련 움직임이 포착되지 않고 있다. 굳이 파킹통장 경쟁의 비용 부담을 감수할 요인이 없다는 이유에서다.주요 시중은행 ‘파킹통장’ 금리 1~2%…한도 등 조건도 까다로워20일 금융권에 따르면 인터넷은행 토스뱅크는 지난 12일 파킹통장 상품인 ‘토스뱅크 통장’의 최고 금리를 연 4%로 상향했다. 기본금리는 2.3%지만, 5000만원 초과분에 대해 4% 금리를 적용한다는 것이 골자다. 금액 한도에는 제한이 없다. 케이뱅크 또한 최근 연 2.7%가 적용되는 파킹통장 ‘플러스박스’의 금리를 연 3%로 올리는 등 꾸준히 인상 추이를 유지하고 있다. 한도도 최대 3억원으로 높은 편이다.[토스뱅크 제공]그러나 시중은행에서는 별다른 변화가 없다. 이들의 주요 파킹통장 상품은 여전히 1~2%대의 금리를 제공하는 경우가 많다. KB국민은행의 파킹통장 ‘마이핏통장’의 경우 현재 연 최고 1.5%의 금리를 제공한다. 신한은행의 ‘헤이영 머니박스’는 연 최고 2.2%, 우리은행의 ‘우리WON뱅킹 통장’은 최고 1.0%의 금리가 적용된다.일부 3%대 이상의 최고금리가 적용되는 상품들도 존재한다. 그러나 금리 적용 한도가 낮아 비교적 큰 수익을 기대하기 힘들다. 하나은행의 ‘머니박스 통장’은 최대 연 3%의 금리가 적용되지만, 300만원까지만 해당 금리가 적용되며 나머지에는 0.1%의 금리가 적용된다. 최고 연 3%의 금리를 제공하는 NH농협은행의 ‘NH1934 우대통장’도 100만원 이하의 잔액에만 최고금리가 적용된다.“부담 감수할 요인 적다”…비용·위험 요인에 관망하는 시중은행인터넷은행들의 경우 현재 자금조달 및 고객 확보가 절실하다. 중금리 대출 목표치를 맞추는 과정에서 재무 건전성 지표가 하락하고 있기 때문이다. 또 은행채 발행을 하지 못하는 탓에, 수신을 통한 자금조달의 비중도 크다. 이에 시중의 여유 자금을 노리고 파킹통장 경쟁에 뛰어든 것이다. 그러나 이미 고객 기반이 확보된 시중은행들은 무리한 지출 및 위험 부담을 감수할 요인이 적다.서울 한 상호금융의 광고 현수막.[연합]무엇보다 지출 부담이 크다. 수시입출금식 예금의 경우 은행이 금리를 올리면 모든 잔액에 상향된 금리가 적용된다. 가입 시에 금리가 정해지는 예적금과 비교했을 때 금리 인상으로 인한 부담은 커질 수밖에 없다. 현재 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 요구불예금(수시 입출금통장) 잔액은 600조가 넘는다. 만약 금리를 인상한다면, 1%포인트 당 연간 6조원 이상의 막대한 추가 자금이 소요될 수 있다.예적금과 비교했을 때, 수익성 또한 확실치 않다. 파킹통장과 같은 수시입출금식 예금의 지급준비율은 7%로 정기 예적금(2%)에 비해 높은 편이다. 같은 1억원의 돈이 들어온다고 해도 700만원은 활용할 수 없다는 얘기다. 수신 자금을 융통해 이윤을 창출하는 은행의 특성상, 파킹통장을 통한 수신은 예적금에 비해 매력이 떨어질 수밖에 없다. 심지어 파킹통장의 경우 언제든 인출이 가능하기 때문에 자금 유출로 인한 건전성 위험도 작지 않다.사정이 이렇다 보니 시중은행의 파킹통장 금리 인상은 당분간 큰 진척이 없을 전망이다. 한 금융권 관계자는 “비교적 최근에 출범한 인터넷은행들의 경우 파킹통장을 선점해 수신 고객을 확보하고자 한다지만, 이미 예적금 등을 통한 자금 및 고객 기반이 충분한 시중은행들의 경우 큰 비용이나 위험 부담을 들여 경쟁에 뛰어들 요인이 아직 부족하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>티끌모아 커피… 직장인들 `짠테크` 열풍</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002775637?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>하루 1만보 걸으면 한달 4000원토스 '워킹 앱' 누적 400만명대네이버파이낸셜, 포인트 지급도금융업계, 연말연시 이벤트 인기고물가와 경기 둔화로 짠테크 열풍이 이어지는 가운데 금융사들의 서비스 경쟁이 활발해지고 있다. 케이뱅크의 행운상자 이벤트 사진. 케이뱅크 제공    40대 직장인 A씨는 출근길 지하철에서 각종 은행 앱을 돌며 '출석체크'에 나선다. 출근 후 자리에 앉은 뒤엔 일정 걸음 수를 충족하면 포인트를 주는 '워킹 앱'을 순회한다. 여가 시간에는 광고를 보거나 설문조사를 한뒤 주는 포인트를 받는다. 매달 이렇게 모은 포인트로 햄버거 세트, 커피를 구매하는 등 간식 비용을 충당한다.올해 기준금리 인상에 따른 대출 금리 상승, 급격한 물가 상승에 내년 경기 둔화 전망까지 나오면서 젊은 세대에 한때 유행했던 '짠테크', '앱테크'가 확산하는 모습이다.은행권과 핀테크는 금융플랫폼 경쟁력 강화를 위해 각종 이벤트와 서비스를 내놓으며 '짠테크' 인기를 활용하고 있다. 내년 1%대 경제성장률이 예상되는 만큼 금융소비자들은 다양한 이벤트와 경품 추첨 등에 높은 관심을 보일 전망이다.금융소비자들 사이에서 '워킹앱'은 짠테크의 '근본'으로 통한다. 토스의 만보기는 하루에 1만 걸음씩 한 달을 채우면 4000원 이상을 벌 수 있다. 토스 만보기는 지난 5월 기준 누적 사용자수 400만명을 돌파하기도 했다. 토스 앱 내 '혜택' 탭에 접속해 '걷기 미션'과 '방문 미션'을 통해 하루 최대 140원의 포인트를 받을 수 있다. 모은 포인트는 토스 앱을 통해 출금하거나 기프티콘을 구입해 쓸 수 있다. 토스 페이를 사용할 수 있는 7000여개 가맹점에서도 쓸 수 있다.웰컴저축은행 '웰뱅워킹'을 이용하면 일정 걸음수마다 계좌로 현금을 받을 수 있다. 5만보씩 총 20만보까지 4개의 구간에 나뉘어 지급된다. 각 구간을 달성할 때마다 500원이 지급되며 10만보가 초과되면 구간마다 500원이 추가로 지급된다. 한 달 동안 20만보 이상을 걸으면 최대 3000원까지 벌 수 있다.삼성금융네트웍스의 통합 앱 '모니모'도 걸음 수에 따라 포인트를 받을 수 있는 기능을 선보였다. 모니모 이용자는 걸음수에 따라 리워드 '젤리'를 받아 '모니머니'로 받을 수 있다. '모니머니'는 보험가입, 송금, 펀드투자 등에 현금처럼 사용할 수 있다.KB국민은행도 슈퍼앱 'KB스타뱅킹' 내 'KB매일걷기' 기능으로 매주 최대 600포인트리를 제공한다.소액 현금 이벤트도 인기가 높다. 인터넷 전문은행 케이뱅크는 친구에게 행운상자를 공유한 고객에게 20원에서 10만원까지 현금을 주는 이벤트를 운영 중이다. 신규 고객은 100개의 행운상자를 받을 수 있다.토스의 행운복권은 매일 당첨 기회를 주며 최소 5원에서 1000원까지 포인트를 받을 수 있다. 재물운, 애정운, 성공운 중 고르고 싶은 운을 고르면 글귀와 함께 포인트를 받는다.네이버파이낸셜이 제공하는 '네이버페이'는 다양한 포인트 이벤트로 사용자를 끌어모으고 있다. 특정 금융상품의 웹페이지를 접속하면 10원에서 15원의 포인트를 받을 수 있고 네이버 플랫폼 안에서 쇼핑 등에 자유롭게 이용할 수 있다.금융권 플랫폼 경쟁과 짠테크 열풍으로 이같은 포인트 이벤트는 더 성행할 것으로 보인다. 금융권 관계자는 "적은 비용으로 고객 모집과 금융서비스 홍보 효과를 낼 수 있어 연말연시, 명절, 기념일 등에도 이벤트를 진행할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>‘산 넘어 산’ 애플페이, 이 또한 현대카드의 ‘큰 그림’인가 [이코노 EYE]</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000036595?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>가맹점들이 알아서 NFC 단말기 설치 나서정태영 부회장의 장기집권에 과감한 결정 가능     정태영 현대카드 부회장. [사진 현대카드·현대커머셜 뉴스룸]    올해 여름부터 애플의 간편결제 서비스인 애플페이가 국내에 도입될 것이란 설이 돌았습니다. 이후 현대카드가 애플과 독점 계약을 맺었다는 소식이 전해지고, 지난 5일에는 금융감독원 약관심사를 통과하면서 애플페이 출시가 가시화됐습니다. 애플 및 아이폰 사용자들은 “이번엔 진짜다”라며 환호했습니다.    하지만 애플페이가 진짜 한국땅을 밟기 위해선 ‘넘어야 할 산’이 아직 남아 있습니다. 금융당국은 국내 결제정보를 국외로 이전 승인하는 애플페이 결제 방식인 EMV(유로페이·마스터카드·비자카드가 제정한 결제시장 표준)가 개인정보보호법과 신용정보법에 저촉되는지 살펴보고 있기 때문이죠. 국내 결제자들의 신용정보 유출 우려가 없는지 점검하겠다는 취지입니다.    그런데 이 부분은 크게 문제가 되지는 않을 듯합니다. 한 금융업계 관계자에 따르면 EMV 결제정보는 일회용 가상 카드번호를 생성하는 토큰화 기술로 처리되므로 보안적으로는 큰 문제가 없을 것이라 설명했습니다. 애플페이는 물론 삼성페이도 이 기술을 활용하고 있죠.    이보다 많이 지적되는 건 애플페이 오프라인 결제에서 사용되는 근거리무선통신(NFC) 단말기가 국내에 매우 부족하다는 점입니다. 업계에 따르면 현재 국내 신용카드 가맹점 약 300만개 중 NFC 단말기를 보유한 곳은 10% 남짓이라고 합니다.    현대카드는 NFC 단말기의 보급 확대를 위해 설치 비용을 책임지기로 한 것으로 알려졌습니다. 문제는 이 단말기 한 대 가격이 못해도 15만원 수준인데 전국 가맹점에 보급한다면 약 4000억원에 달하는 막대한 비용이 발생한다는 것입니다. 이 비용을 현대카드가 모두 지불하려 해도 난관이 있습니다. 리베이트(부당 보상금) 제공을 금지한 여신전문금융업법 위반이 될 수 있기 때문이죠.    이제까지 대다수 언론 기사와 전문가의 전망도 비슷합니다. 그러나 낮은 NFC 단말기 보급률은 현대카드에게 해결할 ‘과제’가 아닌 오히려 ‘전략’일 수 있다는 시각도 나옵니다. 현대카드가 아이폰 주 사용층인 2030세대를 노린 ‘니치(틈새) 마케팅’이라는 것입니다.      스마트폰 브랜드 한국갤럽 조사. [사진 한국갤럽]    지난해 한국갤럽 조사에 따르면 만 18~29세 아이폰 사용률은 52%로 과반이었습니다. 30대도 43%로 높은 수치를 보였죠. 현대카드와 애플의 계약 기간은 1년으로 알려져 있습니다. 언뜻 비교적 짧은 기간이라 생각되지만, 현대카드 입장에선 아이폰 주 이용층만 공략해도 나름 성공적인 결과라고 판단할 수 있는 겁니다.    이미 2030세대가 자주 방문하는 주요 카페나 편의점, 일부 프랜차이즈에는 NFC 단말기가 설치돼있거나 늘어나는 추세입니다. 뒤집어 말하면 2030세대가 굳이 NFC 단말기가 없는 지방의 노포(老鋪) 식당 같은 곳에서 애플페이를 사용하지 않는다는 것이죠.    실제 현대카드와 ‘이상동몽(異床同夢)’을 하는 기업들도 증가하고 있습니다. 최근 롯데하이마트는 NFC 단말기를 일부 매장에 설치한 것으로 알려졌습니다. 토스플레이스는 서울 시내 약 300개 가맹점에 NFC 결제 지원 단말기를 시범 보급했으며, NHN KCP는 홈페이지 매장용 키오스크 설명에서 ‘애플페이 사용 가능’ 문구를 넣었다 삭제하기도 했습니다.      지난 14일 애플페이 도입과 관련해 관계자가 유출한 메가커피 내부 문건. [사진 온라인 커뮤니티]    메가커피의 경우 한층 파격적(?)입니다. 이달 중 서울·경기 지역 약 1000개 매장에 약 20만원 상당의 NFC 단말기를 보급하기로 했습니다. 메가커피 본사가 애플페이 도입을 앞두고 전액 지원으로 6억원에 달하는 비용을 치르기로 한 것이죠. 메가커피 측은 “애플페이는 국내 시장 점유율 34%에 달하는 아이폰 유저들이 8년 간 기다려온 시스템”이라며 “결제 시스템 초기 도입으로 트렌드 선점을 통한 영(Young) 마케팅 및 온라인상 이슈 생성을 기대한다”고 설명했습니다.    이처럼 가맹점들이 알아서 NFC 단말기 설치에 나서주니 현대카드는 ‘손 안 대고 코 푼다’며 웃음을 짓고 있을지도 모르겠습니다.    업계에선 현대카드가 이처럼 다소 무모해 보이는 결정을 내릴 수 있는 건 정태영 현대카드 부회장의 장기집권이 한몫했다는 설명입니다. 카드업계 관계자는 “현대카드는 2~3년마다 사장이 교체되는 전문경영인 체제 카드사들과 태생부터 다르다”며 “다른 카드사들은 2030세대 마케팅을 적극적으로 하려 해도 당장 수익이 나지 않을뿐더러 임기 문제로 장기 프로젝트가 어렵기 때문에 좌절되기 쉽다”고 말했습니다.      지난 1월 현대카드와 넥슨의 업무협약을 계기로 정태영 현대카드 부회장과 이정헌 넥슨 대표가 기념 촬영을 하고 있는 모습. [사진 현대카드·현대커머셜 뉴스룸]    현대카드는 지난 2018년 삼성카드가 18년째 이어오던 코스트코 파트너십 계약을 선점해 10년 독점 계약을 맺은 바 있습니다. 당시만 해도 현대카드가 ‘무리수를 두는 것 아니냐’는 지적이 일었지만, 최근엔 충성 고객을 확보했다는 긍정적인 평가를 얻고 있습니다. 이 밖에도 무신사·넥슨·미래에셋증권 등과 손잡고 상업자 표시 신용카드(PLCC)를 출시해 니치 마켓을 꾸준히 노리고 있죠.    현대카드의 신용판매 실적 기준 점유율은 2019년 2분기 15.6%에서 올해 3분기 17.5%까지 뛰어올랐습니다. 2018년에 3위 자리를 내준 뒤 4년 만입니다. 과연 현대카드와 정 부회장의 애플페이 도입은 카드업계에 또 어떤 변화를 가져올 수 있을지 궁금해집니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>내년부터 P2P금융에 기관투자 가능... 규제 완화 효과는 미지수</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002293286?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>20일, 제5차 금융규제혁신회의 'P2P금융' 활성화 방안 내놓아'기관투자 및 개인 투자 한도 확대' 등 온투업계 '숙원' 풀려당국, 규제 완화하지만 주요 기관인 저축은행 등 반응은 '미온적' ◆…20일 서울 중구 은행연합회에서 김주현 금융위원장 주재로 열린 제5차 금융규제혁신회의에서 최근 자금난에 시달리고 있는 P2P업체에 대한 규제 완화가 논의됐다.［사진=금융위원회 제공］극심한 자금난에 시달리고 있는 온라인투자연계금융(P2P금융) 업계를 위해 금융위원회가 ‘기관투자 유치’ 및 ‘개인투자자의 투자 한도 확대’ 등 비상처방에 나선다.   금융위는 20일 김주현 금융위원장 주재로 제5차 금융규제혁신회의를 열고, P2P업체에 금융회사 투자 허용과 개인투자자의 투자한도 증액 등 4가지의 규제를 풀어 온투업계 활성화를 꾀하기로 했다.   이날 회의 마지막 안건으로 제시된 ‘디지털혁신분과 업권별 건의사항 검토’에서는 31건의 건의사항 중 온투업과 관련, 기관투자 활성화를 위한 제도 보완 추진 및 영업여건 개선을 위한 광고 규제 완화, 수수료 체계 개편 등을 논의한 바 있다.   최근 은행권으로의 자금 쏠림 현상 때문에 P2P업계가 극심한 자금난을 겪고 있는데다, 일부 업체가 폐업하는 등 어려움이 가중된 데 따른 규제 완화에 나선 것이다.   21일 금융권에 따르면, P2P업체에 대한 금융회사 등 ‘기관투자’가 허용된다. 기관투자 허용은 그간 P2P업권의 숙원사업이었다. '기관투자 유치'가 업권의 자금난 해소를 위한 마지막 보루인 것으로 해석된다.   금융당국은 최근 P2P 업계와의 간담회를 통해 규제 완화 필요성에 대해 어느 정도 공감대를 이룬 것으로 전해졌다. 하지만 가장 큰 문제는 온투업 상품에 기관투자자인 금융회사가 투자를 할 수 없도록 막혀 있는 점이다. 온투업법 자체는 금융회사 투자를 허용하고 있지만, 은행·저축은행 등 타 금융업권법과 충돌해 기관투자 유치가 사실상 불가능했기 때문이다.   금융위는 내년 1분기부터 각 온투업체의 차입자 개인식별정보를 투자하는 금융기관에 제공할 수 있도록 허용키로 했다.   개인투자자 연계 투자 규모도 확대된다. 현재 일반 개인투자자의 온투업 투자한도는 총 3000만원(부동산 상품 1000만원 이하)으로 제한돼 있다. 업계는 온투법 시행령이 정한 5000만원으로 한도 확대를 기대하고 있다. 규제 완화는 내년 상반기 중 진행될 예정이다.   카카오페이, 토스 등 외부 플랫폼을 통한 광고도 허용된다. 플랫폼의 P2P상품 비교 및 추천 서비스도 샌드박스를 통해 내년 1분기 중 추진된다.   이와 함께 온투업체들이 중앙기록관리기관인 금융결제원에 납부하는 수수료(신규대출금액의 최대 0.24%)도 내년 상반기 중 인하된다. 이 역시 온투업계가 그간 순수익률 대비 수수료 부담이 크다는 점을 들어 수수료 인하를 지속적으로 요구해왔다.   김 위원장은 이날 회의에서 “온라인투자연계금융업(P2P금융) 등 새롭게 출현한 금융서비스가 시장 안정성을 토대로 소비자 편익을 높일 수 있도록 규제개선 방안을 검토한다”고 밝혔다.   하지만 금융권에서는 P2P업계에 대한 규제 완화가 실제 효과로 연결되기에는 여전히 어려움이 많다는 점을 강조하면서 정착되기까지 상당한 시간이 걸릴 것으로 보고 있다. 특히 주요 기관투자자로 예상되는 저축은행 및 대부업체 등에서 적극적으로 나설 기미가 보이지 않고 있기 때문이다.   개인들의 투자금으로 개인에게 빌려주는 P2P금융(온라인투자연계금융업·온투업)은 모든 영업이 온라인에서 이루어진다. 현재 P2P금융업체들은 연 10~15% 금리로 1금융권과 2금융권 사이에서 중금리 대출 공급에 어느 정도 역할을 해 왔다고 평가받고 있다.   'P2P금융'은 금융수요자와 금융공급자(은행, 대부업체 등)를 온라인에서 만나게 중개해 준다는 뜻으로 'Peer-to-Peer'의 준말이다. 현재 금융위에 등록된 온투업체는 47개인 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.12.18.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[fn이사람] "동학개미 호평 받은 앱…해외주식 초보도 쉽게 쓸 것"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004943591?sid=102</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>김규빈 토스증권 프로덕트 헤드해외주식 관심 높은데 거래 불편매매·환전·번역 올인원 앱 만들어'주식 모으기·물타기 계산기' 각광신뢰할 수 있는 증권사 도약할 것  "MZ세대를 비롯해 초보부터 고수 투자자까지 모든 유저들이 커버 가능한 다양한 서비스와 상품을 제공하고 싶다."   김규빈 토스증권 프로덕트 헤드(사진)는 18일 파이낸셜뉴스와 만나 이같이 말했다.   지난해 3월 출범한 새내기 증권사 토스증권이 같은 해 12월 출시한 해외주식 거래서비스가 동학개미들의 호응을 얻고 있다. 지난 8월에는 출범 이후 첫 월간 흑자를 기록하기도 했다. 대내외적으로 변동성이 높은 국면에서 호실적을 낸 배경에는 해외주식 서비스가 일등공신으로 꼽힌다.   김 헤드는 "해외주식은 MZ세대들이 주목하는 새로운 시장"이라며 "기회가 많은 시장에서 기획 단계부터 해외주식의 기존 장단점 및 문제점 등 토스의 색깔을 입혀 개선한 것이 주효했다"고 설명했다.   통상 해외주식을 하려면 별도 앱을 따로 깔아야 하고, 영어가 쓰이다 보니 정보 접근성이 떨어지는 단점이 존재한다. 토스증권은 이 같은 불편함을 파악해 하나의 앱에서 매매와 환전, 영어 번역까지 가능한 서비스를 구현했다.   김 헤드는 "서비스 개시 6개월 만에 시장점유율이 10%를 넘었고, 매월 해외주식 거래 활성유저도 빠르게 성장하고 있다"며 "현재 미국주식 서비스를 제공하고 있고, 장기적으로 확대할 가능성도 있지만 단기적으로는 상품을 확장하는 것보다 유저의 연속성이나 서비스의 질적 부문를 보완할 것"이라고 전했다.   여기에 적금처럼 주식을 모으는 '주식 모으기 서비스', 해외주식 서비스와 함께 국내 최초 '해외주식 실시간 소수점 거래 서비스', 하락장 때 고객 니즈가 높은 '물타기 계산기' 등도 좋은 반응을 얻고 있다.   김 헤드는 "요즘 같은 장에서 매수·매도 타이밍을 잡기 힘든 만큼 고객 입장에서 생각한 서비스가 각광받고 있다"며 "주식 모으기 서비스의 경우 해외주식은 최소금액인 1000원부터 설정해 모을 수 있다"고 설명했다.   투자자 입장에서 생각한 '주식 모으기 서비스'는 출시 6개월이 지난 지금 누적 사용자 20만명이 찾는 효자서비스로 급부상했다.   이같이 차별화된 서비스와 성과의 이면엔 토스증권의 독특한 조직문화도 한몫했다. 토스증권은 다른 증권사와 달리 하나의 팀이 프로덕트 오너, 디자이너, 개발자, 애널리스트로 구분된다. 각 직군이 갖고 있는 고유의 의사결정 권한이 전문화된 맨파워 집단인 셈이다. 프로덕트 오너는 제품의 의사결정, 프로덕트 디자이너는 고객 입장에서 의사결정 권한, 개발자는 제품 개발을 구성하는 방식이다.   김 헤드는 "의사결정을 한 팀에서 하다 보니 제품을 굉장히 빠르게 개선하고, 의사결정이 빠른 장점이 있다"며 "올해 증권사의 기초체력과 내실 쌓기에 집중했다면 내년부터는 신뢰할 수 있는 증권사로 본격적인 도약을 할 것"이라고 강조했다.   토스증권은 올해 3·4분기 영업이익 22억원, 당기순이익 21억원의 실적을 냈다. 회사 출범 1년9개월 만에 이룬 성적이라 더욱 주목된다. 3·4분기 매출은 전분기 대비 40%, 전년동기 대비 1950% 불어난 492억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.12.30.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>두나무·토스 등 '유니콘' 몸값 70% 급락…엑싯한 VC는 잭팟!</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004834867?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>두나무 20조원, 야놀자 8조원, 비바리퍼블리카(토스) 9조원, 컬리 4조원최근 투자유치에서 인정 받은 국내 주요 '유니콘'(기업가치 1조원 이상 비상장 기업)의 기업가치다. 하지만 자금 경색이 지속되면서 천정부지로 치솟던 유니콘의 몸값도 반토막 이상 하락했다. 이에 벤처캐피탈(VC)들은 기업공개(IPO)가 아닌 장외시장을 통한 지분 매각으로 자금을 회수하고 있다. 올해 3분기까지 VC 회수 방법 중 매각 비중은 50.6%로 IPO 비중(25.6%)을 크게 앞지른 것으로 나타났다. 주로 조기에 투자한 VC들이 일찌감치 엑싯(자금회수)에 성공해 쏠쏠한 수익률을 올렸다. 30일 비상장 주식 거래 플랫폼 '서울거래 비상장'에 따르면 '두나무'의 기준가는 11만3500원을 기록하고 있다. 지난해 12월 31일 주당 42만2000원에 거래됐는데, 1년 사이에 76.9% 떨어졌다. 시가총액도 14조 6424억원에서 3조 9381억원으로 감소했다.두나무의 주요 주주인 에이티넘인베스트는 지난해에 이어 올해도 구주 일부를 매각했다. 내년 만기가 도래하는 펀드 유동화를 위한 것으로, 투자 원금 대비 최소 100배의 수익을 낸 것으로 전해진다. 스톤브릿지벤처스는 두나무 외 다른 유니콘의 구주 처분에 나섰다. 스톤브릿지벤처스는 두나무 구주 매각으로 100배 이상 수익을 냈으며, 직방 구주 매각을 통해선 5배 이상 성과를 거둔 것으로 알려졌다. VC는 아니지만 바른손도 지난해 주당 30만원에 취득한 두나무 지분 일부를 올해 1월 주당 46만원에 매각했다. 장외주가가 반토막 난 야놀자의 지분을 일찌감치 처분한 곳도 있다. 2017년 야놀자에 600억원을 투자한 스카이레이크인베스트먼트는 지난해 신규 투자자로 합류한 소프트뱅크 비전펀드에 일부 지분을 넘기며 원금 대비 9배가 넘는 수익을 얻었다.컬리의 구주 거래는 매우 활발하게 이뤄지는 중이다. 상장이 지연되자 VC업계에서 컬리에 대한 피로감도 상당한 분위기다. 지난해부터 DSC인베스트먼트와 미래에셋벤처투자 등 기존 재무적 투자자(FI)들은 보유한 컬리 지분 일부를 매각했다. SK네트웍스 등을 제외한 다수의 초기투자자들은 구주 일부를 처분한 것으로 알려졌다. 한 VC 업계 관계자는 "VC 심사역이라면 한 번씩은 마켓컬리 구주 거래를 검토할 정도로 손바뀜 거래가 잦다"며 "초기에 투자한 일부 VC들은 대기업이 이커머스 시장에 뛰어들면 컬리가 규모의 경제에서 밀릴 수밖에 없다고 판단해 일찌감치 자금을 회수한 곳도 있다"고 말했다. 올해는 리디와 직방 등 유니콘 기업의 손바뀜 거래도 있었다. 신한벤처투자는 보유한 리디 지분을 에이티넘인베스트먼트에 넘겼다. 투자 금액 15억원을 200억원으로 회수했다. 컴퍼니케이파트너스는 리디 지분 처분으로 약 16배의 수익을 올렸다.  펄어비스캐피탈도 2019년 투자한 직방 지분 전량을 지난 10월 처분했다. 펄어비스캐피탈은 당시 약 7000억원의 기업가치에 투자했는데, 이번에 약 2조원대에 지분을 매각했다. 최근 직방의 기업가치(2조5000억원)보다 낮지만 눈높이를 낮춰서라도 이익을 실현하는 편이 낫다고 판단한 것으로 분석된다. 투자업계 관계자는 "대다수 VC가 유동성을 확보하기 위해 투자금 일부를 조기에 회수하는 중"이라며 "초기 투자자들은 유니콘 기업가치가 하락해도 손익권에 있기 때문에 IPO까지 기다리기보단 구주 매각으로 실적을 올리고 있다"고 말했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>하나은행, 토스증권과 24시간 FX거래 관련 업무협약</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005388322?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>24시간 환율 제공 및 거래 서비스 제공[이데일리 전선형 기자] 하나은행은 지난 15일 오후 을지로 하나은행 본점에서 토스증권과 24시간 FX 거래를 위한 전략적 업무협약(MOU)를 체결했다고 밝혔다.FX 거래 관련 업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다.(사진=하나은행)이번 업무협약을 통해 하나은행은 토스증권과 △API를 통한 24시간 환율 제공 및 거래 서비스 제공 △FX시장의 성장과 효율성 제고를 위한 안정적 시스템 구축 △24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다.특히 하나은행은 토스증권에 오전 9시부터 오후 3시 30분까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공할 수 있게 됐다. 이에 따라 기존 시장가격과 차이가 있는 환율로 거래 했던 해외주식 투자자들에게도 실시간 환율 정보 제공이 가능해졌다. 남궁원 하나은행 경영기획그룹 부행장은 “토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다앙한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다”고 말했다. 한편, 하나은행은 2020년 5월, 영업점 방문 없이 비대면으로 실시간 현물환 및 선물환 거래를 체결할 수 있는 ‘HANA FX 트레이딩 시스템’ 론칭 이후, 지속적인  고도화를 통한 안정적인 운영으로 고객들의 만족을 얻고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>나이스디앤비 등 16곳 데이터 발전 기여 과기정통부 장관상</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002277115?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>20일 서울 파르나스에서 시상식...박윤규 차관 "규제환경 데이터 친화적으로 바꿔 나갈 것"과학기술정보통신부가 주최하고 한국데이터산업진흥원(원장 윤혜정)이 주관해 20일 열린 '2022년 데이터 진흥 주간' 행사에서 나이스디앤비(데이터 품질 대상 부문), 클라썸(데이터 바우처 부문), 티오더(데이터 스타즈&amp;글로벌 부문), 장노니머스(개인정보 가명 및 익명 처리기술 경진대회), 아이센스(데이터 개방 및 유통활성화 부문) 등 16개 기관·기업·개인이 과기정통부 장관상을 수상했다.'데이터 진흥 주간' 행사는 올해가 9회차인데 올해는 '데이터 톡톡 페스티벌'이라는 이름으로 시상식, 컨퍼런스 등이 열렸다. 시상식은 20일 오후 서울 지하철 삼성역 인근 파르나스 2층에서 개최됐다. 데이터 품질을 비롯해 ▲데이터 바우처 ▲데이터 스타즈&amp;글로벌 ▲개인정보 가명 및 익명 처리기술 경진대회 ▲데이터 개방 및 유통활성화 등 5개 부분으로 구분, 진행됐다.데이터 품질 부문에서는 국민건강보험공단과 나이스디앤비 두 곳이 과기정통부 장관상을, 또 식품안전정보원과 인터텍, 한림대학교 성심병원, 미디어채널 네 곳이 한국데이터산업진흥원장상을 각각 받았다.데이터 바우처 우수상은 클라썸, 시제, 캡토스, 피앤씨솔루션, 파인더스에잉이, 딥핑소스 여섯 곳이 과기정통부 장관상을, 룰루랩과 마크비전코리아, 셀라퓨틱스바이오 3곳이 한국데이터산업진흥원장을 수상했다.데이터스타즈&amp;글로벌 부문에서는 딥센트와 티오더가 과기정통부 장관상을, 코머신과 한터글로벌이 한국데이터산업진흥원장상을 받았다.개인정보 가명 및 익명 처리기술 경진대회 시상식도 이날 열렸다. 성동구 소재 회사에서 근무하는 20대 남자 개발자 4명과 장노니머스가 과기정통부 장관상을, re-id와 알감자들이 한국인터넷진흥원장상을 수상했다.또 데이터 개방 및 유통활성화에 기여한 유공자 표창에서는 애프앤가이드, 아이센스, 경찰대학 장광호, NIA 김시연 등 기업 두 곳과 기관 근무 두 명이 과기정통부 장관상을 받았다.올해 데이터산업 발전에 기여한 유공자 표창 시상식이 20일 박윤규 과기정통부 차관(맨 왼쪽)이 참석한 가운데 서울 파르나스에서 열렸다. .이날 과기정통부 장관상을 수여한 박윤규 과기정통부 차관은 지난 9월 우리 정부가 새로운 디지털 질서인 뉴욕 구상을 발표했고 그 후속 조치로 데이터 시장 두 배 향상 같은 대한민국 디지털 전략을 마련했다면서 "규제 환경을 데이터 친화적으로 바꿔나가겠다"고 밝혔다.박 차관은 올해 4월 시행된 데이터산업법에 따라 정부가 9월 국가데이터정책위원회를 설치하고 데이터 품질 인증, 가치 평가 등 데이터 산업 발전을 한층 더 촉진할 여러 새로운 제도를 마련하고 현장에 안착시키기 위해 노력하고 있다면서 "양질의 데이터를 확충 및 개방하고 안전하면서도 혁신을 촉진하는 데이터 활용 기반을 조성하겠다"고 강조했다.개회사를 한 윤혜정 한국데이터산업진흥원장은 "이번 시상식은 올해 대한민국 데이터 산업 생태계 발전에 핵심적인 역할을 한 주요 분야별 우수 성과를 축하하는 뜻깊은 자리"라면서 "데이터 가공과 유통, 활용 및 품질 개선을 통해 사회 전반의 디지털 전환에 큰 역할을 해 준 여러분들의 노력은 대한민국이 디지털 대변혁을 이끌어가는데 소중한 밑거름이 될 것"이라고 격려했다. 이어 윤 원장은 한국데이터산업진흥원이 데이터 전문기관으로써 데이터 비즈니스 분야 기업의 경쟁력을 높이고 국민의 행복한 삶을 위해 데이터를 잘 활용할 수 있는 인프라 조성과 인재양성 등 정부의 데이터산업 활성화 정책을 적극 지원하겠다고 덧붙였다.박윤규 과기정통부 차관이 환영사를 하고 있다.윤혜정 한국데이터산업진흥원장이 개회사를 하고 있다.이형칠 한국데이터산업협회장이 축사를 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>하나은행, 토스증권과 24시간 FX 거래 업무협약</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000862780?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>하나은행은 전날인 15일 서울 중구 을지로 하나은행 본점에서 토스증권과 24시간 외환(FX) 거래를 위한 전략적 업무협약(MOU)을 체결했다고 16일 밝혔다.업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다. /하나은행 제공        이번 업무협약을 통해 하나은행은 토스증권과 ▲API(응용프로그램 인터페이스)를 통한 24시간 환율 제공 및 거래 서비스 제공 ▲FX 시장의 성장과 효율성 제고를 위한 안정적 시스템 구축 ▲24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 상호 협력 하기로 했다.하나은행은 토스증권에 오전 9시부터 오후 3시 30분까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공한다. 기존 시장가격과 차이가 있는 환율로 거래 했던 해외주식 투자자들에게도 실시간 환율 정보를 제공할 수 있게 됐다.하나은행은 앞으로도 24시간 FX 거래 확대를 통해 비대면 FX 전자 플랫폼 시장을 선도해 나갈 예정이다.남궁원 하나은행 경영기획그룹 부행장은 “토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다앙한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>α·Z세대 '엔터테인먼트 앱' 인기...M·X세대 '생활 밀접형 앱' 선호</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002292967?sid=102</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>NHN데이터,  세대별 앱 설치 순위 발표'배달의 민족'·'토스' 모든 세대 설치수 1위 ◆…세대별 앱 선호도 순위 자료:NHN데이터 제공     NHN데이터가 앱 설치 빅데이터를 분석해 세대별 관심사 및 특징을 확인할 수 있는 세대별 앱 설치 순위를 발표했다.   16일 NHN데이터가 발표한 '세대별 앱 설치 순위'에 따르면 알파(α)세대·제트(Z)세대가 성향이 유사했고 M세대·X세대가 비슷한 성향의 앱을 이용하는 것으로 나타냈다. α세대와 Z세대는 게임·웹툰·음악 종류의 엔터테인먼트 앱 선호도가 높은 반면, M세대와 X세대는 교통·소비·은행 등의 생활 밀접 앱을 더 많이 설치한 것으로 조사됐다.   요즘 TV 방송이나 언론에서 MZ세대가 화두가 되고 있다. 보통 세대 분류는 특정세대를 묶어 알파벳으로 표현한다. 그들이 살았던 삶의 환경에 많은 변화가 있거나 그로 인해 가치관에 다양한 차이가 발생한 시점을 시대별로 나눈 것이다. 구체적으로 X세대(1970~1980년대 출생),M세대(1980~1994년 출생), Z세대(1995년~2009년 출생),α세대(2010년 이후 출생)로 구분된다.   이번 세대별 앱 설치 선호도 결과에서 세대별 성향은 특히 엔터테인먼트 부문에서 극명한 차이를 보였다. 엔터테인먼트 부문에서 α세대 설치 앱 1위는 기존 인스타그램과 페이스북을 제치고 메타버스 플랫폼 '로블록스'가 차지했다. 중국 중심의 비디오 플랫폼인 '틱톡'(2위)과 동영상 편집 플랫폼 '캡컷'(6위)도 10위권 내에 들면서 α세대의 선호도를 확인할 수 있었다.   Z세대는 인스타그램·페이스북·디스코드 등 엔터테인먼트 상위 10개의 앱 중 7개 앱이 양방향 플랫폼이 차지했다. 반면 X세대는 일방향 플랫폼인 유튜브뮤직·지니뮤직·멜론을 이용하는 것으로 확인됐다.    ◆…세대별 금융 앱 순위 자료:NHN데이터 제공     엔터테인먼트 앱과는 달리 금융 앱은 세대 간 큰 차이가 없는 것으로 나타났다. 다만 Z세대에서만 페이코(8위)가 순위권에 들었고 X세대의 경우 여전히 신용카드 앱이 상위권을 차지하고 있다.   식품 앱 부문에서는 α·Z세대의 필수품이 된 편의점 앱이 상위권을 차지해 눈길을 끌었다. GS25 '나만의 냉장고' CU '포켓 CU'가 각각 상위 10위 앱에 이름을 올렸다. '배달의 민족'은 모든 세대의 기본 앱으로 자리를 잡으면서 식품 앱 설치수 1위를 기록하는 기염을 토했다.    ◆…세대별 식품 앱 순위 자료:NHN데이터 제공     탈배달앱을 꾀하는 햄버거 앱의 약세도 두드러졌다. α·Z세대에서는 맥도날드와 버거킹이 모두 설치수 상위 10위 앱에 들었고 버거킹은 M세대와 X세대에서도 상위 10위에 올랐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>업계1위 현대캐피탈도 대출 축소…돈줄 더 마른다</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000316373?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[앵커] 저축은행과 카드사에 이어 캐피털사까지 2금융권 대출 한파가 계속되고 있습니다. 업계 1위 현대캐피탈도 당분간 일부 신규대출을 중단키로 했습니다. 오정인 기자, 구체적으로 어떤 대출이 중단된 건가요? [기자] 카카오페이나 토스 등 외부 플랫폼에서 신청하는 개인신용대출과 자동차담보대출입니다. 현대캐피탈 앱이나 홈페이지, ARS를 통한 신규대출만 가능한 상태입니다. 캐피털사나 카드사는 여신전문금융채권을 발행해 자금을 조달하는데요.이 여전채 금리가 올해 초 2.4% 수준이었는데 현재 5.7% 가까이 오른 상황입니다. 결국 자금조달 비용이 너무 커지다 보니 대출을 한시적으로 중단할 수밖에 없다는 게 업계 설명입니다. [앵커] 다른 캐피털 사들도 잇따라 대출을 축소하는 분위기죠? [기자] 그렇습니다. OK캐피탈과 웰컴캐피탈도 최근 외부 플랫폼을 통한 신규대출을 중단했습니다. 자사 플랫폼보다 외부를 통해 들어오는 신규대출 신청이 훨씬 많기 때문에 더 많은 물량을 조절하기 위한 조치인데요.특히 매년 연말이면 은행뿐만 아니라 모든 금융권 대출이 한시적으로 축소되는 요인도 작용했다는 분위기입니다. [앵커] 중저신용자들의 연말 연초 자금길이 꽉 막힌 건데, 내년이면 상황이 좀 달라질까요? [기자] 업계에서는 적어도 연초까진 이런 상황이 유지될 것으로 보고 있습니다. 2금융권 상황을 살펴보면요.현재 SBI와 웰컴 등 대형 저축은행도 일부 대출을 중단한 상태고요.카드사의 카드론도 한도 축소에 심사가 강화되면서 문턱이 더 높아졌습니다. 보통 새해가 시작되면 대출 공급이 확 풀리는 분위기가 있는데요.내년엔 추가 금리인상이 예고돼 있는 만큼 2금융 조달비용 상승도 불가피한 상황입니다. 이에 대해 업계 관계자는 "시장 상황에 따라 정상화 시점을 결정할 것"이라고 말했습니다. SBS Biz 오정인입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>흑해와 지중해 잇는 바닷길… 폭 700m 해협서 제국이 명멸했다</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003737123?sid=103</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>­[주강현의 해협의 문명사]보스포루스 해협보스포루스 해협 양옆으로 튀르키예 최대 도시이자 세계적 관광지인 이스탄불 시가지가 들어서 있는 모습. 이 해협을 통해 마르마라해가 흑해와 연결되고 유럽과 아시아가 만난다. /AP 연합뉴스										한국인이 가장 많이 찾는 ‘해협 관광지’는 보스포루스해협이다. 튀르키예 방문객 대부분이 이스탄불을 방문하며, 이스탄불의 핵심이 보스포루스해협이기 때문이다. 최단 폭이 서울 시내를 관류하는 한강(약 1㎞)보다도 좁은 700m다. 강처럼 흘러가지만 최대 수심이 110m에 달하므로 만만한 해협이 아니다. 거친 역사의 격랑을 안고서 동로마제국과 오스만제국 등이 해협에서 명멸해갔다.보스포루스 해협을 통하여 지중해의 마르마라해와 흑해가 연결된다. 동시에 유럽과 아시아가 해협에서 조우한다. 인구의 3분의 2는 역사·상업지구인 유럽지구, 3분의 1은 동쪽 아시아지구에 산다. 그런데 애써 아시아와 유럽을 구분하는 방식은 유럽 중심 사고이며, 그냥 해협이 가로막을 뿐 하나의 유라시아라고 보는 것이 정확하다는 생각이다. 이러한 인식은 늘상 튀르키예가 ‘유럽인가 아시아인가’라는 해묵은 정체성 논쟁과 연결되어 있다.보스포루스 해협 양옆으로 튀르키예 최대 도시이자 세계적 관광지인 이스탄불 시가지가 들어서 있는 모습. 이 해협을 통해 마르마라해가 흑해와 연결되고 유럽과 아시아가 만난다. /AP 연합뉴스										이스탄불은 기원전에 비잔티온(나중에 비잔티움)으로 건설된 이래로 문명의 십자로로 기능해왔다. 아나톨리아 반도를 거쳐온 실크로드의 마지막 종착역이다. 해협을 건너면 곧바로 로마로 들어간다. 반대로 로마제국에서 건너온 물산이 이스탄불을 거쳐 페르시아만의 바그다드와 바스라로 넘어가며, 거기에서 배에 실려 인도나 중국으로 갔다.동로마의 소멸은 흔히 ‘콘스탄티노플 최후의 날’로 묘사된다. 십자군전쟁 이래로 기독교도의 거친 공세가 훑고 지나간 터전이 이교도의 손에 의해 함락되는 최대의 사건이 벌어진 것이다. 기독교와 이슬람 세력이 한판 붙은 1453년의 공성전이 보스포루스해협에서 벌어졌다. 이후 정교회의 아야소피아가 이슬람 모스크로 개조된 것이 상징적 징표다. 오스만제국은 이슬람 세계의 중심으로 이스탄불에 뿌리내렸고, 동지중해는 물론이고 흑해도 제국의 판도 내로 접수되었다.콘스탄티노플의 최후가 비장했던 만큼 오스만제국의 최후도 비장했다. 제1차 세계대전에서 오스만이 패배하자 해협은 영국, 프랑스, 그리스 등 연합국의 손으로 넘어갔으며, 이른바 중동으로 나아가는 교두보로 활용되었다.보스포루스해협을 이스탄불 중심의 국지적 공간으로만 보아서는 안 된다. 해협은 내해인 마르마라해로 이어지고, 다시 다르다넬스해협을 통과하여 에게해로 연결된다. 다르다넬스해협은 고대 트로이가 있던 문명의 거점으로 ‘헬레의 바다’라는 뜻의 헬레스폰토스해협으로 불렸다. 트로이전쟁의 신화와 역사가 다르다넬스해협에 각인되어 있다. 다르다넬스해협도 최소 폭은 1.2㎞에 불과하며 서쪽의 유럽, 동쪽의 아시아를 연결한다. 아나톨리아 반도가 유럽 대륙과 2개의 해협을 통하여 조우한다. 흑해에서 보스포루스, 다르다넬스 두 개의 해협을 관통하여 에게해에 당도하는 것이다.해협은 여기서 끝나지 않는다. 북쪽으로 눈길을 돌리면 전혀 다른 역사가 펼쳐진다. 북쪽의 흑해는 케르치해협을 통하여 아조우해와 연결된다. 케르치해협은 한국인에게는 낯선 명칭이다. 케르치 동쪽은 러시아, 북쪽과 서쪽은 우크라이나와 크림반도와 면한다. 아조우해는 오스만제국의 관할에 있던 시절에는 ‘물고기해’로 불렸다. 우크라나이나-러시아 전쟁의 격전지가 모여 있는 곳이다.이스탄불 하기아 소피아 그랜드 모스크 전경. 뒤로 보스포루스 해협이 보인다. 동로마 제국 시절 성당으로 지어졌으나 오스만 제국시절 모스크로, 이후 1935년 박물관으로 사용되다, 2020년 에르도안 대통령의 지시로 다시 모스크로 사용되고 있다./게티이미지 코리아 										케르치해협 역시 보스포루스해협만큼이나 간격이 좁다. 여기에 놓은 케르치 대교(일명 크림대교)는 동쪽의 러시아 본토와 크림반도를 연결한다. 해협을 가로지르는 이 다리는 본디 1943년에 나치가 건설을 시작했지만 미완성으로 끝났다. 구소련 시절에도 끊임없이 해협을 이으려 노력하다가, 러시아가 크림을 점령한 이후 2018년에 다리를 놓았다. 우크라이나가 지난 10월 이 다리를 일부 폭파하여 상징성을 과시하기도 했다.아조우해가 오스만제국의 내해로 존재했을 당시, 슬라브의 백인 노예들이 흑해를 거쳐서 이스탄불로 팔려왔다. 오늘날 동유럽의 많은 나라에서 백인 노예가 이스탄불의 할렘까지 흘러온 것이다. 20세기에 소비에트가 성립되면서 우크라이나를 포함하여 북쪽은 전일적인 ‘소련의 바다’로 변했다. 그렇지만 이스탄불이 전략적으로 존재하는 한 흑해에서 지중해로 가는 뱃길은 쉽게 열리지 않았다. 소련이 해체되고 지금 우크라이나와 러시아가 아조우해와 흑해 연안에서 전쟁을 벌이는 상황은 새로운 문명의 부침이 해협에서 다시 시작되었다는 뜻이다.지구상에서 유일하게 3중 지중해가 3개의 해협으로 연결되는 전략적인 곳이다. 케르치-보스포루스-다르다넬스 3개의 해협이 아조우해-흑해-에게해를 연결한다. 단순하게 아시아와 유럽을 연결하는 동서 문명의 교차로를 뛰어넘어 북쪽의 흑해 문명권과 남쪽의 지중해 문명권을 연결하는 통로이기도 하다.튀르키예의 전략적 중요성은 아무리 강조해도 지나침이 없다. 러시아 함대가 보스포루스해협을 빠져나가려면 튀르키예의 감시와 규제를 받아야 한다. 목줄을 쥐고 있기 때문에 미국이 튀르키예를 함부로 대할 수 없는 이유이기도 하다. 오늘날 중국도 해협을 통과하여 흑해로 진입하려고 다양하게 노력하고 있는데 그들 역시 튀르키예의 눈치를 봐야 한다. 게다가 일대일로의 육지 노선 종착역의 하나는 결국은 아나톨리아 반도이고, 이스탄불을 배제하기 어렵다.여기처럼 해협과 내해가 삼중으로 연결되는 곳은 지구상에 없다. 3중의 해협과 세 바다의 운명적 만남은 전적으로 지구의 지질 변화라는 장기 지속의 산물이다. 간빙기에 빙하가 녹으면서 흑해와 아조우해가 만들어졌고, 해협도 탄생했다. 한창 전쟁 중인 아조우해는 수심이 얕아서 항해가 쉽지 않다. 수많은 물고기가 탄생하고 서식하는 보육장이기도 하다. 흑해에서 살아가는 많은 물고기를 키워내는 생명의 바다가 전쟁 때문에 죽음의 바다로 변하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>다시 불어나는 예대금리차...인터넷은행 3사 모두 확대</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005390808?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>토스뱅크 5.61%로 1위카카오·케이뱅크도 늘어나[이데일리 전선형 기자] 11월 은행들의 예대금리차가 소폭 상승했다. 특히 중저신용자 대출이 많았던 인터넷은행들과 지방은행들의 금리차가 대폭 확대됐다. ‘이자장사 은행’ 1위 불명예는 토스뱅크가 차지했다. 20일 은행연합회의 예대금리차 공시에 따르면 17개 은행(씨티은행, 산업은행 제외) 중 9개 은행의 예대금리차(정책서민금융 제외)가 확대됐다. 직전달만해도 17개 은행 중 예대금리차가 확대된 곳은 1곳에 불과했는데, 한달만에 숫자가 불어난 것이다. 시중은행에서는 유일하게 우리은행이, 인터넷은행은 카카오뱅크, 케이뱅크, 토스뱅크 등 3사 모두, 지방 및 외국계 은행에서는 제일은행, 경남은행, 대구은행, 광주은행, 전북은행의 예대금리차가 확대됐다. 예대금리차가 가장 컸던 곳은 토스뱅크였다. 지난달만해도 토스뱅크와 전북은행이 동일한 수치였지만, 11월 토스뱅크의 예대금리차 폭이 더 크게 확대되면서 1위를 차지했다. 토스뱅크의 11월 예대금리차는 전달대비 0.24%포인트 늘어난 5.61%포인트였으며, 지난 5개월간 중 가장 높은 수준을 보였다. 토스뱅크 외에도 카카오뱅크와 케이뱅크의 수치도 높았다. 카카오뱅크는 1.48%포인트를 기록하며 전달보다 0.37%포인트 늘었고, 케이뱅크도 2.28%포인트로 전달대비 0.71%포인트 확대됐다. 인터넷은행들의 경우 연말이 다가오면서 의무적으로 중ㆍ저신용자 대출을 늘려야 하는 등 높은 금리 대출이 늘어난 영향을 분석된다. 실제 인터넷은행 3사의 신용대츨 평균금리는 하반기 이후 무섭게 오르고 있다. 11월 인터넷전문은행 3사의 신용대출 평균 금리(서민금융 제외)는 토스뱅크가 연 8.82%, 카카오뱅크 연 8.30%, 케이뱅크 연 7.24% 수준이다. 전월과 비교하면 0.75~1.22%포인트 증가했다.지방은행들의 사정도 인터넷은행과 비슷했다. 전북은행의 경우 예대금리차가 전달대비 0.05%포인트 확대된 5.42%포인트를 기록했다. 전북은행은 토스뱅크에 이어 예대금리차가 가장 큰 2위 은행에 올랐다. 또한 광주은행도 예대금리차가 3.59%로 전달대비 0.13%포인트 확대됐다. 대구은행의 경우 전달대비 1.3%포인트 확대된 1.93%포인트를 기록했다. 대구은행은 11월 예대금리차 확대폭이 가장 큰 은행이었다. 시중은행들은 다소 안정적인 수치를 보였다. 시중은행 중 가장 예대금리차 폭이 컸던 곳은 농협은행으로 1.29%포인트로 나타났다. 전월(1.56%포인트)보다는 전달대비 0.27%포인트 감소했으나 5대 은행 중에서는 4개월째 1위였다. 우리은행의 경우 11월 예대금리차가 0.79%포인트로 시중은행 중 유일하게, 예대금리차가 상승했다. 전달보다 0.02%포인트 확대됐다. 이어 신한은행 0.72%포인트, 하나은행 0.65%포인트, KB국민은행 0.41%포인트 순으로 나타났다. 한 금융권 관계자는 “시중은행은 11월 예금금리를 경쟁적으로 올리면서 예대금리차 폭을 줄였지만, 인터넷은행이나 지방은행의 경우 중신용자 대출비중이 상대적으로 많기 때문에 예대금리차가 커진 것 같다”며 “특히 인터넷은행의 경우 담보대출보다 금리가 높은 신용대출 비중이 큰 점도 영향을 미쳤다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>“해외 IB들, 한국에 눈독… 성장산업서 앞서나가기 때문”</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003735992?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>신진욱 뱅크오브아메리카 한국 총괄대표 인터뷰							“글로벌 투자은행(IB)들이 한국을 주목하는 이유는 바이오, 2차전지 등 새로운 성장 동력 분야에서 한국 기업들이 앞서 나가고 있기 때문입니다.”각국이 동시다발적으로 기준금리를 인상하면서 세계 경제가 한 발 한 발 침체로 다가서고 있다. 침체로부터 상대적으로 안전한 시장, 성장세를 이어나갈 기업을 찾으려는 움직임이 분주하다.이런 측면에서 아시아 국가, 특히 한국과 대만이 내년에 가장 주목받을 것이라는 해외 투자은행들의 전망이 잇따르는 가운데, 신진욱(50) 뱅크오브아메리카(BofA) 한국 총괄대표도 최근 본지 인터뷰에서 이런 의견을 말했다. 신 대표는 2006년 메릴린치에 입사해 2009년 뱅크오브아메리카가 메릴린치를 합병하면서 17년간 BofA메릴린치에 몸담고 있다. 지난해 한국 총괄대표로 선임됐다.신진욱 뱅크오브아메리카(BofA) 한국 총괄대표는 본지와 인터뷰에서 "글로벌 투자은행(IB)들이 한국을 주목하는 이유는 바이오, 2차전지 등 새로운 성장 동력 분야에서 한국 기업들이 앞서 나가고 있기 때문"이라고 말했다. /고운호 기자 “한국 기업 성장 가능성 커… 내년 M&amp;A 시장 주목”							신 대표는 “올해 어려운 시장 상황에서도 글로벌 신용평가사들이 한국 기업들의 신용 등급을 조정하지 않았다”면서 “한국 기업이 발행한 외화채권도 여전히 글로벌 채권시장에서 잘 소화되고 있다”고 했다. 국내 주요 기업들의 펀더멘털(기초체력)이 아직은 훼손되지 않고 버티고 있다는 것이다.그러나 내년 상반기부터는 미국과 유럽 등 선진국부터 경기 침체에 진입할 것으로 예상된다는 점이 문제다. 선진국 경기 하강은 수출 비중이 높은 한국 경제에도 직격탄이다. 각 기관들이 비관적 전망을 내놓고 있는 반도체 경기는 내년 하반기부터 서서히 회복될 것으로, 또 중국 산업 생산도 내년 하반기부터는 차차 반등할 것으로 BofA는 보고 있다.‘제로(0) 코로나’ 정책을 포기한 중국 경제가 제 궤도에 올라설 수 있을지에 대한 불안한 시각이 상존하고 있는데, BofA는 내년 1월 설 연휴가 분기점이 될 것으로 보고 있다. 전 국민이 대이동하는 설 연휴에 코로나가 잘 관리된다면, 내년 상반기 중 소비가 살아나고 하반기에는 산업 생산도 고개를 들 것이라는 기대다. 신 대표는 “한국 기업들이 다가올 침체기에 얼마나 잘 대처하고 버티느냐에 따라 내년 기업 신용도 상황도 판가름이 날 것”이라고 했다.그는 해외 기관, 투자은행들은 긴 안목에서 한국 기업들이 두각을 나타내고 있는 신성장·친환경 산업 분야 자금 조달 시장이나 주식 발행, M&amp;A(인수·합병) 시장 등을 주목하고 있다고 했다. 성장하는 기업은 투자가 계속 필요할 것이고, 구조 조정에 나서는 기업들은 비(非)핵심 부문은 팔고 핵심 부문은 사들이는 M&amp;A 활동이 내년에 활발할 것이라고 전망했다. 최근 국내 M&amp;A 시장의 인수 금융도 고금리 여파로 위축됐다. 신 대표는 “인수 금융 시장도 내년부터는 점진적인 안정을 찾아갈 것”이라고 했다.투자은행 부문 점유율 1위 등극							뱅크오브아메리카는 미국 최대 소매은행이자 종합 금융그룹이지만, 미국 밖에서는 개인 대상 소매금융은 하지 않고 기업금융만 전문으로 한다. 세계 투자은행 중 JP모건에 이어 시가총액 2위(20일 기준 2582억달러)다. 한국에는 1967년 체이스맨해튼은행(현 JP모건체이스), 스탠다드차타드은행, 씨티은행 등과 함께 한국에 진출했다.미국 금융정보업체 딜로직에 따르면 올해 M&amp;A·인수금융·DCM(채권발행시장)·ECM(주식발행시장) 등을 합친 IB(투자은행) 부문에서 뱅크오브아메리카 서울지점이 씨티나 골드만삭스 등을 제치고 시장점유율 1위를 차지했다. 지난해 5위에서 4계단 도약한 것이다. 지난해에는 K뱅크나 토스 자금 조달을 주관했고, 올해는 최대 기업공개(IPO)로 기록된 LG에너지솔루션 공동 대표주관사 자리를 따냈다. 이 밖에 국내 사모펀드인 MBK파트너스의 두산공작기계 매각, 베인캐피털의 제약사 휴젤 매각, 산업은행의 대우건설 매각 등도 주관했다.신 대표는 ‘지속가능 금융’ 부문에서도 한국에 성장 가능성이 있다고 봤다. 그는 “올해 회사 아시아 본부가 발행을 주관한 아시아 전체 ESG(환경·사회·지배구조) 채권의 40%가 한국 기업이 발행한 물량일 정도로 ESG 관련 금융 사업이 활발하다”며 “이 부문에서도 한국이 두각을 나타낼 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인증 수단에 ‘모바일 OTP’ 추가</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002773917?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1회 1000만원·1일 5000만원 송금시 사용토스뱅크가 고액 송금시 모바일 OTP를 도입했다고 밝혔다. 토스뱅크 제공    토스뱅크는  '모바일 OTP(일회용 비밀번호)'를 고액 송금 추가 인증수단으로 도입했다고 21일 밝혔다.'모바일 OTP'는 고액송금 이용 고객의 인증수단 중 하나로 1회 1000만원, 1일 5000만원이 넘는 고액을 송금할 때 사용된다. 고객은 모바일 OTP를 통해 본인이 사용 중인 토스 앱 여부가 식별되면 실시간으로 변경되는 인증 데이터와 함께 안전한 환경 속에서 고액 송금을 할 수 있게 된다.토스뱅크는 현재 고액 송금 인증수단으로 △토스뱅크 카드 인증 △다른 은행 OTP △얼굴인증(셀피인증) 등을 운영하고 있다. 여기에 '모바일 OTP'까지 더해져 고객의 선택권과 편의성이 강화됐다는 설명이다.예를 들어 '토스뱅크 카드인증'을 선택한 고객이 체크카드를 보유하고 있지 않거나, 타행 OTP를 등록하지 않은 고객은 물론 셀피인증을 사용하는 고객도 모바일 OTP을 동시 등록할 수 있게 해 편의성을 더했다.토스뱅크의 모바일 OTP는 '단방향 무작위 코드 방식'을 사용했다. 네트워크가 없는 환경에서도 사용자 및 기기 식별과 인증이 가능한 코드가 생성된다. 특히 생성되는 코드는 다른 사용자와 절대 중복되지 않도록 해 강력한 보안성을 갖췄다.여기에 기기 변경, 앱 재설치, 핀(PIN) 반복 오입력 등의 상황에선 모바일 OTP를 해제시켜 안전성까지 확보했다. 모바일 OTP는 토스뱅크 설정에 들어가 인증수단을 클릭한 후 등록할 수 있다. 이후 모바일 OTP 등록 후 사용을 위한 6자리 핀(PIN) 번호를 새로 설정하면 된다. 해당 핀(PIN) 번호는 높은 보안성의 암호화 상태로 처리되며, 토스 인증서 등과 더불어 송금 과정 인증에 활용된다.한편 금융 소비자들은 1회 1억원, 1일 최대 5억원 이상의 고액을 송금·이체하기 위해서는 통상 은행 지점을 찾아야 했다. 하지만 토스뱅크에서는 임시증액을 신청하면 실명 확인 절차를 거쳐 1회 10억원, 1일 20억원까지 송금·이체가 가능하다. 단 임시한도는 신청한 날 하루 동안만 유지된다.토스뱅크 관계자는 "보안성은 물론 고객 편의성을 갖춘 서비스들을 지속 강화해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>내년 3월부터 카페·네파·토스 간편결제 수수료율 공시</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004833924?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>금감원 사옥내년 3월부터 카카오페이, 네이버파이낸셜, 토스 등 10개 전자금융업자(전금업자)가 간편결제 수수료율을 매반기 공시한다. 간편결제 수수료가 소상공인에게 큰 부담이 된다는 지적에 비교 공시를 통해 수수료율을 낮추기 위함이다. 금융감독원은 28일 '전금업자 수수료 구분관리 및 공시 등을 위한 가이드라인'을 발표했다. 전금업자의 간편결제 수수료율 비교 공시를 통해 수수료율 인하를 유도하기 위해서다. 그간 고금리·고환율·고물가 등으로 소상공인의 어려움이 커지는 가운데 이들이 전금업자에 내는 간편결제 수수료도 큰 부담 중 하나라는 지적이 있었다. 이에 금감원은 지난 5월부터 업계와 공동으로 태스크포스(TF)를 구성해 공시양식과 수수료 구분기준 등의 논의를 시작했다.논의 결과 수수료는 결제수수료와 기타수수료(일반 상거래 서비스 관련)로 구분해 공시하기로 했다. 결제수수료는 결제서비스와 직접 관련된 수수료로 결제원천사(카드사) 수수료와 결제대행(PG), 선불결제 수수료가 포함된다. 기타수수료는 총 수수료 중 결제수수료를 제외한 수수료로 호스팅 수수료, 오픈마켓 입점과 프로모션 수수료 등으로 구성된다.공시대상 업체는 카카오페이, 네이버파이낸셜, 토스 등 월평균 간편결제 거래규모가 1000억원을 넘는 10개 전금업자다. 이들은 각사 홈페이지에 매반기 결제수수료율을 공시해야 한다. 최초 공시자료는 자료의 적정성과 정확성을 담보하기 위해 회계법인의 확인을 받아 공시하기로 했다.전금업자의 간편결제 수수료율 공시로 금감원은 수수료 체계가 더욱 투명해질 것으로 기대하고 있다. 업체간 자율적인 경쟁이 촉진돼 수수료율이 일정 부분 인하할 것으로도 내다보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>알뜰폰 마케팅, 현상유지냐 공격영업이냐</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004135748?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>통신3사 대응전략 '동상이몽'KT·LGU+는 마케팅 적극적통합포털·가입상담 등 서비스알뜰폰 자사망 공급 확대 노려SKT, 본사 가입자 유지 주력5G 등 기존 요금 인하로 맞불정부 도매대가 협상 쉽잖을듯[서울경제] 정부가 가계 통신비 인하를 위한 알뜰폰 관련 정책을 검토하는 가운데 통신 3사가 동상이몽을 그리고 있다. 이동통신 1위 SK텔레콤은 알뜰폰 진흥보다는 중간요금제·온라인전용요금제 개편으로 기존 가입자 유지에 집중하는 반면, KT와 LG유플러스는 적극적인 알뜰폰 마케팅에 나서는 중이다. 과학기술정보통신부는 알뜰폰을 활용한 통신비 인하에 적극적이여서, SK텔레콤과 진행 중인 알뜰폰 도매대가 협상에 진통이 예상된다.20일 업계에 따르면 과기정통부는 SK텔레콤과 알뜰폰 도매대가 인하 협상을 벌이고 있다. 협상은 마무리 단계로, 이르면 오는 22일 알뜰폰 관련 정책이 발표될 전망이다. 정부의 입장은 확고하다. 알뜰폰 활성화로 가계통신비를 줄이겠다는 것이다. 19일 박윤규 과기정통부 제2차관은 “알뜰폰 시장 규모가 성장하고 있는 만큼 경쟁력을 가질 수 있도록 국민 가계통신비 인하 측면에서 제도적인 여견 마련을 추진하고 있다”고 밝히기도 했다.통신 사업자들의 입장은 갈리고 있다. SK텔레콤과 달리 KT와 LG유플러스는 알뜰폰에 적극적이다.KT는 이날 알뜰폰 서비스 채널인 ‘마이알뜰폰’ 개편에 나섰다. 마이알뜰폰은 KT 망을 이용하는 알뜰폰 사업자들의 통합 포털 역할을 한다. 이번 개편으로 셀프개통, 요금제 변경, e심(이심) 개통 등 알뜰폰 사용자를 위한 기능들을 추가했다. KT는 “중소 알뜰폰 사업자들의 서비스 인프라 확대를 돕고 알뜰폰 소비자들의 편의 증대를 위해 개편했다”며 “3개 사부터 시작해 KT망을 이용하는 24개 사업자로 적용 대상을 확대하겠다”고 설명했다.가장 적극적인 사업자는 이동통신 3위인 LG유플러스다. LG유플러스는 지난 6월 자사 망을 사용하는 알뜰폰 사업자들을 위한 '+알파' 브랜드를 선보였다. 2년 이상 가입자에게 혜택을 주고 LG유플러스 매장에서 가입상담, 요금제 변경 등을 지원해주는 등 알뜰폰 사용자들을 LG유플러스 가입자와 동등하게 대우한다. LG유플러스는 내년 초 알뜰폰 사업에 본격 진입할 것으로 알려진 토스에도 구애를 보내고 있다. 이달 중순에는 토스 운영사 비바리퍼블리카의 대표 이승건을 초청해 LG계열사 임직원을 대상으로 강연을 진행하기도 했다. 토스 알뜰폰 사업에 LG유플러스 망을 대거 공급하기 위한 움직임으로 보인다.앞서 국민은행이 선보인 알뜰폰 서비스 ‘KB리브엠’도 LG유플러스의 알뜰폰 대형 고객사다. 김영식 국민의힘 의원실에 따르면 올 10월 말 기준 리브엠의 LG유플러스 망 이용자는 32만 8194명, KT 망은 2897명, SK텔레콤 망은 464명인 것으로 나타났다.반면 SK텔레콤은 알뜰폰 사업 확장에는 상대적으로 적극적인 모습을 보이지 않고 있다. 이동통신 1위인 만큼 수익성 높은 5G를 비롯한 본사 가입자를 지켜내는 것이 더 유리하기 때문이다. 이에 SK텔레콤은 선제적으로 5G 중간요금제를 내놓고 온라인 전용 요금제를 개편하는 등 기존 가입자를 위한 정책을 선보이고 있다. 정부가 요구하는 가계통신비 인하에 알뜰폰 진흥 대신 기존 가입자 요금 인하로 대처하는 방식이다.다만 SK텔레콤도 알뜰폰 관련 정책을 아예 외면하는 데에는 한계가 있을 것이라는 관측이 지배적이다. SK텔레콤은 이동통신 시장지배적 사업자로 KT·LG유플러스와 달리 도매대가 제공 의무가 있는 탓이다. 업계 한 관계자는 “과기정통부도 통신비 인하에 대한 의지가 확고한 만큼 도매대가 인하를 피하긴 힘들 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>금리 상승에 주택담보대출 차주 DSR, 60%로 급등···‘40% 규제’ 무색</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003195141?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>지난 21일 서울의 한 아파트가 내려다 보이고 있다.  연합뉴스대출금리가 오르면서 과거 주택담보대출을 받았던 차주(대출받은 사람)의 총부채원리금상환비율(DSR·연 소득 대비 연 원리금 상환액)이 평균 60%를 돌파했다. 금융당국이 ‘갚을 수 있는 만큼 대출받는 관행을 정착시킨다’는 취지로 DSR 40% 규제를 시행하고 있으나, 금리가 상승해 규제가 무색해졌다.26일 한국은행의 가계부채 데이터베이스(DB) 분석 결과를 보면 주택담보대출 차주의 평균 DSR은 지난 3분기 60.6%로, 2019년 1분기(60.2%) 이후 3년 6개월 만에 60% 선을 넘어섰다. 주택담보대출이 있는 차주는 연 소득의 60% 이상을 대출 상환에 쓰고 있다는 뜻이다.대출받을 때는 당국의 DSR 40% 규제에 따라 대출 한도가 결정된 차주도 그 후 금리가 올라 이자가 늘면서 DSR이 증가한 것으로 풀이된다.주택담보대출과 신용대출을 모두 보유한 차주의 DSR은 주택담보대출만 있는 차주에 비해 더 많이 증가했다. 한은에 따르면 주택담보대출과 신용대출 차주의 DSR은 지난해 6월 64.6%에서 올해 10월 70%로 점차 증가했다.일반적으로 DSR이 70%를 넘는 차주는 소득에서 최저생계비를 제외하면 월 원리금을 제대로 갚지 못하는 것으로 평가된다. 특히 3개 이상 금융회사에서 대출받은 다중채무자, 저소득자, 저신용자 등 취약차주의 상환 부담이 커졌을 것으로 보인다.한은에 따르면 전체 가계대출 차주 중 취약차주 비중은 지난 9월 말 6.32%다. 한은은 “향후 대내외 여건이 악화하면 과거와 같이 취약차주 비중이 8%를 웃돌 여지가 있다”고 말했다.저축은행, 캐피탈 등 2금융권이 플랫폼을 통한 대출 영업을 한시적으로 중단하면서, 취약차주는 생활비 목적의 대출을 새로 받는 것도 어려워졌다.연합뉴스에 따르면 토스의 대출 비교 서비스에 입점한 금융사 52곳 중 22곳이 올해 연말까지 대출 조회 결과를 제공하지 않고 있다. 이들은 일반 신용대출뿐만 아니라 햇살론 등 정책서민금융상품도 플랫폼에서 취급하지 않는다. 당국이 부여한 대출 총량이 거의 다 차 신규 대출을 실행할 여력이 없어서다.금리 상승은 코로나19 대유행(팬데믹) 이후 매출 회복이 지연되고 있는 자영업자에게도 상당한 부담이 되고 있다.국회 산업통상자원중소벤처기업위원회 소속 김회재 더불어민주당 의원이 한국은행에서 받은 ‘자영업자의 대출금리 상승에 따른 이자 부담 변동 규모’ 자료를 보면, 대출금리가 1%포인트 오를 때 자영업자의 이자 부담은 7조4000억원 증가하는 것으로 나타났다.자영업자 대출 잔액은 지난 3분기 말 1014조2000억원으로 이 중 사업자 대출이 665조1000억원, 가계대출이 349조원이다. 자영업자 대출 잔액은 팬데믹 이전인 2019년 말보다 329조3000억원(48.1%) 증가했다.한국은행이 내년 기준금리를 추가 인상할 것으로 전망돼 차주(대출받은 사람)의 이자 부담은 더 커질 것으로 예상된다. 정부가 다섯 차례 연장한 소상공인·자영업자 대출 만기 연장, 상환 유예 조치를 점차 중단한다면 취약차주를 중심으로 부실이 확대될 것으로 우려된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>"中리오프닝 반갑네"…기대 키우는 화장품·스마트폰株 [株머니 주요산업 증시기상도]</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005064185?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>車, 내년 침체 현실화땐 모멘텀 둔화벌크선운임 강세…컨테이너선은 하락철강가격 국내외 도미노 인상 전망중국이 위드 코로나로 전환 중이지만 코로나19가 급속도로 확산되며, 재차 불확실성이 확대되고 있다. 최근 2개월간 물가상승률 둔화와 경기침체 우려에도 불구하고 미국 연준이 당분간 추가적인 기준금리 인상을 단행할 것이며, 금리 인상이 끝난 뒤에도 상당 기간 높은 수준의 기준금리를 지속할 것이라는 소식에 미국 증시도 하락세를 이어가는 모습이다. 연말을 맞이해 모멘텀 공백이 예상되는 가운데 미국의 인플레이션 감축법 시행령과 한국의 2023년 경제정책 방향 등을 주목해야 할 것으로 보인다. ◆ 휴대폰글로벌 테크 업체들의 주가는 대체로 부진했다. 중국 리오프닝과 미국 소매판매 부진 등이 혼재하고 있으며, 국내외 모두 전기전자업종 주가는 소강상태가 지속되고 있다. 코로나19로 인한 중국 봉쇄로 스마트폰 출하 및 판매가 부진했는데, 중국 리오프닝으로 스마트폰 수요 회복에 대한 기대감이 있다. ◆ 은행높은 물가 수준과 글로벌 중앙은행의 매파적 기조에도 순이자마진은 내년 상반기에 정점일 가능성이 높고 가계대출 성장률 둔화 추세도 이어지고 있다. 여기에 금리에 후행하는 대손비용도 부담이다. 감익까지는 아니지만 실적 모멘텀은 크지 않을 전망이다. 하지만 주주가치 제고를 위한 주주환원정책 확대 기조는 이어질 것으로 예상된다. ◆ 자동차2023년 포스트 코로나19를 맞이하며 자동차산업은 경기 둔화로 인한 수요 감소와 영업 현금 창출 능력 악화 가능성과 함께 금리 상승에 따른 유동성 위축이 우려되고 있다. 공급 차질로 대기수요의 기저효과가 2023년 하반기에 둔화될 전망이며 경기침체와 함께 이익 모멘텀이 둔화될 전망이다. ◆ 해운발틱운임지수(BDI)는 1560으로 전주 대비 13% 상승하고 있는데 활동성 증가로 벌크선 운임이 강세다. 탱커 평균 수익은 전주 대비 3% 하락했으나, 초대형원유운반선(VLCC)은 중국향 운임 반등으로 3% 반등하고 있다. LNG선 단기 운임은 16% 하락 중이며, 컨테이너 운임(SCFI 기준)은 1.3% 하락하면서 1123달러를 기록하고 있다. 운임 하락세가 이어지고 있다. ◆ 통신서비스KB국민은행, 토스 외 시중은행 및 금융사들도 알뜰폰 서비스 관련 사업을 검토 중이라고 한다. 다수 금융사들은 알뜰폰 서비스를 운영함으로써 금융 정보에 통신 정보를 더해 금융, 통신 복합 상품을 설계 운영할 수 있다는 점에 주목하고 있는 것으로 보인다. ◆ 철강중국 철강시장은 방역정책 완화 이후 코로나19 확진자 급증에 철강선물가격이 7주 만에 약보합세로 전환되며 최근 상승세가 다소 주춤해진 가운데 바오산강철 등 주요 철강사들의 가격 인상 발표로 유통가격은 상승세가 지속되고 있다. 포스코도 1월 열연강판 5만원 인상을 발표하며 국내외 철강가격 인상 확산이 전망된다. ◆ 화장품중국 리오프닝 기대감이 한껏 상승하면서 화장품 대형주들에 대한 관심이 집중됐고, 이후 원부자재 생산 기업이나 중소 브랜드사들에도 관심이 확산되는 추세다. 특히 색조화장품 시장에서 꾸준하게 브랜드 에퀴티를 키워왔던 클리오와 아이패밀리에스씨가 3분기에 이어 4분기에도 안정적인 실적 성장세를 보일 것으로 예상된다. [황성수 매일경제TV 주머니 매니저]※ 산업·기업별 실시간 탐방 속보와 상세 자료는 매일경제TV 주식 앱 '주머니'에서 무료로 확인 가능합니다. 플레이스토어 검색창에서 '주머니'를 검색하세요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>은행권 예대금리차 확대…5대銀 중 농협 4개월째 '최고'</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002668626?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>우리·신한·하나·국민 순인뱅 3사 모두 격차 커져5대 은행. ⓒ각 사.[데일리안 = 김효숙 기자] 국내 5대 은행 가운데 지난 달 대출 금리에서 예·적금 이자율을 뺀 예대금리차가 가장 큰 곳은 NH농협은행으로 나타났다. 다만 금융당국의 수신금리 자제 권고로 축소 흐름을 보이던 다수 은행들의 예대금리차가 다시 커진 것으로 나타났다.20일 은행연합회 '예대금리차 비교' 공시에 따르면 올해 11월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 제외한 농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.29%포인트(p)로 집계됐다. 전월(1.56%p)보다는 예대금리차가 축소됐으나 5대 은행 중에서는 4개월째 1위를 차지했다.그 다음 ▲우리은행 0.79% ▲신한은행 0.72% ▲하나은행 0.65% ▲KB국민은행 0.41%순서였다. 하나은행은 지난달 5대 은행 중 예대금리차가 두번째로 컸으나, 이달부터 우리은행과 신한은행이 이를 제쳤다.정책서민금융을 포함한 가계예대금리차 역시 농협은행이 1.33%p로 전월 대비 0.27%p 줄어들었지만, 5대 은행 중에서는 가장 높았다.인터넷전문은행 중에서는 토스뱅크의 가계 예대금리차가 전월 대비 0.24%p 늘어난 5.61%p로 가장 컸다. 케이뱅크가 2.28%p, 카카오뱅크가 1.48%p를 기록했는데, 이들 모두 각각 0.57%p, 0.37%p 확대됐다.인터넷은행 관계자는 "연말까지 달성해야하는 중·저신용자 대출 비중이 있어 대출을 확대하다보니 예대금리차가 확대됐다"고 설명했다.지방은행, 외국계은행을 포함한 전체 19개 은행 중에서도 토스뱅크의 예대금리차(5.61%)가 전북은행을 제치고 1위를 차지했다. 그 다음 전북은행의 예대금리차가 5.42%를 기록했다. 토스뱅크는 중저신용자 위주, 전북은행은 중저 신용자와 외국인 등 금융소외계층을 주력으로 영업하다 보니 대출금리가 상대적으로 높다는 분석이다.다만, 최근 금융당국이 수신금리 경쟁 자제를 권고하면서 다수 은행들의 가계예대금리차가 전월보다 확대됐다. 11월 시중은행에서는 우리은행이, 인터넷은행에서는 3사 모두, 지방 및 외국계 은행에서는 제일은행, 경남은행, 대구은행, 광주은행, 전북은행 등이 정책서민금융제외 가계예대금리차가 확대됐다.금융당국은 은행연합회와 함께 지나친 '이자 장사'를 막자는 취지로 지난 7월부터 기준을 강화해 19개 은행의 월별 예대금리차 공시를 진행해왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>"먹통은 안돼"…플랫폼 업계, 연말연시 트래픽 폭증 대비 만전</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013655840?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>카카오, 비상근무·상시 모니터링 총력…네이버·토스도 점검[2022결산] 연합뉴스 선정 10대 국내뉴스-'먹통' 된 카카오T 주차장 무인정산기[연합뉴스 자료사진](서울=연합뉴스) 임성호 기자 = 국내 플랫폼 기업들이 서비스 사용량이 급증하는 크리스마스와 연말연시를 앞두고 장애 방지를 위한 집중 대응에 나섰다.    특히 지난 10월 판교 SK C&amp;C 데이터센터 화재로 인한 '먹통 사태'로 홍역을 치른 카카오는 비상 근무 체제와 상시 모니터링을 통해 대응 태세를 다지고 있다. 네이버와 모바일 금융 서비스 토스 등도 서비스에 문제가 발생하지 않도록 점검을 거듭 중이다.    카카오는 22일 메신저 서비스 카카오톡을 중심으로 연말연시 트래픽 폭주에 대비한다고 밝혔다.     카카오톡은 2017년과 2020년 1월 1일 새벽 새해 인사 메시지 양이 급증하거나 시스템 오류가 발생해 메시지 수·발신이 원활하지 못한 현상이 나타났던 만큼 긴장을 풀지 못하고 있다.    카톡 운영진은 연말연시 안정적인 서비스 제공을 위해 비상 대기 근무에 들어간다. 카카오는 구체적인 비상 근무 인원은 밝히지 않았다.    카카오는 또 2018년부터 '민방위 훈련'이라는 이름으로 불시에 시행해 온 재난 대비 훈련으로 연말 트래픽 폭증에 대비하고 있다고 설명했다. 올해는 먹통 사태 이후인 지난달 카카오톡 메시지 장애 상황을 가정한 모의 훈련을 진행했다.'카톡 먹통 사태'(CG)[연합뉴스TV 제공]만약 이번 해넘이 기간에도 장애가 발생한다면 상시 모니터링 체계를 통해 빠르게 감지해 대응하겠다고 카카오는 밝혔다. 담당 서비스 부서의 컨트롤 타워에서 장애 등급을 판단한 뒤 신속하게 상황을 전파하겠다는 것이다.    장애 대응을 마친 뒤에는 전사 직원을 대상으로 장애 원인과 조치 방법, 회고, 재발 방지를 위한 후속 조치 이력 등을 담은 장애일지를 공유할 예정이다. 장애가 발생한 서비스 조직은 물론 다른 조직에서도 참고해 비슷한 장애를 방지하거나 유사 장애를 빠르게 복구하는 데 도움을 주는 취지라고 한다.    카카오 관계자는 "이외에도 다양한 재난·재해 상황에 서비스를 안정적으로 운영할 수 있도록 기술적·시스템적 대응을 하고 있다"면서 "향후 자체 데이터센터와 소방서 간 협력 체계를 구축해 소방당국과 맞춤형 화재 대응 매뉴얼을 공동 개발하고 정기적 합동 모의 소방훈련을 할 계획"이라고 덧붙였다.SK 판교 데이터센터 화재 [연합뉴스 자료사진]다른 플랫폼들은 메신저가 주요 서비스가 아닌 특성상 연말연시에 트래픽이 급증하지는 않을 것으로 보인다면서도 상황을 면밀히 주시하겠다는 입장을 밝혔다.    네이버 관계자는 "네이버 서비스는 연말연시에 특별한 트래픽 변동은 없으나, 주요 서비스 위주로 가용량 문제가 있는지 점검할 것"이라고 말했다.    토스는 연말연시를 포함해 트래픽이 몰리는 것에 대비해 데이터센터(IDC)를 주 센터와 DR(재해복구) 센터 간에 상시 활성-활성 상태로 운영하고 있어 서비스 연속성 유지와 빠른 장애 대응이 가능하다고 강조했다. 토스는 수도권에 3개 IDC를 운영하고 있으며, 1개를 추가로 도입할 예정이다.    토스 관계자는 "토스를 이용하는 고객이 안심하고 서비스를 이용할 수 있도록 관련 시스템 구축과 운영에 투자를 이어갈 것"이라고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘사장님 대환대출’ 출시 3개월만 360억원 돌파</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002774212?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>자영업자·소상공인, 평균 180만 원 이자 부담 완화토스뱅크가 출시한 '사장님 대환대출'이 360억원을 넘어섰다고 밝혔다. 토스뱅크 제공    토스뱅크가 코로나19 여파로 피해를 입은 자영업자와 소상공인을 대상으로 시행 중인 '사장님 대환대출' 서비스가 출시 3개월 만에 360억원을 넘어섰다고 22일 밝혔다.사장님 대환대출은 인터넷전문은행 중 토스뱅크가 유일하게 신용보증기금과 손잡고 선보인 서비스로 지난 20일 기준 360억원을 돌파했다.이는 시중은행을 포함해 전 은행권에서 세 번째로 큰 규모다. 고객들이 토스뱅크에서 1인당 대환한 금액은 평균 3200만 원이었다. 토스뱅크에 따르면 '사장님 대환대출' 서비스를 통해 자영업자, 소상공인 등 개인사업자 고객들이 평균 5.95%포인트의 금리 인하 효과를 받았다. 2년간 인당 절감할 수 있게 된 이자비용만 평균 180만원이었다.제2, 제3금융권에서 고금리 개인사업자 대출을 받은 고객들의 수요가 '사장님 대환대출'로 몰린 것이란 분석이다. '사장님 대환대출'은 2년간 최대 5.5%의 고정금리를 적용하는 상품으로, 코로나19로 피해를 입은 개인사업자가 대상이다.실제로 토스뱅크에서 실행된 대환 대출 규모의 82.4%는 저축은행, 캐피탈사 등 제2, 제3 금융권으로부터 이동이었다.업종별 대환대출 이용 규모도 이를 뒷받침했다. 요식업이 20%를 차지하며 가장 많았고, 소매업(15%), 도매업(10%)이 그 뒤를 이었다. 코로나19와 고물가, 경기침체 등 삼중고를 겪고 있는 골목상권 자영업자들이 가장 많은 혜택을 받고 있었다.토스뱅크는 이들 고객이 제1금융권으로 대출을 옮기는 과정에서 신용점수 개선 효과도 얻은 것으로 나타났다. 또 대환대출 이후 '금리인하 요구권'을 추가로 행사하며 평균 2.33%포인트 금리 인하(연 평균 58만 원 이자 감소)도 발생한 것으로 봤다.토스뱅크 관계자는 "고객과의 상생을 생각한 '포용 금융'의 취지를 앞으로도 이어가며 은행의 사회적 책임을 다할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>우리금융 인수설에 다올인베 13% 쑥…다올증권 살릴까</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004137863?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>인수전 본격화따라 주가 상승세다올證, 매각가 3000억 희망속'유동성 위기' 급한불 끌지 촉각[서울경제] 다올투자증권(030210)의 벤처캐피털(VC) 자회사인 다올인베스트먼트(298870)가 우리금융지주에 인수될 가능성이 있다는 소식에 주가가 급등했다. 다올투자증권이 알짜 자회사를 성공적으로 매각해 보릿고개를 넘어설 수 있을지 주목된다.26일 한국거래소에 따르면 이날 다올인베스트먼트 주가는 전날보다 13.72%(415원) 급등한 3440원을 기록했다. 지난달 말 매각설이 흘러나온 후 3350원까지 올랐던 주가는 이달 중순까지만 해도 하락세였지만 인수전이 본격화되면서 주가가 다시 상승세로 돌아섰다.다올인베는 KTB네트워크가 전신이다. 1981년 설립돼 국내에서는 ‘1세대 VC’로 평가 받는다. 2018년 이병철 다올금융그룹 회장에게 인수된 뒤 올해 다올인베스트먼트로 사명이 바뀌었다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘에 투자하며 인지도를 높인 바 있다. 지난해 말 코스닥에 상장했는데 당시 다올투자증권은 구주매출을 통해 1540억 원을 조달, 유진저축은행을 인수하는 등 종합금융그룹을 향한 밑천 역할을 했다.하지만 올 하반기 공격적인 기준금리 인상에 따른 부동산 불경기, 레고랜드 등 채권시장 직격탄을 맞으며 결국 알짜 자산인 다올인베를 내놓게 됐다. 다올인베와 다올증권 태국법인 등을 매각해 자금을 수혈, 급한 불을 끄겠다는 계획이다. 다올투자증권의 프로젝트파이낸싱(PF) 자산유동화기업어음(ABCP) 보증 규모는 4401억 원인데 채권시장안정펀드 등의 자금 지원을 받은 바 있다.다올인베 매각 주관사는 PwC삼일회계법인으로 최근 경쟁입찰에 우리금융지주와 신영증권·미래에셋그룹 등이 참여한 것으로 전해졌다. 매수자와 매도자 간의 가격 간극을 좁힐 수 있을지가 관건이다. 현재 다올투자증권은 다올인베 지분 52%를 보유 중이다. 다올인베의 시가총액은 3440억 원이다. 매각 희망가는 3000억 원 이상으로 전해졌다. 업계에서는 우리금융이 인수가 등을 가장 공격적으로 제시한 것으로 전해졌다. 우리은행은 과거에도 사적 거래 형태로 다올 측의 제안을 받아 인수를 검토했던 것으로 알려졌다. 한 업계 관계자는 “다올인베와 다올증권 태국법인을 매각해 4000억 원을 조달하겠다는 계획이지만 태국법인 매각이 지지부진한 만큼 다올인베를 통해 최대한 많은 자금을 조달하려 할 것”이라며 “금액을 얼마나 조정할지에 따라 결론이 날 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>'스팀덱' 배송 대란·환불 난항…애타는 소비자</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003068373?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>550건 주문에 30건 배송 그쳐배급사 코모도, 소통 부족 논란구매자, 카드사에 분쟁조정 신청토스 현금결제 땐 해결방도 없어스팀덱휴대용 게임PC '스팀덱'이 국내 발송 개시 일주일이 넘도록 제대로 된 배송이 이뤄지지 않아 소비자 불만이 확대되고 있다. 일본 게임 배급사 코모도(KOMODO)가 한국을 비롯해 일본, 대만, 홍콩 등 아시아 지역 유통을 맡은 가운데 대고객 소통 부족도 도마 위에 올랐다.26일 주요 게임 커뮤니티와 스팀덱 구매자 등에 따르면 스팀덱의 국내 배송 지연으로 혼선이 지속되고 있다. 코모도의 주문 내역 페이지에서는 배송 관련 정보가 확인되지 않는 데다 '환불' 버튼조차 사라졌다. 상담 메일로 취소 요청 시 제품 발송 준비가 되지 않았음에도 반품 수수료까지 요구한 것으로 알려졌다.코모도 측의 명확하지 않은 대응에 일부 구매자는 카드사에 직접 분쟁 조정을 신청하고 대금 지급 정지를 요청했다. 다만 토스 등으로 현금결제를 한 이용자는 별다른 해결 방도가 없어 애태우고 있다.코모도에서 스팀덱을 주문한 게임 커뮤니티 이용자가 자발적으로 입력, 구글독스에 집계된 한국 지역 출하 통계에 따르면 주문예약 550여건 가운데 지금까지 배송 완료는 30여건에 불과하다. 대부분 송장은커녕 예상 수령 일정조차 코모도로부터 전달받지 못한 상태다. 본지가 코모도 측에 정확한 배송 일정 안내를 메일로 질의했으나 아무런 답변을 받지 못했다.국내 소비자들의 불만 여론이 커지자 코모도는 공식 트위터 계정을 통해 “한국에서 예상치 못한 운송 및 통관 문제로 입고가 지연되고 있다”고 뒤늦게 공지했다. 국내 고객을 위한 발송은 26일 재개될 것으로, 12월 1일 이전에 접수된 예약에 한해 연내 발송이 가능하다는 설명이다.하지만 대다수 이용자는 여전히 주문 내역에 대한 택배사 송장 등록이 되지 않았다. 이와 함께 국내에서 제품을 수령한 이용자도 예약 순서와는 무관한 것으로 확인돼 코모도 측 해명에 불신이 쌓여 갔다. 애초 배송일을 전후해서 안내하기로 예고한 국내 사후관리(AS) 절차 또한 감감무소식이다.스팀덱은 스팀 플랫폼에서 구입한 게임을 언제 어디서나 즐길 수 있는 휴대용 게임PC다. 밸브가 자체 개발한 스팀 운용체계(OS)를 탑재했으며, 이용자 각자의 사용 환경에 맞춰 다양하게 커스터마이징할 수 있는 기능을 제공한다. 고사양을 갖춘 최신 게임을 간편하게 즐길 수 있고, 모니터와 키보드·마우스 등을 연결해 데스크톱PC나 콘솔 게임 기기처럼 활용할 수 있다.가장 작은 용량인 64GB eMMC 기준 58만9000원으로 가격 대비 우수한 성능을 갖춘 것으로 평가받고 있다. 올해 2월 북미·유럽에서 처음 출시했으며, 8월부터 국내 예약 판매를 시작했다. 이후 4개월여 만인 이달 17일부터 한국을 비롯한 아시아 지역 순차 배송에 들어갔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>케뱅·토뱅서도 소상공인 '희망플러스 특례보증' 신청</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000314922?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[자료=신용보증재단중앙회]소기업과 소상공인을 대상으로 한 '희망플러스 특례보증'을 이제는 인터넷전문은행인 케이뱅크와 토스뱅크에서도 신청할 수 있습니다. 신용보증재단중앙회는 오늘(19일) 소기업·소상공인에 대한 신속한 보증지원을 위해 17개 지역신용보증재단을 대리해 케이뱅크, 토스뱅크와 '희망플러스 특례보증 업무협약'을 맺었다고 밝혔습니다. 희망플러스 특례보증은 코로나 방역 조치로 피해를 본 소기업·소상공인 등에게 최대 2000만원을 저금리로 지원하는 금융지원 프로그램입니다.그동안 지역신보는 소기업·소상공인의 일상회복과 금융비용 완화를 위해 3조8000억원 규모 희망플러스 특례보증을 출시한 뒤, 지난 9일 기준 3조2000억원(25.5만건)을 지원했습니다. 보증신청을 원하는 이들은 지역신보와 은행 방문없이 대출받고자하는 은행의 모바일 앱(App)을 설치해 비대면으로 신청할 수 있습니다. 이번 인터넷은행 외에도 KB국민, 기업, NH농협, 신한, 우리, 하나, 경남, 광주, 대구, 부산, 전북, 제주은행에서도 신청 가능합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>하나둘 끊기는 2금융권 대출…연말 서민 자금줄 '한파'</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004834130?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>서민들의 '돈줄'이 급격히 얼어붙고 있다. 저축은행 등 제2금융권이 연말을 맞아 가계대출 총량 규제 준수와 건전성 관리를 위해 대출 빗장을 걸어 잠그면서다. 서민들의 제도권 금융 최후 보루인 대부업체마저 대출을 중단하면서 저신용 서민들이 불법 사금융(사채) 시장으로 내몰리고 있다.28일 금융권에 따르면 제2금융권 회사들은 최근 토스 등 대출 비교 플랫폼과 같은 외부 채널을 통한 햇살론·신용대출 신청 접수를 대부분 중단했다. SBI·웰컴·페퍼 등 다수의 저축은행들이 연말 혹은 연초까지 외부 채널을 통한 대출을 중단한 것이다. 한 저축은행 관계자는 "가계대출 총량규제 한도가 찼기 때문"이라며 "내년 초 외부 채널을 통한 대출 창구를 다시 열 것"이라고 설명했다.올해 저축은행 업권이 금융당국으로부터 받은 가계대출 총량 증가율 상한선은 회사별로 10.8~14.8% 수준이다. 저축은행은 한 해에 늘릴 수 있는 가계대출 총량을 월별로 나눠 관리한다. 사실상 매달 가계대출 한도가 있는 셈이다.여신전문금융회사 대출 창구 사정도 비슷하다. 캐피탈 업계 1위인 현대캐피탈은 최근 외부채널을 통한 신규 신용대출 신청 접수를 중단했다. 자체 채널을 통한 대출 영업은 진행 중이지만, 과거보다는 보수적으로 운영 중이다. 현대캐피탈 관계자는 "외부 채널을 통한 대출 영업은 시장상황에 따라 조만간 재개할 예정"이라고 했다. OK캐피탈과 웰컴캐피탈도 외부채널을 통한 대출영업을 중단한 상태고, 중소형 캐피탈사들은 아예 신규 대출 취급을 사실상 중단했다.저축은행과 캐피탈사 등이 토스 등 외부채널을 통한 대출을 중단했다./사진=토스 화면 캡쳐카드사들 역시 카드론 문턱을 높인 상태다. 카드사들은 금리인상에 따라 조달비용이 치솟고, 여러 곳에서 돈을 빌린 다중채무자의 연체 위험이 높아지자 카드론 한도를 크게 줄이고 대출 심사를 강화하고 나섰다. 이 여파로 11월 말 기준 7개 전업카드사 카드론 잔액은 34조2866억원으로 한달 새 5456억원 줄었다.서민금융 '최후 보루'인 대부업계마저 대출 문을 닫고 있다. 대부업계 1위인 아프로파이낸셜대부(러시앤캐시)는 지난 26일부터 신용대출을 포함한 모든 신규 대출을 중단했다. 업계 2위인 리드코프도 신규 대출을 기존의 20% 수준에서 내주고 있다. 중소 대부업체는 사실상 '개점휴업' 상태다.기준금리 인상에 따른 조달금리 상승과 담보 가치 하락 등의 영향이다. 조달비용은 오르는 데 반해 법정 최고금리는 연 20%로 제한돼 있어 저신용자에 대출을 내줄수록 손해가 나는 구조가 돼버려서다. 대부업계 관계자는 "대손 비용과 관리 비용 등을 감안하면 신규 대출을 내줄수록 손해인 상황"이라고 했다.이렇다 보니 제도권 금융에서 돈을 빌리지 못한 저소득, 저신용자 등 서민 취약계층이 불법사채 시장으로 내몰릴 수 있다는 우려가 높아진다. 금융사들이 대출 영업을 보수적으로 가져간다는 것은 곧 그나마 신용도가 높은 고객 위주로 대출 영업을 펼친다는 의미여서다. 시장에서는 연 20%로 최고금리가 고정되면 현재와 같은 상황(기준금리 3%, 물가상승률 5% 가정) 아래 약 40만명이 제도권 금융에서 밀려나 불법사금융으로 밀려날 것이란 분석도 나왔다.연말 취약차주들의 자금난이 가속화할 기미가 보이자 금융당국은 서민금융진흥원 등 관계기관과 함께 정책상품 보완 방안을 논의하고 나섰다. 금융위원회는 신용도나 연체 여부와 상관없이 최대 100만원을 빌려주는 '긴급 생계비 대출' 출시를 준비 중이다. 내년 햇살론 금리를 올려 금융사들로 하여금 햇살론 취급을 늘리게 하는 동시에 금리 인상분의 일부를 서금원이 부담해 취약 차주의 금리 부담을 덜어주는 방안도 내놓았다.또 총량 중심의 가계 부채 관리 기조에도 변화를 줄 것으로 보인다. 실제 이복현 금융감독원장은 최근 총량 중심 가계부채 관리 대책에서 벗어나 가계부채 부문별 맞춤형 관리 대책을 마련할 때라고 언급했다. 아울러 금융당국은 현재 20%인 법정최고금리를 시장금리에 연동하는 방안도 검토 중이다.금융권 관계자는 "시장금리 상승과 동떨어져 법정 최고금리가 20%로 묶여있다보니 조달비용이 크게 오른 제2금융권과 대부업계가 취약차주 대출을 취급할 수록 역마진이 나는 상황이 됐다"며 "금융시장 변동성이 큰 상황에서 리스크 관리도 강화해야 하는 만큼 내년 초까지는 지금과 같은 서민 대출시장 한파가 이어질 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>금감원 “잇단 은행권 전산사고…내부통제 소홀땐 엄중 조치”</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011399954?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>카카오 전산센터 화재 등 금융권의 전산 사고가 잇따르는 가운데 금융감독원이 제대로 관리하지 못한 금융회사를 엄중히 조치하겠다고 경고했습니다. 금융감독원은 오늘 이명순 수석부원장 주재로 15개 은행 부행장들과 간담회를 열고 IT 내부통제 강화 방안을 논의했다고 밝혔습니다. 간담회엔 국민은행, 신한은행, 하나은행, 우리은행, 카카오뱅크, 케이뱅크, 토스뱅크 등이 참석했습니다. 이 수석부원장은 “카카오 전산센터 화재 사고를 비롯한 은행권 전산장애가 연이어 발생하며 많은 소비자가 피해와 불편을 겪었다”며 “금융회사에 대한 신뢰성도 크게 훼손됐다”고 말했습니다. 이어 “디지털 기반의 전자금융서비스가 경쟁적으로 출시되고 비대면 거래가 급증하고 있어 전자금융거래 시스템의 안정성이 무엇보다 중요해졌다”며 “사고를 미연에 방지하기 위해 더 정교한 IT 내부통제 체계가 구축돼야 한다”고 강조했습니다. 이 부원장은 향후 발생하는 전산 사고에 대한 검사 방향도 안내했습니다. 우선 금감원은 전산 사고로 대고객 서비스가 3시간 이상 중단될 경우 즉각적으로 현장 점검에 착수할 계획입니다. 이는 사고를 조기에 수습함과 동시에 피해 소비자에 대한 안내 및 보상이 제대로 이뤄지는지 살피기 위한 조치라고 설명했습니다. 또한 금융회사가 연계 서비스를 운영할 경우 사전에 연계 서비스 제공업체에 대한 IT 위험 평가를 하고, 손해배상 조항을 추가하는 등 연계 서비스의 안전성을 높이라는 주문도 했습니다. 금감원은 기본적인 IT 내부통제 사항들을 소홀히 해 전산사고를 일으킨 금융회사에 대해서는 엄중히 조치할 계획이지만, 내부통제를 위해 전사적인 노력을 기울인 경우에는 정상 참작하겠다고 덧붙였습니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.12.29.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>캐피털업계도 임시 휴업…현대캐피탈, 비교플랫폼서 신규대출 중단</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011617858?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>기사내용 요약여전채 AA 3년물 금리, 5.6%…연초의 2.3배"캐피털사, 조달구조상 회사채 의존도 높아""내년도 수익성 저하 예상…유동성 관리해야" *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 캐피털업계 1위인 현대캐피탈이 신규 대출을 사실상 중단했다. 대부업계 1위 러시앤캐시가 27일 신규대출 취급을 중단한 가운데, 중저신용 취약차주들이 주로 이용하는 제2금융권까지 '임시휴업'에 돌입했다. 29일 금융업계에 따르면 현대캐피탈은 토스·카카오페이·핀다 등 대출비교 플랫폼에서 신규대출 영업을 당분간 중단했다. 현대캐피탈은 "조달환경 악화 등으로 신규 대출을 보수적으로 운영하게 됐다"고 설명했다. 다만 현대캐피탈 웹·애플리케이션 등 자체 채널을 통한 신규 대출은 가능하다.이 외에도 DGB캐피탈, 현대캐피탈, OK캐피탈, 웰컴캐피탈, BNK캐피탈 등이 대출비교 플랫폼에서 신규대출을 한시 중단했거나 여전히 중단한 상태다. 업계에선 자금조달이 어려워지자 대형 캐피털사들까지도 신규대출의 '디마케팅'(고객 구매를 의도적으로 줄이는 마케팅)에 나선 것이 아니냐는 분석이 나온다.이는 지속적인 기준금리 인상과 최근 레고랜드 사태로 인한 채권시장 경색으로 인해 여신사의 자금조달 환경이 악화됐기 때문이다. 은행처럼 수신 기능이 없는 여신사(카드·캐피털사)는 주로 여전채를 통해 자금을 조달한다.금융투자협회에 따르면 현대캐피탈이 발행하는 여전채(AA)의 3년물 민평(3사 평균)금리는 전날 기준 5.627%로 올해 초(2.441%) 대비 2.3배가량 올랐다. 국내 신용평가사들은 캐피털사의 신용등급 전망치를 잇따라 하향하고 있다. 한국신용평가는 이달 들어서만 오케이캐피탈과 에이캐피탈 두 곳의 올해 신용등급 전망치를 낮췄다. 오케이캐피탈의 무보증사채 신용등급 전망은 기존 '안정적'에서 '부정적'으로 하향 조정됐다. 오케이캐피탈의 무보증사채 신용등급은 A-다. 오케이캐피탈은 아프파이낸싱그룹의 계열사로 3분기말 기준 총자산은 4조903억원에 달한다. 이는 전체 52개 캐피털사 중 20위권 수준이다. 3분기 당기순이익은 962억원이다.한국기업평가는 롯데캐피탈의 무보증사채 신용등급 전망을 '안정적'에서 '부정적'으로 낮췄다. 롯데캐피탈의 신용등급은 AA-다. 롯데캐피탈의 총자산은 9월말 기준 10조원 수준으로 캐피털사 중 상위권에 해당한다. 3분기 당기순이익은 1422억원이다.김영훈 한국신용평가 수석은 "내년에도 현재의 금리수준이 지속될 것으로 예상돼 조달구조상 회사채 의존도가 매우 높은 캐피털사의 수익성이 저하되고 유동성 관리가 더욱 중요해질 전망"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>종무식 않고 휴가 권하는 대기업들…길면 9일 쉬고, ‘겨울방학’도</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002620197?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>삼성전자·SK·롯데 등 주요 대기업, 종무식 없이 마무리엘지그룹이 20일 일찌감치 구광모 회장 신년사를 발표한 뒤 임직원들에게 26일부터 연말까지는 가능하면 휴가를 가도록 권장했다. 엘지 제공올해도 삼성전자를 비롯한 주요 대기업들이 종무식 없이 한해를 마무리할 예정이다. 연말 휴가를 권장해 최대 9일까지 쉴 수 있게 하는 기업들도 있다.21일 &lt;한겨레&gt; 취재를 종합하면, 삼성전자는 별다른 행사 없이 한해를 마무리할 예정이다. 이 업체는 코로나19 대유행 이전부터 종무식을 없앴다. 대신 1월2일 경계현 디에스(DS)부문장(사장)과 일부 임직원이 참석한 가운데 경기도 수원사업장에서 시무식을 할 예정이다. 한종희 디엑스(DX)부문장(부회장)은 미국 라스베이거스에서 열리는 세계 최대 가전 전시회 ‘시이에스(CES) 2023’에 참석하느라 시무식에 함께 하지 못한다.에스케이(SK) 계열사들도 종무식을 별도로 하지 않는다. 에스케이그룹 관계자는 “예전에는 최태원 회장과 계열사 사장들이 종무일에 서린사옥 각 층을 돌며 직원들과 송년 인사를 했는데, 코로나19 대유행으로 사라졌다”고 말했다. 최 회장은 코로나19 대유행 이후 신년회 대신 임직원에게 이메일 등으로 신년 인사를 보내왔다. 이번에도 비슷하게 진행될 것으로 알려졌다.현대차그룹, 롯데, 엘에스(LS)그룹 등도 종무식 없이 올해를 마무리한다. 다만, 엘에스그룹은 새해 첫 날 신년행사를 열어, 취임 2년차를 맞는 구자은 회장이 취임 1년 소회를 밝히고, 임직원들과 향후 경영 계획 등을 공유할 계획이다.일부 기업들은 최장 9일간의 휴가를 쓰며 올해를 마무리할 수 있게 한다. 엘지그룹은 모든 임직원들에게 가능하면 26일부터 한 주 동안 휴가를 갈 것을 권했다. 구광모 회장은 20일 재벌 총수 가운데 가장 먼저 신년사까지 발표했다. 새해에는 1월2일부터 별도 행사 없이 업무를 시작하고, 계열사별 최고경영자 신년사는 이메일로 대체한다. 한화시스템과 금호석유화학도 올해 마지막 주에는 휴가를 갈 것을 권장했다. 금호석유화학 홍보담당자는 “사업장마다 필수 운영 인력 규모가 다르기 때문에 모두가 쉰다고 말할 수는 없지만, 가급적 쉬는 걸 권하고 있다”고 말했다.핀테크 플랫폼 ‘토스’를 운영하는 비바리퍼블리카도 지난해부터 매년 마지막 주에 모든 임직원에게 휴식을 주는 ‘겨울방학’을 정례화해, 올해도 긴 휴가를 갈 수 있게 할 방침이다.현대자동차는 창립기념일(29일) 휴무를 하루 미뤄 30일에 쉬게 하는 방식으로 전 임직원들에게 사흘 연휴를 제공할 계획이다. 롯데백화점과 롯데마트 등은 남은 연차 소진을 독려하고, 이마트는 마지막 근무일인 30일을 ‘리프레시 데이’로 지정해 연차를 사용하고 쉬도록 했다.딱딱한 종무식 대신 재미난 송년 행사를 마련하는 기업들 있다. 주문배송 플랫폼 ‘배달의민족’ 운영사 우아한형제들은 지난 15일 ‘재즈’를 주제로 송년회를 열었다. 지난해에는 ‘우아한 크리스마스쑈’가 주제였다. 우아한형제들 관계자는 “자유롭지만 협업이 중요한 재즈라는 장르의 특성이 회사의 지향점과도 어울린다고 봤다”고 설명했다. 코로나19 대유행 이후 3년만에 열린 이번 송년회에는 1700여명이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>하나은행, 금융권 최초로 24시간 외환거래 제공</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004829809?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>업무협약식에 참석한 남궁원 하나은행 경영기획그룹 부행장(오른쪽)이 오창훈 토스증권 대표이사와 함께 기념 촬영을 하고 있다./사진=하나은행하나은행은 토스증권과 △API를 통한 24시간 환율 제공 및 거래 서비스 제공 △FX시장의 성장과 효율성 제고를 위한 안정적 시스템 구축 △24시간 환율 서비스를 통한 유리한 투자기회 제공 등 다양한 분야에서 협력하기로 했다.하나은행은 토스증권에 오전 9시부터 오후 3시 30분 까지 열리는 서울외환시장의 거래는 물론 은행의 환율 고시가 끝나는 심야 해외주식 거래 시간까지 24시간 FX 거래 서비스 및 실시간 역외 시장 환율을 제공한다. 기존 시장가격과 차이가 있는 환율로 거래했던 해외주식 투자자들에게도 실시간 환율 정보를 제공한다. 남궁원 하나은행 경영기획그룹 부행장은 "토스증권 등 다양한 금융회사와의 지속적인 협력을 통해 외환시장에 새로운 바람을 일으키고, 향후에도 외국환 선도은행으로서 다앙한 분야에 혁신적인 금융서비스를 제공할 수 있도록 노력하겠다" 고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>주요 시중은행, 11월 가계 예대금리차 축소···농협은행 4개월째 1위</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003194013?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NH농협은행 제공지난달 주요 시중은행의 가계 예대금리차(대출금리와 저축성 수신금리의 차이)가 전달보다 좁혀진 것으로 나타났다. NH농협은행은 가계 예대금리차가 4개월 연속 5대 은행 중 가장 컸다.20일 은행연합회 공시에 따르면 NH농협은행의 지난 11월 가계 예대금리차(이하 정책서민금융 제외)는 1.29%포인트로, KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행 중 1위였다.NH농협은행은 예대금리차 비교 공시가 시작된 지난 8월부터 4개월 연속 이 부문 1위에 오르고 있다. 다만 그 폭은 점점 좁혀지고 있다. 지난 10월엔 1.56%포인트, 앞서 9월엔 1.85%포인트였다.가계 예대금리차 2위는 우리은행으로, 전달 대비 0.02%포인트 증가한 0.79%포인트로 집계됐다. 이어 신한은행 0.72%포인트, 하나은행 0.65%포인트, KB국민은행 0.41%포인트 순이었다. 5대 은행 중 우리은행을 제외한 4개 은행은 가계 예대금리차가 전달보다 좁혀졌다.3개 인터넷전문은행의 11월 가계 예대금리차는 일제히 전달보다 증가했다. 토스뱅크가 전달 대비 0.24%포인트 확대된 5.61%포인트로, 이 부문 1위를 차지했다. 토스뱅크는 대출금리가 상대적으로 낮은 담보대출 상품이 없어 예대금리차가 크다.케이뱅크는 전달 대비 0.71%포인트 증가한 2.28%포인트, 카카오뱅크는 전달보다 0.37%포인트 확대된 1.48%포인트로 집계됐다.예대금리차 비교 공시에 참여하는 전체 19개 은행 중에선 토스뱅크가 가계 예대금리차 1위를 기록했다. 이어 전북은행(5.42%포인트), 광주은행(3.59%포인트) 순이었다.기업과 가계를 합한 전체 예대금리차 부문에선 5대 은행 중 NH농협은행(1.67%포인트)이 1위였다. 이어 우리은행(1.13%포인트), 신한은행(1.11%포인트), 하나은행(1.05%포인트), KB국민은행(1.02%포인트) 순으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.12.22.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>와이즈에이아이 관계사 와이즈케어, 토스페이먼츠와 PG서비스 제휴</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004136376?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[서울경제] K-OTC 상장 인공지능(AI) 플랫폼 전문기업 와이즈에이아이는 관계사 ‘와이즈케어’가 ‘토스페이먼츠’와 PG(전자결제대행) 서비스 제휴 계약을 체결했다고 22일 밝혔다. 토스페이먼츠는 모바일 금융 플랫폼 ‘토스’를 운영하는 ‘비바리퍼블리카’의 페이테크 계열사다.이번 계약으로 와이즈케어는 토스페이먼츠의 PG 서비스 및 브랜드페이, 토스의 간편결제 서비스 ‘토스페이’ 등 다양한 결제 서비스를 제공할 수 있는 계기를 마련해 한층 더 신속하고 안전한 결제를 지원할 수 있을 전망이다. 와이즈케어는 지난 2016년 KB금융그룹의 ‘핀테크 업체 매칭투자’를 유치한 바 있는 전자결제·핀테크 전문 기업이다. 와이즈케어의 대표 간편결제 서비스 ‘스마트페이 AI’는 가맹점의 비용 절감과 매출 증대는 물론, 관리 편의성까지 증가시킬 수 있는 온·오프라인 통합 결제 솔루션이다. 스마트페이 AI는 전국 6천여 개의 병의원 및 가맹점에서 사용되고 있다. 와이즈케어는 스마트페이 AI를 통해 할부결제, 수기결제 등 가맹점의 시스템 환경에 맞는 다양한 결제솔루션을 제공하고 있다. 카카오페이, 삼성페이, SMS결제 등 비대면 간편결제까지 지원해 고객의 편의성을 극대화한 것이 특징이다. 송형석 와이즈케어 대표는 “토스페이먼츠의 높은 기술력과 보안 수준을 기반으로 더욱 편리하고 안전한 결제서비스를 제공할 수 있게 됐다”며 “일반 쇼핑몰 등 더욱 많은 가맹점들이 와이즈케어의 편리한 통합결제솔루션을 활용할 수 있을 것으로 기대한다”고 말했다.그는 이어 “내년 초 가맹점 카테고리 확장을 위해 기존 오프라인 PG서비스에서 온라인 PG까지 결제 서비스 영역을 확대할 예정”이라고 덧붙였다. 와이즈케어는 관계사인 와이즈에이아이와의 유기적 협력을 통해 건강검진센터 및 병의원의 AI 고객센터 구축을 위한 민간바우처 사업 ‘AI-TIPS’의 결제 영역을 지원하고 있다. AI-TIPS는 와이즈에이아이가 제약사, PG 회사, 카드사 등과 함께 AI 의료통합지원 플랫폼 ‘쌤버스(SSAM-Verse)’의 도입을 지원하는 사업이다.AI-TIPS 사업 수요기업 모집은 올해 12월부터 진행되고 있으며, 관련 사업 신청과 문의는 와이즈에이아이 홈페이지에서 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.12.16.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>토스증권-하나은행, 환전 서비스 협력…24시간 외환 거래 협약</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000314696?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>토스증권이 해외주식 서비스 강화 일환으로 하나은행과 환전서비스에서 협력키로 했습니다.오늘(16일) 금융업계에 따르면 토스증권과 하나증권은 전날 하나은행 본점에서 모바일트레이딩시스템(MTS) 내 안정적인 환율정보 및 환전서비스 제공을 위한 업무협약을 체결했습니다.오창훈 토스증권 대표는 "하나은행의 FX부문 서비스 노하우는 토스증권의 고객서비스 향상에 큰 도움이 될 것"이라며 "특히 이번 협약을 통한 환전업무 이중화시스템 구축은 토스증권이 국내 최고 수준의 해외주식 거래 플랫폼으로 성장하기 위한 안정성을 강화하는데 있어 남다른 의미를 갖는다"고 말했습니다.토스증권은 이번 업무협약으로 해외주식 서비스를 이용하는 고객에게 경쟁력 있는 환율과 안정적인 환전거래 환경을 제공할 수 있을 것으로 기대했습니다.특히 양사는 환율 및 환전 서비스 제공 외에도 FX시스템 구축 등 FX시장 선진화 및 양사의 서비스 향상을 위한 협업을 이어가기로 했습니다.토스증권 관계자는 "FX거래와 해외주식 서비스에 전문성이 있는 양사의 시너지는 결국 고객들의 거래 편의성 향상으로 이어져 더 나은 고객경험을 제공할 것"이라며 "서비스 고도화를 위한 다방면의 업무협력을 계속해 나갈 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.12.27.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>은행장들 "제조업·부동산 침체 가장 두렵다"</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004792577?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>내년 사업전망 설문"부실채권 등 리스크 관리 중점"순이익 증가율 1~5% 전망 그쳐올해 대비 3분의 1토막 수준 수신·은행채로 자금조달 계획14명은 "디지털 투자 늘릴 것"은행장들이 내년 경영 위협 요인으로 ‘제조업·부동산 경기 침체’를 꼽았다. 1900조원에 육박한 가계부채 부실 우려가 커질 것이란 이유에서다. 위기의 파도를 넘기 위한 3대 핵심 키워드로는 ‘리스크 관리 강화’ ‘디지털 대전환(DX)’ ‘비이자수익 확대’를 제시했다. 이재근 국민은행장은 “금리 인상과 물가 상승 등으로 취약 차주의 상환능력이 악화할 가능성이 큰 만큼 건전성 관리에 집중할 것”이라고 했다. 내년 경제 더 어려워질 듯27일 한국경제신문이 국내 18곳의 은행장을 대상으로 ‘2023년 전망 및 사업계획’을 설문조사한 결과 ‘내년 경영의 가장 큰 위협 요소’를 묻는 질문(2개까지 복수 응답)에 가장 많은 응답자(15명)가 ‘제조업·부동산 경기 침체’를 지목했다. 위기감이 높아지면서 내년 중점 추진 과제로는 대출·부실 채권 리스크 관리(15명)를 가장 많이 꼽았고 DX 추진(10명)과 비이자수익 확대(4명) 순이었다.이번 조사에는 시중은행 7곳(국민 신한 하나 우리 농협 기업 수협), 외국계 은행 2곳(SC제일 씨티), 지방은행 6곳(부산 대구 광주 경남 전북 제주), 인터넷은행 3곳(카카오뱅크 케이뱅크 토스뱅크) 등 18곳의 은행장이 참여했다.금리 상승에 힘입어 올해 사상 최대 실적을 거둔 은행장들은 내년엔 ‘외형 성장’보다 ‘리스크 관리’에 집중할 방침이다. 제조업 부진과 부동산 경기 침체가 맞물리면서 대출 자산 확대가 어려울 것이란 판단에서다. 실적 목표도 낮춰 잡았다. 10곳의 은행장이 내년 순이익이 올해보다 1~5% 증가할 것으로 전망했다. 올해 3분기까지 은행권 순이익(10조5000억원)이 지난해 같은 기간보다 14.6% 늘어난 것을 감안하면 보수적인 목표다. 이원덕 우리은행장은 “내년엔 부동산 관련 대출 부실 가능성에 대비해 리스크 관리에 집중할 것”이라고 했다.한국은행의 기준금리 인상은 내년에도 이어질 것으로 내다봤다. 기준금리 정점은 ‘연 3.5~3.75%로 예상한다’는 은행장이 12명으로 가장 많았다. 현재 기준금리(연 3.25%)보다 0.25~0.5%포인트 높은 수준이다. 물가 상승세가 꺾이지 않으면 ‘기준금리가 연 4%를 넘길 것’이란 응답이 5명으로 뒤를 이었다. 고물가와 통화 긴축이 지속되면서 내년 한국의 경제성장률이 2%를 밑돌 것이라고 답한 은행장이 11명에 달했다. “디지털 투자는 늘릴 것”은행장들은 내년 중점 추진 사업으로 리스크 관리(15명)에 이어 ‘디지털 전환’(10명)을 꼽았다. 디지털 금융 확산으로 오프라인 영업 대신 비대면 영업 확대가 필요하다는 판단에서다. 내년에 디지털 투자를 늘리겠다고 답한 은행장도 14명에 달했다. 은행들은 점포 수를 줄이고 화상 상담 데스크 등을 활용한 디지털 영업 채널을 강화하고 있다. 신한금융은 내년 상반기 은행과 카드 증권 보험 등 전 계열사의 핵심 서비스를 한데 모은 ‘신한 유니버설 간편 앱’을 출시하는 등 모바일 플랫폼 강화에 나섰다. 우리은행도 조직개편을 통해 모바일 뱅킹 앱 재구축을 위해 ‘뉴 WON(원) 추진부’를 신설했다.은행장들은 헬스케어와 통신, 배달 서비스 등 비금융 사업 진출 의지도 내비쳤다. 은행 18곳 중 절반(9곳)이 신사업 진출 계획이 있다고 답했다. 금융당국은 최대 15%로 제한한 은행의 비금융 자회사 출자 한도를 100%로 완화하는 등 금산분리 완화를 검토 중이다. 규제가 풀리면 특례 조치(혁신금융 서비스)로 운영 중인 국민은행 ‘리브엠’(알뜰폰)과 신한은행 ‘땡겨요’(배달 앱)와 같은 신사업 진출 길이 열린다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>온투업계 숙원 풀린다…기관투자 유치로 규모 경제시현 가능해져</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002139276?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>지난 8월 열린 온라인투자연계금융업 및 이용자 보호에 관한 법률(이하 온투법) 시행 2주년 세미나[디지털데일리 이상일기자] 온라인투자연계금융업계의 오랜 숙원이었던 기관투자 유치가 현실적으로 가능해졌다. 제도권 금융으로 들어왔지만 각종 제약사항으로 어려움을 겪어왔던 온라인투자연계금융사들의 숨통이 내년에는 본격적으로 트일 전망이다. 온라인투자연계금융협회(협회장 임채율)는 온투업법 제정 이후 지난 2년간 업계가 어려움을 호소해온 것에 대해 금융위원회가 12월 20일 열린 제5차 금융규제혁신회의를 통해 우선 4가지의 규제를 풀어 업계 활성화를 꾀하기로 했다고 발표했다.가장 먼저 내년 1분기에 추진될 예정인 규제혁신은 금융기관의 온투업 연계투자 문제다. 그동안 온투업체에 대한 금융기관의 투자는 온투법상 가능 헸지만 다른 업권법(저축은행법 등)과 충돌로 현실에서는 기관투자 유치의 어려움을 겪어왔다. 현행 온투법상 금융기관의 투자는 개별 업권법을 준수하게 되어 있으며, A 금융기관이 B 온투업체에 투자를 하는 경우 B 온투업체의 차입자에 대한 대출로 간주된다. 그러나 A 금융기관은 B 온투업체의 차입자에 대한 개인식별정보(실명, 주민등록번호 등)을 알 수 없어 신용공여한도 등 건전성 규제 적용을 하기 어려워 온투업체에 투자를 하고 싶어도 하지 못했다.이에 대해 금융위는 각 온투업체의 차입자 개인식별정보를 투자를 하는 금융기관에 제공할 수 있도록 허용함으로써 기관투자의 걸림돌을 없애기로 했다. 구체적인 개인식별 제공 방식은 관계기관과 협의해 내년 1분기 중 마련 계획이다. 따라서 내년부터는 각 온라인연계투자업체가 적극적인 기관투자 유치를 통해 규모의 경제를 이뤄 수익화를 꾀할 수 있게 됐다. 온라인투자연계금융의 선진국인 미국, 영국, 일본 등의 경우처럼 기관투자 유치를 통해 규모의 경제를 이루고 신뢰도를 높여 다수 개인투자자의 투자 유치를 하는 선순환 구조를 만드는 것이 이제 국내에서도 가능해진 것이다.기관투자 애로 해소만큼 업계에서 바라던 개인투자자의 연계투자 규모도 확대될 예정이다. 현재는 일반 개인투자자의 온투업 투자한도는 총 3000만원으로 제한되어 있다. 온투법 시행령에 따르면 5000만원까지 가능하나 실제 감독규정에는 3000만으로 되어 있는데, 이를 이번에 확대하기로 한 것이다. 온투업계는 이번 규제 개선을 통해 시행령에서 정하고 있는 5000만원까지 확대를 기대하고 있다. 이 투자규모 확대는 내년 상반기 안에 진행될 예정이다.한편, 금융위는 온투업계의 영업환경 개선을 위해 카카오페이나 토스 같은 외부플랫폼을 통한 광고도 허용하기로 했다. 현재는 외부플랫폼을 통한 개인투자자 유치를 하려해도 온투법 시행령의 투자자 모집 등 위탁금지 조항에 저촉될 가능성이 있어 각 업체의 앱을 통해서만 투자자 유치를 해왔다. 하지만 앞으로는 가능한 광고 범위 및 유형을 명확히 해 이에 따른 광고는 법상 투자자모집 업무에 위반하지 않는다는 유권해석을 함으로서 외부플랫폼 광고를 허용할 계획이다. 이와 함께 플랫폼의 P2P 상품 비교 및 추천 서비스도 샌드박스를 통해 허용할 계획이다. 이 규제혁신은 내년 1분기내에 추진된다.아직 수익화를 못한 온투업체들에게 큰 부담이 되고 있던 중앙기록관리기관의 수수료도 낮아질 예정이다. 협회 출범 이후 온투업체들은 금융결제원(중앙기록관리기관)을 통해 차입자 한도와 계약기록 등을 관리하고 이에 대한 수수료를 납부해왔는데, 수수료 부담이 순수익률 대비 크다는 업계 의견이 많았다. 수수료 부담을 낮춰달라는 업계 요청에 대해 금융위는 현행 수수료 및 운영현황을 살펴보고 금융결제원의 수수료 산정방식을 재검토해 온투업체들의 수수료 부담을 덜어주기로 했다. 이 수수료 인하는 내년 상반기 내에 진행된다.이번 금융규제혁신회의에서 결정된 온투업권 활성화 방안에 대해 임채율 온라인투자연계금융협회장은 “금융위원회가 그간 업계에서 지속적으로 호소해온 어려움에 대해서 시급한 과제 중심으로 긍정적인 검토 및 개선방안을 내놓은 점에 대단히 감사드리며, 앞으로도 지속적인 관심을 부탁드리는 한편, 협회 회원사들도 영업환경이 개선되는 만큼 지금까지 노력해온 것처럼 업계에 대한 신뢰도를 제고하면서 중금리 대출기관으로 역할에 충실할 수 있도록 내실 있는 경쟁을 펼쳐나가길 바란다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.12.20.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>이니텍, 클라우드 인증통합 서비스 첫발</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002277090?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>이니텍은 모든 전자서명사업자의 인증서를 하나의 플랫폼에 모아 한번에 인증하는 인증통합플랫폼 '이니허브'를 구독형 클라우드 인증 서비스로 확대한다고 20일 밝혔다.이용기관이 인증서를 연동하기 위해 필요한 개발 관련 비용, 시간을 줄이고 다양한 사설인증서 중에서 원하는 인증서를 바로 선택할 수 있도록 간편함을 더했다.이니텍은 구독형 클라우드 인증 서비스까지 진출하기 위해 현재 주요 금융사와 클라우드 인증 서비스를 준비하고 있다.전자서명사업자 인증통합 플랫폼 (이미지=이니텍)2020년 12월 전자서명법 개정안 시행으로 공인인증서는 공동인증서로 명칭이 바뀌었고 다양한 민간주도형 인증서비스가 생겨났다.사설인증서 종류가 많아지자 이용기관은 오히려 효율성이 반감되었다며 문제를 제기했다. 사설인증서가 새롭게 생겨날 때마다 일일이 구축하거나 시스템을 매번 연동하면서 번거롭고 중복투자가 발생하여 관리의 효율성이 떨어진다는 것이다.이니텍은 이러한 이용기관의 비효율성을 개선하기 위해 이니허브(INI-Hub)를 개발했다. 이니허브는 한번만 연동하면 원하는 모든 업무시스템과 인증서를 연결하고, 다양한 인증서를 간편하게 고객에게 제공할 수 있다.이용기관은 새로운 인증서의 도입과 해지가 용이하여 관리자의 관점에서 운영의 효율성을 향상시켰다.사용자는 기존처럼 인증 솔루션을 별도로 설치할 필요가 없다. 인증서와 더불어 PIN/패턴 인증, OTP, 생체인증, QR인증, 2차 인증까지 선택할 수 있다.이니텍은 네이버, 카카오, 패스, 토스, NHN페이코 등 주요 10개 사설인증기관 서비스와 파트너십을 체결해 서비스 중이다. 이를 통해 고객이 어떤 종류의 인증서를 사용하더라도 이니허브 플랫폼 하나만으로 인증할 수 있도록 범용성을 확보했다.교보생명의 통합인증센터를 이니허브로 구축해 모바일 어플리케이션 내에서 활용하고 있다. 교보생명 보험 가입자들이 보험을 조회하거나 증명서 발급, 대출 등을 이용할 때 필요한 본인인증과 전자서명을 이니허브 플랫폼으로 진행한다.간편 비밀번호와 생체인증을 포함해 네이버, 카카오, 토스, 패스 등의 사설인증서와 공동인증서, 금융인증서까지 서로 다른 9가지 인증 방식을 선택 가능하도록 구축했다. 하반기에는 통합인증센터 고도화를 진행하면서 자동 로그인 기능 제공하고 웹 접근성 심의를 통한 보안성을 더 향상시켰다.이니허브를 통한 대고객 인증 서비스 확대를 통해 교보생명은 기존 아이디 패스워드를 통한 로그인 방식을 탈피하여 고객의 편의성을 높임과 동시에 보안성까지 갖췄다.교보생명의 한 담당자는 “이니허브의 도입으로 우후죽순 생겨난 사설인증서를 각각 구축해야하는 부담감을 해소시키고, 우리의 고객에게 인증서 선택의 폭을 넓혀 고객 중심의 인증 서비스를 구현하게 되었다” 며, “추후 신규 사설 인증서가 또 새롭게 생겨나더라도 인증서 추가∙변경에 부담이 없고 까다로운 유지보수를 고민하지 않아도 돼 시간과 인력, 그리고 비용의 효율성을 모두 잡았다”라고 말했다.내년에도 국내 모든 산업에 걸쳐 클라우드 전환이 지속될 전망이다. 국내 한 금융사는 고객에게 편리한 인증 서비스를 제공하기 위해 이니텍과 손잡고 클라우드 인증 서비스를 준비하고 있다. 고객의 로그인, 본인인증, 전자서명까지 클라우드 환경에서 가능토록 클라우드 인증 서비스 연내 출시할 계획이다.이니텍은 인증사업뿐만 아니라 전자문서 유통, 모바일 신분증 등의 영역으로 서비스를 확대를 담은 2023년 로드맵을 공개했다.클라우드 인증 서비스 확장을 기반으로 모바일 신분증, 전자문서 플랫폼 및 결제 서비스, 타 산업분야의 다양한 플랫폼과의 연계를 추진할 계획이다.이니텍 보안사업본부 성열탄 본부장은 “이니텍은 단순히 인증 서비스에만 머무르는 것이 아닌 물류, 건설, 환경, 의료, IoT 분야를 막론하고 인증 기술을 기반으로 한 융합형 인증시장의 육성과 확장에 앞장설 것이다.”며, “앞으로도 장기적인 관점에서 차세대 인증 체계를 확립하고 인증 시장의 리더로서 역할을 다할 것이다”라고 비전을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>'보이는 전화'로 보험 가입 가능해진다…혁신금융서비스 지정</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000315319?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>앞으로 전화를 통한 보험 모집 과정을 모바일 화면으로도 진행할 수 있게 됩니다.금융위원회는 오늘(21일) 정례회의를 열어 이러한 내용을 담은 5건의 혁신금융서비스를 신규 지정했다고 밝혔습니다.우선 교보생명과 라이나생명, 현대해상, 메리츠화재 등 보험사 4곳이 신청한 '보이는 전화모집(TM) 보험 가입 서비스'가 혁신금융서비스로 새롭게 지정됐습니다.현재는 TM 모집인이 표준상품설명대본을 읽어 전과정을 음성녹음하고 녹음 내용을 계약자가 확인할 수 있는 경우 자필서명 의무가 면제됩니다.청약은 음성녹음에 의해 완료됩니다.이번에 금융위는 새로운 서비스 제공을 위해 이러한 음성녹음 없이 모바일 앱으로 중요사항 설명과 청약 절차 진행, 완료까지 할 수 있도록 특례를 부여했습니다.모바일 웹 화면에 표준상품설명대본을 제시해 텍스트와 이미지로 상품을 보여주고 모집인과 계약자를 통화와 화면으로 실시간 연결하는 '미러링 기술'로 음성설명도 제공할 수 있습니다.각사는 서비스 개발과 테스트를 거쳐 내년에 서비스를 출시할 예정입니다.금융위는 "TM 모집 과정을 모바일 화면으로 진행해 비대면 문화와 디지털 기술의 확산에 따른 보험 모집방식의 다변화 수요를 충족할 수 있을 것"으로 기대했습니다.또 신한투자증권과 에이판다파트너스의 '블록체인 기반 금전채권 신탁수익증권 거래 플랫폼'도 혁신금융서비스로 선정됐습니다.이 서비스는 금융사가 보유한 국내 대형 상업용 부동산과 같은 실물자산 담보부 대출채권을 신탁해 수익증권을 발행하고 그에 대응하는 토큰을 유통하는 서비스입니다.혁신금융사업자는 금융사가 보유한 대출채권을 선별해 자산 검증 절차 등을 거쳐 신탁 수익증권 발행의 기초자산을 결정합니다.위탁자인 금융사는 수탁자인 신탁회사와 대출채권 관리 처분과 수익증권 발행 신탁계약을 체결해 수익증권을 발행합니다.수익자인 투자자는 혁신금융사업자의 플랫폼을 통해 유동화된 수익증권에 투자할 수 있게 됩니다.금융위는 "사회기반시설을 담보로 한 대출채권 등 일반 투자자가 접근하기 어려운 기관 보유 우량자산에 대한 접근성을 높여 새로운 투자 기회를 제공할 수 있을 것"이라고 말했습니다.아울러 카카오뱅크와 토스뱅크, 토스증권의 '안면인식기술 기술 활용 비대면 실명확인 서비스' 등 기존에 지정된 혁신금융서비스 14건에 대한 기간 연장과 지정 내용 변경도 이뤄졌습니다.이와 함께 아이콘루프의 '디지털 신원증명 플랫폼' 서비스에 대해선 전자적 방식의 금융거래 시 안전성이 확보된 새로운 확인 수단을 이용해 고객확인 절차를 밟을 수 있도록 해달라는 규제 개선 요청이 수용됐습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.12.21.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>알뜰폰 원가 더 깎고, 금융사도 참전…통신3사 내년이 두렵다</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004831216?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>['고물가'에 통신비 깎자…과기정통부, 알뜰폰 활성화 강조국민은행 이어 토스도 진출…1200만 가입자 초읽기]새해 알뜰폰 시장이 더 커진다. 한 푼이라도 아끼려 통신3사를 벗어나는 소비자가 늘어난 데다 정부도 고물가에 허리가 휘는 서민들을 위해 그나마 사정이 나은 통신3사에 망 임대료를 깎으라고 압박한다. 또 양질의 고객 데이터를 노리는 금융회사들이 넉넉한 자본을 바탕으로 차례로 알뜰폰 시장을 노크한다. '통신3사'의 굳건한 아성에 균열이 나는 모양새다.과학기술정보통신부가 이달 초 발표한 '국내 무선통신서비스 가입 현황'에 따르면, 지난 10월 알뜰폰(LTE) 가입자는 1125만명으로 작년 12월(894만명) 대비 231만명 늘어났다. 10개월 만에 증가율은 25.8%에 달한다. 이 같은 추세라면 내년 상반기 1200만명 돌파는 확실시된다.알뜰폰의 주력 기술방식은 LTE(4G)로 통신3사의 5G 대비 낡았다. SK텔레콤의 휴대폰 기준 5G 가입자 비중은 53%, KT는 57%, LG유플러스는 50%로 일제히 절반을 넘어섰다. 하지만 5G는 계속되는 품질 논란에 더해 특화된 콘텐츠도 없다는 지적에 시달린다. 반면 월 2만~3만원대의 LTE 요금제를 앞세운 알뜰폰은 '가성비'에서 월등하다. 5G에서 LTE로의 '다운그레이드'가 계속되는 이유다.전기·가스 요금마저 오르는 고물가 시대에 가계통신비라도 깎아 여론을 달래야 할 정부로서는 알뜰폰의 선전을 응원해야 할 처지다. 알뜰폰 사업자(MVNO)가 통신사(MNO)에 통신망을 빌리는 (도매대가)의 인하를 압박하는 이유다. 연간 합산 4조원의 영업이익을 내는 통신3사에게 양보를 요구하는 셈이다. 지난 19일 박윤규 과기정통부 2차관은 기자간담회에서 알뜰폰 업계의 도매대가 인하 요구에 관해 "SK텔레콤과 협상을 진행 중"이라며 조만간 결과를 발표할 계획이라고 밝혔다. SK텔레콤과의 줄다리기가 불가피하지만, 매년 협상에서 적어도 도매대가가 오르지 않았던 점을 고려하면 어떤 형태로든 '가격 인하' 가능성에 무게가 실린다.더욱이 박 차관은 '알뜰폰 도매제공 의무 일몰제'에 대해서도 "연장이 필요하고 또는 더 나아가서 일몰제 없이 영업할 수 있는 방법도 적극적으로 협조하겠다"고 말했다. 도매제공 의무 일몰제는 2010년 한시 조항으로 도입됐지만, 이후 3년마다 3차례 연장됐다. 알뜰폰 업계에선 아예 일몰 조항을 없애자고 주장하고, 국회에선 여야 의원(국민의힘 김영식, 더불어민주당 김영주)이 일몰 기한을 삭제하는 내용의 법안을 발의한 상태다. 하지만 MNO로서는 이미 정책 방향에 부응해 연거푸 도매대가 인하를 받아들이고 있는 상황인데, 일몰 조항마저 사라지면 가격 협상력이 더욱 취약해질 것을 우려한다. 윤상필 KTOA(한국통신사업자연합회) 대외협력실장은 지난달 29일 한 토론회에서 "알뜰폰 도매대가 산정 원칙 삭제는 사실상 정부 재량권을 더욱 강화하는 조치"라고 지적했다.금융회사의 잇따른 진출은 알뜰폰 시장을 더욱 키우는 변수다. 이미 KB국민은행의 '리브엠'이 요금 경쟁력을 앞세워 30만명에 달하고, 핀테크 유니콘 토스도 지난 7월 알뜰폰 기업 머천드코리아를 인수해 '토스모바일로' 개편한 데 이어 이르면 내년 1월 서비를 본격화 할 것으로 알려졌다. 알뜰폰의 잇단 약진에 통신사는 긴장한 표정이다. SK텔레콤은 지난 14일 온라인 전용 요금제인 '언택트 플랜'을 '다이렉트 플랜'으로 개편했다. 기존 약정 이용자가 온라인요금제에 가입해도 약정을 승계할 수 있고, 유무선 결합상품에 가입할 수 있도록 했다. 약정 위약금과 TV·인터넷 등의 결합상품 부재는 통신3사 대비 알뜰폰의 최대 약점인데, 이 점을 공략한 것으로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>“토스·카뱅보다 더주네”…5천만원까지 연 4% 파킹통장 등장</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005065622?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 연합뉴스]저축은행권에서 1인당 최고 5%(세전) 금리를 지급하는 파킹통장을 출시했다. 이는 금융권 최고 수준이다.파킹통장은 말 그대로 ‘잠깐 주차하듯’ 짧게 돈을 맡겨도 일반 통장보다 많은 이자를 받을 수 있는 상품이다. 수시입출금 통장을 의미하며 보통예금이라고도 부른다. 수시로 돈을 넣고 빼는데 부담이 없어 단기 자금을 운용하기 좋은 상품으로 여겨지고 있다.OK금융그룹의 계열사인 OK저축은행은 최고 연 5%(세전)까지 이자를 주는 ‘OK읏백만통장Ⅱ’를 출시했다고 26일 밝혔다.이 상품은 수시입출금 통장으로, 500만원까지 최고 연 5%(세전) 금리를 지급한다. 기본금리는 연 4.5%(세전)으로, 오픈뱅킹 등록 시 0.5%포인트 우대금리를 받을 수 있어 최고 연 5%(세전)까지 금리 혜택을 누릴 수 있다.또한, 500만원 초과 5000만원까지는 연 4%(세전, 오픈뱅킹 등록) 금리를 적용한다.OK읏백만통장 시리즈는 OK저축은행이 공식 유튜브 채널인 ‘읏맨’ 구독자수 100만명 돌파를 기념해 내놓은 상품이다.OK읏백만통장Ⅱ은 예금자보호 한도인 예탁금 5000만원 이하 구간에서는 시중은행과 인터넷전문은행 파킹통장 중 가장 금리가 높다.시중은행이 판매하고 있는 파킹통장 금리는 상당수가 연 1~2%대 수준이다.시중은행 대비 금리가 높은 인터넷전문은행인 토스뱅크의 경우 파킹통장 가입 시 5000만원 이하까지 연 2.3%(세전) 금리를 지급하고 5000만원 초과 부분에는 연 4%(세전)의 금리를 적용한다.카카오뱅크는 파킹통장에 최대 1억원까지 연 2.6%(세전) 금리를 지급한다.케이뱅크는 최대 3억원까지 연 3%(세전) 금리를 주는 파킹통장을 운영하고 있다.때문에 5000만원 이하 단기 자금을 운영한다면 OK읏백만통장Ⅱ에 맡기는 것이 좀 더 많은 이자를 기대할 수 있다.이 상품은 법인을 제외한 개인은 누구나 OK저축은행 모바일 앱을 통해 24시간 비대면으로 가입할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.12.23.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>명암 교차한 핀테크 증권사…토스 웃고 카카오 울었다</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000864563?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>토스證, 1년 9개월 만에 첫 흑자 전환  해외주식 수수료 급증에 수익성 개선  카카오, 쌓이는 적자에 자본 추가 감소        국내 양대 핀테크 증권사인 토스증권과 카카오페이증권의 실적 희비가 엇갈리면서, 내년에도 같은 흐름이 이어질지 관심이 쏠린다. 올해로 출범 2년 차에 접어든 토스증권이 흑자 전환에 성공한 가운데 내년 2월 출범 4년 차가 되는 카카오페이증권은 아직 적자에서 벗어나지 못했다.토스증권(위), 카카오페이증권(아래) 로고. /각사 제공        23일 금융투자업계에 따르면 올해 3분기 토스증권은 영업이익 22억원, 당기순이익 21억원을 각각 기록했다. 이로써 토스증권은 지난해 3월 출범 이후 1년 9개월 만에 첫 분기 기준 흑자를 기록했다. 매출액은 전년동기대비 1950%, 전분기 대비 40% 증가한 493억원으로 집계됐다.해외주식 관련 수수료 수익 증가가 예상보다 빠른 수익성 개선으로 이어졌다는 평가다. 올해 토스증권 전체 수탁 수수료 321억원 중 해외주식 관련 수수료(267억원)가 차지하는 비중은 83% 수준이다. 해외주식은 국내주식보다 수수료가 비싼 만큼 매출 비중도 높은 편이다.토스증권 해외주식 거래대금은 올해 1분기 6조2000억원에서 2분기 10조6000억원, 3분기 13조5000억원으로 지속적으로 증가하는 추세다. 해외주식 서비스 첫 출시 당시 500개 종목 거래만 가능했지만, 현재는 그 규모가 약 3500개 종목과 상장지수펀드(ETF)로 늘어났다.환율과 금리 변수도 실적에는 긍정적인 영향을 미쳤다. 달러화에 대한 원화 환율(원·달러 환율)이 오르면서 트레이딩과 상품 손익이 증가했고, 이자손익도 신용공여 잔고가 정체된 상황이지만, 금리 상승에 힘입어 증가한 것으로 나타났다 .연초 1200원을 밑돌았던 원·달러 환율은 지난 10월 한때 1440원대까지 치솟았다.이런 상황은 토스증권보다 먼저 출범한 카카오페이증권과 대조적이다. 같은 기간 카카오페이증권은 119억원의 영업손실을 기록했고, 연간 누적 적자는 360억원 규모가 됐다. 토스증권과 마찬가지로 해외주식 수수료 수익이 늘었지만, 기업금융(IB) 부문 등이 부진한 탓에 전체 수수료 수익은 감소했다. 환율 상승에도 트레이딩과 상품 손익에 유의미한 변화가 없었다.토스증권과 카카오페이증권은 비슷한 시기에 출범해 표면적으로는 경쟁 구도에 있지만, 차별화된 사업 방향이 실적에 일부 영향을 미쳤다는 의미이기도 하다. 토스증권은 중장기적으로도 리테일(주식 위탁매매)에 집중한다는 계획인 반면, 카카오페이증권은 리테일 외에도 법인 대상 홀세일(기관 대상 영업), IB 부문을 키우겠다는 의지를 보이고 있다.한편, 토스증권과 카카오페이증권은 출범 이후 앞다퉈 유상증자를 하고 있다. 연초 이후 토스증권은 모두 4차례에 걸쳐 890억원 규모 증자를 실시했다. 카카오페이증권은 지난 9월 출범 이후 역대 최대 규모인 1500억원대 증자에 나섰다. 올해 3분기 기준 토스증권과 카카오페이증권 자기자본은 각각 1417억원, 1559억원이다.증권가에서는 카카오페이증권의 자본이 계속 감소하고 있는 만큼 안정적인 이자 이익을 얻기 위해서는 흑자 전환이 시급하다고 평가했다. 신용공여 서비스를 출시하면서 이자이익이 늘었지만, 판매관리비 등 다른 부문의 비용 증가로 적자가 계속 누적되고 있고 이는 자본 감소로 이어졌다. 카카오페이증권 자본 규모는 지난해 4분기 이후 올해 3분기까지 꾸준히 감소했다.정태준 유안타증권 연구원은 “최근 증자를 단행하긴 했지만, 이전처럼 실권이 발생해 실제 자본 증가 효과는 1000억원에 그칠 전망”이라며 “모회사(카카오페이)에서 무한히 자금을 투하할 계획이 아니라면 자체적인 존속을 위해 빠른 흑자 전환이 필요하다”고 했다. 지난 9월 증자에서 카카오페이가 카카오페이증권에 1000억원을 출자했다.한편, 내년 증권업계 브로커리지 부문 수익은 팬데믹 이전 수준으로 회귀할 것이라는 관측이 나온다. 국내 주식 거래대금은 일평균 13조원으로 올해 하반기 수준으로 유지되는 가운데 토스증권, 카카오페이증권 경쟁이 본격화하면서 수수료율 하락 추세 역시 계속될 것으로 예상됐다. 해외주식은 고환율로 신규 자금 유입이 제한적일 수 있다는 전망이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>외부채널 막고 심사는 깐깐하게… 햇살론 축소 나선 2금융권</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004947324?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>대출총량규제·건전성 관리 차원연말 다가올수록 안받는 분위기오픈 플랫폼에선 '점검' 이유로자사 앱 통해서만 공급 속도조절금융당국은 정책금융 보완 검토  저축은행을 비롯한 제2금융권이 일반 대출 상품은 물론 햇살론 등 정책금융상품 취급을 대폭 축소하고 나섰다. 연말을 맞아 대출 총량 규제·건전성 관리에 나섰기 때문인 것으로 풀이된다.   26일 금융업계에 따르면 최근 2금융권은 대출 비교 플랫폼 등 외부 채널을 통한 햇살론·일반대출 신청을 받지 않고 있다. 대출 비교 서비스를 제공하는 토스에 입점한 금융사 52곳 가운데 22곳(23일 기준)이 연말까지 '점검'을 이유로 대출 조회 결과를 제공하지 않고 있는 것.   각 사별로 보면 SBI저축은행은 연말까지 신용대출, 웰컴저축은행은 웰컴중금리대출, 신한저축은행은 햇살론 상품 신청을 연말까지 받지 않는다. 대부분 자사 앱 등을 통한 대출 신청만 받고 대출 심사는 더욱 까다롭게 하는 방식으로 취급하는 대출을 대폭 줄인 것이다.   플랫폼을 통한 대출 접수를 중단한 한 저축은행 관계자는 "연말까지는 건전성 관리를 최우선으로 하고 있어 업계 전반적으로 영업을 하말지 않고 대출 속도조절·관리에 집중하는 분위기"라고 말했다.   2금융권이 연말까지 대출 총량 규제 가이드라인을 맞춰야 하는 문제도 일시적으로 대출 공급을 더욱 어렵게 만들고 있다. 저축은행들이 금융당국으로부터 받은 올해 가계대출 총량 증가율 가이드라인은 각 사별로 10.8∼14.8%였다. 은행권 가계대출은 올해 감소세를 보였다. 하지만 중저신용자들이 주요 차주인 저축은행의 경우 생활비 등 실수요 목적의 대출 수요가 지속돼 연말에는 한도가 소진된 것으로 보인다.   기준금리 상승으로 조달금리가 급등하자 저축은행들의 햇살론 취급도 위축되는 추세다.   저축은행중앙회에 따르면 햇살론 조달금리는 11월 3.77%에서 12월에는 5.22%까지 올랐다. 조달금리는 지속해서 상승하는데 저축은행이 취급하는 햇살론 금리의 상단은 10.5%로 제한돼 있어 업계는 "역마진이 우려돼 상품을 취급하기 어렵다"는 입장이다.   금융위원회는 서민금융진흥원 등 관계기관과 함께 정책상품 보완 방안을 논의하고 있다. 내년도에 100만원 한도 내에서 긴급 생계비를 대출해주는 긴급 생계비 대출을 도입하고 햇살론 등 정책금융상품의 금리 조정 방안, 한도 확대 방안 등을 검토 중이다.   금융위 관계자는 "서민금융진흥원을 통해 공급되는 상품 중 수요가 많은 상품의 공급을 늘리고 한도를 확대해나가는 등 대책을 준비하고 있다"고 설명했다. 이에 더해 내년에는 기존 총량 중심의 가계 부채 관리 기조에도 변화가 있을 것으로 보인다.   이복현 금융감독원장은 지난 22일 기자들과 만나 "가계 부채가 총량으로는 감소 추세인 건 명백히 보인다"면서 "그런 의미에서 과거와 같은 방식의 총량 중심 가계부채 관리 필요성에 대해 조금 달리 볼 여지가 있다는 상황에서 내년 살림을 준비하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.12.19.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[DD 퇴근길] 개방하니 성공한 콘텐츠 산업은 뭐?</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002139122?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>디지털데일리가 퇴근 즈음해서 읽을 수 있는 [DD퇴근길] 코너를 마련했습니다. 혹시 오늘 디지털데일리 기사를 놓치지는 않으셨나요? 퇴근 앞두고 저희가 요약 정리한 주요 기사를 가벼운 마음으로 읽어주시기 바랍니다. 전체 기사는 ‘디지털데일리 기사 하단의 관련뉴스(아웃링크)’에서 확인할 수 있습니다.   이달 열린 ‘2022 대한민국 콘텐츠 대상’ 시상식에서 네이버웹툰 작품들이 만화 부문 5개 중 3개를 수상했습니다. 특히 대상에 해당하는 대통령상은 2016년부터 올해까지 네이버웹툰 작품이 연속 수상하는 기록을 달성했는데요.네이버웹툰 작품들이 쟁쟁한 국내외 만화 시상식에서 잇따라 수상할 수 있었던 비결로는 네이버웹툰이 ‘도전만화’를 기반으로 오랜 시간 구축해 온 ‘열린 창작 생태계’가 꼽히고 있습니다. 올해 대한민국 콘텐츠 대상 만화 부문을 수상한 ‘미래의 골동품 가게’ 구아진 작가와 문화체육관광부 장관상을 받은 &lt;집이 없어&gt; 와난 작가도 도전만화 출신이고 ▲이동건(유미의 세포들) ▲SIU(신의탑) ▲꼬마비(살인자o난감) ▲이윤창(좀비가 되어버린 나의 딸) ▲야옹이(여신강림) 작가 등 과거 대한민국 콘텐츠 대상 만화 부문에서 수상한 다수 작가가 도전 만화를 통해 데뷔했을 정도로 이미 수많은 스타 작가를 배출한 바 있습니다. 네이버웹툰이 구축한 글로벌 스토리테크 플랫폼에서 활동하는 웹툰·웹소설 창작자 수는 600만명으로 월간 1억8000만명(MAU)이 그들이 올린 작품을 감상하고 있습니다. 이 중 80% 이상이 해외 이용자로 이미 네이버웹툰은 글로벌 플랫폼이 됐습니다.머스크, “트위터 대표 물러날까?”…논란 돌파 진퇴 설문 ‘승부수’일론 머스크 트위터 최고경영자(CEO)가 인수 2개월 만에 트위터 CEO 퇴진 의사를 내비쳤습니다. 18일(현지시각) 머스크는 트위터에 자신의 트위터 대표 퇴진을 묻는 설문을 올렸는데요 . 그는 “이번 설문 결과에 따르겠다(Should I step down as head of Twitter? I will abide by the results of this poll)”며 여론의 추이를 살피는 글을 올렸습니다. 19일 오전 11시 기준(한국시각) 686만3042명이 투표해 찬성 의견이 57.3%로 앞선 상태입니다. 이번 설문은 머스크의 퇴로 마련을 위한 것으로 풀이됩니다. CEO 자리를 다른 이에게 넘기거나 트위터를 매각할 명분을 쌓고 있다는 평가도 나오네요. 한편 트위터는 그가 지난 10월 인수한 후 논란이 계속돼 왔습니다. 본의 아니게 그가 창업한 테슬라까지 악영향을 미치고 있는 상황입니다. 정보보호 우수 투자 기업은? 삼성전자·KT·우리은행·쿠팡업종별 정보보호 투자 현황이 공개됐습니다. 제조업에서는 삼성전자, 정보통신업에서는 KT, 금융업권에서는 우리은행, 도·소매업권에서는 쿠팡 등이 특히 많은 투자를 한 것으로 나타났는데요. 이중 삼성전자는 주요 기업들의 투자액 합을 훌쩍 뛰어넘는 규모인 6939억원을 투자한 것으로 확인됐습니다. KT가 1021억원으로 삼성전자에 이어 2위 규모입니다.쿠팡은 535억원을 정보보호에 투자했습니다. 이커머스 분야에서 단연 1등입니다. 금융업권에서는 우리은행이 406억원을 투자하며 1위를 차지했습니다. 애플리케이션(앱) ‘토스’를 서비스하는 비바리퍼블리카는 90억원을 투자했는데, 정보기술(IT) 투자액 대비 정보보호 투자 비율은 17.3%로 높았습니다. 건설업과 보건업의 경우 IT 및 정보보호 투자액이 상대적으로 저조합니다.한편 데이터센터 화재로 먹통 사고를 겪은 카카오는 네이버 대비 IT 투자액이 낮았습니다. 공시에 참여한 카카오 계열 6개사의 2021년 매출 합은 4조9308억원으로, 매출 대비 IT 투자액 비율은 11.4%입니다. 네이버 계열 3개사는 매출 합 6조2342억원으로 IT 투자액 비율은 24.6%입니다. 동일 매출액 기준 네이버가 카카오 대비 2배 많이 투자했습니다.D-1 ‘확률형 아이템’ 법제화, 법안소위 문턱 넘을까게임 속 확률형 아이템 확률 정보 등을 의무적으로 공개해야 하는 내용이 골자인 ‘게임산업진흥에 관한 일부개정법률안(게임법)’ 6건에 대한 심사가 오는 20일 시작됩니다. 19일 정치권 및 게임업계에 따르면 국회 문화예술법안심사소위원회(위원장 이용호, 이하 법안소위)는 오는 20일 오후 2시부터 게임법 11건을 포함한 ▲공연 ▲만화 ▲신문 ▲콘텐츠 산업 등 관련 일부개정법률안 23건을 심사할 계획입니다. 이중 확률형 아이템 규제 관련 법안은 총 6건으로 이상헌, 유정주, 전용기, 유동수 의원(더불어민주당)과 하태경 의원(국민의힘)이 각각 발의했는데요. 확률형 아이템은 이용자가 원할 때까지 끝없이 구매할 수 있기에 과소비를 유발하고 사행성을 야기한다는 문제점이 있습니다. 한국게임정책자율기구(GSOK) 자율규제평가위원회는 법제화를 반대하는 목소리를 내기도 했는데요. 확률형 아이템이 과연 법안소위 문턱을 넘고 법적 규제를 받게 될 수 있을지 관심이 모입니다."TSMC 없지만"…韓 반도체, '칩4 왕따' 아닌 '소부장 허브'중국을 배제하기 위한 미국 주도 ‘칩4 동맹’이 형성되는 가운데 4개국 중 한국이 소외되는 것 아니냐는 우려의 목소리가 나옵니다. 대만 TSMC가 미국과 일본에 공장을 짓는 동시에 애플, 소니 등 현지 고객사와 협력을 강화했기 때문이죠. 하지만 상대적으로 칩4 합류에 소극적이던 우리나라가 최근 명확한 입장을 낸데다 글로벌 소재·부품·장비(소부장) 기업이 연이어 국내 투자를 결정하면서 외톨이 신세가 아님을 입증해내고 있습니다.그 일례로 지난 13일 일본 후지필름은 경기 평택에 이미지센서용 컬러필터 재료 공장을 착공했죠. 지난달 룩셈부르크 로타렉스는 약 250억원을 들여 충남 아산 공장을 준공했습니다. 같은 달 독일 자이스는 우리나라에 반도체·전자현미경 연구개발(R&amp;D) 센터를 짓기로 했는데요. 미국 램리서치, 듀폰, 인테그리스, 독일 머크 등도 국내에 R&amp;D센터를 구축하고 확장하는 중입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.12.26.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>중소벤처24-토스 정보연계··· 중기부 “민간 플랫폼과 협력 강화”</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002139583?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 중소벤처기업부(이하 중기부)가 중소벤처·소상공인 지원사업의 접근성을 높이기 위해 ‘중소벤처24’와 ‘토스’ 간 정보연계를 추진한다고 26일 밝혔다.   중소벤처24는 창업, 벤처, 기술, 금융, 수출, 경영, 인력, 판로, 소상공인 등 지원 유형별 지원사업 정보를 제공하는 서비스다. 2020년 8월부터 현재까지 약 16만명의 누적 방문자가 서비스를 이용했다.    중기부는 그간 중소벤처·소상공인 지원사업 정보들이 정부 및 공공 사이트에서만 제공돼 정보접근의 한계가 있었다며 이번 정보연계 추진 배경을 전했다. 토스 애플리케이션(앱) 사용자도 쉽게 지원사업 정보를 확인해 대민 접근성이 높아지리라는 기대다. 연계되는 정보는 지원대상, 지원내용, 신청기간, 신청방법, 문의처 등이다.   토스는 2021년 7월부터 숨은 정부지원금 찾기 서비스를 진행해왔다. 이번 중소벤처24와 연계로 토스 앱 이용자들의 서비스 향상으로 이어질 것으로 전망된다. 토스 앱의 숨은 정부지원금 찾기에서 수혜자 조건을 사업자로 선택하면 중소벤처·소상공인을 위한 지원사업을 조회할 수 있다.    이영 장관은 “앞으로도 중소벤처·소상공인들이 쉽고 편리하게 지원사업 정보를 확인 가능할 수 있도록 민간 플랫폼과 정보연계를 확대해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.12.28.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>저축은행 이어 캐피탈도 대출 축소…돈줄 꽁꽁 언 서민들</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005066961?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>캐피탈 업계 1위 업체인 현대캐피탈이 토스를 비롯한 외부 플랫폼을 통한 신규대출을 중단했다. 최근 기준금리 인상으로 자금조달 환경이 어려워지면서 비교적 연체율이 높은 대출상품을 축소한 것이다. 저축은행에 이어 캐피탈 업체도 대출 상품을 줄이면서 저신용자들의 ‘대출절벽’현상이 심화될 것으로 보인다.28일 현대캐피탈은 토스, 카카오뱅크, 카카오페이, 핀다 등 플랫폼에서 신규대출 영업을 당분간 중단하기로 했다. 다만 현대캐피탈 웹이나 애플리케이션처럼 자체 채널을 통한 신규대출은 가능하다. 현대캐피탈은 “조달 환경 악화 등으로 신규대출을 보수적으로 운영하게 되면서 다소 회수율이 떨어지는 대출 상품을 줄이게 됐다”고 설명했다.현대캐피탈과 같은 여신전문금융사들은 올해들어 미국 기준금리 급격 인상여파로 주요 자금 조달 창구인 여전채 금리가 크게 올라 자금 조달 부담이 커졌다. 금융투자협회에 따르면 현대캐피탈이 발행하는 여전채(AA)의 3년물 금리는 지난 27일 기준 5.651%로 올해초(2.441%) 대비 2.3배 이상 올랐다. 여기에 더해 최근 레고랜드 사태 등으로 채권시장이 얼어붙으면서 자금조달이 쉽지 않은 상황이다.서민 돈줄인 제2금융권 시장 전체가 얼어붙는 모양새다. 앞서 저축은행 업계 1위 SBI저축은행은 이달 신용대출, 웰컴저축은행은 중금리대출, 신한저축은행은 햇살론 신청을 중단하는 등 저축은행이 가장 먼저 대출문을 닫았다.지난 26일부터는 아프로파이낸셜대부(러시앤캐시) 역시 신규대출 취급을 중단했다. 업계 2위인 리드코프는 신규대출을 기존의 20% 수준으로 내주고 있다. 상당수 중소 대부업체도 일찌감치 ‘개점휴업’에 들어갔다.카드사들도 카드론 금리를 올리며 대출문턱을 높이고 있다. 여신금융협회에 따르면 지난달 30일 기준 신한·삼성·KB국민·현대·롯데·우리·하나카드 등 7개 전업카드사의 카드론 평균금리는 연 14.84%로 집계됐다. 카드론 평균 금리가 14%를 넘은 것은 올해 들어 처음이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
